--- a/MISSION_DATA/A13_photos.xlsx
+++ b/MISSION_DATA/A13_photos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo_13\MISSION_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{583CE31F-E5A8-4021-9A3E-47C56C7B1272}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31EC0AA-7748-4441-894C-D74B8C1489A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="5160" windowWidth="30375" windowHeight="24345" xr2:uid="{E7285D04-3DFB-428F-BD58-901528569A82}"/>
+    <workbookView xWindow="15825" yWindow="6105" windowWidth="38055" windowHeight="24345" xr2:uid="{E7285D04-3DFB-428F-BD58-901528569A82}"/>
   </bookViews>
   <sheets>
     <sheet name="A13_photos" sheetId="15" r:id="rId1"/>
@@ -291,24 +291,6 @@
     <t>091:41:55</t>
   </si>
   <si>
-    <t>081:43:45</t>
-  </si>
-  <si>
-    <t>081:55:40</t>
-  </si>
-  <si>
-    <t>081:44:05</t>
-  </si>
-  <si>
-    <t>081:56:00</t>
-  </si>
-  <si>
-    <t>081:56:20</t>
-  </si>
-  <si>
-    <t>081:56:40</t>
-  </si>
-  <si>
     <t>094:45:00</t>
   </si>
   <si>
@@ -330,33 +312,6 @@
     <t>083:30:35</t>
   </si>
   <si>
-    <t>083:18:40</t>
-  </si>
-  <si>
-    <t>083:19:00</t>
-  </si>
-  <si>
-    <t>083:19:20</t>
-  </si>
-  <si>
-    <t>083:19:40</t>
-  </si>
-  <si>
-    <t>083:20:00</t>
-  </si>
-  <si>
-    <t>083:20:20</t>
-  </si>
-  <si>
-    <t>083:20:40</t>
-  </si>
-  <si>
-    <t>083:21:00</t>
-  </si>
-  <si>
-    <t>083:21:20</t>
-  </si>
-  <si>
     <t>083:38:10</t>
   </si>
   <si>
@@ -891,94 +846,7 @@
     <t>Giordano Bruno. Mare Crisium and Mare Humoldtianum, Joliot</t>
   </si>
   <si>
-    <t>079:48:00</t>
-  </si>
-  <si>
-    <t>079:48:15</t>
-  </si>
-  <si>
-    <t>079:48:30</t>
-  </si>
-  <si>
-    <t>079:48:45</t>
-  </si>
-  <si>
-    <t>079:49:00</t>
-  </si>
-  <si>
-    <t>079:49:15</t>
-  </si>
-  <si>
-    <t>079:49:30</t>
-  </si>
-  <si>
-    <t>079:49:40</t>
-  </si>
-  <si>
-    <t>080:37:30</t>
-  </si>
-  <si>
     <t>080:37:40</t>
-  </si>
-  <si>
-    <t>080:37:50</t>
-  </si>
-  <si>
-    <t>080:38:05</t>
-  </si>
-  <si>
-    <t>080:38:20</t>
-  </si>
-  <si>
-    <t>080:49:15</t>
-  </si>
-  <si>
-    <t>080:49:25</t>
-  </si>
-  <si>
-    <t>080:49:38</t>
-  </si>
-  <si>
-    <t>080:49:52</t>
-  </si>
-  <si>
-    <t>080:50:05</t>
-  </si>
-  <si>
-    <t>080:50:20</t>
-  </si>
-  <si>
-    <t>080:50:33</t>
-  </si>
-  <si>
-    <t>080:50:44</t>
-  </si>
-  <si>
-    <t>080:50:57</t>
-  </si>
-  <si>
-    <t>080:51:10</t>
-  </si>
-  <si>
-    <t>080:51:30</t>
-  </si>
-  <si>
-    <t>080:51:47</t>
-  </si>
-  <si>
-    <t>080:52:01</t>
-  </si>
-  <si>
-    <t>080:52:16</t>
-  </si>
-  <si>
-    <t>080:52:33</t>
-  </si>
-  <si>
-    <t>081:12:05</t>
-  </si>
-  <si>
-    <t>081:12:15</t>
   </si>
   <si>
     <t>077:11:25</t>
@@ -3732,9 +3600,6 @@
     <t>068:00:10</t>
   </si>
   <si>
-    <t>076:05:10</t>
-  </si>
-  <si>
     <t>077:57:10</t>
   </si>
   <si>
@@ -3781,6 +3646,141 @@
   </si>
   <si>
     <t>094:19:05</t>
+  </si>
+  <si>
+    <t>077:48:00</t>
+  </si>
+  <si>
+    <t>077:48:15</t>
+  </si>
+  <si>
+    <t>077:48:30</t>
+  </si>
+  <si>
+    <t>077:48:45</t>
+  </si>
+  <si>
+    <t>077:49:00</t>
+  </si>
+  <si>
+    <t>077:49:15</t>
+  </si>
+  <si>
+    <t>077:49:40</t>
+  </si>
+  <si>
+    <t>078:37:30</t>
+  </si>
+  <si>
+    <t>078:37:40</t>
+  </si>
+  <si>
+    <t>078:37:50</t>
+  </si>
+  <si>
+    <t>078:38:05</t>
+  </si>
+  <si>
+    <t>078:38:20</t>
+  </si>
+  <si>
+    <t>078:49:15</t>
+  </si>
+  <si>
+    <t>078:49:25</t>
+  </si>
+  <si>
+    <t>078:49:38</t>
+  </si>
+  <si>
+    <t>078:49:52</t>
+  </si>
+  <si>
+    <t>078:50:05</t>
+  </si>
+  <si>
+    <t>078:50:20</t>
+  </si>
+  <si>
+    <t>078:50:33</t>
+  </si>
+  <si>
+    <t>078:50:44</t>
+  </si>
+  <si>
+    <t>078:50:57</t>
+  </si>
+  <si>
+    <t>078:51:10</t>
+  </si>
+  <si>
+    <t>078:51:30</t>
+  </si>
+  <si>
+    <t>078:51:47</t>
+  </si>
+  <si>
+    <t>078:52:01</t>
+  </si>
+  <si>
+    <t>078:52:16</t>
+  </si>
+  <si>
+    <t>078:52:33</t>
+  </si>
+  <si>
+    <t>079:12:05</t>
+  </si>
+  <si>
+    <t>079:12:15</t>
+  </si>
+  <si>
+    <t>079:43:45</t>
+  </si>
+  <si>
+    <t>079:44:05</t>
+  </si>
+  <si>
+    <t>079:55:40</t>
+  </si>
+  <si>
+    <t>079:56:00</t>
+  </si>
+  <si>
+    <t>079:56:20</t>
+  </si>
+  <si>
+    <t>079:56:40</t>
+  </si>
+  <si>
+    <t>081:18:40</t>
+  </si>
+  <si>
+    <t>081:19:00</t>
+  </si>
+  <si>
+    <t>081:19:20</t>
+  </si>
+  <si>
+    <t>081:19:40</t>
+  </si>
+  <si>
+    <t>081:20:00</t>
+  </si>
+  <si>
+    <t>081:20:20</t>
+  </si>
+  <si>
+    <t>081:20:40</t>
+  </si>
+  <si>
+    <t>081:21:00</t>
+  </si>
+  <si>
+    <t>081:21:20</t>
+  </si>
+  <si>
+    <t>076:05:00</t>
   </si>
 </sst>
 </file>
@@ -3904,7 +3904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4000,6 +4000,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4318,8 +4321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA25AE87-EBB6-4592-B83F-0D7E34AA70ED}">
   <dimension ref="A1:H589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
-      <selection activeCell="A568" sqref="A568"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4334,10 +4337,10 @@
   <sheetData>
     <row r="1" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>1132</v>
+        <v>1088</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>1145</v>
+        <v>1101</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="2"/>
@@ -4345,84 +4348,84 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>1174</v>
+        <v>1130</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1146</v>
+        <v>1102</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>1136</v>
+        <v>1092</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="33" t="s">
-        <v>1175</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>1209</v>
+        <v>1165</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1208</v>
+        <v>1164</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1207</v>
+        <v>1163</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>1206</v>
+        <v>1162</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1204</v>
+        <v>1160</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1203</v>
+        <v>1159</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="16" t="s">
-        <v>1205</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>1178</v>
+        <v>1134</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1147</v>
+        <v>1103</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1137</v>
+        <v>1093</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="16" t="s">
-        <v>1175</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>1132</v>
+        <v>1088</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1210</v>
+        <v>1166</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
       <c r="E6" s="16" t="s">
-        <v>1211</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="16" t="s">
-        <v>1144</v>
+        <v>1100</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
       <c r="E7" s="16" t="s">
-        <v>1179</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4430,7 +4433,7 @@
         <v>5.755856481481481</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>1053</v>
+        <v>1009</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="2"/>
@@ -4443,7 +4446,7 @@
         <v>5.7558912037037038</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>1055</v>
+        <v>1011</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="2"/>
@@ -4456,7 +4459,7 @@
         <v>5.7560416666666674</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1056</v>
+        <v>1012</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="2"/>
@@ -4469,7 +4472,7 @@
         <v>5.7560879629629627</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>1057</v>
+        <v>1013</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="2"/>
@@ -4482,7 +4485,7 @@
         <v>5.756145833333334</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>1058</v>
+        <v>1014</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="2"/>
@@ -4495,7 +4498,7 @@
         <v>5.7562037037037035</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>1059</v>
+        <v>1015</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
@@ -4508,7 +4511,7 @@
         <v>5.7562500000000005</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>1060</v>
+        <v>1016</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
@@ -4521,7 +4524,7 @@
         <v>5.7562847222222224</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>1061</v>
+        <v>1017</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
@@ -4534,7 +4537,7 @@
         <v>5.7563425925925928</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>1063</v>
+        <v>1019</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
@@ -4547,7 +4550,7 @@
         <v>5.7564004629629624</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>1065</v>
+        <v>1021</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
@@ -4560,7 +4563,7 @@
         <v>5.7564583333333337</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>1067</v>
+        <v>1023</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="2"/>
@@ -4573,7 +4576,7 @@
         <v>5.7565162037037041</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>1069</v>
+        <v>1025</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
@@ -4586,7 +4589,7 @@
         <v>5.7565856481481488</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>1071</v>
+        <v>1027</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
@@ -4599,7 +4602,7 @@
         <v>5.7566550925925926</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>1073</v>
+        <v>1029</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
@@ -4612,7 +4615,7 @@
         <v>5.7567129629629621</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>1075</v>
+        <v>1031</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
@@ -4625,7 +4628,7 @@
         <v>5.7567708333333334</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>1077</v>
+        <v>1033</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
@@ -4638,7 +4641,7 @@
         <v>5.7568287037037038</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>1079</v>
+        <v>1035</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
@@ -4651,7 +4654,7 @@
         <v>5.7568981481481485</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1081</v>
+        <v>1037</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
@@ -4664,7 +4667,7 @@
         <v>5.7569560185185189</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>1083</v>
+        <v>1039</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
@@ -4677,7 +4680,7 @@
         <v>5.7570023148148151</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>1084</v>
+        <v>1040</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="2"/>
@@ -4690,7 +4693,7 @@
         <v>5.7570717592592588</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>1086</v>
+        <v>1042</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="2"/>
@@ -4703,7 +4706,7 @@
         <v>5.7571759259259254</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>1088</v>
+        <v>1044</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="2"/>
@@ -4716,7 +4719,7 @@
         <v>5.7572106481481482</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>1090</v>
+        <v>1046</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="2"/>
@@ -4729,7 +4732,7 @@
         <v>5.7572569444444452</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>1092</v>
+        <v>1048</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="2"/>
@@ -4742,7 +4745,7 @@
         <v>5.7573032407407405</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>1093</v>
+        <v>1049</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="2"/>
@@ -4755,7 +4758,7 @@
         <v>5.7555671296296298</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>1049</v>
+        <v>1005</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="2"/>
@@ -4768,7 +4771,7 @@
         <v>5.755613425925926</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>1050</v>
+        <v>1006</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="2"/>
@@ -4781,7 +4784,7 @@
         <v>5.7557638888888887</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>1051</v>
+        <v>1007</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="2"/>
@@ -4794,7 +4797,7 @@
         <v>5.7558101851851857</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>1052</v>
+        <v>1008</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="2"/>
@@ -4807,7 +4810,7 @@
         <v>5.7558680555555561</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>1054</v>
+        <v>1010</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="2"/>
@@ -4820,7 +4823,7 @@
         <v>5.7563078703703709</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>1062</v>
+        <v>1018</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="2"/>
@@ -4833,7 +4836,7 @@
         <v>5.7563541666666671</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>1064</v>
+        <v>1020</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="2"/>
@@ -4846,7 +4849,7 @@
         <v>5.7564236111111109</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>1066</v>
+        <v>1022</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="2"/>
@@ -4859,7 +4862,7 @@
         <v>5.7564930555555556</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>1068</v>
+        <v>1024</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="2"/>
@@ -4872,7 +4875,7 @@
         <v>5.756550925925926</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>1070</v>
+        <v>1026</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="2"/>
@@ -4885,7 +4888,7 @@
         <v>5.7566203703703707</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>1072</v>
+        <v>1028</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="2"/>
@@ -4898,7 +4901,7 @@
         <v>5.7567013888888887</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>1074</v>
+        <v>1030</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="2"/>
@@ -4911,7 +4914,7 @@
         <v>5.7567592592592591</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>1076</v>
+        <v>1032</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="2"/>
@@ -4924,7 +4927,7 @@
         <v>5.7568171296296304</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>1078</v>
+        <v>1034</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="2"/>
@@ -4937,7 +4940,7 @@
         <v>5.756875</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>1080</v>
+        <v>1036</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="2"/>
@@ -4950,7 +4953,7 @@
         <v>5.7569328703703704</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>1082</v>
+        <v>1038</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="2"/>
@@ -4963,7 +4966,7 @@
         <v>5.7570601851851855</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>1085</v>
+        <v>1041</v>
       </c>
       <c r="C49" s="16"/>
       <c r="D49" s="2"/>
@@ -4976,7 +4979,7 @@
         <v>5.757118055555555</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>1087</v>
+        <v>1043</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="2"/>
@@ -4990,7 +4993,7 @@
         <v>5.7571875000000006</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>1089</v>
+        <v>1045</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="2"/>
@@ -5004,7 +5007,7 @@
         <v>5.7572569444444452</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>1091</v>
+        <v>1047</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="2"/>
@@ -5018,7 +5021,7 @@
         <v>5.7573842592592586</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>1094</v>
+        <v>1050</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="2"/>
@@ -5032,7 +5035,7 @@
         <v>5.7574652777777784</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>1095</v>
+        <v>1051</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="2"/>
@@ -5045,7 +5048,7 @@
         <v>5.757569444444445</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>1096</v>
+        <v>1052</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="2"/>
@@ -5058,12 +5061,12 @@
         <v>5.8953009259259259</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="2"/>
       <c r="E56" s="5" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -5071,12 +5074,12 @@
         <v>5.8953587962962963</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>1104</v>
+        <v>1060</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="2"/>
       <c r="E57" s="5" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -5084,12 +5087,12 @@
         <v>5.8954166666666667</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>1105</v>
+        <v>1061</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="2"/>
       <c r="E58" s="5" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -5097,12 +5100,12 @@
         <v>5.8954745370370363</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>1106</v>
+        <v>1062</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="2"/>
       <c r="E59" s="5" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -5110,12 +5113,12 @@
         <v>5.8955324074074076</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>1107</v>
+        <v>1063</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="2"/>
       <c r="E60" s="5" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5123,12 +5126,12 @@
         <v>5.8956018518518514</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>1108</v>
+        <v>1064</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="2"/>
       <c r="E61" s="5" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -5136,12 +5139,12 @@
         <v>5.8956481481481484</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>1109</v>
+        <v>1065</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="2"/>
       <c r="E62" s="5" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -5149,12 +5152,12 @@
         <v>5.8957060185185179</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>1110</v>
+        <v>1066</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="2"/>
       <c r="E63" s="5" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -5162,12 +5165,12 @@
         <v>5.8957754629629626</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>1111</v>
+        <v>1067</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="2"/>
       <c r="E64" s="5" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -5175,12 +5178,12 @@
         <v>5.895833333333333</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>1112</v>
+        <v>1068</v>
       </c>
       <c r="C65" s="16"/>
       <c r="D65" s="2"/>
       <c r="E65" s="5" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -5188,12 +5191,12 @@
         <v>5.8958449074074073</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>1113</v>
+        <v>1069</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="2"/>
       <c r="E66" s="5" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -5201,12 +5204,12 @@
         <v>5.8958564814814816</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>1114</v>
+        <v>1070</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="2"/>
       <c r="E67" s="5" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5214,12 +5217,12 @@
         <v>5.8958796296296292</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>1115</v>
+        <v>1071</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="2"/>
       <c r="E68" s="5" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="F68" s="1"/>
     </row>
@@ -5228,12 +5231,12 @@
         <v>5.8958912037037043</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>1116</v>
+        <v>1072</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="2"/>
       <c r="E69" s="5" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="F69" s="1"/>
     </row>
@@ -5242,12 +5245,12 @@
         <v>5.8959027777777777</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>1117</v>
+        <v>1073</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="2"/>
       <c r="E70" s="5" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="F70" s="1"/>
     </row>
@@ -5256,12 +5259,12 @@
         <v>5.8959143518518511</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>1118</v>
+        <v>1074</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="2"/>
       <c r="E71" s="5" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="F71" s="1"/>
     </row>
@@ -5270,12 +5273,12 @@
         <v>5.8959374999999996</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>1119</v>
+        <v>1075</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="2"/>
       <c r="E72" s="5" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="F72" s="1"/>
     </row>
@@ -5284,12 +5287,12 @@
         <v>5.8959722222222224</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>1120</v>
+        <v>1076</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="2"/>
       <c r="E73" s="5" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="F73" s="1"/>
     </row>
@@ -5298,12 +5301,12 @@
         <v>5.8959953703703709</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>1121</v>
+        <v>1077</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="2"/>
       <c r="E74" s="5" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="F74" s="1"/>
     </row>
@@ -5312,12 +5315,12 @@
         <v>5.8960069444444443</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>1122</v>
+        <v>1078</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="2"/>
       <c r="E75" s="5" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="F75" s="1"/>
     </row>
@@ -5326,12 +5329,12 @@
         <v>5.8960185185185177</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>1123</v>
+        <v>1079</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="2"/>
       <c r="E76" s="5" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="F76" s="1"/>
     </row>
@@ -5340,12 +5343,12 @@
         <v>5.896076388888889</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>1124</v>
+        <v>1080</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="2"/>
       <c r="E77" s="5" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="F77" s="1"/>
     </row>
@@ -5354,12 +5357,12 @@
         <v>5.8960879629629632</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>1125</v>
+        <v>1081</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="2"/>
       <c r="E78" s="5" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="F78" s="1"/>
     </row>
@@ -5368,12 +5371,12 @@
         <v>5.8960995370370375</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>1126</v>
+        <v>1082</v>
       </c>
       <c r="C79" s="16"/>
       <c r="D79" s="2"/>
       <c r="E79" s="5" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="F79" s="1"/>
     </row>
@@ -5382,12 +5385,12 @@
         <v>5.8962499999999993</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>1127</v>
+        <v>1083</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="2"/>
       <c r="E80" s="5" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="F80" s="1"/>
     </row>
@@ -5396,12 +5399,12 @@
         <v>5.8962615740740745</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>1128</v>
+        <v>1084</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="2"/>
       <c r="E81" s="5" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="F81" s="1"/>
     </row>
@@ -5410,12 +5413,12 @@
         <v>5.8962731481481478</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>1129</v>
+        <v>1085</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="2"/>
       <c r="E82" s="5" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="F82" s="1"/>
     </row>
@@ -5424,21 +5427,21 @@
         <v>5.8962962962962964</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>1130</v>
+        <v>1086</v>
       </c>
       <c r="C83" s="16"/>
       <c r="D83" s="2"/>
       <c r="E83" s="5" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>1214</v>
+        <v>1170</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>572</v>
+        <v>528</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="2"/>
@@ -5452,7 +5455,7 @@
         <v>22</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>573</v>
+        <v>529</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="2"/>
@@ -5466,7 +5469,7 @@
         <v>23</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>574</v>
+        <v>530</v>
       </c>
       <c r="C86" s="16"/>
       <c r="D86" s="2"/>
@@ -5480,7 +5483,7 @@
         <v>24</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="2"/>
@@ -5494,7 +5497,7 @@
         <v>25</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="2"/>
@@ -5508,7 +5511,7 @@
         <v>26</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>577</v>
+        <v>533</v>
       </c>
       <c r="C89" s="16"/>
       <c r="D89" s="2"/>
@@ -5522,7 +5525,7 @@
         <v>27</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>578</v>
+        <v>534</v>
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="2"/>
@@ -5536,7 +5539,7 @@
         <v>28</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>579</v>
+        <v>535</v>
       </c>
       <c r="C91" s="16"/>
       <c r="D91" s="2"/>
@@ -5550,7 +5553,7 @@
         <v>29</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>580</v>
+        <v>536</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="2"/>
@@ -5564,7 +5567,7 @@
         <v>30</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>581</v>
+        <v>537</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="2"/>
@@ -5575,10 +5578,10 @@
     </row>
     <row r="94" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
-        <v>1215</v>
+        <v>1171</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>582</v>
+        <v>538</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="2"/>
@@ -5589,10 +5592,10 @@
     </row>
     <row r="95" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
-        <v>1216</v>
+        <v>1172</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>583</v>
+        <v>539</v>
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="2"/>
@@ -5603,10 +5606,10 @@
     </row>
     <row r="96" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
-        <v>1217</v>
+        <v>1173</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>584</v>
+        <v>540</v>
       </c>
       <c r="C96" s="16"/>
       <c r="D96" s="2"/>
@@ -5620,12 +5623,12 @@
         <v>11</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>585</v>
+        <v>541</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="2"/>
       <c r="E97" s="5" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F97" s="1"/>
     </row>
@@ -5634,12 +5637,12 @@
         <v>12</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>586</v>
+        <v>542</v>
       </c>
       <c r="C98" s="16"/>
       <c r="D98" s="2"/>
       <c r="E98" s="9" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F98" s="1"/>
     </row>
@@ -5648,12 +5651,12 @@
         <v>13</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>587</v>
+        <v>543</v>
       </c>
       <c r="C99" s="16"/>
       <c r="D99" s="2"/>
       <c r="E99" s="9" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F99" s="1"/>
     </row>
@@ -5662,12 +5665,12 @@
         <v>14</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>588</v>
+        <v>544</v>
       </c>
       <c r="C100" s="16"/>
       <c r="D100" s="2"/>
       <c r="E100" s="9" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F100" s="1"/>
     </row>
@@ -5676,12 +5679,12 @@
         <v>15</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>589</v>
+        <v>545</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="2"/>
       <c r="E101" s="9" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F101" s="1"/>
     </row>
@@ -5690,12 +5693,12 @@
         <v>16</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="2"/>
       <c r="E102" s="9" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5703,12 +5706,12 @@
         <v>17</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="2"/>
       <c r="E103" s="9" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F103" s="1"/>
     </row>
@@ -5717,12 +5720,12 @@
         <v>18</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="C104" s="16"/>
       <c r="D104" s="2"/>
       <c r="E104" s="9" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="105" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5730,12 +5733,12 @@
         <v>19</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>593</v>
+        <v>549</v>
       </c>
       <c r="C105" s="16"/>
       <c r="D105" s="2"/>
       <c r="E105" s="9" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F105" s="1"/>
     </row>
@@ -5744,12 +5747,12 @@
         <v>20</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>594</v>
+        <v>550</v>
       </c>
       <c r="C106" s="16"/>
       <c r="D106" s="2"/>
       <c r="E106" s="9" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -5757,7 +5760,7 @@
         <v>21</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>595</v>
+        <v>551</v>
       </c>
       <c r="C107" s="16"/>
       <c r="D107" s="2"/>
@@ -5767,10 +5770,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
-        <v>1218</v>
+        <v>1174</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>596</v>
+        <v>552</v>
       </c>
       <c r="C108" s="16"/>
       <c r="D108" s="2"/>
@@ -5780,10 +5783,10 @@
     </row>
     <row r="109" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
-        <v>1219</v>
+        <v>1175</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>597</v>
+        <v>553</v>
       </c>
       <c r="C109" s="16"/>
       <c r="D109" s="2"/>
@@ -5794,10 +5797,10 @@
     </row>
     <row r="110" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
-        <v>1221</v>
+        <v>1237</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>619</v>
+        <v>575</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="2"/>
@@ -5808,10 +5811,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>620</v>
+        <v>576</v>
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="2"/>
@@ -5821,10 +5824,10 @@
     </row>
     <row r="112" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>621</v>
+        <v>577</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="2"/>
@@ -5835,10 +5838,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="2"/>
@@ -5848,256 +5851,256 @@
     </row>
     <row r="114" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>637</v>
+        <v>593</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="2"/>
       <c r="E114" s="5" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>638</v>
+        <v>594</v>
       </c>
       <c r="C115" s="16"/>
       <c r="D115" s="2"/>
       <c r="E115" s="5" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>639</v>
+        <v>595</v>
       </c>
       <c r="C116" s="16"/>
       <c r="D116" s="2"/>
       <c r="E116" s="5" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>640</v>
+        <v>596</v>
       </c>
       <c r="C117" s="16"/>
       <c r="D117" s="2"/>
       <c r="E117" s="5" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F117" s="1"/>
     </row>
     <row r="118" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>641</v>
+        <v>597</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="2"/>
       <c r="E118" s="5" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F118" s="1"/>
     </row>
     <row r="119" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>642</v>
+        <v>598</v>
       </c>
       <c r="C119" s="16"/>
       <c r="D119" s="2"/>
       <c r="E119" s="6" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="F119" s="1"/>
     </row>
     <row r="120" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>643</v>
+        <v>599</v>
       </c>
       <c r="C120" s="16"/>
       <c r="D120" s="2"/>
       <c r="E120" s="5" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F120" s="1"/>
     </row>
     <row r="121" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="C121" s="16"/>
       <c r="D121" s="2"/>
       <c r="E121" s="5" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F121" s="1"/>
     </row>
     <row r="122" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>645</v>
+        <v>601</v>
       </c>
       <c r="C122" s="16"/>
       <c r="D122" s="2"/>
       <c r="E122" s="5" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="F122" s="1"/>
     </row>
     <row r="123" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>646</v>
+        <v>602</v>
       </c>
       <c r="C123" s="16"/>
       <c r="D123" s="2"/>
       <c r="E123" s="5" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="F123" s="1"/>
     </row>
     <row r="124" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>647</v>
+        <v>603</v>
       </c>
       <c r="C124" s="16"/>
       <c r="D124" s="2"/>
       <c r="E124" s="5" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F124" s="1"/>
     </row>
     <row r="125" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>648</v>
+        <v>604</v>
       </c>
       <c r="C125" s="16"/>
       <c r="D125" s="2"/>
       <c r="E125" s="6" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F125" s="1"/>
     </row>
     <row r="126" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="C126" s="16"/>
       <c r="D126" s="2"/>
       <c r="E126" s="5" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F126" s="1"/>
     </row>
     <row r="127" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>650</v>
+        <v>606</v>
       </c>
       <c r="C127" s="16"/>
       <c r="D127" s="2"/>
       <c r="E127" s="6" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="F127" s="1"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>651</v>
+        <v>607</v>
       </c>
       <c r="C128" s="16"/>
       <c r="D128" s="2"/>
       <c r="E128" s="5" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>652</v>
+        <v>608</v>
       </c>
       <c r="C129" s="16"/>
       <c r="D129" s="2"/>
       <c r="E129" s="6" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="C130" s="16"/>
       <c r="D130" s="2"/>
       <c r="E130" s="5" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>654</v>
+        <v>610</v>
       </c>
       <c r="C131" s="16"/>
       <c r="D131" s="2"/>
       <c r="E131" s="6" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="16" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>655</v>
+        <v>611</v>
       </c>
       <c r="C132" s="16"/>
       <c r="D132" s="2"/>
@@ -6107,10 +6110,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="C133" s="16"/>
       <c r="D133" s="2"/>
@@ -6120,570 +6123,570 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>657</v>
+        <v>613</v>
       </c>
       <c r="C134" s="16"/>
       <c r="D134" s="2"/>
       <c r="E134" s="5" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>658</v>
+        <v>614</v>
       </c>
       <c r="C135" s="16"/>
       <c r="D135" s="2"/>
       <c r="E135" s="5" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>659</v>
+        <v>615</v>
       </c>
       <c r="C136" s="16"/>
       <c r="D136" s="2"/>
       <c r="E136" s="6" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>660</v>
+        <v>616</v>
       </c>
       <c r="C137" s="16"/>
       <c r="D137" s="2"/>
       <c r="E137" s="5" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>661</v>
+        <v>617</v>
       </c>
       <c r="C138" s="16"/>
       <c r="D138" s="2"/>
       <c r="E138" s="5" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>662</v>
+        <v>618</v>
       </c>
       <c r="C139" s="16"/>
       <c r="D139" s="2"/>
       <c r="E139" s="5" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>663</v>
+        <v>619</v>
       </c>
       <c r="C140" s="16"/>
       <c r="D140" s="2"/>
       <c r="E140" s="5" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>664</v>
+        <v>620</v>
       </c>
       <c r="C141" s="16"/>
       <c r="D141" s="2"/>
       <c r="E141" s="5" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="16" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>665</v>
+        <v>621</v>
       </c>
       <c r="C142" s="16"/>
       <c r="D142" s="2"/>
       <c r="E142" s="5" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>666</v>
+        <v>622</v>
       </c>
       <c r="C143" s="16"/>
       <c r="D143" s="2"/>
       <c r="E143" s="5" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="16" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>667</v>
+        <v>623</v>
       </c>
       <c r="C144" s="16"/>
       <c r="D144" s="2"/>
       <c r="E144" s="5" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>668</v>
+        <v>624</v>
       </c>
       <c r="C145" s="16"/>
       <c r="D145" s="2"/>
       <c r="E145" s="5" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="16" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>669</v>
+        <v>625</v>
       </c>
       <c r="C146" s="16"/>
       <c r="D146" s="2"/>
       <c r="E146" s="5" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>670</v>
+        <v>626</v>
       </c>
       <c r="C147" s="16"/>
       <c r="D147" s="2"/>
       <c r="E147" s="5" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="148" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>672</v>
+        <v>628</v>
       </c>
       <c r="C148" s="16"/>
       <c r="D148" s="2"/>
       <c r="E148" s="5" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="F148" s="1"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>674</v>
+        <v>630</v>
       </c>
       <c r="C149" s="16"/>
       <c r="D149" s="2"/>
       <c r="E149" s="5" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="150" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="16" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>678</v>
+        <v>634</v>
       </c>
       <c r="C150" s="16"/>
       <c r="D150" s="2"/>
       <c r="E150" s="5" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F150" s="1"/>
     </row>
     <row r="151" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>679</v>
+        <v>635</v>
       </c>
       <c r="C151" s="16"/>
       <c r="D151" s="2"/>
       <c r="E151" s="5" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="F151" s="1"/>
     </row>
     <row r="152" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>681</v>
+        <v>637</v>
       </c>
       <c r="C152" s="16"/>
       <c r="D152" s="2"/>
       <c r="E152" s="5" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="F152" s="1"/>
     </row>
     <row r="153" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>683</v>
+        <v>639</v>
       </c>
       <c r="C153" s="16"/>
       <c r="D153" s="2"/>
       <c r="E153" s="5" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F153" s="1"/>
     </row>
     <row r="154" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>686</v>
+        <v>642</v>
       </c>
       <c r="C154" s="16"/>
       <c r="D154" s="2"/>
       <c r="E154" s="5" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F154" s="1"/>
     </row>
     <row r="155" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>687</v>
+        <v>643</v>
       </c>
       <c r="C155" s="16"/>
       <c r="D155" s="2"/>
       <c r="E155" s="5" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F155" s="1"/>
     </row>
     <row r="156" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="16" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>688</v>
+        <v>644</v>
       </c>
       <c r="C156" s="16"/>
       <c r="D156" s="2"/>
       <c r="E156" s="5" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="F156" s="1"/>
     </row>
     <row r="157" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>689</v>
+        <v>645</v>
       </c>
       <c r="C157" s="16"/>
       <c r="D157" s="2"/>
       <c r="E157" s="5" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="F157" s="1"/>
     </row>
     <row r="158" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="16" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>690</v>
+        <v>646</v>
       </c>
       <c r="C158" s="16"/>
       <c r="D158" s="2"/>
       <c r="E158" s="5" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F158" s="1"/>
     </row>
     <row r="159" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>691</v>
+        <v>647</v>
       </c>
       <c r="C159" s="16"/>
       <c r="D159" s="2"/>
       <c r="E159" s="5" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="F159" s="1"/>
     </row>
     <row r="160" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>692</v>
+        <v>648</v>
       </c>
       <c r="C160" s="16"/>
       <c r="D160" s="2"/>
       <c r="E160" s="5" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="11"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>693</v>
+        <v>649</v>
       </c>
       <c r="C161" s="16"/>
       <c r="D161" s="2"/>
       <c r="E161" s="5" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>694</v>
+        <v>650</v>
       </c>
       <c r="C162" s="16"/>
       <c r="D162" s="2"/>
       <c r="E162" s="5" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>695</v>
+        <v>651</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="2"/>
       <c r="E163" s="5" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>696</v>
+        <v>652</v>
       </c>
       <c r="C164" s="16"/>
       <c r="D164" s="2"/>
       <c r="E164" s="5" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>717</v>
+        <v>673</v>
       </c>
       <c r="C165" s="16"/>
       <c r="D165" s="2"/>
       <c r="E165" s="5" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="16" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>719</v>
+        <v>675</v>
       </c>
       <c r="C166" s="16"/>
       <c r="D166" s="2"/>
       <c r="E166" s="5" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>720</v>
+        <v>676</v>
       </c>
       <c r="C167" s="16"/>
       <c r="D167" s="2"/>
       <c r="E167" s="5" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="16" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>721</v>
+        <v>677</v>
       </c>
       <c r="C168" s="16"/>
       <c r="D168" s="2"/>
       <c r="E168" s="5" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="16" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>722</v>
+        <v>678</v>
       </c>
       <c r="C169" s="16"/>
       <c r="D169" s="2"/>
       <c r="E169" s="5" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="16" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>723</v>
+        <v>679</v>
       </c>
       <c r="C170" s="16"/>
       <c r="D170" s="2"/>
       <c r="E170" s="5" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>724</v>
+        <v>680</v>
       </c>
       <c r="C171" s="16"/>
       <c r="D171" s="2"/>
       <c r="E171" s="5" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="172" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="16" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>725</v>
+        <v>681</v>
       </c>
       <c r="C172" s="16"/>
       <c r="D172" s="2"/>
       <c r="E172" s="5" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="F172" s="1"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="16" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>726</v>
+        <v>682</v>
       </c>
       <c r="C173" s="16"/>
       <c r="D173" s="2"/>
       <c r="E173" s="5" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="16" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>727</v>
+        <v>683</v>
       </c>
       <c r="C174" s="16"/>
       <c r="D174" s="2"/>
       <c r="E174" s="5" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>728</v>
+        <v>684</v>
       </c>
       <c r="C175" s="16"/>
       <c r="D175" s="2"/>
       <c r="E175" s="5" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="16" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>729</v>
+        <v>685</v>
       </c>
       <c r="C176" s="16"/>
       <c r="D176" s="2"/>
@@ -6693,64 +6696,64 @@
     </row>
     <row r="177" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
-        <v>286</v>
+        <v>1193</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>741</v>
+        <v>697</v>
       </c>
       <c r="C177" s="16"/>
       <c r="D177" s="2"/>
       <c r="E177" s="5" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="7"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
-        <v>287</v>
+        <v>1194</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>746</v>
+        <v>702</v>
       </c>
       <c r="C178" s="16"/>
       <c r="D178" s="2"/>
       <c r="E178" s="5" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="16" t="s">
-        <v>288</v>
+        <v>1195</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>751</v>
+        <v>707</v>
       </c>
       <c r="C179" s="16"/>
       <c r="D179" s="2"/>
       <c r="E179" s="5" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="16" t="s">
-        <v>289</v>
+        <v>1196</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>752</v>
+        <v>708</v>
       </c>
       <c r="C180" s="16"/>
       <c r="D180" s="2"/>
       <c r="E180" s="5" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="16" t="s">
-        <v>290</v>
+        <v>1197</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>758</v>
+        <v>714</v>
       </c>
       <c r="C181" s="16"/>
       <c r="D181" s="2"/>
@@ -6760,685 +6763,685 @@
     </row>
     <row r="182" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="s">
-        <v>291</v>
+        <v>1198</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>763</v>
+        <v>719</v>
       </c>
       <c r="C182" s="16"/>
       <c r="D182" s="2"/>
       <c r="E182" s="5" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="7"/>
     </row>
     <row r="183" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="s">
-        <v>292</v>
+        <v>453</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>771</v>
+        <v>727</v>
       </c>
       <c r="C183" s="16"/>
       <c r="D183" s="2"/>
       <c r="E183" s="5" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="F183" s="1"/>
       <c r="G183" s="7"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="16" t="s">
-        <v>293</v>
+        <v>1199</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>778</v>
+        <v>734</v>
       </c>
       <c r="C184" s="16"/>
       <c r="D184" s="2"/>
       <c r="E184" s="5" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="s">
-        <v>294</v>
+        <v>1200</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>858</v>
+        <v>814</v>
       </c>
       <c r="C185" s="16"/>
       <c r="D185" s="2"/>
       <c r="E185" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="16" t="s">
-        <v>295</v>
+        <v>1201</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>861</v>
+        <v>817</v>
       </c>
       <c r="C186" s="16"/>
       <c r="D186" s="2"/>
       <c r="E186" s="5" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="16" t="s">
-        <v>296</v>
+        <v>1202</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>863</v>
+        <v>819</v>
       </c>
       <c r="C187" s="16"/>
       <c r="D187" s="2"/>
       <c r="E187" s="6" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="16" t="s">
-        <v>297</v>
+        <v>1203</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>865</v>
+        <v>821</v>
       </c>
       <c r="C188" s="16"/>
       <c r="D188" s="2"/>
       <c r="E188" s="5" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="189" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
-        <v>298</v>
+        <v>1204</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>868</v>
+        <v>824</v>
       </c>
       <c r="C189" s="16"/>
       <c r="D189" s="2"/>
       <c r="E189" s="5" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="F189" s="1"/>
       <c r="G189" s="7"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
-        <v>299</v>
+        <v>1205</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>872</v>
+        <v>828</v>
       </c>
       <c r="C190" s="16"/>
       <c r="D190" s="2"/>
       <c r="E190" s="5" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="s">
-        <v>300</v>
+        <v>1206</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>874</v>
+        <v>830</v>
       </c>
       <c r="C191" s="16"/>
       <c r="D191" s="2"/>
       <c r="E191" s="5" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="16" t="s">
-        <v>301</v>
+        <v>1207</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>875</v>
+        <v>831</v>
       </c>
       <c r="C192" s="16"/>
       <c r="D192" s="2"/>
       <c r="E192" s="5" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
-        <v>302</v>
+        <v>1208</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>876</v>
+        <v>832</v>
       </c>
       <c r="C193" s="16"/>
       <c r="D193" s="2"/>
       <c r="E193" s="5" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
     </row>
     <row r="194" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="16" t="s">
-        <v>303</v>
+        <v>1209</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>877</v>
+        <v>833</v>
       </c>
       <c r="C194" s="16"/>
       <c r="D194" s="2"/>
       <c r="E194" s="5" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="F194" s="1"/>
       <c r="G194" s="7"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="16" t="s">
-        <v>304</v>
+        <v>1210</v>
       </c>
       <c r="B195" s="16" t="s">
-        <v>878</v>
+        <v>834</v>
       </c>
       <c r="C195" s="16"/>
       <c r="D195" s="2"/>
       <c r="E195" s="6" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="16" t="s">
-        <v>305</v>
+        <v>1211</v>
       </c>
       <c r="B196" s="16" t="s">
-        <v>879</v>
+        <v>835</v>
       </c>
       <c r="C196" s="16"/>
       <c r="D196" s="2"/>
       <c r="E196" s="6" t="s">
-        <v>562</v>
+        <v>518</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="16" t="s">
-        <v>306</v>
+        <v>1212</v>
       </c>
       <c r="B197" s="16" t="s">
-        <v>880</v>
+        <v>836</v>
       </c>
       <c r="C197" s="16"/>
       <c r="D197" s="2"/>
       <c r="E197" s="5" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="16" t="s">
-        <v>307</v>
+        <v>1213</v>
       </c>
       <c r="B198" s="16" t="s">
-        <v>881</v>
+        <v>837</v>
       </c>
       <c r="C198" s="16"/>
       <c r="D198" s="2"/>
       <c r="E198" s="5" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="s">
-        <v>308</v>
+        <v>1214</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>882</v>
+        <v>838</v>
       </c>
       <c r="C199" s="16"/>
       <c r="D199" s="2"/>
       <c r="E199" s="5" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="16" t="s">
-        <v>309</v>
+        <v>1215</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>883</v>
+        <v>839</v>
       </c>
       <c r="C200" s="16"/>
       <c r="D200" s="2"/>
       <c r="E200" s="5" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="16" t="s">
-        <v>310</v>
+        <v>1216</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>884</v>
+        <v>840</v>
       </c>
       <c r="C201" s="16"/>
       <c r="D201" s="2"/>
       <c r="E201" s="5" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
     </row>
     <row r="202" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="16" t="s">
-        <v>311</v>
+        <v>1217</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>885</v>
+        <v>841</v>
       </c>
       <c r="C202" s="16"/>
       <c r="D202" s="2"/>
       <c r="E202" s="5" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="F202" s="1"/>
       <c r="G202" s="7"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="16" t="s">
-        <v>312</v>
+        <v>1218</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>886</v>
+        <v>842</v>
       </c>
       <c r="C203" s="16"/>
       <c r="D203" s="2"/>
       <c r="E203" s="5" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="16" t="s">
-        <v>313</v>
+        <v>1219</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>888</v>
+        <v>844</v>
       </c>
       <c r="C204" s="16"/>
       <c r="D204" s="2"/>
       <c r="E204" s="5" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="16" t="s">
-        <v>314</v>
+        <v>1220</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>891</v>
+        <v>847</v>
       </c>
       <c r="C205" s="16"/>
       <c r="D205" s="2"/>
       <c r="E205" s="5" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="16" t="s">
-        <v>315</v>
+        <v>1221</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>892</v>
+        <v>848</v>
       </c>
       <c r="C206" s="16"/>
       <c r="D206" s="2"/>
       <c r="E206" s="5" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="18" t="s">
-        <v>86</v>
+      <c r="A207" s="16" t="s">
+        <v>1222</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>896</v>
+        <v>852</v>
       </c>
       <c r="C207" s="16"/>
       <c r="D207" s="2"/>
       <c r="E207" s="5" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="16" t="s">
-        <v>88</v>
+        <v>1223</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>897</v>
+        <v>853</v>
       </c>
       <c r="C208" s="16"/>
       <c r="D208" s="2"/>
       <c r="E208" s="5" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
     </row>
     <row r="209" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="18" t="s">
-        <v>87</v>
+      <c r="A209" s="16" t="s">
+        <v>1224</v>
       </c>
       <c r="B209" s="16" t="s">
-        <v>898</v>
+        <v>854</v>
       </c>
       <c r="C209" s="16"/>
       <c r="D209" s="2"/>
       <c r="E209" s="5" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="F209" s="1"/>
       <c r="G209" s="7"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="16" t="s">
-        <v>89</v>
+        <v>1225</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>899</v>
+        <v>855</v>
       </c>
       <c r="C210" s="16"/>
       <c r="D210" s="2"/>
       <c r="E210" s="5" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="16" t="s">
-        <v>90</v>
+        <v>1226</v>
       </c>
       <c r="B211" s="16" t="s">
-        <v>900</v>
+        <v>856</v>
       </c>
       <c r="C211" s="16"/>
       <c r="D211" s="2"/>
       <c r="E211" s="5" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="16" t="s">
-        <v>91</v>
+        <v>1227</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>901</v>
+        <v>857</v>
       </c>
       <c r="C212" s="16"/>
       <c r="D212" s="2"/>
       <c r="E212" s="5" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="18" t="s">
-        <v>99</v>
+      <c r="A213" s="16" t="s">
+        <v>1228</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>906</v>
+        <v>862</v>
       </c>
       <c r="C213" s="16"/>
       <c r="D213" s="2"/>
       <c r="E213" s="5" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="16" t="s">
-        <v>100</v>
+        <v>1229</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>907</v>
+        <v>863</v>
       </c>
       <c r="C214" s="16"/>
       <c r="D214" s="2"/>
       <c r="E214" s="5" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="16" t="s">
-        <v>101</v>
+        <v>1230</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>908</v>
+        <v>864</v>
       </c>
       <c r="C215" s="16"/>
       <c r="D215" s="2"/>
       <c r="E215" s="5" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="16" t="s">
-        <v>102</v>
+        <v>1231</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>909</v>
+        <v>865</v>
       </c>
       <c r="C216" s="16"/>
       <c r="D216" s="2"/>
       <c r="E216" s="5" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="16" t="s">
-        <v>103</v>
+        <v>1232</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>910</v>
+        <v>866</v>
       </c>
       <c r="C217" s="16"/>
       <c r="D217" s="2"/>
       <c r="E217" s="5" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="16" t="s">
-        <v>104</v>
+        <v>1233</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>911</v>
+        <v>867</v>
       </c>
       <c r="C218" s="16"/>
       <c r="D218" s="2"/>
       <c r="E218" s="5" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="s">
-        <v>105</v>
+        <v>1234</v>
       </c>
       <c r="B219" s="16" t="s">
-        <v>912</v>
+        <v>868</v>
       </c>
       <c r="C219" s="16"/>
       <c r="D219" s="2"/>
       <c r="E219" s="5" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="16" t="s">
-        <v>106</v>
+        <v>1235</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>913</v>
+        <v>869</v>
       </c>
       <c r="C220" s="16"/>
       <c r="D220" s="2"/>
       <c r="E220" s="5" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="16" t="s">
-        <v>107</v>
+        <v>1236</v>
       </c>
       <c r="B221" s="16" t="s">
-        <v>914</v>
+        <v>870</v>
       </c>
       <c r="C221" s="16"/>
       <c r="D221" s="2"/>
       <c r="E221" s="5" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B222" s="16" t="s">
-        <v>915</v>
+        <v>871</v>
       </c>
       <c r="C222" s="16"/>
       <c r="D222" s="2"/>
       <c r="E222" s="5" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B223" s="16" t="s">
-        <v>916</v>
+        <v>872</v>
       </c>
       <c r="C223" s="16"/>
       <c r="D223" s="2"/>
       <c r="E223" s="5" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="18" t="s">
-        <v>108</v>
+      <c r="A224" s="35" t="s">
+        <v>93</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>917</v>
+        <v>873</v>
       </c>
       <c r="C224" s="16"/>
       <c r="D224" s="2"/>
       <c r="E224" s="5" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="16" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B225" s="16" t="s">
-        <v>918</v>
+        <v>874</v>
       </c>
       <c r="C225" s="16"/>
       <c r="D225" s="2"/>
       <c r="E225" s="5" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B226" s="16" t="s">
-        <v>928</v>
+        <v>884</v>
       </c>
       <c r="C226" s="16"/>
       <c r="D226" s="2"/>
       <c r="E226" s="5" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B227" s="16" t="s">
-        <v>929</v>
+        <v>885</v>
       </c>
       <c r="C227" s="16"/>
       <c r="D227" s="2"/>
       <c r="E227" s="5" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="18" t="s">
-        <v>94</v>
+      <c r="A228" s="35" t="s">
+        <v>88</v>
       </c>
       <c r="B228" s="16" t="s">
-        <v>930</v>
+        <v>886</v>
       </c>
       <c r="C228" s="16"/>
       <c r="D228" s="2"/>
       <c r="E228" s="5" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>931</v>
+        <v>887</v>
       </c>
       <c r="C229" s="16"/>
       <c r="D229" s="2"/>
       <c r="E229" s="5" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B230" s="16" t="s">
-        <v>932</v>
+        <v>888</v>
       </c>
       <c r="C230" s="16"/>
       <c r="D230" s="2"/>
       <c r="E230" s="5" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="18" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="B231" s="16" t="s">
-        <v>964</v>
+        <v>920</v>
       </c>
       <c r="C231" s="16"/>
       <c r="D231" s="2"/>
       <c r="E231" s="5" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="19" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="B232" s="16" t="s">
-        <v>965</v>
+        <v>921</v>
       </c>
       <c r="C232" s="16"/>
       <c r="D232" s="2"/>
       <c r="E232" s="5" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="16" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B233" s="16" t="s">
-        <v>697</v>
+        <v>653</v>
       </c>
       <c r="C233" s="16"/>
       <c r="D233" s="2"/>
@@ -7448,10 +7451,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B234" s="16" t="s">
-        <v>698</v>
+        <v>654</v>
       </c>
       <c r="C234" s="16"/>
       <c r="D234" s="2"/>
@@ -7461,10 +7464,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="16" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B235" s="16" t="s">
-        <v>699</v>
+        <v>655</v>
       </c>
       <c r="C235" s="16"/>
       <c r="D235" s="2"/>
@@ -7474,10 +7477,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="16" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B236" s="16" t="s">
-        <v>700</v>
+        <v>656</v>
       </c>
       <c r="C236" s="16"/>
       <c r="D236" s="2"/>
@@ -7487,10 +7490,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="16" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B237" s="16" t="s">
-        <v>701</v>
+        <v>657</v>
       </c>
       <c r="C237" s="16"/>
       <c r="D237" s="2"/>
@@ -7500,10 +7503,10 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="16" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B238" s="16" t="s">
-        <v>702</v>
+        <v>658</v>
       </c>
       <c r="C238" s="16"/>
       <c r="D238" s="2"/>
@@ -7513,10 +7516,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="16" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B239" s="16" t="s">
-        <v>703</v>
+        <v>659</v>
       </c>
       <c r="C239" s="16"/>
       <c r="D239" s="2"/>
@@ -7526,10 +7529,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="16" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B240" s="16" t="s">
-        <v>704</v>
+        <v>660</v>
       </c>
       <c r="C240" s="16"/>
       <c r="D240" s="2"/>
@@ -7539,10 +7542,10 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B241" s="16" t="s">
-        <v>705</v>
+        <v>661</v>
       </c>
       <c r="C241" s="16"/>
       <c r="D241" s="2"/>
@@ -7552,10 +7555,10 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="16" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B242" s="16" t="s">
-        <v>706</v>
+        <v>662</v>
       </c>
       <c r="C242" s="16"/>
       <c r="D242" s="2"/>
@@ -7565,10 +7568,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="16" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
       <c r="B243" s="16" t="s">
-        <v>707</v>
+        <v>663</v>
       </c>
       <c r="C243" s="16"/>
       <c r="D243" s="2"/>
@@ -7578,10 +7581,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="22" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="B244" s="16" t="s">
-        <v>708</v>
+        <v>664</v>
       </c>
       <c r="C244" s="16"/>
       <c r="D244" s="2"/>
@@ -7591,10 +7594,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="16" t="s">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="B245" s="16" t="s">
-        <v>709</v>
+        <v>665</v>
       </c>
       <c r="C245" s="16"/>
       <c r="D245" s="2"/>
@@ -7604,10 +7607,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="16" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B246" s="16" t="s">
-        <v>710</v>
+        <v>666</v>
       </c>
       <c r="C246" s="16"/>
       <c r="D246" s="2"/>
@@ -7617,88 +7620,88 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="16" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="B247" s="16" t="s">
-        <v>711</v>
+        <v>667</v>
       </c>
       <c r="C247" s="16"/>
       <c r="D247" s="2"/>
       <c r="E247" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="16" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="B248" s="16" t="s">
-        <v>712</v>
+        <v>668</v>
       </c>
       <c r="C248" s="16"/>
       <c r="D248" s="2"/>
       <c r="E248" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="16" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
       <c r="B249" s="16" t="s">
-        <v>713</v>
+        <v>669</v>
       </c>
       <c r="C249" s="16"/>
       <c r="D249" s="2"/>
       <c r="E249" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="16" t="s">
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>714</v>
+        <v>670</v>
       </c>
       <c r="C250" s="16"/>
       <c r="D250" s="2"/>
       <c r="E250" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="16" t="s">
-        <v>462</v>
+        <v>418</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>715</v>
+        <v>671</v>
       </c>
       <c r="C251" s="16"/>
       <c r="D251" s="2"/>
       <c r="E251" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="16" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>716</v>
+        <v>672</v>
       </c>
       <c r="C252" s="16"/>
       <c r="D252" s="2"/>
       <c r="E252" s="5" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="16" t="s">
-        <v>465</v>
+        <v>421</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>718</v>
+        <v>674</v>
       </c>
       <c r="C253" s="16"/>
       <c r="D253" s="2"/>
@@ -7708,23 +7711,23 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="16" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="B254" s="16" t="s">
-        <v>730</v>
+        <v>686</v>
       </c>
       <c r="C254" s="16"/>
       <c r="D254" s="2"/>
       <c r="E254" s="5" t="s">
-        <v>563</v>
+        <v>519</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="16" t="s">
-        <v>467</v>
+        <v>423</v>
       </c>
       <c r="B255" s="16" t="s">
-        <v>731</v>
+        <v>687</v>
       </c>
       <c r="C255" s="16"/>
       <c r="D255" s="2"/>
@@ -7734,10 +7737,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="16" t="s">
-        <v>468</v>
+        <v>424</v>
       </c>
       <c r="B256" s="16" t="s">
-        <v>732</v>
+        <v>688</v>
       </c>
       <c r="C256" s="16"/>
       <c r="D256" s="2"/>
@@ -7747,10 +7750,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="16" t="s">
-        <v>469</v>
+        <v>425</v>
       </c>
       <c r="B257" s="16" t="s">
-        <v>733</v>
+        <v>689</v>
       </c>
       <c r="C257" s="16"/>
       <c r="D257" s="2"/>
@@ -7760,10 +7763,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="16" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="B258" s="16" t="s">
-        <v>734</v>
+        <v>690</v>
       </c>
       <c r="C258" s="16"/>
       <c r="D258" s="2"/>
@@ -7773,10 +7776,10 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="16" t="s">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="B259" s="16" t="s">
-        <v>735</v>
+        <v>691</v>
       </c>
       <c r="C259" s="16"/>
       <c r="D259" s="2"/>
@@ -7786,10 +7789,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="16" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="B260" s="16" t="s">
-        <v>736</v>
+        <v>692</v>
       </c>
       <c r="C260" s="16"/>
       <c r="D260" s="2"/>
@@ -7799,10 +7802,10 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="16" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="B261" s="16" t="s">
-        <v>737</v>
+        <v>693</v>
       </c>
       <c r="C261" s="16"/>
       <c r="D261" s="2"/>
@@ -7812,10 +7815,10 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="16" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="B262" s="16" t="s">
-        <v>738</v>
+        <v>694</v>
       </c>
       <c r="C262" s="16"/>
       <c r="D262" s="2"/>
@@ -7825,10 +7828,10 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="16" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="B263" s="16" t="s">
-        <v>739</v>
+        <v>695</v>
       </c>
       <c r="C263" s="16"/>
       <c r="D263" s="2"/>
@@ -7838,10 +7841,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="16" t="s">
-        <v>476</v>
+        <v>432</v>
       </c>
       <c r="B264" s="16" t="s">
-        <v>740</v>
+        <v>696</v>
       </c>
       <c r="C264" s="16"/>
       <c r="D264" s="2"/>
@@ -7851,10 +7854,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="16" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="B265" s="16" t="s">
-        <v>742</v>
+        <v>698</v>
       </c>
       <c r="C265" s="16"/>
       <c r="D265" s="2"/>
@@ -7864,10 +7867,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="16" t="s">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="B266" s="16" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
       <c r="C266" s="16"/>
       <c r="D266" s="2"/>
@@ -7877,10 +7880,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="16" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="B267" s="16" t="s">
-        <v>744</v>
+        <v>700</v>
       </c>
       <c r="C267" s="16"/>
       <c r="D267" s="2"/>
@@ -7890,10 +7893,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="16" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="B268" s="16" t="s">
-        <v>745</v>
+        <v>701</v>
       </c>
       <c r="C268" s="16"/>
       <c r="D268" s="2"/>
@@ -7903,10 +7906,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="16" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="B269" s="16" t="s">
-        <v>747</v>
+        <v>703</v>
       </c>
       <c r="C269" s="16"/>
       <c r="D269" s="2"/>
@@ -7916,10 +7919,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="22" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
       <c r="B270" s="16" t="s">
-        <v>748</v>
+        <v>704</v>
       </c>
       <c r="C270" s="16"/>
       <c r="D270" s="2"/>
@@ -7929,10 +7932,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="16" t="s">
-        <v>482</v>
+        <v>438</v>
       </c>
       <c r="B271" s="16" t="s">
-        <v>749</v>
+        <v>705</v>
       </c>
       <c r="C271" s="16"/>
       <c r="D271" s="2"/>
@@ -7942,10 +7945,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="16" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="B272" s="16" t="s">
-        <v>750</v>
+        <v>706</v>
       </c>
       <c r="C272" s="16"/>
       <c r="D272" s="2"/>
@@ -7955,10 +7958,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="16" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="B273" s="16" t="s">
-        <v>753</v>
+        <v>709</v>
       </c>
       <c r="C273" s="16"/>
       <c r="D273" s="2"/>
@@ -7968,10 +7971,10 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="16" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="B274" s="16" t="s">
-        <v>754</v>
+        <v>710</v>
       </c>
       <c r="C274" s="16"/>
       <c r="D274" s="2"/>
@@ -7981,10 +7984,10 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="16" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="B275" s="16" t="s">
-        <v>755</v>
+        <v>711</v>
       </c>
       <c r="C275" s="16"/>
       <c r="D275" s="2"/>
@@ -7994,10 +7997,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="16" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="B276" s="16" t="s">
-        <v>756</v>
+        <v>712</v>
       </c>
       <c r="C276" s="16"/>
       <c r="D276" s="2"/>
@@ -8007,10 +8010,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="16" t="s">
-        <v>486</v>
+        <v>442</v>
       </c>
       <c r="B277" s="16" t="s">
-        <v>757</v>
+        <v>713</v>
       </c>
       <c r="C277" s="16"/>
       <c r="D277" s="2"/>
@@ -8020,10 +8023,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="16" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
       <c r="B278" s="16" t="s">
-        <v>759</v>
+        <v>715</v>
       </c>
       <c r="C278" s="16"/>
       <c r="D278" s="2"/>
@@ -8033,10 +8036,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="16" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="B279" s="16" t="s">
-        <v>760</v>
+        <v>716</v>
       </c>
       <c r="C279" s="16"/>
       <c r="D279" s="2"/>
@@ -8046,10 +8049,10 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="16" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="B280" s="16" t="s">
-        <v>761</v>
+        <v>717</v>
       </c>
       <c r="C280" s="16"/>
       <c r="D280" s="2"/>
@@ -8059,10 +8062,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="16" t="s">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="B281" s="16" t="s">
-        <v>762</v>
+        <v>718</v>
       </c>
       <c r="C281" s="16"/>
       <c r="D281" s="2"/>
@@ -8072,10 +8075,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="16" t="s">
-        <v>491</v>
+        <v>447</v>
       </c>
       <c r="B282" s="16" t="s">
-        <v>764</v>
+        <v>720</v>
       </c>
       <c r="C282" s="16"/>
       <c r="D282" s="2"/>
@@ -8085,10 +8088,10 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="16" t="s">
-        <v>492</v>
+        <v>448</v>
       </c>
       <c r="B283" s="16" t="s">
-        <v>765</v>
+        <v>721</v>
       </c>
       <c r="C283" s="16"/>
       <c r="D283" s="2"/>
@@ -8098,10 +8101,10 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="16" t="s">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="B284" s="16" t="s">
-        <v>766</v>
+        <v>722</v>
       </c>
       <c r="C284" s="16"/>
       <c r="D284" s="2"/>
@@ -8111,10 +8114,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="16" t="s">
-        <v>494</v>
+        <v>450</v>
       </c>
       <c r="B285" s="16" t="s">
-        <v>767</v>
+        <v>723</v>
       </c>
       <c r="C285" s="16"/>
       <c r="D285" s="2"/>
@@ -8124,118 +8127,118 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="16" t="s">
-        <v>495</v>
+        <v>451</v>
       </c>
       <c r="B286" s="16" t="s">
-        <v>768</v>
+        <v>724</v>
       </c>
       <c r="C286" s="16"/>
       <c r="D286" s="2"/>
       <c r="E286" s="5" t="s">
-        <v>567</v>
+        <v>523</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="16" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="B287" s="16" t="s">
-        <v>769</v>
+        <v>725</v>
       </c>
       <c r="C287" s="16"/>
       <c r="D287" s="2"/>
       <c r="E287" s="5" t="s">
-        <v>567</v>
+        <v>523</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="16" t="s">
-        <v>497</v>
+        <v>453</v>
       </c>
       <c r="B288" s="16" t="s">
-        <v>770</v>
+        <v>726</v>
       </c>
       <c r="C288" s="16"/>
       <c r="D288" s="2"/>
       <c r="E288" s="5" t="s">
-        <v>567</v>
+        <v>523</v>
       </c>
     </row>
     <row r="289" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="16" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="B289" s="16" t="s">
-        <v>772</v>
+        <v>728</v>
       </c>
       <c r="C289" s="16"/>
       <c r="D289" s="2"/>
       <c r="E289" s="5" t="s">
-        <v>567</v>
+        <v>523</v>
       </c>
       <c r="F289" s="1"/>
       <c r="G289" s="7"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="16" t="s">
-        <v>498</v>
+        <v>454</v>
       </c>
       <c r="B290" s="16" t="s">
-        <v>773</v>
+        <v>729</v>
       </c>
       <c r="C290" s="16"/>
       <c r="D290" s="2"/>
       <c r="E290" s="5" t="s">
-        <v>567</v>
+        <v>523</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="16" t="s">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="B291" s="16" t="s">
-        <v>774</v>
+        <v>730</v>
       </c>
       <c r="C291" s="16"/>
       <c r="D291" s="2"/>
       <c r="E291" s="5" t="s">
-        <v>567</v>
+        <v>523</v>
       </c>
     </row>
     <row r="292" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="16" t="s">
-        <v>500</v>
+        <v>456</v>
       </c>
       <c r="B292" s="16" t="s">
-        <v>775</v>
+        <v>731</v>
       </c>
       <c r="C292" s="16"/>
       <c r="D292" s="2"/>
       <c r="E292" s="5" t="s">
-        <v>567</v>
+        <v>523</v>
       </c>
       <c r="F292" s="1"/>
       <c r="G292" s="7"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="16" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="B293" s="16" t="s">
-        <v>776</v>
+        <v>732</v>
       </c>
       <c r="C293" s="16"/>
       <c r="D293" s="2"/>
       <c r="E293" s="5" t="s">
-        <v>567</v>
+        <v>523</v>
       </c>
     </row>
     <row r="294" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="16" t="s">
-        <v>502</v>
+        <v>458</v>
       </c>
       <c r="B294" s="16" t="s">
-        <v>777</v>
+        <v>733</v>
       </c>
       <c r="C294" s="16"/>
       <c r="D294" s="2"/>
@@ -8247,10 +8250,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="16" t="s">
-        <v>503</v>
+        <v>459</v>
       </c>
       <c r="B295" s="16" t="s">
-        <v>779</v>
+        <v>735</v>
       </c>
       <c r="C295" s="16"/>
       <c r="D295" s="2"/>
@@ -8260,10 +8263,10 @@
     </row>
     <row r="296" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="16" t="s">
-        <v>504</v>
+        <v>460</v>
       </c>
       <c r="B296" s="16" t="s">
-        <v>780</v>
+        <v>736</v>
       </c>
       <c r="C296" s="16"/>
       <c r="D296" s="2"/>
@@ -8275,10 +8278,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="16" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="B297" s="16" t="s">
-        <v>781</v>
+        <v>737</v>
       </c>
       <c r="C297" s="16"/>
       <c r="D297" s="2"/>
@@ -8288,10 +8291,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="16" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="B298" s="16" t="s">
-        <v>782</v>
+        <v>738</v>
       </c>
       <c r="C298" s="16"/>
       <c r="D298" s="2"/>
@@ -8301,10 +8304,10 @@
     </row>
     <row r="299" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="16" t="s">
-        <v>507</v>
+        <v>463</v>
       </c>
       <c r="B299" s="16" t="s">
-        <v>783</v>
+        <v>739</v>
       </c>
       <c r="C299" s="16"/>
       <c r="D299" s="2"/>
@@ -8316,10 +8319,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="16" t="s">
-        <v>508</v>
+        <v>464</v>
       </c>
       <c r="B300" s="16" t="s">
-        <v>784</v>
+        <v>740</v>
       </c>
       <c r="C300" s="16"/>
       <c r="D300" s="2"/>
@@ -8329,10 +8332,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="16" t="s">
-        <v>509</v>
+        <v>465</v>
       </c>
       <c r="B301" s="16" t="s">
-        <v>785</v>
+        <v>741</v>
       </c>
       <c r="C301" s="16"/>
       <c r="D301" s="2"/>
@@ -8342,10 +8345,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="16" t="s">
-        <v>510</v>
+        <v>466</v>
       </c>
       <c r="B302" s="16" t="s">
-        <v>786</v>
+        <v>742</v>
       </c>
       <c r="C302" s="16"/>
       <c r="D302" s="2"/>
@@ -8355,10 +8358,10 @@
     </row>
     <row r="303" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="16" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="B303" s="16" t="s">
-        <v>787</v>
+        <v>743</v>
       </c>
       <c r="C303" s="16"/>
       <c r="D303" s="2"/>
@@ -8370,10 +8373,10 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="22" t="s">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="B304" s="16" t="s">
-        <v>788</v>
+        <v>744</v>
       </c>
       <c r="C304" s="16"/>
       <c r="D304" s="2"/>
@@ -8383,10 +8386,10 @@
     </row>
     <row r="305" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="16" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="B305" s="16" t="s">
-        <v>789</v>
+        <v>745</v>
       </c>
       <c r="C305" s="16"/>
       <c r="D305" s="2"/>
@@ -8398,10 +8401,10 @@
     </row>
     <row r="306" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="16" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="B306" s="16" t="s">
-        <v>790</v>
+        <v>746</v>
       </c>
       <c r="C306" s="16"/>
       <c r="D306" s="2"/>
@@ -8413,10 +8416,10 @@
     </row>
     <row r="307" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="16" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="B307" s="16" t="s">
-        <v>791</v>
+        <v>747</v>
       </c>
       <c r="C307" s="16"/>
       <c r="D307" s="2"/>
@@ -8428,10 +8431,10 @@
     </row>
     <row r="308" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="16" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="B308" s="16" t="s">
-        <v>792</v>
+        <v>748</v>
       </c>
       <c r="C308" s="16"/>
       <c r="D308" s="2"/>
@@ -8443,485 +8446,485 @@
     </row>
     <row r="309" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="16" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="B309" s="16" t="s">
-        <v>793</v>
+        <v>749</v>
       </c>
       <c r="C309" s="16"/>
       <c r="D309" s="2"/>
       <c r="E309" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="F309" s="1"/>
       <c r="G309" s="7"/>
     </row>
     <row r="310" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="16" t="s">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="B310" s="16" t="s">
-        <v>794</v>
+        <v>750</v>
       </c>
       <c r="C310" s="16"/>
       <c r="D310" s="2"/>
       <c r="E310" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="F310" s="1"/>
       <c r="G310" s="7"/>
     </row>
     <row r="311" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="16" t="s">
-        <v>518</v>
+        <v>474</v>
       </c>
       <c r="B311" s="16" t="s">
-        <v>795</v>
+        <v>751</v>
       </c>
       <c r="C311" s="16"/>
       <c r="D311" s="2"/>
       <c r="E311" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="F311" s="1"/>
       <c r="G311" s="7"/>
     </row>
     <row r="312" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="16" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="B312" s="16" t="s">
-        <v>796</v>
+        <v>752</v>
       </c>
       <c r="C312" s="16"/>
       <c r="D312" s="2"/>
       <c r="E312" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="F312" s="1"/>
       <c r="G312" s="7"/>
     </row>
     <row r="313" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="16" t="s">
-        <v>520</v>
+        <v>476</v>
       </c>
       <c r="B313" s="16" t="s">
-        <v>797</v>
+        <v>753</v>
       </c>
       <c r="C313" s="16"/>
       <c r="D313" s="2"/>
       <c r="E313" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="F313" s="1"/>
       <c r="G313" s="7"/>
     </row>
     <row r="314" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="16" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
       <c r="B314" s="16" t="s">
-        <v>798</v>
+        <v>754</v>
       </c>
       <c r="C314" s="16"/>
       <c r="D314" s="2"/>
       <c r="E314" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="F314" s="1"/>
       <c r="G314" s="7"/>
     </row>
     <row r="315" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="16" t="s">
-        <v>521</v>
+        <v>477</v>
       </c>
       <c r="B315" s="16" t="s">
-        <v>799</v>
+        <v>755</v>
       </c>
       <c r="C315" s="16"/>
       <c r="D315" s="2"/>
       <c r="E315" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="F315" s="1"/>
       <c r="G315" s="7"/>
     </row>
     <row r="316" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="16" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="B316" s="16" t="s">
-        <v>800</v>
+        <v>756</v>
       </c>
       <c r="C316" s="16"/>
       <c r="D316" s="2"/>
       <c r="E316" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="F316" s="1"/>
       <c r="G316" s="7"/>
     </row>
     <row r="317" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="16" t="s">
-        <v>453</v>
+        <v>409</v>
       </c>
       <c r="B317" s="16" t="s">
-        <v>801</v>
+        <v>757</v>
       </c>
       <c r="C317" s="16"/>
       <c r="D317" s="2"/>
       <c r="E317" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="F317" s="1"/>
       <c r="G317" s="7"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="16" t="s">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="B318" s="16" t="s">
-        <v>802</v>
+        <v>758</v>
       </c>
       <c r="C318" s="16"/>
       <c r="D318" s="2"/>
       <c r="E318" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
     </row>
     <row r="319" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="16" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
       <c r="B319" s="16" t="s">
-        <v>803</v>
+        <v>759</v>
       </c>
       <c r="C319" s="16"/>
       <c r="D319" s="2"/>
       <c r="E319" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="F319" s="1"/>
       <c r="G319" s="7"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="16" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="B320" s="16" t="s">
-        <v>804</v>
+        <v>760</v>
       </c>
       <c r="C320" s="16"/>
       <c r="D320" s="2"/>
       <c r="E320" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="22" t="s">
-        <v>524</v>
+        <v>480</v>
       </c>
       <c r="B321" s="16" t="s">
-        <v>805</v>
+        <v>761</v>
       </c>
       <c r="C321" s="16"/>
       <c r="D321" s="2"/>
       <c r="E321" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
     </row>
     <row r="322" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="16" t="s">
-        <v>525</v>
+        <v>481</v>
       </c>
       <c r="B322" s="16" t="s">
-        <v>806</v>
+        <v>762</v>
       </c>
       <c r="C322" s="16"/>
       <c r="D322" s="2"/>
       <c r="E322" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="F322" s="1"/>
       <c r="G322" s="11"/>
     </row>
     <row r="323" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="16" t="s">
-        <v>422</v>
+        <v>378</v>
       </c>
       <c r="B323" s="16" t="s">
-        <v>807</v>
+        <v>763</v>
       </c>
       <c r="C323" s="16"/>
       <c r="D323" s="2"/>
       <c r="E323" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="F323" s="1"/>
       <c r="G323" s="11"/>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="16" t="s">
-        <v>526</v>
+        <v>482</v>
       </c>
       <c r="B324" s="16" t="s">
-        <v>808</v>
+        <v>764</v>
       </c>
       <c r="C324" s="16"/>
       <c r="D324" s="2"/>
       <c r="E324" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="32" t="s">
-        <v>528</v>
+        <v>484</v>
       </c>
       <c r="B325" s="16" t="s">
-        <v>809</v>
+        <v>765</v>
       </c>
       <c r="C325" s="16"/>
       <c r="D325" s="2"/>
       <c r="E325" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="16" t="s">
-        <v>527</v>
+        <v>483</v>
       </c>
       <c r="B326" s="16" t="s">
-        <v>810</v>
+        <v>766</v>
       </c>
       <c r="C326" s="16"/>
       <c r="D326" s="2"/>
       <c r="E326" s="6" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
     </row>
     <row r="327" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="16" t="s">
-        <v>1222</v>
+        <v>1177</v>
       </c>
       <c r="B327" s="16" t="s">
-        <v>811</v>
+        <v>767</v>
       </c>
       <c r="C327" s="16"/>
       <c r="D327" s="2"/>
       <c r="E327" s="5" t="s">
-        <v>571</v>
+        <v>527</v>
       </c>
       <c r="F327" s="7"/>
       <c r="G327" s="12"/>
     </row>
     <row r="328" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="16" t="s">
-        <v>1223</v>
+        <v>1178</v>
       </c>
       <c r="B328" s="16" t="s">
-        <v>812</v>
+        <v>768</v>
       </c>
       <c r="C328" s="16"/>
       <c r="D328" s="2"/>
       <c r="E328" s="5" t="s">
-        <v>571</v>
+        <v>527</v>
       </c>
       <c r="F328" s="7"/>
       <c r="G328" s="12"/>
     </row>
     <row r="329" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="16" t="s">
-        <v>561</v>
+        <v>517</v>
       </c>
       <c r="B329" s="16" t="s">
-        <v>813</v>
+        <v>769</v>
       </c>
       <c r="C329" s="16"/>
       <c r="D329" s="2"/>
       <c r="E329" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F329" s="7"/>
       <c r="G329" s="12"/>
     </row>
     <row r="330" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="16" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="B330" s="16" t="s">
-        <v>814</v>
+        <v>770</v>
       </c>
       <c r="C330" s="16"/>
       <c r="D330" s="2"/>
       <c r="E330" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F330" s="7"/>
       <c r="G330" s="12"/>
     </row>
     <row r="331" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="16" t="s">
-        <v>530</v>
+        <v>486</v>
       </c>
       <c r="B331" s="16" t="s">
-        <v>815</v>
+        <v>771</v>
       </c>
       <c r="C331" s="16"/>
       <c r="D331" s="2"/>
       <c r="E331" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F331" s="7"/>
       <c r="G331" s="12"/>
     </row>
     <row r="332" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="16" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="B332" s="16" t="s">
-        <v>816</v>
+        <v>772</v>
       </c>
       <c r="C332" s="16"/>
       <c r="D332" s="2"/>
       <c r="E332" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F332" s="7"/>
       <c r="G332" s="12"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="22" t="s">
-        <v>533</v>
+        <v>489</v>
       </c>
       <c r="B333" s="16" t="s">
-        <v>817</v>
+        <v>773</v>
       </c>
       <c r="C333" s="16"/>
       <c r="D333" s="2"/>
       <c r="E333" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="16" t="s">
-        <v>532</v>
+        <v>488</v>
       </c>
       <c r="B334" s="16" t="s">
-        <v>818</v>
+        <v>774</v>
       </c>
       <c r="C334" s="16"/>
       <c r="D334" s="2"/>
       <c r="E334" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="16" t="s">
-        <v>534</v>
+        <v>490</v>
       </c>
       <c r="B335" s="16" t="s">
-        <v>819</v>
+        <v>775</v>
       </c>
       <c r="C335" s="16"/>
       <c r="D335" s="2"/>
       <c r="E335" s="5" t="s">
-        <v>570</v>
+        <v>526</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="16" t="s">
-        <v>535</v>
+        <v>491</v>
       </c>
       <c r="B336" s="16" t="s">
-        <v>820</v>
+        <v>776</v>
       </c>
       <c r="C336" s="16"/>
       <c r="D336" s="2"/>
       <c r="E336" s="5" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="337" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="22" t="s">
-        <v>536</v>
+        <v>492</v>
       </c>
       <c r="B337" s="16" t="s">
-        <v>821</v>
+        <v>777</v>
       </c>
       <c r="C337" s="16"/>
       <c r="D337" s="2"/>
       <c r="E337" s="5" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="F337" s="7"/>
       <c r="G337" s="12"/>
     </row>
     <row r="338" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="16" t="s">
-        <v>537</v>
+        <v>493</v>
       </c>
       <c r="B338" s="16" t="s">
-        <v>822</v>
+        <v>778</v>
       </c>
       <c r="C338" s="16"/>
       <c r="D338" s="2"/>
       <c r="E338" s="5" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="F338" s="7"/>
       <c r="G338" s="12"/>
     </row>
     <row r="339" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="16" t="s">
-        <v>538</v>
+        <v>494</v>
       </c>
       <c r="B339" s="16" t="s">
-        <v>823</v>
+        <v>779</v>
       </c>
       <c r="C339" s="16"/>
       <c r="D339" s="2"/>
       <c r="E339" s="5" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="F339" s="7"/>
       <c r="G339" s="12"/>
     </row>
     <row r="340" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="16" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
       <c r="B340" s="16" t="s">
-        <v>824</v>
+        <v>780</v>
       </c>
       <c r="C340" s="16"/>
       <c r="D340" s="2"/>
       <c r="E340" s="5" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="F340" s="7"/>
       <c r="G340" s="12"/>
     </row>
     <row r="341" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="16" t="s">
-        <v>540</v>
+        <v>496</v>
       </c>
       <c r="B341" s="16" t="s">
-        <v>825</v>
+        <v>781</v>
       </c>
       <c r="C341" s="16"/>
       <c r="D341" s="2"/>
       <c r="E341" s="5" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="F341" s="7"/>
       <c r="G341" s="12"/>
     </row>
     <row r="342" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="16" t="s">
-        <v>1225</v>
+        <v>1180</v>
       </c>
       <c r="B342" s="16" t="s">
-        <v>826</v>
+        <v>782</v>
       </c>
       <c r="C342" s="16"/>
       <c r="D342" s="2"/>
@@ -8933,10 +8936,10 @@
     </row>
     <row r="343" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="16" t="s">
-        <v>1224</v>
+        <v>1179</v>
       </c>
       <c r="B343" s="16" t="s">
-        <v>827</v>
+        <v>783</v>
       </c>
       <c r="C343" s="16"/>
       <c r="D343" s="2"/>
@@ -8948,30 +8951,30 @@
     </row>
     <row r="344" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="18" t="s">
-        <v>541</v>
+        <v>497</v>
       </c>
       <c r="B344" s="16" t="s">
-        <v>828</v>
+        <v>784</v>
       </c>
       <c r="C344" s="16"/>
       <c r="D344" s="2"/>
       <c r="E344" s="6" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="F344" s="7"/>
       <c r="G344" s="12"/>
     </row>
     <row r="345" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="16" t="s">
-        <v>542</v>
+        <v>498</v>
       </c>
       <c r="B345" s="16" t="s">
-        <v>829</v>
+        <v>785</v>
       </c>
       <c r="C345" s="16"/>
       <c r="D345" s="2"/>
       <c r="E345" s="6" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="F345" s="7"/>
       <c r="G345" s="13"/>
@@ -8979,468 +8982,468 @@
     </row>
     <row r="346" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="16" t="s">
-        <v>543</v>
+        <v>499</v>
       </c>
       <c r="B346" s="16" t="s">
-        <v>830</v>
+        <v>786</v>
       </c>
       <c r="C346" s="16"/>
       <c r="D346" s="2"/>
       <c r="E346" s="6" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="F346" s="1"/>
       <c r="G346" s="12"/>
     </row>
     <row r="347" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="16" t="s">
-        <v>544</v>
+        <v>500</v>
       </c>
       <c r="B347" s="16" t="s">
-        <v>831</v>
+        <v>787</v>
       </c>
       <c r="C347" s="16"/>
       <c r="D347" s="2"/>
       <c r="E347" s="6" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="F347" s="1"/>
       <c r="G347" s="12"/>
     </row>
     <row r="348" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="22" t="s">
-        <v>545</v>
+        <v>501</v>
       </c>
       <c r="B348" s="16" t="s">
-        <v>832</v>
+        <v>788</v>
       </c>
       <c r="C348" s="16"/>
       <c r="D348" s="2"/>
       <c r="E348" s="6" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="F348" s="7"/>
       <c r="G348" s="12"/>
     </row>
     <row r="349" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="16" t="s">
-        <v>546</v>
+        <v>502</v>
       </c>
       <c r="B349" s="16" t="s">
-        <v>833</v>
+        <v>789</v>
       </c>
       <c r="C349" s="16"/>
       <c r="D349" s="2"/>
       <c r="E349" s="6" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="F349" s="7"/>
       <c r="G349" s="12"/>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="22" t="s">
-        <v>547</v>
+        <v>503</v>
       </c>
       <c r="B350" s="16" t="s">
-        <v>834</v>
+        <v>790</v>
       </c>
       <c r="C350" s="16"/>
       <c r="D350" s="2"/>
       <c r="E350" s="6" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="16" t="s">
-        <v>548</v>
+        <v>504</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>835</v>
+        <v>791</v>
       </c>
       <c r="C351" s="16"/>
       <c r="D351" s="2"/>
       <c r="E351" s="6" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="16" t="s">
-        <v>549</v>
+        <v>505</v>
       </c>
       <c r="B352" s="16" t="s">
-        <v>836</v>
+        <v>792</v>
       </c>
       <c r="C352" s="16"/>
       <c r="D352" s="2"/>
       <c r="E352" s="6" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="16" t="s">
-        <v>550</v>
+        <v>506</v>
       </c>
       <c r="B353" s="16" t="s">
-        <v>837</v>
+        <v>793</v>
       </c>
       <c r="C353" s="16"/>
       <c r="D353" s="2"/>
       <c r="E353" s="6" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="16" t="s">
-        <v>551</v>
+        <v>507</v>
       </c>
       <c r="B354" s="16" t="s">
-        <v>838</v>
+        <v>794</v>
       </c>
       <c r="C354" s="16"/>
       <c r="D354" s="2"/>
       <c r="E354" s="6" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="16" t="s">
-        <v>552</v>
+        <v>508</v>
       </c>
       <c r="B355" s="16" t="s">
-        <v>839</v>
+        <v>795</v>
       </c>
       <c r="C355" s="16"/>
       <c r="D355" s="2"/>
       <c r="E355" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="16" t="s">
-        <v>553</v>
+        <v>509</v>
       </c>
       <c r="B356" s="16" t="s">
-        <v>840</v>
+        <v>796</v>
       </c>
       <c r="C356" s="16"/>
       <c r="D356" s="2"/>
       <c r="E356" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="16" t="s">
-        <v>554</v>
+        <v>510</v>
       </c>
       <c r="B357" s="16" t="s">
-        <v>841</v>
+        <v>797</v>
       </c>
       <c r="C357" s="16"/>
       <c r="D357" s="2"/>
       <c r="E357" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="16" t="s">
-        <v>555</v>
+        <v>511</v>
       </c>
       <c r="B358" s="16" t="s">
-        <v>842</v>
+        <v>798</v>
       </c>
       <c r="C358" s="16"/>
       <c r="D358" s="2"/>
       <c r="E358" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="359" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="16" t="s">
-        <v>556</v>
+        <v>512</v>
       </c>
       <c r="B359" s="16" t="s">
-        <v>843</v>
+        <v>799</v>
       </c>
       <c r="C359" s="16"/>
       <c r="D359" s="2"/>
       <c r="E359" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F359" s="1"/>
       <c r="G359" s="12"/>
     </row>
     <row r="360" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="16" t="s">
-        <v>557</v>
+        <v>513</v>
       </c>
       <c r="B360" s="16" t="s">
-        <v>844</v>
+        <v>800</v>
       </c>
       <c r="C360" s="16"/>
       <c r="D360" s="2"/>
       <c r="E360" s="5" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="F360" s="1"/>
       <c r="G360" s="12"/>
     </row>
     <row r="361" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="22" t="s">
-        <v>558</v>
+        <v>514</v>
       </c>
       <c r="B361" s="16" t="s">
-        <v>845</v>
+        <v>801</v>
       </c>
       <c r="C361" s="16"/>
       <c r="D361" s="2"/>
       <c r="E361" s="5" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="F361" s="7"/>
       <c r="G361" s="12"/>
     </row>
     <row r="362" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="16" t="s">
-        <v>559</v>
+        <v>515</v>
       </c>
       <c r="B362" s="16" t="s">
-        <v>846</v>
+        <v>802</v>
       </c>
       <c r="C362" s="16"/>
       <c r="D362" s="2"/>
       <c r="E362" s="5" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="F362" s="1"/>
     </row>
     <row r="363" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="16" t="s">
-        <v>560</v>
+        <v>516</v>
       </c>
       <c r="B363" s="16" t="s">
-        <v>847</v>
+        <v>803</v>
       </c>
       <c r="C363" s="16"/>
       <c r="D363" s="2"/>
       <c r="E363" s="5" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="F363" s="1"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="19" t="s">
-        <v>430</v>
+        <v>386</v>
       </c>
       <c r="B364" s="16" t="s">
-        <v>848</v>
+        <v>804</v>
       </c>
       <c r="C364" s="16"/>
       <c r="D364" s="2"/>
       <c r="E364" s="5" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="16" t="s">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="B365" s="16" t="s">
-        <v>849</v>
+        <v>805</v>
       </c>
       <c r="C365" s="16"/>
       <c r="D365" s="2"/>
       <c r="E365" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="16" t="s">
-        <v>423</v>
+        <v>379</v>
       </c>
       <c r="B366" s="16" t="s">
-        <v>850</v>
+        <v>806</v>
       </c>
       <c r="C366" s="16"/>
       <c r="D366" s="2"/>
       <c r="E366" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="16" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="B367" s="16" t="s">
-        <v>851</v>
+        <v>807</v>
       </c>
       <c r="C367" s="16"/>
       <c r="D367" s="2"/>
       <c r="E367" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="16" t="s">
-        <v>425</v>
+        <v>381</v>
       </c>
       <c r="B368" s="16" t="s">
-        <v>852</v>
+        <v>808</v>
       </c>
       <c r="C368" s="16"/>
       <c r="D368" s="2"/>
       <c r="E368" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="16" t="s">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="B369" s="16" t="s">
-        <v>853</v>
+        <v>809</v>
       </c>
       <c r="C369" s="16"/>
       <c r="D369" s="2"/>
       <c r="E369" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="16" t="s">
-        <v>427</v>
+        <v>383</v>
       </c>
       <c r="B370" s="16" t="s">
-        <v>854</v>
+        <v>810</v>
       </c>
       <c r="C370" s="16"/>
       <c r="D370" s="2"/>
       <c r="E370" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="16" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="B371" s="16" t="s">
-        <v>855</v>
+        <v>811</v>
       </c>
       <c r="C371" s="16"/>
       <c r="D371" s="2"/>
       <c r="E371" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="16" t="s">
-        <v>429</v>
+        <v>385</v>
       </c>
       <c r="B372" s="16" t="s">
-        <v>856</v>
+        <v>812</v>
       </c>
       <c r="C372" s="16"/>
       <c r="D372" s="2"/>
       <c r="E372" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="16" t="s">
-        <v>416</v>
+        <v>372</v>
       </c>
       <c r="B373" s="16" t="s">
-        <v>857</v>
+        <v>813</v>
       </c>
       <c r="C373" s="16"/>
       <c r="D373" s="2"/>
       <c r="E373" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="22" t="s">
-        <v>431</v>
+        <v>387</v>
       </c>
       <c r="B374" s="16" t="s">
-        <v>859</v>
+        <v>815</v>
       </c>
       <c r="C374" s="16"/>
       <c r="D374" s="2"/>
       <c r="E374" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="16" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="B375" s="16" t="s">
-        <v>860</v>
+        <v>816</v>
       </c>
       <c r="C375" s="16"/>
       <c r="D375" s="2"/>
       <c r="E375" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="16" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="B376" s="16" t="s">
-        <v>862</v>
+        <v>818</v>
       </c>
       <c r="C376" s="16"/>
       <c r="D376" s="2"/>
       <c r="E376" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="16" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="B377" s="16" t="s">
-        <v>864</v>
+        <v>820</v>
       </c>
       <c r="C377" s="16"/>
       <c r="D377" s="2"/>
       <c r="E377" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="16" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="B378" s="16" t="s">
-        <v>866</v>
+        <v>822</v>
       </c>
       <c r="C378" s="16"/>
       <c r="D378" s="2"/>
       <c r="E378" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="16" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="B379" s="16" t="s">
-        <v>867</v>
+        <v>823</v>
       </c>
       <c r="C379" s="16"/>
       <c r="D379" s="2"/>
       <c r="E379" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="16" t="s">
-        <v>1226</v>
+        <v>1181</v>
       </c>
       <c r="B380" s="16" t="s">
-        <v>869</v>
+        <v>825</v>
       </c>
       <c r="C380" s="16"/>
       <c r="D380" s="2"/>
@@ -9450,10 +9453,10 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="16" t="s">
-        <v>1227</v>
+        <v>1182</v>
       </c>
       <c r="B381" s="16" t="s">
-        <v>870</v>
+        <v>826</v>
       </c>
       <c r="C381" s="16"/>
       <c r="D381" s="2"/>
@@ -9463,10 +9466,10 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="16" t="s">
-        <v>1228</v>
+        <v>1183</v>
       </c>
       <c r="B382" s="16" t="s">
-        <v>871</v>
+        <v>827</v>
       </c>
       <c r="C382" s="16"/>
       <c r="D382" s="2"/>
@@ -9476,36 +9479,36 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="16" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="B383" s="16" t="s">
-        <v>873</v>
+        <v>829</v>
       </c>
       <c r="C383" s="16"/>
       <c r="D383" s="2"/>
       <c r="E383" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="16" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="B384" s="16" t="s">
-        <v>887</v>
+        <v>843</v>
       </c>
       <c r="C384" s="16"/>
       <c r="D384" s="2"/>
       <c r="E384" s="5" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="16" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="B385" s="16" t="s">
-        <v>889</v>
+        <v>845</v>
       </c>
       <c r="C385" s="16"/>
       <c r="D385" s="2"/>
@@ -9515,10 +9518,10 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="16" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="B386" s="16" t="s">
-        <v>890</v>
+        <v>846</v>
       </c>
       <c r="C386" s="16"/>
       <c r="D386" s="2"/>
@@ -9528,23 +9531,23 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="16" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="B387" s="16" t="s">
-        <v>893</v>
+        <v>849</v>
       </c>
       <c r="C387" s="16"/>
       <c r="D387" s="2"/>
       <c r="E387" s="5" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="16" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="B388" s="16" t="s">
-        <v>894</v>
+        <v>850</v>
       </c>
       <c r="C388" s="16"/>
       <c r="D388" s="2"/>
@@ -9554,10 +9557,10 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="16" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="B389" s="16" t="s">
-        <v>895</v>
+        <v>851</v>
       </c>
       <c r="C389" s="16"/>
       <c r="D389" s="2"/>
@@ -9567,10 +9570,10 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="16" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="B390" s="16" t="s">
-        <v>902</v>
+        <v>858</v>
       </c>
       <c r="C390" s="16"/>
       <c r="D390" s="2"/>
@@ -9580,10 +9583,10 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="16" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="B391" s="16" t="s">
-        <v>903</v>
+        <v>859</v>
       </c>
       <c r="C391" s="16"/>
       <c r="D391" s="2"/>
@@ -9593,10 +9596,10 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="16" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="B392" s="16" t="s">
-        <v>904</v>
+        <v>860</v>
       </c>
       <c r="C392" s="16"/>
       <c r="D392" s="2"/>
@@ -9606,10 +9609,10 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="16" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="B393" s="16" t="s">
-        <v>905</v>
+        <v>861</v>
       </c>
       <c r="C393" s="16"/>
       <c r="D393" s="2"/>
@@ -9619,10 +9622,10 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="23" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="B394" s="16" t="s">
-        <v>919</v>
+        <v>875</v>
       </c>
       <c r="C394" s="16"/>
       <c r="D394" s="2"/>
@@ -9632,10 +9635,10 @@
     </row>
     <row r="395" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="16" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="B395" s="16" t="s">
-        <v>920</v>
+        <v>876</v>
       </c>
       <c r="C395" s="16"/>
       <c r="D395" s="2"/>
@@ -9646,63 +9649,63 @@
     </row>
     <row r="396" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="16" t="s">
-        <v>1229</v>
+        <v>1184</v>
       </c>
       <c r="B396" s="16" t="s">
-        <v>933</v>
+        <v>889</v>
       </c>
       <c r="C396" s="16"/>
       <c r="D396" s="2"/>
       <c r="E396" s="5" t="s">
-        <v>564</v>
+        <v>520</v>
       </c>
       <c r="F396" s="1"/>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="16" t="s">
-        <v>1230</v>
+        <v>1185</v>
       </c>
       <c r="B397" s="16" t="s">
-        <v>934</v>
+        <v>890</v>
       </c>
       <c r="C397" s="16"/>
       <c r="D397" s="2"/>
       <c r="E397" s="5" t="s">
-        <v>564</v>
+        <v>520</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="16" t="s">
-        <v>1231</v>
+        <v>1186</v>
       </c>
       <c r="B398" s="16" t="s">
-        <v>935</v>
+        <v>891</v>
       </c>
       <c r="C398" s="16"/>
       <c r="D398" s="2"/>
       <c r="E398" s="5" t="s">
-        <v>565</v>
+        <v>521</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="16" t="s">
-        <v>1232</v>
+        <v>1187</v>
       </c>
       <c r="B399" s="16" t="s">
-        <v>936</v>
+        <v>892</v>
       </c>
       <c r="C399" s="16"/>
       <c r="D399" s="2"/>
       <c r="E399" s="5" t="s">
-        <v>565</v>
+        <v>521</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="16" t="s">
-        <v>1220</v>
+        <v>1176</v>
       </c>
       <c r="B400" s="16" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
       <c r="C400" s="16"/>
       <c r="D400" s="2"/>
@@ -9712,10 +9715,10 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="17" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B401" s="16" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="C401" s="16"/>
       <c r="D401" s="2"/>
@@ -9725,10 +9728,10 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="17" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B402" s="16" t="s">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="C402" s="16"/>
       <c r="D402" s="2"/>
@@ -9738,10 +9741,10 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="17" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B403" s="16" t="s">
-        <v>601</v>
+        <v>557</v>
       </c>
       <c r="C403" s="16"/>
       <c r="D403" s="2"/>
@@ -9751,10 +9754,10 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="17" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B404" s="16" t="s">
-        <v>602</v>
+        <v>558</v>
       </c>
       <c r="C404" s="16"/>
       <c r="D404" s="2"/>
@@ -9764,10 +9767,10 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="17" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B405" s="16" t="s">
-        <v>603</v>
+        <v>559</v>
       </c>
       <c r="C405" s="16"/>
       <c r="D405" s="2"/>
@@ -9777,62 +9780,62 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="16" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B406" s="16" t="s">
-        <v>604</v>
+        <v>560</v>
       </c>
       <c r="C406" s="16"/>
       <c r="D406" s="2"/>
       <c r="E406" s="5" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="16" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B407" s="16" t="s">
-        <v>605</v>
+        <v>561</v>
       </c>
       <c r="C407" s="16"/>
       <c r="D407" s="2"/>
       <c r="E407" s="5" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="16" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B408" s="16" t="s">
-        <v>606</v>
+        <v>562</v>
       </c>
       <c r="C408" s="16"/>
       <c r="D408" s="2"/>
       <c r="E408" s="5" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="16" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B409" s="16" t="s">
-        <v>607</v>
+        <v>563</v>
       </c>
       <c r="C409" s="16"/>
       <c r="D409" s="2"/>
       <c r="E409" s="5" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="16" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B410" s="16" t="s">
-        <v>608</v>
+        <v>564</v>
       </c>
       <c r="C410" s="16"/>
       <c r="D410" s="2"/>
@@ -9842,10 +9845,10 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="16" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B411" s="16" t="s">
-        <v>609</v>
+        <v>565</v>
       </c>
       <c r="C411" s="16"/>
       <c r="D411" s="2"/>
@@ -9855,10 +9858,10 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="16" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B412" s="16" t="s">
-        <v>610</v>
+        <v>566</v>
       </c>
       <c r="C412" s="16"/>
       <c r="D412" s="2"/>
@@ -9868,10 +9871,10 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="16" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B413" s="16" t="s">
-        <v>611</v>
+        <v>567</v>
       </c>
       <c r="C413" s="16"/>
       <c r="D413" s="2"/>
@@ -9881,10 +9884,10 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="16" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B414" s="16" t="s">
-        <v>612</v>
+        <v>568</v>
       </c>
       <c r="C414" s="16"/>
       <c r="D414" s="2"/>
@@ -9894,10 +9897,10 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="16" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B415" s="16" t="s">
-        <v>613</v>
+        <v>569</v>
       </c>
       <c r="C415" s="16"/>
       <c r="D415" s="2"/>
@@ -9907,10 +9910,10 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="16" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B416" s="16" t="s">
-        <v>614</v>
+        <v>570</v>
       </c>
       <c r="C416" s="16"/>
       <c r="D416" s="2"/>
@@ -9920,10 +9923,10 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="16" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B417" s="16" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
       <c r="C417" s="16"/>
       <c r="D417" s="2"/>
@@ -9933,49 +9936,49 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="16" t="s">
-        <v>1233</v>
+        <v>1188</v>
       </c>
       <c r="B418" s="16" t="s">
-        <v>616</v>
+        <v>572</v>
       </c>
       <c r="C418" s="16"/>
       <c r="D418" s="2"/>
       <c r="E418" s="5" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="16" t="s">
-        <v>1234</v>
+        <v>1189</v>
       </c>
       <c r="B419" s="16" t="s">
-        <v>617</v>
+        <v>573</v>
       </c>
       <c r="C419" s="16"/>
       <c r="D419" s="2"/>
       <c r="E419" s="5" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="16" t="s">
-        <v>1235</v>
+        <v>1190</v>
       </c>
       <c r="B420" s="16" t="s">
-        <v>618</v>
+        <v>574</v>
       </c>
       <c r="C420" s="16"/>
       <c r="D420" s="2"/>
       <c r="E420" s="5" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="16" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B421" s="16" t="s">
-        <v>623</v>
+        <v>579</v>
       </c>
       <c r="C421" s="16"/>
       <c r="D421" s="2"/>
@@ -9985,10 +9988,10 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="16" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B422" s="16" t="s">
-        <v>624</v>
+        <v>580</v>
       </c>
       <c r="C422" s="16"/>
       <c r="D422" s="2"/>
@@ -9998,10 +10001,10 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="16" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B423" s="16" t="s">
-        <v>625</v>
+        <v>581</v>
       </c>
       <c r="C423" s="16"/>
       <c r="D423" s="2"/>
@@ -10011,10 +10014,10 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="16" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B424" s="16" t="s">
-        <v>626</v>
+        <v>582</v>
       </c>
       <c r="C424" s="16"/>
       <c r="D424" s="2"/>
@@ -10024,10 +10027,10 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="16" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B425" s="16" t="s">
-        <v>627</v>
+        <v>583</v>
       </c>
       <c r="C425" s="16"/>
       <c r="D425" s="2"/>
@@ -10037,10 +10040,10 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="16" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B426" s="16" t="s">
-        <v>628</v>
+        <v>584</v>
       </c>
       <c r="C426" s="16"/>
       <c r="D426" s="2"/>
@@ -10050,10 +10053,10 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="16" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="B427" s="16" t="s">
-        <v>629</v>
+        <v>585</v>
       </c>
       <c r="C427" s="16"/>
       <c r="D427" s="2"/>
@@ -10063,10 +10066,10 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="16" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="B428" s="16" t="s">
-        <v>630</v>
+        <v>586</v>
       </c>
       <c r="C428" s="16"/>
       <c r="D428" s="2"/>
@@ -10076,10 +10079,10 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="16" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="B429" s="16" t="s">
-        <v>631</v>
+        <v>587</v>
       </c>
       <c r="C429" s="16"/>
       <c r="D429" s="2"/>
@@ -10089,10 +10092,10 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="16" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="B430" s="16" t="s">
-        <v>632</v>
+        <v>588</v>
       </c>
       <c r="C430" s="16"/>
       <c r="D430" s="2"/>
@@ -10102,10 +10105,10 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="16" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="B431" s="16" t="s">
-        <v>633</v>
+        <v>589</v>
       </c>
       <c r="C431" s="16"/>
       <c r="D431" s="2"/>
@@ -10115,10 +10118,10 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="16" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="B432" s="16" t="s">
-        <v>634</v>
+        <v>590</v>
       </c>
       <c r="C432" s="16"/>
       <c r="D432" s="2"/>
@@ -10128,10 +10131,10 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="16" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="B433" s="16" t="s">
-        <v>635</v>
+        <v>591</v>
       </c>
       <c r="C433" s="16"/>
       <c r="D433" s="2"/>
@@ -10141,10 +10144,10 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="16" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="B434" s="16" t="s">
-        <v>636</v>
+        <v>592</v>
       </c>
       <c r="C434" s="16"/>
       <c r="D434" s="2"/>
@@ -10154,10 +10157,10 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="16" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="B435" s="16" t="s">
-        <v>671</v>
+        <v>627</v>
       </c>
       <c r="C435" s="16"/>
       <c r="D435" s="2"/>
@@ -10167,10 +10170,10 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="16" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="B436" s="16" t="s">
-        <v>673</v>
+        <v>629</v>
       </c>
       <c r="C436" s="16"/>
       <c r="D436" s="2"/>
@@ -10180,10 +10183,10 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="16" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="B437" s="16" t="s">
-        <v>675</v>
+        <v>631</v>
       </c>
       <c r="C437" s="16"/>
       <c r="D437" s="2"/>
@@ -10193,10 +10196,10 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="16" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="B438" s="16" t="s">
-        <v>676</v>
+        <v>632</v>
       </c>
       <c r="C438" s="16"/>
       <c r="D438" s="2"/>
@@ -10206,10 +10209,10 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="16" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="B439" s="16" t="s">
-        <v>677</v>
+        <v>633</v>
       </c>
       <c r="C439" s="16"/>
       <c r="D439" s="2"/>
@@ -10219,10 +10222,10 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="16" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="B440" s="16" t="s">
-        <v>680</v>
+        <v>636</v>
       </c>
       <c r="C440" s="16"/>
       <c r="D440" s="2"/>
@@ -10232,10 +10235,10 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="16" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="B441" s="16" t="s">
-        <v>682</v>
+        <v>638</v>
       </c>
       <c r="C441" s="16"/>
       <c r="D441" s="2"/>
@@ -10245,10 +10248,10 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="16" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="B442" s="16" t="s">
-        <v>684</v>
+        <v>640</v>
       </c>
       <c r="C442" s="16"/>
       <c r="D442" s="2"/>
@@ -10258,10 +10261,10 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="16" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="B443" s="16" t="s">
-        <v>685</v>
+        <v>641</v>
       </c>
       <c r="C443" s="16"/>
       <c r="D443" s="2"/>
@@ -10274,12 +10277,12 @@
         <v>79</v>
       </c>
       <c r="B444" s="16" t="s">
-        <v>921</v>
+        <v>877</v>
       </c>
       <c r="C444" s="16"/>
       <c r="D444" s="2"/>
       <c r="E444" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -10287,12 +10290,12 @@
         <v>82</v>
       </c>
       <c r="B445" s="16" t="s">
-        <v>922</v>
+        <v>878</v>
       </c>
       <c r="C445" s="16"/>
       <c r="D445" s="2"/>
       <c r="E445" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -10300,12 +10303,12 @@
         <v>83</v>
       </c>
       <c r="B446" s="16" t="s">
-        <v>923</v>
+        <v>879</v>
       </c>
       <c r="C446" s="16"/>
       <c r="D446" s="2"/>
       <c r="E446" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -10313,12 +10316,12 @@
         <v>84</v>
       </c>
       <c r="B447" s="16" t="s">
-        <v>924</v>
+        <v>880</v>
       </c>
       <c r="C447" s="16"/>
       <c r="D447" s="2"/>
       <c r="E447" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -10326,20 +10329,20 @@
         <v>85</v>
       </c>
       <c r="B448" s="16" t="s">
-        <v>925</v>
+        <v>881</v>
       </c>
       <c r="C448" s="16"/>
       <c r="D448" s="2"/>
       <c r="E448" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="16" t="s">
-        <v>1236</v>
+        <v>1191</v>
       </c>
       <c r="B449" s="16" t="s">
-        <v>926</v>
+        <v>882</v>
       </c>
       <c r="C449" s="16"/>
       <c r="D449" s="2"/>
@@ -10349,10 +10352,10 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="16" t="s">
-        <v>1237</v>
+        <v>1192</v>
       </c>
       <c r="B450" s="16" t="s">
-        <v>927</v>
+        <v>883</v>
       </c>
       <c r="C450" s="16"/>
       <c r="D450" s="2"/>
@@ -10362,10 +10365,10 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="16" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="B451" s="16" t="s">
-        <v>937</v>
+        <v>893</v>
       </c>
       <c r="C451" s="16"/>
       <c r="D451" s="2"/>
@@ -10375,10 +10378,10 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="16" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
       <c r="B452" s="16" t="s">
-        <v>938</v>
+        <v>894</v>
       </c>
       <c r="C452" s="16"/>
       <c r="D452" s="2"/>
@@ -10388,327 +10391,327 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="18" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="B453" s="16" t="s">
-        <v>939</v>
+        <v>895</v>
       </c>
       <c r="C453" s="16"/>
       <c r="D453" s="2"/>
       <c r="E453" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="16" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="B454" s="16" t="s">
-        <v>940</v>
+        <v>896</v>
       </c>
       <c r="C454" s="16"/>
       <c r="D454" s="2"/>
       <c r="E454" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="16" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="B455" s="16" t="s">
-        <v>941</v>
+        <v>897</v>
       </c>
       <c r="C455" s="16"/>
       <c r="D455" s="2"/>
       <c r="E455" s="5" t="s">
-        <v>568</v>
+        <v>524</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="16" t="s">
-        <v>414</v>
+        <v>370</v>
       </c>
       <c r="B456" s="16" t="s">
-        <v>942</v>
+        <v>898</v>
       </c>
       <c r="C456" s="16"/>
       <c r="D456" s="2"/>
       <c r="E456" s="5" t="s">
-        <v>569</v>
+        <v>525</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="18" t="s">
-        <v>410</v>
+        <v>366</v>
       </c>
       <c r="B457" s="16" t="s">
-        <v>943</v>
+        <v>899</v>
       </c>
       <c r="C457" s="16"/>
       <c r="D457" s="2"/>
       <c r="E457" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="16" t="s">
-        <v>411</v>
+        <v>367</v>
       </c>
       <c r="B458" s="16" t="s">
-        <v>944</v>
+        <v>900</v>
       </c>
       <c r="C458" s="16"/>
       <c r="D458" s="2"/>
       <c r="E458" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="16" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="B459" s="16" t="s">
-        <v>945</v>
+        <v>901</v>
       </c>
       <c r="C459" s="16"/>
       <c r="D459" s="2"/>
       <c r="E459" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="16" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
       <c r="B460" s="16" t="s">
-        <v>946</v>
+        <v>902</v>
       </c>
       <c r="C460" s="16"/>
       <c r="D460" s="2"/>
       <c r="E460" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="16" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="B461" s="16" t="s">
-        <v>947</v>
+        <v>903</v>
       </c>
       <c r="C461" s="16"/>
       <c r="D461" s="2"/>
       <c r="E461" s="5" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="16" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="B462" s="16" t="s">
-        <v>948</v>
+        <v>904</v>
       </c>
       <c r="C462" s="16"/>
       <c r="D462" s="2"/>
       <c r="E462" s="5" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="16" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="B463" s="16" t="s">
-        <v>949</v>
+        <v>905</v>
       </c>
       <c r="C463" s="16"/>
       <c r="D463" s="2"/>
       <c r="E463" s="5" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="16" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
       <c r="B464" s="16" t="s">
-        <v>950</v>
+        <v>906</v>
       </c>
       <c r="C464" s="16"/>
       <c r="D464" s="2"/>
       <c r="E464" s="5" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="16" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="B465" s="16" t="s">
-        <v>951</v>
+        <v>907</v>
       </c>
       <c r="C465" s="16"/>
       <c r="D465" s="2"/>
       <c r="E465" s="5" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="16" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="B466" s="16" t="s">
-        <v>952</v>
+        <v>908</v>
       </c>
       <c r="C466" s="16"/>
       <c r="D466" s="2"/>
       <c r="E466" s="5" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="16" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="B467" s="16" t="s">
-        <v>953</v>
+        <v>909</v>
       </c>
       <c r="C467" s="16"/>
       <c r="D467" s="2"/>
       <c r="E467" s="5" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="16" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="B468" s="16" t="s">
-        <v>954</v>
+        <v>910</v>
       </c>
       <c r="C468" s="16"/>
       <c r="D468" s="2"/>
       <c r="E468" s="5" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="16" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="B469" s="16" t="s">
-        <v>955</v>
+        <v>911</v>
       </c>
       <c r="C469" s="16"/>
       <c r="D469" s="2"/>
       <c r="E469" s="5" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="18" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="B470" s="16" t="s">
-        <v>956</v>
+        <v>912</v>
       </c>
       <c r="C470" s="16"/>
       <c r="D470" s="2"/>
       <c r="E470" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="16" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="B471" s="16" t="s">
-        <v>957</v>
+        <v>913</v>
       </c>
       <c r="C471" s="16"/>
       <c r="D471" s="2"/>
       <c r="E471" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="16" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
       <c r="B472" s="16" t="s">
-        <v>958</v>
+        <v>914</v>
       </c>
       <c r="C472" s="16"/>
       <c r="D472" s="2"/>
       <c r="E472" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="16" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="B473" s="16" t="s">
-        <v>959</v>
+        <v>915</v>
       </c>
       <c r="C473" s="16"/>
       <c r="D473" s="2"/>
       <c r="E473" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="16" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="B474" s="16" t="s">
-        <v>960</v>
+        <v>916</v>
       </c>
       <c r="C474" s="16"/>
       <c r="D474" s="2"/>
       <c r="E474" s="5" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="16" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="B475" s="16" t="s">
-        <v>961</v>
+        <v>917</v>
       </c>
       <c r="C475" s="16"/>
       <c r="D475" s="2"/>
       <c r="E475" s="5" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="16" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="B476" s="16" t="s">
-        <v>962</v>
+        <v>918</v>
       </c>
       <c r="C476" s="16"/>
       <c r="D476" s="2"/>
       <c r="E476" s="5" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="16" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="B477" s="16" t="s">
-        <v>963</v>
+        <v>919</v>
       </c>
       <c r="C477" s="16"/>
       <c r="D477" s="2"/>
       <c r="E477" s="5" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
@@ -10716,12 +10719,12 @@
         <v>4.1857754629629627</v>
       </c>
       <c r="B478" s="16" t="s">
-        <v>966</v>
+        <v>922</v>
       </c>
       <c r="C478" s="16"/>
       <c r="D478" s="2"/>
       <c r="E478" s="5" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -10729,12 +10732,12 @@
         <v>4.1859606481481482</v>
       </c>
       <c r="B479" s="16" t="s">
-        <v>967</v>
+        <v>923</v>
       </c>
       <c r="C479" s="16"/>
       <c r="D479" s="2"/>
       <c r="E479" s="5" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
     </row>
     <row r="480" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10742,12 +10745,12 @@
         <v>4.1862962962962964</v>
       </c>
       <c r="B480" s="16" t="s">
-        <v>968</v>
+        <v>924</v>
       </c>
       <c r="C480" s="16"/>
       <c r="D480" s="2"/>
       <c r="E480" s="5" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
     </row>
     <row r="481" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10755,12 +10758,12 @@
         <v>4.1919097222222224</v>
       </c>
       <c r="B481" s="16" t="s">
-        <v>969</v>
+        <v>925</v>
       </c>
       <c r="C481" s="16"/>
       <c r="D481" s="2"/>
       <c r="E481" s="5" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
     </row>
     <row r="482" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10768,12 +10771,12 @@
         <v>4.1992476851851857</v>
       </c>
       <c r="B482" s="16" t="s">
-        <v>970</v>
+        <v>926</v>
       </c>
       <c r="C482" s="16"/>
       <c r="D482" s="2"/>
       <c r="E482" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="483" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10781,12 +10784,12 @@
         <v>4.1994791666666664</v>
       </c>
       <c r="B483" s="16" t="s">
-        <v>971</v>
+        <v>927</v>
       </c>
       <c r="C483" s="16"/>
       <c r="D483" s="2"/>
       <c r="E483" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
@@ -10794,12 +10797,12 @@
         <v>4.1997106481481481</v>
       </c>
       <c r="B484" s="16" t="s">
-        <v>972</v>
+        <v>928</v>
       </c>
       <c r="C484" s="16"/>
       <c r="D484" s="2"/>
       <c r="E484" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="485" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10807,12 +10810,12 @@
         <v>4.2483564814814816</v>
       </c>
       <c r="B485" s="16" t="s">
-        <v>973</v>
+        <v>929</v>
       </c>
       <c r="C485" s="16"/>
       <c r="D485" s="2"/>
       <c r="E485" s="5" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -10820,12 +10823,12 @@
         <v>4.248900462962963</v>
       </c>
       <c r="B486" s="16" t="s">
-        <v>974</v>
+        <v>930</v>
       </c>
       <c r="C486" s="16"/>
       <c r="D486" s="2"/>
       <c r="E486" s="5" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -10833,12 +10836,12 @@
         <v>4.2491898148148151</v>
       </c>
       <c r="B487" s="16" t="s">
-        <v>975</v>
+        <v>931</v>
       </c>
       <c r="C487" s="16"/>
       <c r="D487" s="2"/>
       <c r="E487" s="5" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
@@ -10846,12 +10849,12 @@
         <v>4.2558449074074076</v>
       </c>
       <c r="B488" s="16" t="s">
-        <v>976</v>
+        <v>932</v>
       </c>
       <c r="C488" s="16"/>
       <c r="D488" s="2"/>
       <c r="E488" s="5" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
@@ -10859,12 +10862,12 @@
         <v>4.2560763888888884</v>
       </c>
       <c r="B489" s="16" t="s">
-        <v>977</v>
+        <v>933</v>
       </c>
       <c r="C489" s="16"/>
       <c r="D489" s="2"/>
       <c r="E489" s="5" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
@@ -10872,12 +10875,12 @@
         <v>4.2563194444444443</v>
       </c>
       <c r="B490" s="16" t="s">
-        <v>978</v>
+        <v>934</v>
       </c>
       <c r="C490" s="16"/>
       <c r="D490" s="2"/>
       <c r="E490" s="5" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
@@ -10885,12 +10888,12 @@
         <v>4.2565277777777775</v>
       </c>
       <c r="B491" s="16" t="s">
-        <v>979</v>
+        <v>935</v>
       </c>
       <c r="C491" s="16"/>
       <c r="D491" s="2"/>
       <c r="E491" s="5" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
@@ -10898,12 +10901,12 @@
         <v>4.2567939814814819</v>
       </c>
       <c r="B492" s="16" t="s">
-        <v>980</v>
+        <v>936</v>
       </c>
       <c r="C492" s="16"/>
       <c r="D492" s="2"/>
       <c r="E492" s="5" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
     </row>
     <row r="493" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10911,12 +10914,12 @@
         <v>4.2571064814814816</v>
       </c>
       <c r="B493" s="16" t="s">
-        <v>981</v>
+        <v>937</v>
       </c>
       <c r="C493" s="16"/>
       <c r="D493" s="2"/>
       <c r="E493" s="5" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -10924,12 +10927,12 @@
         <v>4.2572106481481482</v>
       </c>
       <c r="B494" s="16" t="s">
-        <v>982</v>
+        <v>938</v>
       </c>
       <c r="C494" s="16"/>
       <c r="D494" s="2"/>
       <c r="E494" s="5" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
     </row>
     <row r="495" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10937,12 +10940,12 @@
         <v>4.2576388888888888</v>
       </c>
       <c r="B495" s="16" t="s">
-        <v>983</v>
+        <v>939</v>
       </c>
       <c r="C495" s="16"/>
       <c r="D495" s="2"/>
       <c r="E495" s="5" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
@@ -10950,12 +10953,12 @@
         <v>4.2590277777777779</v>
       </c>
       <c r="B496" s="16" t="s">
-        <v>984</v>
+        <v>940</v>
       </c>
       <c r="C496" s="16"/>
       <c r="D496" s="2"/>
       <c r="E496" s="5" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
     </row>
     <row r="497" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10963,12 +10966,12 @@
         <v>4.2629166666666665</v>
       </c>
       <c r="B497" s="16" t="s">
-        <v>985</v>
+        <v>941</v>
       </c>
       <c r="C497" s="16"/>
       <c r="D497" s="2"/>
       <c r="E497" s="5" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
@@ -10976,12 +10979,12 @@
         <v>4.7111111111111112</v>
       </c>
       <c r="B498" s="16" t="s">
-        <v>986</v>
+        <v>942</v>
       </c>
       <c r="C498" s="16"/>
       <c r="D498" s="2"/>
       <c r="E498" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="499" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10989,12 +10992,12 @@
         <v>4.7140277777777779</v>
       </c>
       <c r="B499" s="16" t="s">
-        <v>987</v>
+        <v>943</v>
       </c>
       <c r="C499" s="16"/>
       <c r="D499" s="2"/>
       <c r="E499" s="5" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
@@ -11002,12 +11005,12 @@
         <v>4.7145138888888889</v>
       </c>
       <c r="B500" s="16" t="s">
-        <v>988</v>
+        <v>944</v>
       </c>
       <c r="C500" s="16"/>
       <c r="D500" s="2"/>
       <c r="E500" s="5" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
     </row>
     <row r="501" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11015,12 +11018,12 @@
         <v>4.7153819444444443</v>
       </c>
       <c r="B501" s="16" t="s">
-        <v>989</v>
+        <v>945</v>
       </c>
       <c r="C501" s="16"/>
       <c r="D501" s="2"/>
       <c r="E501" s="5" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
@@ -11028,12 +11031,12 @@
         <v>4.7158333333333333</v>
       </c>
       <c r="B502" s="16" t="s">
-        <v>990</v>
+        <v>946</v>
       </c>
       <c r="C502" s="16"/>
       <c r="D502" s="2"/>
       <c r="E502" s="5" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
     </row>
     <row r="503" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11041,12 +11044,12 @@
         <v>4.7167361111111115</v>
       </c>
       <c r="B503" s="16" t="s">
-        <v>991</v>
+        <v>947</v>
       </c>
       <c r="C503" s="16"/>
       <c r="D503" s="2"/>
       <c r="E503" s="5" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
@@ -11054,12 +11057,12 @@
         <v>4.7177777777777781</v>
       </c>
       <c r="B504" s="16" t="s">
-        <v>992</v>
+        <v>948</v>
       </c>
       <c r="C504" s="16"/>
       <c r="D504" s="2"/>
       <c r="E504" s="5" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
     </row>
     <row r="505" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11067,12 +11070,12 @@
         <v>4.7189004629629627</v>
       </c>
       <c r="B505" s="16" t="s">
-        <v>993</v>
+        <v>949</v>
       </c>
       <c r="C505" s="16"/>
       <c r="D505" s="2"/>
       <c r="E505" s="5" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
@@ -11080,12 +11083,12 @@
         <v>4.7195370370370373</v>
       </c>
       <c r="B506" s="16" t="s">
-        <v>994</v>
+        <v>950</v>
       </c>
       <c r="C506" s="16"/>
       <c r="D506" s="2"/>
       <c r="E506" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="507" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11093,12 +11096,12 @@
         <v>4.7196296296296296</v>
       </c>
       <c r="B507" s="16" t="s">
-        <v>995</v>
+        <v>951</v>
       </c>
       <c r="C507" s="16"/>
       <c r="D507" s="2"/>
       <c r="E507" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
@@ -11106,7 +11109,7 @@
         <v>4.7202777777777776</v>
       </c>
       <c r="B508" s="16" t="s">
-        <v>996</v>
+        <v>952</v>
       </c>
       <c r="C508" s="16"/>
       <c r="D508" s="2"/>
@@ -11119,7 +11122,7 @@
         <v>4.7203472222222222</v>
       </c>
       <c r="B509" s="16" t="s">
-        <v>997</v>
+        <v>953</v>
       </c>
       <c r="C509" s="16"/>
       <c r="D509" s="2"/>
@@ -11132,7 +11135,7 @@
         <v>4.7204166666666669</v>
       </c>
       <c r="B510" s="16" t="s">
-        <v>998</v>
+        <v>954</v>
       </c>
       <c r="C510" s="16"/>
       <c r="D510" s="2"/>
@@ -11145,12 +11148,12 @@
         <v>4.7212615740740747</v>
       </c>
       <c r="B511" s="16" t="s">
-        <v>999</v>
+        <v>955</v>
       </c>
       <c r="C511" s="16"/>
       <c r="D511" s="2"/>
       <c r="E511" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
@@ -11158,12 +11161,12 @@
         <v>4.7213773148148146</v>
       </c>
       <c r="B512" s="16" t="s">
-        <v>1000</v>
+        <v>956</v>
       </c>
       <c r="C512" s="16"/>
       <c r="D512" s="2"/>
       <c r="E512" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="513" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11171,12 +11174,12 @@
         <v>4.7225000000000001</v>
       </c>
       <c r="B513" s="16" t="s">
-        <v>1001</v>
+        <v>957</v>
       </c>
       <c r="C513" s="16"/>
       <c r="D513" s="2"/>
       <c r="E513" s="5" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -11184,12 +11187,12 @@
         <v>4.7255555555555553</v>
       </c>
       <c r="B514" s="16" t="s">
-        <v>1002</v>
+        <v>958</v>
       </c>
       <c r="C514" s="16"/>
       <c r="D514" s="2"/>
       <c r="E514" s="5" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
@@ -11197,12 +11200,12 @@
         <v>4.7258333333333331</v>
       </c>
       <c r="B515" s="16" t="s">
-        <v>1003</v>
+        <v>959</v>
       </c>
       <c r="C515" s="16"/>
       <c r="D515" s="2"/>
       <c r="E515" s="5" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
     </row>
     <row r="516" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11210,12 +11213,12 @@
         <v>4.7262731481481479</v>
       </c>
       <c r="B516" s="16" t="s">
-        <v>1004</v>
+        <v>960</v>
       </c>
       <c r="C516" s="16"/>
       <c r="D516" s="2"/>
       <c r="E516" s="5" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
@@ -11223,12 +11226,12 @@
         <v>4.7268518518518521</v>
       </c>
       <c r="B517" s="16" t="s">
-        <v>1005</v>
+        <v>961</v>
       </c>
       <c r="C517" s="16"/>
       <c r="D517" s="2"/>
       <c r="E517" s="5" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
     </row>
     <row r="518" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11236,12 +11239,12 @@
         <v>4.7271296296296299</v>
       </c>
       <c r="B518" s="16" t="s">
-        <v>1006</v>
+        <v>962</v>
       </c>
       <c r="C518" s="16"/>
       <c r="D518" s="2"/>
       <c r="E518" s="5" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -11249,12 +11252,12 @@
         <v>4.7275</v>
       </c>
       <c r="B519" s="16" t="s">
-        <v>1007</v>
+        <v>963</v>
       </c>
       <c r="C519" s="16"/>
       <c r="D519" s="2"/>
       <c r="E519" s="5" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
     </row>
     <row r="520" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11262,7 +11265,7 @@
         <v>4.7278587962962968</v>
       </c>
       <c r="B520" s="16" t="s">
-        <v>1008</v>
+        <v>964</v>
       </c>
       <c r="C520" s="16"/>
       <c r="D520" s="2"/>
@@ -11275,7 +11278,7 @@
         <v>4.727986111111111</v>
       </c>
       <c r="B521" s="16" t="s">
-        <v>1009</v>
+        <v>965</v>
       </c>
       <c r="C521" s="16"/>
       <c r="D521" s="2"/>
@@ -11288,7 +11291,7 @@
         <v>4.7281249999999995</v>
       </c>
       <c r="B522" s="16" t="s">
-        <v>1010</v>
+        <v>966</v>
       </c>
       <c r="C522" s="16"/>
       <c r="D522" s="2"/>
@@ -11301,12 +11304,12 @@
         <v>4.8208333333333337</v>
       </c>
       <c r="B523" s="16" t="s">
-        <v>1011</v>
+        <v>967</v>
       </c>
       <c r="C523" s="16"/>
       <c r="D523" s="2"/>
       <c r="E523" s="5" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
@@ -11314,12 +11317,12 @@
         <v>4.8209490740740746</v>
       </c>
       <c r="B524" s="16" t="s">
-        <v>1012</v>
+        <v>968</v>
       </c>
       <c r="C524" s="16"/>
       <c r="D524" s="2"/>
       <c r="E524" s="5" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
     </row>
     <row r="525" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11327,12 +11330,12 @@
         <v>4.8217592592592595</v>
       </c>
       <c r="B525" s="16" t="s">
-        <v>1013</v>
+        <v>969</v>
       </c>
       <c r="C525" s="16"/>
       <c r="D525" s="2"/>
       <c r="E525" s="5" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
     </row>
     <row r="526" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11340,7 +11343,7 @@
         <v>4.9467824074074072</v>
       </c>
       <c r="B526" s="16" t="s">
-        <v>1014</v>
+        <v>970</v>
       </c>
       <c r="C526" s="16"/>
       <c r="D526" s="2"/>
@@ -11353,7 +11356,7 @@
         <v>4.947060185185185</v>
       </c>
       <c r="B527" s="16" t="s">
-        <v>1015</v>
+        <v>971</v>
       </c>
       <c r="C527" s="16"/>
       <c r="D527" s="2"/>
@@ -11366,7 +11369,7 @@
         <v>4.9472800925925924</v>
       </c>
       <c r="B528" s="16" t="s">
-        <v>1016</v>
+        <v>972</v>
       </c>
       <c r="C528" s="16"/>
       <c r="D528" s="2"/>
@@ -11379,7 +11382,7 @@
         <v>4.9474999999999998</v>
       </c>
       <c r="B529" s="16" t="s">
-        <v>1017</v>
+        <v>973</v>
       </c>
       <c r="C529" s="16"/>
       <c r="D529" s="2"/>
@@ -11392,7 +11395,7 @@
         <v>4.9477083333333338</v>
       </c>
       <c r="B530" s="16" t="s">
-        <v>1018</v>
+        <v>974</v>
       </c>
       <c r="C530" s="16"/>
       <c r="D530" s="2"/>
@@ -11405,12 +11408,12 @@
         <v>4.9494444444444445</v>
       </c>
       <c r="B531" s="16" t="s">
-        <v>1019</v>
+        <v>975</v>
       </c>
       <c r="C531" s="16"/>
       <c r="D531" s="2"/>
       <c r="E531" s="5" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
     </row>
     <row r="532" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11418,12 +11421,12 @@
         <v>4.9514120370370369</v>
       </c>
       <c r="B532" s="16" t="s">
-        <v>1020</v>
+        <v>976</v>
       </c>
       <c r="C532" s="16"/>
       <c r="D532" s="2"/>
       <c r="E532" s="5" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
     </row>
     <row r="533" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11431,12 +11434,12 @@
         <v>4.9528703703703707</v>
       </c>
       <c r="B533" s="16" t="s">
-        <v>1021</v>
+        <v>977</v>
       </c>
       <c r="C533" s="16"/>
       <c r="D533" s="2"/>
       <c r="E533" s="5" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
     </row>
     <row r="534" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11444,12 +11447,12 @@
         <v>4.9544444444444444</v>
       </c>
       <c r="B534" s="16" t="s">
-        <v>1022</v>
+        <v>978</v>
       </c>
       <c r="C534" s="16"/>
       <c r="D534" s="2"/>
       <c r="E534" s="5" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="H534" s="10"/>
     </row>
@@ -11458,7 +11461,7 @@
         <v>4.962037037037037</v>
       </c>
       <c r="B535" s="16" t="s">
-        <v>1023</v>
+        <v>979</v>
       </c>
       <c r="C535" s="16"/>
       <c r="D535" s="2"/>
@@ -11471,7 +11474,7 @@
         <v>4.9622453703703702</v>
       </c>
       <c r="B536" s="16" t="s">
-        <v>1024</v>
+        <v>980</v>
       </c>
       <c r="C536" s="16"/>
       <c r="D536" s="2"/>
@@ -11484,7 +11487,7 @@
         <v>4.9625115740740737</v>
       </c>
       <c r="B537" s="16" t="s">
-        <v>1025</v>
+        <v>981</v>
       </c>
       <c r="C537" s="16"/>
       <c r="D537" s="2"/>
@@ -11497,12 +11500,12 @@
         <v>4.9644444444444442</v>
       </c>
       <c r="B538" s="16" t="s">
-        <v>1026</v>
+        <v>982</v>
       </c>
       <c r="C538" s="16"/>
       <c r="D538" s="2"/>
       <c r="E538" s="5" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
     </row>
     <row r="539" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11510,12 +11513,12 @@
         <v>4.9658564814814818</v>
       </c>
       <c r="B539" s="16" t="s">
-        <v>1027</v>
+        <v>983</v>
       </c>
       <c r="C539" s="16"/>
       <c r="D539" s="2"/>
       <c r="E539" s="5" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
     </row>
     <row r="540" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11523,12 +11526,12 @@
         <v>4.9671990740740739</v>
       </c>
       <c r="B540" s="16" t="s">
-        <v>1028</v>
+        <v>984</v>
       </c>
       <c r="C540" s="16"/>
       <c r="D540" s="2"/>
       <c r="E540" s="5" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
     </row>
     <row r="541" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -11536,7 +11539,7 @@
         <v>4.9701620370370376</v>
       </c>
       <c r="B541" s="16" t="s">
-        <v>1029</v>
+        <v>985</v>
       </c>
       <c r="C541" s="16"/>
       <c r="D541" s="2"/>
@@ -11549,7 +11552,7 @@
         <v>4.9704398148148146</v>
       </c>
       <c r="B542" s="16" t="s">
-        <v>1030</v>
+        <v>986</v>
       </c>
       <c r="C542" s="16"/>
       <c r="D542" s="2"/>
@@ -11562,7 +11565,7 @@
         <v>4.9707754629629628</v>
       </c>
       <c r="B543" s="16" t="s">
-        <v>1031</v>
+        <v>987</v>
       </c>
       <c r="C543" s="16"/>
       <c r="D543" s="2"/>
@@ -11575,12 +11578,12 @@
         <v>4.9736689814814818</v>
       </c>
       <c r="B544" s="16" t="s">
-        <v>1032</v>
+        <v>988</v>
       </c>
       <c r="C544" s="16"/>
       <c r="D544" s="2"/>
       <c r="E544" s="5" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
     </row>
     <row r="545" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11588,12 +11591,12 @@
         <v>4.9747222222222218</v>
       </c>
       <c r="B545" s="16" t="s">
-        <v>1033</v>
+        <v>989</v>
       </c>
       <c r="C545" s="16"/>
       <c r="D545" s="2"/>
       <c r="E545" s="5" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
     </row>
     <row r="546" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11601,12 +11604,12 @@
         <v>4.975138888888889</v>
       </c>
       <c r="B546" s="16" t="s">
-        <v>1034</v>
+        <v>990</v>
       </c>
       <c r="C546" s="16"/>
       <c r="D546" s="2"/>
       <c r="E546" s="5" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
     </row>
     <row r="547" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11614,12 +11617,12 @@
         <v>4.9766898148148151</v>
       </c>
       <c r="B547" s="16" t="s">
-        <v>1035</v>
+        <v>991</v>
       </c>
       <c r="C547" s="16"/>
       <c r="D547" s="2"/>
       <c r="E547" s="5" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
     </row>
     <row r="548" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11627,12 +11630,12 @@
         <v>4.9800578703703708</v>
       </c>
       <c r="B548" s="16" t="s">
-        <v>1036</v>
+        <v>992</v>
       </c>
       <c r="C548" s="16"/>
       <c r="D548" s="2"/>
       <c r="E548" s="5" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
     </row>
     <row r="549" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11640,12 +11643,12 @@
         <v>4.9979166666666668</v>
       </c>
       <c r="B549" s="16" t="s">
-        <v>1037</v>
+        <v>993</v>
       </c>
       <c r="C549" s="16"/>
       <c r="D549" s="2"/>
       <c r="E549" s="5" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
     </row>
     <row r="550" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11653,12 +11656,12 @@
         <v>4.9979745370370372</v>
       </c>
       <c r="B550" s="16" t="s">
-        <v>1038</v>
+        <v>994</v>
       </c>
       <c r="C550" s="16"/>
       <c r="D550" s="2"/>
       <c r="E550" s="5" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
     </row>
     <row r="551" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11666,12 +11669,12 @@
         <v>4.9980324074074076</v>
       </c>
       <c r="B551" s="16" t="s">
-        <v>1039</v>
+        <v>995</v>
       </c>
       <c r="C551" s="16"/>
       <c r="D551" s="2"/>
       <c r="E551" s="5" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
     </row>
     <row r="552" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11679,12 +11682,12 @@
         <v>4.9987847222222221</v>
       </c>
       <c r="B552" s="16" t="s">
-        <v>1040</v>
+        <v>996</v>
       </c>
       <c r="C552" s="16"/>
       <c r="D552" s="2"/>
       <c r="E552" s="5" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
     </row>
     <row r="553" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11692,12 +11695,12 @@
         <v>5.000162037037037</v>
       </c>
       <c r="B553" s="16" t="s">
-        <v>1041</v>
+        <v>997</v>
       </c>
       <c r="C553" s="16"/>
       <c r="D553" s="2"/>
       <c r="E553" s="5" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
     </row>
     <row r="554" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11705,12 +11708,12 @@
         <v>5.0057870370370372</v>
       </c>
       <c r="B554" s="16" t="s">
-        <v>1042</v>
+        <v>998</v>
       </c>
       <c r="C554" s="16"/>
       <c r="D554" s="2"/>
       <c r="E554" s="5" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
     </row>
     <row r="555" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11718,7 +11721,7 @@
         <v>5.0063541666666671</v>
       </c>
       <c r="B555" s="16" t="s">
-        <v>1043</v>
+        <v>999</v>
       </c>
       <c r="C555" s="16"/>
       <c r="D555" s="2"/>
@@ -11731,12 +11734,12 @@
         <v>5.0072106481481482</v>
       </c>
       <c r="B556" s="16" t="s">
-        <v>1044</v>
+        <v>1000</v>
       </c>
       <c r="C556" s="16"/>
       <c r="D556" s="2"/>
       <c r="E556" s="5" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
     </row>
     <row r="557" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11744,12 +11747,12 @@
         <v>5.008460648148148</v>
       </c>
       <c r="B557" s="16" t="s">
-        <v>1045</v>
+        <v>1001</v>
       </c>
       <c r="C557" s="16"/>
       <c r="D557" s="2"/>
       <c r="E557" s="5" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
     </row>
     <row r="558" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11757,12 +11760,12 @@
         <v>5.0167129629629628</v>
       </c>
       <c r="B558" s="16" t="s">
-        <v>1046</v>
+        <v>1002</v>
       </c>
       <c r="C558" s="16"/>
       <c r="D558" s="2"/>
       <c r="E558" s="5" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
     </row>
     <row r="559" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11770,20 +11773,20 @@
         <v>5.0173611111111116</v>
       </c>
       <c r="B559" s="16" t="s">
-        <v>1047</v>
+        <v>1003</v>
       </c>
       <c r="C559" s="16"/>
       <c r="D559" s="2"/>
       <c r="E559" s="5" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
     </row>
     <row r="560" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A560" s="16" t="s">
-        <v>1132</v>
+        <v>1088</v>
       </c>
       <c r="B560" s="16" t="s">
-        <v>1048</v>
+        <v>1004</v>
       </c>
       <c r="C560" s="16"/>
       <c r="D560" s="2"/>
@@ -11796,12 +11799,12 @@
         <v>5.8055555555555562</v>
       </c>
       <c r="B561" s="22" t="s">
-        <v>1097</v>
+        <v>1053</v>
       </c>
       <c r="C561" s="22"/>
       <c r="D561" s="15"/>
       <c r="E561" s="12" t="s">
-        <v>566</v>
+        <v>522</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
@@ -11809,12 +11812,12 @@
         <v>5.8056134259259258</v>
       </c>
       <c r="B562" s="22" t="s">
-        <v>1098</v>
+        <v>1054</v>
       </c>
       <c r="C562" s="22"/>
       <c r="D562" s="15"/>
       <c r="E562" s="12" t="s">
-        <v>566</v>
+        <v>522</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
@@ -11822,12 +11825,12 @@
         <v>5.8056712962962962</v>
       </c>
       <c r="B563" s="22" t="s">
-        <v>1099</v>
+        <v>1055</v>
       </c>
       <c r="C563" s="22"/>
       <c r="D563" s="15"/>
       <c r="E563" s="12" t="s">
-        <v>566</v>
+        <v>522</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
@@ -11835,12 +11838,12 @@
         <v>5.8057291666666666</v>
       </c>
       <c r="B564" s="22" t="s">
-        <v>1100</v>
+        <v>1056</v>
       </c>
       <c r="C564" s="22"/>
       <c r="D564" s="15"/>
       <c r="E564" s="12" t="s">
-        <v>566</v>
+        <v>522</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
@@ -11848,12 +11851,12 @@
         <v>5.8057870370370379</v>
       </c>
       <c r="B565" s="22" t="s">
-        <v>1101</v>
+        <v>1057</v>
       </c>
       <c r="C565" s="22"/>
       <c r="D565" s="15"/>
       <c r="E565" s="12" t="s">
-        <v>566</v>
+        <v>522</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
@@ -11861,293 +11864,293 @@
         <v>5.8058449074074074</v>
       </c>
       <c r="B566" s="22" t="s">
-        <v>1102</v>
+        <v>1058</v>
       </c>
       <c r="C566" s="22"/>
       <c r="D566" s="15"/>
       <c r="E566" s="12" t="s">
-        <v>566</v>
+        <v>522</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" s="27" t="s">
-        <v>1132</v>
+        <v>1088</v>
       </c>
       <c r="B567" s="8" t="s">
-        <v>1148</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" s="27" t="s">
-        <v>1180</v>
+        <v>1136</v>
       </c>
       <c r="B568" s="8" t="s">
-        <v>1149</v>
+        <v>1105</v>
       </c>
       <c r="C568" s="8" t="s">
-        <v>1138</v>
+        <v>1094</v>
       </c>
       <c r="E568" s="8" t="s">
-        <v>1186</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" s="27" t="s">
-        <v>1190</v>
+        <v>1146</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>1188</v>
+        <v>1144</v>
       </c>
       <c r="C569" s="8" t="s">
-        <v>1187</v>
+        <v>1143</v>
       </c>
       <c r="E569" s="8" t="s">
-        <v>1189</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" s="27" t="s">
-        <v>1184</v>
+        <v>1140</v>
       </c>
       <c r="B570" s="8" t="s">
-        <v>1182</v>
+        <v>1138</v>
       </c>
       <c r="C570" s="8" t="s">
-        <v>1181</v>
+        <v>1137</v>
       </c>
       <c r="E570" s="8" t="s">
-        <v>1183</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" s="27" t="s">
-        <v>1132</v>
+        <v>1088</v>
       </c>
       <c r="B571" s="8" t="s">
-        <v>1150</v>
+        <v>1106</v>
       </c>
       <c r="E571" s="8" t="s">
-        <v>1185</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" s="30" t="s">
-        <v>1194</v>
+        <v>1150</v>
       </c>
       <c r="B572" s="22" t="s">
-        <v>1192</v>
+        <v>1148</v>
       </c>
       <c r="C572" s="22" t="s">
-        <v>1191</v>
+        <v>1147</v>
       </c>
       <c r="D572" s="15"/>
       <c r="E572" s="22" t="s">
-        <v>1193</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" s="30" t="s">
-        <v>1172</v>
+        <v>1128</v>
       </c>
       <c r="B573" s="22" t="s">
-        <v>1151</v>
+        <v>1107</v>
       </c>
       <c r="C573" s="22" t="s">
-        <v>1139</v>
+        <v>1095</v>
       </c>
       <c r="D573" s="15"/>
       <c r="E573" s="22" t="s">
-        <v>1177</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" s="30" t="s">
-        <v>1169</v>
+        <v>1125</v>
       </c>
       <c r="B574" s="22" t="s">
-        <v>1171</v>
+        <v>1127</v>
       </c>
       <c r="C574" s="22" t="s">
-        <v>1170</v>
+        <v>1126</v>
       </c>
       <c r="D574" s="15"/>
       <c r="E574" s="22" t="s">
-        <v>1177</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" s="30" t="s">
-        <v>1168</v>
+        <v>1124</v>
       </c>
       <c r="B575" s="22" t="s">
-        <v>1152</v>
+        <v>1108</v>
       </c>
       <c r="C575" s="22" t="s">
-        <v>1140</v>
+        <v>1096</v>
       </c>
       <c r="D575" s="15"/>
       <c r="E575" s="22" t="s">
-        <v>1177</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="27" t="s">
-        <v>1202</v>
+        <v>1158</v>
       </c>
       <c r="B576" s="8" t="s">
-        <v>1200</v>
+        <v>1156</v>
       </c>
       <c r="C576" s="8" t="s">
-        <v>1199</v>
+        <v>1155</v>
       </c>
       <c r="E576" s="8" t="s">
-        <v>1201</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="30" t="s">
-        <v>1163</v>
+        <v>1119</v>
       </c>
       <c r="B577" s="22" t="s">
-        <v>1156</v>
+        <v>1112</v>
       </c>
       <c r="C577" s="22" t="s">
-        <v>1167</v>
+        <v>1123</v>
       </c>
       <c r="D577" s="15"/>
       <c r="E577" s="22" t="s">
-        <v>1177</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="27" t="s">
-        <v>1198</v>
+        <v>1154</v>
       </c>
       <c r="B578" s="8" t="s">
-        <v>1196</v>
+        <v>1152</v>
       </c>
       <c r="C578" s="8" t="s">
-        <v>1195</v>
+        <v>1151</v>
       </c>
       <c r="E578" s="8" t="s">
-        <v>1197</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="29" t="s">
-        <v>1132</v>
+        <v>1088</v>
       </c>
       <c r="B579" s="29" t="s">
-        <v>1133</v>
+        <v>1089</v>
       </c>
       <c r="C579" s="29" t="s">
-        <v>1134</v>
+        <v>1090</v>
       </c>
       <c r="D579" s="21" t="s">
-        <v>1135</v>
+        <v>1091</v>
       </c>
       <c r="E579" s="20" t="s">
-        <v>1131</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="27"/>
       <c r="B580" s="8" t="s">
-        <v>1157</v>
+        <v>1113</v>
       </c>
       <c r="E580" s="8" t="s">
-        <v>1176</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="27" t="s">
-        <v>1213</v>
+        <v>1169</v>
       </c>
       <c r="B581" s="8" t="s">
-        <v>1153</v>
+        <v>1109</v>
       </c>
       <c r="C581" s="8" t="s">
-        <v>1141</v>
+        <v>1097</v>
       </c>
       <c r="E581" s="8" t="s">
-        <v>1212</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="30" t="s">
-        <v>1162</v>
+        <v>1118</v>
       </c>
       <c r="B582" s="22" t="s">
-        <v>1154</v>
+        <v>1110</v>
       </c>
       <c r="C582" s="22" t="s">
-        <v>1142</v>
+        <v>1098</v>
       </c>
       <c r="D582" s="15"/>
       <c r="E582" s="22" t="s">
-        <v>1177</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="30" t="s">
-        <v>1166</v>
+        <v>1122</v>
       </c>
       <c r="B583" s="22" t="s">
-        <v>1164</v>
+        <v>1120</v>
       </c>
       <c r="C583" s="22" t="s">
-        <v>1165</v>
+        <v>1121</v>
       </c>
       <c r="D583" s="15"/>
       <c r="E583" s="22" t="s">
-        <v>1177</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="30" t="s">
-        <v>1173</v>
+        <v>1129</v>
       </c>
       <c r="B584" s="22" t="s">
-        <v>1155</v>
+        <v>1111</v>
       </c>
       <c r="C584" s="22" t="s">
-        <v>1143</v>
+        <v>1099</v>
       </c>
       <c r="D584" s="15"/>
       <c r="E584" s="22" t="s">
-        <v>1177</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B585" s="8" t="s">
-        <v>1158</v>
+        <v>1114</v>
       </c>
       <c r="E585" s="8" t="s">
-        <v>1176</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B586" s="8" t="s">
-        <v>1159</v>
+        <v>1115</v>
       </c>
       <c r="E586" s="8" t="s">
-        <v>1176</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B587" s="8" t="s">
-        <v>1160</v>
+        <v>1116</v>
       </c>
       <c r="E587" s="8" t="s">
-        <v>1176</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B588" s="8" t="s">
-        <v>1161</v>
+        <v>1117</v>
       </c>
       <c r="E588" s="8" t="s">
-        <v>1176</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">

--- a/MISSION_DATA/A13_photos.xlsx
+++ b/MISSION_DATA/A13_photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo_13\MISSION_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9676738E-99C2-4D3A-8CFD-5883179F09FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F2B575-BA5D-45D1-83E9-7FD0F1E132B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14700" yWindow="3885" windowWidth="31155" windowHeight="24675" xr2:uid="{E7285D04-3DFB-428F-BD58-901528569A82}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="1382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="1405">
   <si>
     <t>LM &amp; S-IVB during Transposition and Docking</t>
   </si>
@@ -4213,6 +4213,75 @@
   </si>
   <si>
     <t>Earth, Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>S70-35562</t>
+  </si>
+  <si>
+    <t>146:12:38</t>
+  </si>
+  <si>
+    <t>S70-35562.jpg</t>
+  </si>
+  <si>
+    <t>Presidential Medal of Freedom article bestowed upon all of Mission Control.</t>
+  </si>
+  <si>
+    <t>S70-35603</t>
+  </si>
+  <si>
+    <t>S70-35603.jpg</t>
+  </si>
+  <si>
+    <t>143:42:45</t>
+  </si>
+  <si>
+    <t>Recovery prayer</t>
+  </si>
+  <si>
+    <t>S70-35629.jpg</t>
+  </si>
+  <si>
+    <t>S70-35629</t>
+  </si>
+  <si>
+    <t>143:43:32</t>
+  </si>
+  <si>
+    <t>S70-35652.jpg</t>
+  </si>
+  <si>
+    <t>S70-35652</t>
+  </si>
+  <si>
+    <t>On the mains</t>
+  </si>
+  <si>
+    <t>142:50:04</t>
+  </si>
+  <si>
+    <t>Splashdown</t>
+  </si>
+  <si>
+    <t>Thumbs up from Gerry Griffin</t>
+  </si>
+  <si>
+    <t>S70-35144.jpg</t>
+  </si>
+  <si>
+    <t>S70-35144</t>
+  </si>
+  <si>
+    <t>143:39:43</t>
+  </si>
+  <si>
+    <t>KSC-70PC-121.jpg</t>
+  </si>
+  <si>
+    <t>KSC-70PC-121</t>
+  </si>
+  <si>
+    <t>142:54:46</t>
   </si>
 </sst>
 </file>
@@ -4684,10 +4753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA25AE87-EBB6-4592-B83F-0D7E34AA70ED}">
-  <dimension ref="A1:H653"/>
+  <dimension ref="A1:H659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="D570" sqref="D570"/>
+    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
+      <selection activeCell="D580" sqref="D580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12374,28 +12443,28 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="13" t="s">
-        <v>1212</v>
+        <v>1404</v>
       </c>
       <c r="B576" s="11" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C576" s="11" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D576" s="11"/>
+        <v>1403</v>
+      </c>
+      <c r="C576" s="11"/>
+      <c r="D576" s="11" t="s">
+        <v>1402</v>
+      </c>
       <c r="E576" s="11" t="s">
-        <v>1087</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" s="13" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B577" s="11" t="s">
-        <v>1069</v>
+        <v>1083</v>
       </c>
       <c r="C577" s="11" t="s">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="D577" s="11"/>
       <c r="E577" s="11" t="s">
@@ -12404,283 +12473,283 @@
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" s="13" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B578" s="11" t="s">
-        <v>1104</v>
+        <v>1069</v>
       </c>
       <c r="C578" s="11" t="s">
-        <v>1103</v>
+        <v>1058</v>
       </c>
       <c r="D578" s="11"/>
       <c r="E578" s="11" t="s">
-        <v>1105</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" s="13" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B579" s="11" t="s">
-        <v>1073</v>
+        <v>1104</v>
       </c>
       <c r="C579" s="11" t="s">
-        <v>1081</v>
+        <v>1103</v>
       </c>
       <c r="D579" s="11"/>
       <c r="E579" s="11" t="s">
-        <v>1087</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" s="13" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B580" s="11" t="s">
-        <v>1101</v>
+        <v>1073</v>
       </c>
       <c r="C580" s="11" t="s">
-        <v>1100</v>
+        <v>1081</v>
       </c>
       <c r="D580" s="11"/>
       <c r="E580" s="11" t="s">
-        <v>1102</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" s="13" t="s">
-        <v>1275</v>
+        <v>1216</v>
       </c>
       <c r="B581" s="11" t="s">
-        <v>1229</v>
+        <v>1101</v>
       </c>
       <c r="C581" s="11" t="s">
-        <v>1228</v>
+        <v>1100</v>
       </c>
       <c r="D581" s="11"/>
       <c r="E581" s="11" t="s">
-        <v>1230</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" s="13" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B582" s="11" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C582" s="11" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="D582" s="11"/>
       <c r="E582" s="11" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="13" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="B583" s="11" t="s">
-        <v>1265</v>
+        <v>1232</v>
       </c>
       <c r="C583" s="11" t="s">
-        <v>1264</v>
+        <v>1231</v>
       </c>
       <c r="D583" s="11"/>
       <c r="E583" s="11" t="s">
-        <v>1263</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="13" t="s">
-        <v>1051</v>
+        <v>1286</v>
       </c>
       <c r="B584" s="11" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="C584" s="11" t="s">
-        <v>1260</v>
+        <v>1264</v>
       </c>
       <c r="D584" s="11"/>
       <c r="E584" s="11" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" s="13" t="s">
-        <v>1287</v>
+        <v>1051</v>
       </c>
       <c r="B585" s="11" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="C585" s="11" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="D585" s="11"/>
       <c r="E585" s="11" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="13" t="s">
-        <v>1280</v>
+        <v>1287</v>
       </c>
       <c r="B586" s="11" t="s">
-        <v>1245</v>
+        <v>1266</v>
       </c>
       <c r="C586" s="11" t="s">
-        <v>1244</v>
+        <v>1267</v>
       </c>
       <c r="D586" s="11"/>
       <c r="E586" s="11" t="s">
-        <v>1243</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="13" t="s">
-        <v>1291</v>
+        <v>1280</v>
       </c>
       <c r="B587" s="11" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C587" s="11"/>
-      <c r="D587" s="11" t="s">
-        <v>1290</v>
-      </c>
+        <v>1245</v>
+      </c>
+      <c r="C587" s="11" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D587" s="11"/>
       <c r="E587" s="11" t="s">
-        <v>1086</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="13" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="B588" s="11" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C588" s="11" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D588" s="11"/>
+        <v>1074</v>
+      </c>
+      <c r="C588" s="11"/>
+      <c r="D588" s="11" t="s">
+        <v>1290</v>
+      </c>
       <c r="E588" s="11" t="s">
-        <v>1271</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="13" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="B589" s="11" t="s">
-        <v>1258</v>
+        <v>1270</v>
       </c>
       <c r="C589" s="11" t="s">
-        <v>1257</v>
+        <v>1269</v>
       </c>
       <c r="D589" s="11"/>
       <c r="E589" s="11" t="s">
-        <v>1259</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="13" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="B590" s="11" t="s">
-        <v>1246</v>
+        <v>1258</v>
       </c>
       <c r="C590" s="11" t="s">
-        <v>1247</v>
+        <v>1257</v>
       </c>
       <c r="D590" s="11"/>
       <c r="E590" s="11" t="s">
-        <v>1248</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="13" t="s">
-        <v>1051</v>
+        <v>1281</v>
       </c>
       <c r="B591" s="11" t="s">
-        <v>1273</v>
+        <v>1246</v>
       </c>
       <c r="C591" s="11" t="s">
-        <v>1272</v>
+        <v>1247</v>
       </c>
       <c r="D591" s="11"/>
       <c r="E591" s="11" t="s">
-        <v>1274</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" s="13" t="s">
-        <v>1282</v>
+        <v>1051</v>
       </c>
       <c r="B592" s="11" t="s">
-        <v>1249</v>
+        <v>1273</v>
       </c>
       <c r="C592" s="11" t="s">
-        <v>1250</v>
+        <v>1272</v>
       </c>
       <c r="D592" s="11"/>
       <c r="E592" s="11" t="s">
-        <v>1248</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B593" s="11" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C593" s="11" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D593" s="11"/>
       <c r="E593" s="11" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="13" t="s">
-        <v>1217</v>
+        <v>1283</v>
       </c>
       <c r="B594" s="11" t="s">
-        <v>1070</v>
+        <v>1252</v>
       </c>
       <c r="C594" s="11" t="s">
-        <v>1059</v>
+        <v>1251</v>
       </c>
       <c r="D594" s="11"/>
       <c r="E594" s="11" t="s">
-        <v>1115</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" s="13" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B595" s="11" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C595" s="11" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D595" s="11"/>
       <c r="E595" s="11" t="s">
-        <v>1087</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" s="13" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B596" s="11" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="C596" s="11" t="s">
-        <v>1080</v>
+        <v>1060</v>
       </c>
       <c r="D596" s="11"/>
       <c r="E596" s="11" t="s">
@@ -12689,13 +12758,13 @@
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" s="13" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B597" s="11" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="C597" s="11" t="s">
-        <v>1061</v>
+        <v>1080</v>
       </c>
       <c r="D597" s="11"/>
       <c r="E597" s="11" t="s">
@@ -12704,139 +12773,211 @@
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" s="13" t="s">
-        <v>1278</v>
+        <v>1220</v>
       </c>
       <c r="B598" s="11" t="s">
-        <v>1235</v>
+        <v>1072</v>
       </c>
       <c r="C598" s="11" t="s">
-        <v>1234</v>
+        <v>1061</v>
       </c>
       <c r="D598" s="11"/>
       <c r="E598" s="11" t="s">
-        <v>1236</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="13" t="s">
-        <v>1279</v>
+        <v>1401</v>
       </c>
       <c r="B599" s="11" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C599" s="11" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D599" s="11"/>
+        <v>1400</v>
+      </c>
+      <c r="C599" s="11"/>
+      <c r="D599" s="11" t="s">
+        <v>1399</v>
+      </c>
       <c r="E599" s="11" t="s">
-        <v>1242</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" s="13" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="B600" s="11" t="s">
-        <v>1075</v>
+        <v>1235</v>
       </c>
       <c r="C600" s="11" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
       <c r="D600" s="11"/>
       <c r="E600" s="11" t="s">
-        <v>1086</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="13" t="s">
-        <v>1284</v>
+        <v>1383</v>
       </c>
       <c r="B601" s="11" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C601" s="11" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D601" s="11"/>
+        <v>1382</v>
+      </c>
+      <c r="C601" s="1"/>
+      <c r="D601" s="11" t="s">
+        <v>1384</v>
+      </c>
       <c r="E601" s="11" t="s">
-        <v>1255</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="13" t="s">
-        <v>1297</v>
+        <v>1388</v>
       </c>
       <c r="B602" s="11" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C602" s="11"/>
+        <v>1386</v>
+      </c>
+      <c r="C602" s="1"/>
       <c r="D602" s="11" t="s">
-        <v>1294</v>
+        <v>1387</v>
       </c>
       <c r="E602" s="11" t="s">
-        <v>1086</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" s="13" t="s">
-        <v>1298</v>
+        <v>1279</v>
       </c>
       <c r="B603" s="11" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C603" s="11"/>
-      <c r="D603" s="11" t="s">
-        <v>1295</v>
-      </c>
+        <v>1241</v>
+      </c>
+      <c r="C603" s="11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D603" s="11"/>
       <c r="E603" s="11" t="s">
-        <v>1086</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="13" t="s">
-        <v>1299</v>
+        <v>1392</v>
       </c>
       <c r="B604" s="11" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C604" s="11"/>
+        <v>1391</v>
+      </c>
+      <c r="C604" s="1"/>
       <c r="D604" s="11" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E604" s="11" t="s">
-        <v>1086</v>
-      </c>
+        <v>1390</v>
+      </c>
+      <c r="E604" s="11"/>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B605" s="11" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C605" s="11" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D605" s="11"/>
+      <c r="E605" s="11" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A606" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B606" s="11" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C606" s="11" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D606" s="11"/>
+      <c r="E606" s="11" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A607" s="13" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B607" s="11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C607" s="11"/>
+      <c r="D607" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E607" s="11" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A608" s="13" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B608" s="11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C608" s="11"/>
+      <c r="D608" s="11" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E608" s="11" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A609" s="13" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B609" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C609" s="11"/>
+      <c r="D609" s="11" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E609" s="11" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A610" s="13" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B610" s="11" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C610" s="11"/>
+      <c r="D610" s="11" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E610" s="11" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A611" s="13" t="s">
         <v>1293</v>
       </c>
-      <c r="B605" s="11" t="s">
+      <c r="B611" s="11" t="s">
         <v>1292</v>
       </c>
-      <c r="C605" s="11"/>
-      <c r="D605" s="11" t="s">
+      <c r="C611" s="11"/>
+      <c r="D611" s="11" t="s">
         <v>1292</v>
       </c>
-      <c r="E605" s="11"/>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="14"/>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="14"/>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="14"/>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="14"/>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="14"/>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="14"/>
+      <c r="E611" s="11" t="s">
+        <v>1397</v>
+      </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" s="14"/>
@@ -12853,9 +12994,27 @@
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" s="14"/>
     </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" s="14"/>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" s="14"/>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" s="14"/>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" s="14"/>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" s="14"/>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" s="14"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E607">
-    <sortCondition ref="B2:B607"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E613">
+    <sortCondition ref="B2:B613"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/MISSION_DATA/A13_photos.xlsx
+++ b/MISSION_DATA/A13_photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo_13\MISSION_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F2B575-BA5D-45D1-83E9-7FD0F1E132B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F53C6F-F446-4BA4-A9ED-AFBABFFE1C53}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14700" yWindow="3885" windowWidth="31155" windowHeight="24675" xr2:uid="{E7285D04-3DFB-428F-BD58-901528569A82}"/>
   </bookViews>
@@ -4755,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA25AE87-EBB6-4592-B83F-0D7E34AA70ED}">
   <dimension ref="A1:H659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
-      <selection activeCell="D580" sqref="D580"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MISSION_DATA/A13_photos.xlsx
+++ b/MISSION_DATA/A13_photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo_13\MISSION_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C37D19C-BFB8-48D1-A94E-4964BE04344C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD654039-8405-4897-8750-7E8F06434CC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14700" yWindow="3885" windowWidth="31155" windowHeight="24675" xr2:uid="{E7285D04-3DFB-428F-BD58-901528569A82}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="1409">
   <si>
     <t>LM &amp; S-IVB during Transposition and Docking</t>
   </si>
@@ -4291,6 +4291,9 @@
   </si>
   <si>
     <t>077:50:40</t>
+  </si>
+  <si>
+    <t>077:49:23</t>
   </si>
 </sst>
 </file>
@@ -7281,7 +7284,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="24" t="s">
-        <v>1312</v>
+        <v>1408</v>
       </c>
       <c r="B186" s="25" t="s">
         <v>695</v>

--- a/MISSION_DATA/A13_photos.xlsx
+++ b/MISSION_DATA/A13_photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo_13\MISSION_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD654039-8405-4897-8750-7E8F06434CC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8917AB2A-3DCC-4C79-AEA7-4D8E5231558C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14700" yWindow="3885" windowWidth="31155" windowHeight="24675" xr2:uid="{E7285D04-3DFB-428F-BD58-901528569A82}"/>
   </bookViews>
@@ -3897,9 +3897,6 @@
     <t>143:43:29</t>
   </si>
   <si>
-    <t>143:57:03</t>
-  </si>
-  <si>
     <t>143:52:59</t>
   </si>
   <si>
@@ -4294,6 +4291,9 @@
   </si>
   <si>
     <t>077:49:23</t>
+  </si>
+  <si>
+    <t>143:57:34</t>
   </si>
 </sst>
 </file>
@@ -4776,8 +4776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA25AE87-EBB6-4592-B83F-0D7E34AA70ED}">
   <dimension ref="A1:H659"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B568"/>
+    <sheetView tabSelected="1" topLeftCell="A554" workbookViewId="0">
+      <selection activeCell="A587" sqref="A587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4801,7 +4801,7 @@
         <v>1051</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1048</v>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>1009</v>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>1010</v>
@@ -5254,7 +5254,7 @@
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
       <c r="E35" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -5267,7 +5267,7 @@
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
       <c r="E36" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -5280,7 +5280,7 @@
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
       <c r="E37" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -5293,7 +5293,7 @@
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
       <c r="E38" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -5306,7 +5306,7 @@
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
       <c r="E39" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -5319,7 +5319,7 @@
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
       <c r="E40" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -5332,7 +5332,7 @@
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
       <c r="E41" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -5345,7 +5345,7 @@
       <c r="C42" s="15"/>
       <c r="D42" s="16"/>
       <c r="E42" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -5358,7 +5358,7 @@
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -5371,7 +5371,7 @@
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="E44" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -5384,7 +5384,7 @@
       <c r="C45" s="15"/>
       <c r="D45" s="16"/>
       <c r="E45" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -5397,7 +5397,7 @@
       <c r="C46" s="15"/>
       <c r="D46" s="16"/>
       <c r="E46" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -5410,7 +5410,7 @@
       <c r="C47" s="15"/>
       <c r="D47" s="16"/>
       <c r="E47" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -5423,7 +5423,7 @@
       <c r="C48" s="15"/>
       <c r="D48" s="16"/>
       <c r="E48" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -5436,7 +5436,7 @@
       <c r="C49" s="15"/>
       <c r="D49" s="16"/>
       <c r="E49" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -5449,7 +5449,7 @@
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
       <c r="E50" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5462,7 +5462,7 @@
       <c r="C51" s="15"/>
       <c r="D51" s="16"/>
       <c r="E51" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="52" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5475,7 +5475,7 @@
       <c r="C52" s="15"/>
       <c r="D52" s="16"/>
       <c r="E52" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F52" s="1"/>
     </row>
@@ -5489,13 +5489,13 @@
       <c r="C53" s="15"/>
       <c r="D53" s="16"/>
       <c r="E53" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>1008</v>
@@ -5503,7 +5503,7 @@
       <c r="C54" s="15"/>
       <c r="D54" s="16"/>
       <c r="E54" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F54" s="1"/>
     </row>
@@ -5517,7 +5517,7 @@
       <c r="C55" s="15"/>
       <c r="D55" s="16"/>
       <c r="E55" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F55" s="1"/>
     </row>
@@ -5531,7 +5531,7 @@
       <c r="C56" s="15"/>
       <c r="D56" s="16"/>
       <c r="E56" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -5544,7 +5544,7 @@
       <c r="C57" s="15"/>
       <c r="D57" s="16"/>
       <c r="E57" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -5557,7 +5557,7 @@
       <c r="C58" s="15"/>
       <c r="D58" s="16"/>
       <c r="E58" s="18" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -5570,7 +5570,7 @@
       <c r="C59" s="15"/>
       <c r="D59" s="16"/>
       <c r="E59" s="18" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -5583,7 +5583,7 @@
       <c r="C60" s="15"/>
       <c r="D60" s="16"/>
       <c r="E60" s="18" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5596,7 +5596,7 @@
       <c r="C61" s="15"/>
       <c r="D61" s="16"/>
       <c r="E61" s="18" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -5609,7 +5609,7 @@
       <c r="C62" s="15"/>
       <c r="D62" s="16"/>
       <c r="E62" s="18" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -5622,7 +5622,7 @@
       <c r="C63" s="15"/>
       <c r="D63" s="16"/>
       <c r="E63" s="18" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -5635,7 +5635,7 @@
       <c r="C64" s="15"/>
       <c r="D64" s="16"/>
       <c r="E64" s="18" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -5648,7 +5648,7 @@
       <c r="C65" s="15"/>
       <c r="D65" s="16"/>
       <c r="E65" s="18" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -5661,7 +5661,7 @@
       <c r="C66" s="15"/>
       <c r="D66" s="16"/>
       <c r="E66" s="18" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -5674,7 +5674,7 @@
       <c r="C67" s="15"/>
       <c r="D67" s="16"/>
       <c r="E67" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -5687,7 +5687,7 @@
       <c r="C68" s="15"/>
       <c r="D68" s="16"/>
       <c r="E68" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -5700,7 +5700,7 @@
       <c r="C69" s="15"/>
       <c r="D69" s="16"/>
       <c r="E69" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="70" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5713,7 +5713,7 @@
       <c r="C70" s="15"/>
       <c r="D70" s="16"/>
       <c r="E70" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F70" s="1"/>
     </row>
@@ -5727,7 +5727,7 @@
       <c r="C71" s="15"/>
       <c r="D71" s="16"/>
       <c r="E71" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F71" s="1"/>
     </row>
@@ -5741,7 +5741,7 @@
       <c r="C72" s="15"/>
       <c r="D72" s="16"/>
       <c r="E72" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F72" s="1"/>
     </row>
@@ -5755,7 +5755,7 @@
       <c r="C73" s="15"/>
       <c r="D73" s="16"/>
       <c r="E73" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F73" s="1"/>
     </row>
@@ -5769,7 +5769,7 @@
       <c r="C74" s="15"/>
       <c r="D74" s="16"/>
       <c r="E74" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F74" s="1"/>
     </row>
@@ -5783,7 +5783,7 @@
       <c r="C75" s="15"/>
       <c r="D75" s="16"/>
       <c r="E75" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F75" s="1"/>
     </row>
@@ -5797,7 +5797,7 @@
       <c r="C76" s="15"/>
       <c r="D76" s="16"/>
       <c r="E76" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F76" s="1"/>
     </row>
@@ -5811,7 +5811,7 @@
       <c r="C77" s="15"/>
       <c r="D77" s="16"/>
       <c r="E77" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F77" s="1"/>
     </row>
@@ -5825,7 +5825,7 @@
       <c r="C78" s="15"/>
       <c r="D78" s="16"/>
       <c r="E78" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F78" s="1"/>
     </row>
@@ -5839,7 +5839,7 @@
       <c r="C79" s="15"/>
       <c r="D79" s="16"/>
       <c r="E79" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F79" s="1"/>
     </row>
@@ -5853,7 +5853,7 @@
       <c r="C80" s="15"/>
       <c r="D80" s="16"/>
       <c r="E80" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F80" s="1"/>
     </row>
@@ -5867,7 +5867,7 @@
       <c r="C81" s="15"/>
       <c r="D81" s="16"/>
       <c r="E81" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F81" s="1"/>
     </row>
@@ -5881,7 +5881,7 @@
       <c r="C82" s="15"/>
       <c r="D82" s="16"/>
       <c r="E82" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F82" s="1"/>
     </row>
@@ -5895,7 +5895,7 @@
       <c r="C83" s="15"/>
       <c r="D83" s="16"/>
       <c r="E83" s="18" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F83" s="1"/>
     </row>
@@ -5909,7 +5909,7 @@
       <c r="C84" s="15"/>
       <c r="D84" s="16"/>
       <c r="E84" s="18" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F84" s="1"/>
     </row>
@@ -5923,13 +5923,13 @@
       <c r="C85" s="15"/>
       <c r="D85" s="16"/>
       <c r="E85" s="18" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B86" s="25" t="s">
         <v>489</v>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="96" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="24" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B96" s="25" t="s">
         <v>499</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="97" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="24" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B97" s="25" t="s">
         <v>500</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="98" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="24" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B98" s="25" t="s">
         <v>501</v>
@@ -6119,7 +6119,7 @@
       <c r="C99" s="15"/>
       <c r="D99" s="16"/>
       <c r="E99" s="18" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F99" s="1"/>
     </row>
@@ -6133,7 +6133,7 @@
       <c r="C100" s="15"/>
       <c r="D100" s="16"/>
       <c r="E100" s="20" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F100" s="1"/>
     </row>
@@ -6147,7 +6147,7 @@
       <c r="C101" s="15"/>
       <c r="D101" s="16"/>
       <c r="E101" s="20" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F101" s="1"/>
     </row>
@@ -6161,7 +6161,7 @@
       <c r="C102" s="15"/>
       <c r="D102" s="16"/>
       <c r="E102" s="20" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F102" s="1"/>
     </row>
@@ -6175,7 +6175,7 @@
       <c r="C103" s="15"/>
       <c r="D103" s="16"/>
       <c r="E103" s="20" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F103" s="1"/>
     </row>
@@ -6189,7 +6189,7 @@
       <c r="C104" s="15"/>
       <c r="D104" s="16"/>
       <c r="E104" s="20" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="105" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6202,7 +6202,7 @@
       <c r="C105" s="15"/>
       <c r="D105" s="16"/>
       <c r="E105" s="20" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F105" s="1"/>
     </row>
@@ -6216,7 +6216,7 @@
       <c r="C106" s="15"/>
       <c r="D106" s="16"/>
       <c r="E106" s="20" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="107" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6229,7 +6229,7 @@
       <c r="C107" s="15"/>
       <c r="D107" s="16"/>
       <c r="E107" s="20" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F107" s="1"/>
     </row>
@@ -6243,7 +6243,7 @@
       <c r="C108" s="15"/>
       <c r="D108" s="16"/>
       <c r="E108" s="20" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -6261,7 +6261,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="24" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B110" s="25" t="s">
         <v>513</v>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="111" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="24" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B111" s="25" t="s">
         <v>514</v>
@@ -6288,7 +6288,7 @@
     </row>
     <row r="112" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="24" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B112" s="25" t="s">
         <v>536</v>
@@ -7215,7 +7215,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="24" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B181" s="25" t="s">
         <v>668</v>
@@ -7254,7 +7254,7 @@
     </row>
     <row r="184" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="24" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B184" s="25" t="s">
         <v>680</v>
@@ -7284,7 +7284,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="24" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B186" s="25" t="s">
         <v>695</v>
@@ -7310,7 +7310,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="24" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B188" s="25" t="s">
         <v>778</v>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="24" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B189" s="25" t="s">
         <v>780</v>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="24" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B190" s="25" t="s">
         <v>782</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="24" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B192" s="25" t="s">
         <v>789</v>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="24" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B193" s="25" t="s">
         <v>791</v>
@@ -7390,7 +7390,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="24" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B194" s="25" t="s">
         <v>792</v>
@@ -7403,7 +7403,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="24" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B195" s="25" t="s">
         <v>793</v>
@@ -7416,7 +7416,7 @@
     </row>
     <row r="196" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="24" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B196" s="25" t="s">
         <v>794</v>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="24" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B197" s="25" t="s">
         <v>795</v>
@@ -7444,7 +7444,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="24" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B198" s="25" t="s">
         <v>796</v>
@@ -7457,7 +7457,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="24" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B199" s="25" t="s">
         <v>797</v>
@@ -7470,7 +7470,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="24" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B200" s="25" t="s">
         <v>798</v>
@@ -7483,7 +7483,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="24" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B201" s="25" t="s">
         <v>799</v>
@@ -7496,7 +7496,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="24" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B202" s="25" t="s">
         <v>800</v>
@@ -7509,7 +7509,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="24" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B203" s="25" t="s">
         <v>801</v>
@@ -7522,7 +7522,7 @@
     </row>
     <row r="204" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="24" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B204" s="25" t="s">
         <v>802</v>
@@ -7537,7 +7537,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="24" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B205" s="25" t="s">
         <v>803</v>
@@ -7550,7 +7550,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="24" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B206" s="25" t="s">
         <v>805</v>
@@ -7563,7 +7563,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="24" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B207" s="25" t="s">
         <v>808</v>
@@ -7576,7 +7576,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="24" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B208" s="25" t="s">
         <v>809</v>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="24" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B209" s="25" t="s">
         <v>813</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="24" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B210" s="25" t="s">
         <v>814</v>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="211" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="24" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B211" s="25" t="s">
         <v>815</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="24" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B212" s="25" t="s">
         <v>816</v>
@@ -7643,7 +7643,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="24" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B213" s="25" t="s">
         <v>817</v>
@@ -7656,7 +7656,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="24" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B214" s="25" t="s">
         <v>818</v>
@@ -7794,7 +7794,7 @@
       <c r="C224" s="15"/>
       <c r="D224" s="16"/>
       <c r="E224" s="18" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -7807,7 +7807,7 @@
       <c r="C225" s="15"/>
       <c r="D225" s="16"/>
       <c r="E225" s="18" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -7937,7 +7937,7 @@
       <c r="C235" s="15"/>
       <c r="D235" s="16"/>
       <c r="E235" s="21" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -7950,7 +7950,7 @@
       <c r="C236" s="15"/>
       <c r="D236" s="16"/>
       <c r="E236" s="21" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -7963,12 +7963,12 @@
       <c r="C237" s="15"/>
       <c r="D237" s="16"/>
       <c r="E237" s="21" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="24" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B238" s="25" t="s">
         <v>617</v>
@@ -8020,7 +8020,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="24" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B242" s="25" t="s">
         <v>621</v>
@@ -8067,7 +8067,7 @@
       <c r="C245" s="15"/>
       <c r="D245" s="16"/>
       <c r="E245" s="21" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -8080,7 +8080,7 @@
       <c r="C246" s="15"/>
       <c r="D246" s="16"/>
       <c r="E246" s="21" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -8280,7 +8280,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="24" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B262" s="25" t="s">
         <v>653</v>
@@ -8566,7 +8566,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="24" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B284" s="25" t="s">
         <v>681</v>
@@ -8592,7 +8592,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="24" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B286" s="25" t="s">
         <v>683</v>
@@ -8605,7 +8605,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="24" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B287" s="25" t="s">
         <v>684</v>
@@ -8907,7 +8907,7 @@
     </row>
     <row r="309" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="24" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B309" s="25" t="s">
         <v>708</v>
@@ -8922,7 +8922,7 @@
     </row>
     <row r="310" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="24" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B310" s="25" t="s">
         <v>709</v>
@@ -8967,7 +8967,7 @@
     </row>
     <row r="313" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="24" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B313" s="25" t="s">
         <v>712</v>
@@ -8982,7 +8982,7 @@
     </row>
     <row r="314" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="24" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B314" s="25" t="s">
         <v>713</v>
@@ -9195,7 +9195,7 @@
     </row>
     <row r="329" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="25" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B329" s="25" t="s">
         <v>728</v>
@@ -9225,7 +9225,7 @@
     </row>
     <row r="331" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="24" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B331" s="25" t="s">
         <v>730</v>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="332" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="24" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B332" s="25" t="s">
         <v>731</v>
@@ -9255,7 +9255,7 @@
     </row>
     <row r="333" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="24" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B333" s="25" t="s">
         <v>732</v>
@@ -9270,7 +9270,7 @@
     </row>
     <row r="334" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="24" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B334" s="25" t="s">
         <v>733</v>
@@ -9285,7 +9285,7 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="24" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B335" s="25" t="s">
         <v>734</v>
@@ -9298,7 +9298,7 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="24" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B336" s="25" t="s">
         <v>735</v>
@@ -9311,7 +9311,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="24" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B337" s="25" t="s">
         <v>736</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="24" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B338" s="25" t="s">
         <v>737</v>
@@ -9337,7 +9337,7 @@
     </row>
     <row r="339" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="24" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B339" s="25" t="s">
         <v>738</v>
@@ -9352,7 +9352,7 @@
     </row>
     <row r="340" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="24" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B340" s="25" t="s">
         <v>739</v>
@@ -9367,7 +9367,7 @@
     </row>
     <row r="341" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="23" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B341" s="25" t="s">
         <v>740</v>
@@ -9382,7 +9382,7 @@
     </row>
     <row r="342" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="24" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B342" s="25" t="s">
         <v>741</v>
@@ -9397,7 +9397,7 @@
     </row>
     <row r="343" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="23" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B343" s="25" t="s">
         <v>742</v>
@@ -10004,7 +10004,7 @@
       <c r="C387" s="15"/>
       <c r="D387" s="16"/>
       <c r="E387" s="18" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
@@ -10043,7 +10043,7 @@
       <c r="C390" s="15"/>
       <c r="D390" s="16"/>
       <c r="E390" s="18" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -10056,7 +10056,7 @@
       <c r="C391" s="15"/>
       <c r="D391" s="16"/>
       <c r="E391" s="18" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -10069,7 +10069,7 @@
       <c r="C392" s="15"/>
       <c r="D392" s="16"/>
       <c r="E392" s="18" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -10082,7 +10082,7 @@
       <c r="C393" s="15"/>
       <c r="D393" s="16"/>
       <c r="E393" s="18" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -10095,7 +10095,7 @@
       <c r="C394" s="15"/>
       <c r="D394" s="16"/>
       <c r="E394" s="18" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -10108,7 +10108,7 @@
       <c r="C395" s="15"/>
       <c r="D395" s="16"/>
       <c r="E395" s="18" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -10121,7 +10121,7 @@
       <c r="C396" s="15"/>
       <c r="D396" s="16"/>
       <c r="E396" s="18" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="397" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -10134,13 +10134,13 @@
       <c r="C397" s="15"/>
       <c r="D397" s="16"/>
       <c r="E397" s="18" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="F397" s="1"/>
     </row>
     <row r="398" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="24" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B398" s="25" t="s">
         <v>850</v>
@@ -10154,7 +10154,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="24" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B399" s="25" t="s">
         <v>851</v>
@@ -10167,7 +10167,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="24" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B400" s="25" t="s">
         <v>852</v>
@@ -10180,7 +10180,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="24" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B401" s="25" t="s">
         <v>853</v>
@@ -10193,7 +10193,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B402" s="25" t="s">
         <v>515</v>
@@ -10232,7 +10232,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="27" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B405" s="25" t="s">
         <v>518</v>
@@ -10310,7 +10310,7 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="25" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B411" s="25" t="s">
         <v>524</v>
@@ -10427,7 +10427,7 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="25" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B420" s="25" t="s">
         <v>533</v>
@@ -10440,7 +10440,7 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="25" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B421" s="25" t="s">
         <v>534</v>
@@ -10453,7 +10453,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="25" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B422" s="25" t="s">
         <v>535</v>
@@ -10474,7 +10474,7 @@
       <c r="C423" s="15"/>
       <c r="D423" s="16"/>
       <c r="E423" s="18" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -10487,7 +10487,7 @@
       <c r="C424" s="15"/>
       <c r="D424" s="16"/>
       <c r="E424" s="18" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -10500,7 +10500,7 @@
       <c r="C425" s="15"/>
       <c r="D425" s="16"/>
       <c r="E425" s="18" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -10513,7 +10513,7 @@
       <c r="C426" s="15"/>
       <c r="D426" s="16"/>
       <c r="E426" s="18" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -10526,7 +10526,7 @@
       <c r="C427" s="15"/>
       <c r="D427" s="16"/>
       <c r="E427" s="18" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -10539,7 +10539,7 @@
       <c r="C428" s="15"/>
       <c r="D428" s="16"/>
       <c r="E428" s="18" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -10830,7 +10830,7 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="25" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B451" s="25" t="s">
         <v>843</v>
@@ -10843,7 +10843,7 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="25" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B452" s="25" t="s">
         <v>844</v>
@@ -12191,7 +12191,7 @@
       <c r="C555" s="15"/>
       <c r="D555" s="16"/>
       <c r="E555" s="18" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="556" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12204,7 +12204,7 @@
       <c r="C556" s="15"/>
       <c r="D556" s="16"/>
       <c r="E556" s="18" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="557" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12230,7 +12230,7 @@
       <c r="C558" s="15"/>
       <c r="D558" s="16"/>
       <c r="E558" s="18" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="559" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12243,7 +12243,7 @@
       <c r="C559" s="15"/>
       <c r="D559" s="16"/>
       <c r="E559" s="18" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="560" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12256,7 +12256,7 @@
       <c r="C560" s="15"/>
       <c r="D560" s="16"/>
       <c r="E560" s="18" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="561" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12464,17 +12464,17 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" s="13" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B576" s="11" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C576" s="11"/>
       <c r="D576" s="11" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E576" s="11" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
@@ -12584,7 +12584,7 @@
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" s="13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B584" s="11" t="s">
         <v>1261</v>
@@ -12614,7 +12614,7 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B586" s="11" t="s">
         <v>1262</v>
@@ -12629,7 +12629,7 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" s="13" t="s">
-        <v>1276</v>
+        <v>1408</v>
       </c>
       <c r="B587" s="11" t="s">
         <v>1241</v>
@@ -12644,14 +12644,14 @@
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" s="13" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B588" s="11" t="s">
         <v>1072</v>
       </c>
       <c r="C588" s="11"/>
       <c r="D588" s="11" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E588" s="11" t="s">
         <v>1084</v>
@@ -12659,7 +12659,7 @@
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" s="13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B589" s="11" t="s">
         <v>1266</v>
@@ -12674,7 +12674,7 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" s="13" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B590" s="11" t="s">
         <v>1254</v>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" s="13" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B591" s="11" t="s">
         <v>1242</v>
@@ -12719,7 +12719,7 @@
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" s="13" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B593" s="11" t="s">
         <v>1245</v>
@@ -12734,7 +12734,7 @@
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" s="13" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B594" s="11" t="s">
         <v>1248</v>
@@ -12809,17 +12809,17 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="13" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B599" s="11" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C599" s="11"/>
       <c r="D599" s="11" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E599" s="11" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
@@ -12839,32 +12839,32 @@
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" s="13" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B601" s="11" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C601" s="1"/>
       <c r="D601" s="11" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E601" s="11" t="s">
         <v>1380</v>
-      </c>
-      <c r="E601" s="11" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" s="13" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B602" s="11" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C602" s="1"/>
       <c r="D602" s="11" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E602" s="11" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
@@ -12884,14 +12884,14 @@
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" s="13" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B604" s="11" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C604" s="1"/>
       <c r="D604" s="11" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E604" s="11"/>
     </row>
@@ -12912,7 +12912,7 @@
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="13" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B606" s="11" t="s">
         <v>1250</v>
@@ -12927,14 +12927,14 @@
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B607" s="11" t="s">
         <v>1074</v>
       </c>
       <c r="C607" s="11"/>
       <c r="D607" s="11" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E607" s="11" t="s">
         <v>1084</v>
@@ -12942,14 +12942,14 @@
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B608" s="11" t="s">
         <v>1075</v>
       </c>
       <c r="C608" s="11"/>
       <c r="D608" s="11" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E608" s="11" t="s">
         <v>1084</v>
@@ -12957,14 +12957,14 @@
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B609" s="11" t="s">
         <v>1076</v>
       </c>
       <c r="C609" s="11"/>
       <c r="D609" s="11" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E609" s="11" t="s">
         <v>1084</v>
@@ -12972,32 +12972,32 @@
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="13" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B610" s="11" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C610" s="11"/>
       <c r="D610" s="11" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E610" s="11" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B611" s="11" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C611" s="11"/>
       <c r="D611" s="11" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E611" s="11" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">

--- a/MISSION_DATA/A13_photos.xlsx
+++ b/MISSION_DATA/A13_photos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo_13\MISSION_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9D87C4-D980-4EF2-A9A7-4BFE2E42A96A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E071D29-B9E5-4A53-A940-C81E9DE461E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="2850" windowWidth="33000" windowHeight="29265" xr2:uid="{E7285D04-3DFB-428F-BD58-901528569A82}"/>
+    <workbookView xWindow="10500" yWindow="4260" windowWidth="28920" windowHeight="23985" xr2:uid="{E7285D04-3DFB-428F-BD58-901528569A82}"/>
   </bookViews>
   <sheets>
     <sheet name="A13_photos" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4011" uniqueCount="1725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="1766">
   <si>
     <t>LM &amp; S-IVB during Transposition and Docking</t>
   </si>
@@ -5243,6 +5243,129 @@
   </si>
   <si>
     <t>077:38:02</t>
+  </si>
+  <si>
+    <t>003:12:55</t>
+  </si>
+  <si>
+    <t>003:13:10</t>
+  </si>
+  <si>
+    <t>003:13:36</t>
+  </si>
+  <si>
+    <t>004:10:12</t>
+  </si>
+  <si>
+    <t>004:10:55</t>
+  </si>
+  <si>
+    <t>004:11:15</t>
+  </si>
+  <si>
+    <t>004:12:10</t>
+  </si>
+  <si>
+    <t>004:12:31</t>
+  </si>
+  <si>
+    <t>004:15:51</t>
+  </si>
+  <si>
+    <t>080:51:58</t>
+  </si>
+  <si>
+    <t>080:52:20</t>
+  </si>
+  <si>
+    <t>080:52:37</t>
+  </si>
+  <si>
+    <t>080:52:59</t>
+  </si>
+  <si>
+    <t>080:53:22</t>
+  </si>
+  <si>
+    <t>080:53:40</t>
+  </si>
+  <si>
+    <t>083:25:15</t>
+  </si>
+  <si>
+    <t>083:25:35</t>
+  </si>
+  <si>
+    <t>083:31:10</t>
+  </si>
+  <si>
+    <t>083:31:28</t>
+  </si>
+  <si>
+    <t>099:15:15</t>
+  </si>
+  <si>
+    <t>099:17:04</t>
+  </si>
+  <si>
+    <t>080:36:33</t>
+  </si>
+  <si>
+    <t>080:36:37</t>
+  </si>
+  <si>
+    <t>080:36:45</t>
+  </si>
+  <si>
+    <t>080:36:50</t>
+  </si>
+  <si>
+    <t>080:36:54</t>
+  </si>
+  <si>
+    <t>081:34:30</t>
+  </si>
+  <si>
+    <t>081:34:41</t>
+  </si>
+  <si>
+    <t>081:35:08</t>
+  </si>
+  <si>
+    <t>081:35:20</t>
+  </si>
+  <si>
+    <t>081:36:02</t>
+  </si>
+  <si>
+    <t>081:43:18</t>
+  </si>
+  <si>
+    <t>081:43:29</t>
+  </si>
+  <si>
+    <t>068:00:45</t>
+  </si>
+  <si>
+    <t>068:04:10</t>
+  </si>
+  <si>
+    <t>094:19:06</t>
+  </si>
+  <si>
+    <t>094:19:28</t>
+  </si>
+  <si>
+    <t>099:38:46</t>
+  </si>
+  <si>
+    <t>098:39:01</t>
+  </si>
+  <si>
+    <t>099:39:28</t>
+  </si>
+  <si>
+    <t>099:40:32</t>
   </si>
 </sst>
 </file>
@@ -5722,8 +5845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA25AE87-EBB6-4592-B83F-0D7E34AA70ED}">
   <dimension ref="A1:H704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
-      <selection activeCell="B615" sqref="B615"/>
+    <sheetView tabSelected="1" topLeftCell="A646" workbookViewId="0">
+      <selection activeCell="D667" sqref="D667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6101,7 +6224,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
-        <v>5.7540393518518513</v>
+        <v>5.7540856481481484</v>
       </c>
       <c r="B28" t="s">
         <v>792</v>
@@ -6114,7 +6237,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
-        <v>5.7540509259259265</v>
+        <v>5.7541203703703703</v>
       </c>
       <c r="B29" t="s">
         <v>793</v>
@@ -6127,7 +6250,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
-        <v>5.7540624999999999</v>
+        <v>5.7541782407407416</v>
       </c>
       <c r="B30" t="s">
         <v>795</v>
@@ -6140,7 +6263,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
-        <v>5.7540856481481484</v>
+        <v>5.7542013888888883</v>
       </c>
       <c r="B31" t="s">
         <v>1178</v>
@@ -6153,7 +6276,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
-        <v>5.7540972222222218</v>
+        <v>5.7542129629629635</v>
       </c>
       <c r="B32" t="s">
         <v>797</v>
@@ -6166,7 +6289,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
-        <v>5.754108796296296</v>
+        <v>5.7542245370370368</v>
       </c>
       <c r="B33" t="s">
         <v>799</v>
@@ -6179,7 +6302,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="31">
-        <v>5.7541203703703703</v>
+        <v>5.7542592592592596</v>
       </c>
       <c r="B34" t="s">
         <v>801</v>
@@ -6192,7 +6315,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="31">
-        <v>5.7541435185185188</v>
+        <v>5.7542824074074082</v>
       </c>
       <c r="B35" t="s">
         <v>802</v>
@@ -6335,7 +6458,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="31">
-        <v>5.6805092592592592</v>
+        <v>5.6791203703703701</v>
       </c>
       <c r="B46" t="s">
         <v>1161</v>
@@ -6348,7 +6471,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="31">
-        <v>5.6807291666666666</v>
+        <v>5.6793402777777784</v>
       </c>
       <c r="B47" t="s">
         <v>1155</v>
@@ -6361,7 +6484,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="31">
-        <v>5.6808796296296293</v>
+        <v>5.6794907407407402</v>
       </c>
       <c r="B48" t="s">
         <v>1156</v>
@@ -6374,7 +6497,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="31">
-        <v>5.6810416666666663</v>
+        <v>5.6796527777777781</v>
       </c>
       <c r="B49" t="s">
         <v>1157</v>
@@ -6387,7 +6510,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="31">
-        <v>5.6812268518518527</v>
+        <v>5.6798379629629627</v>
       </c>
       <c r="B50" t="s">
         <v>1158</v>
@@ -6400,7 +6523,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="31">
-        <v>5.6813888888888888</v>
+        <v>5.68</v>
       </c>
       <c r="B51" t="s">
         <v>1152</v>
@@ -6413,7 +6536,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="31">
-        <v>5.6815740740740743</v>
+        <v>5.6801851851851852</v>
       </c>
       <c r="B52" t="s">
         <v>1153</v>
@@ -6426,7 +6549,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="31">
-        <v>5.6817129629629628</v>
+        <v>5.6803240740740746</v>
       </c>
       <c r="B53" t="s">
         <v>1154</v>
@@ -6556,7 +6679,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="31">
-        <v>5.7537384259259268</v>
+        <v>5.7539583333333333</v>
       </c>
       <c r="B63" t="s">
         <v>1142</v>
@@ -6569,7 +6692,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="31">
-        <v>5.7537615740740735</v>
+        <v>5.7539814814814818</v>
       </c>
       <c r="B64" t="s">
         <v>1141</v>
@@ -6582,7 +6705,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="31">
-        <v>5.7538541666666667</v>
+        <v>5.7540393518518513</v>
       </c>
       <c r="B65" t="s">
         <v>1138</v>
@@ -6595,7 +6718,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="31">
-        <v>5.7538888888888886</v>
+        <v>5.7540624999999999</v>
       </c>
       <c r="B66" t="s">
         <v>1139</v>
@@ -6608,7 +6731,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="31">
-        <v>5.7539120370370371</v>
+        <v>5.754108796296296</v>
       </c>
       <c r="B67" t="s">
         <v>1140</v>
@@ -6621,7 +6744,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="31">
-        <v>5.7539351851851848</v>
+        <v>5.7541435185185188</v>
       </c>
       <c r="B68" t="s">
         <v>1135</v>
@@ -6634,7 +6757,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="31">
-        <v>5.7539583333333333</v>
+        <v>5.7541550925925931</v>
       </c>
       <c r="B69" t="s">
         <v>1136</v>
@@ -6647,7 +6770,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="31">
-        <v>5.7540046296296294</v>
+        <v>5.7542476851851854</v>
       </c>
       <c r="B70" t="s">
         <v>1137</v>
@@ -6660,7 +6783,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="31">
-        <v>5.7546412037037031</v>
+        <v>5.7546527777777783</v>
       </c>
       <c r="B71" t="s">
         <v>1132</v>
@@ -6673,7 +6796,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="31">
-        <v>5.7546643518518517</v>
+        <v>5.7546759259259259</v>
       </c>
       <c r="B72" t="s">
         <v>1133</v>
@@ -7223,7 +7346,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="31">
-        <v>5.8959722222222224</v>
+        <v>5.8959606481481481</v>
       </c>
       <c r="B114" t="s">
         <v>823</v>
@@ -7236,7 +7359,7 @@
     </row>
     <row r="115" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="31">
-        <v>5.8959953703703709</v>
+        <v>5.8959837962962958</v>
       </c>
       <c r="B115" t="s">
         <v>824</v>
@@ -7250,7 +7373,7 @@
     </row>
     <row r="116" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="31">
-        <v>5.8960069444444443</v>
+        <v>5.8959953703703709</v>
       </c>
       <c r="B116" t="s">
         <v>825</v>
@@ -7264,7 +7387,7 @@
     </row>
     <row r="117" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="31">
-        <v>5.8960185185185177</v>
+        <v>5.8960069444444443</v>
       </c>
       <c r="B117" t="s">
         <v>826</v>
@@ -7278,7 +7401,7 @@
     </row>
     <row r="118" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="31">
-        <v>5.896076388888889</v>
+        <v>5.8960532407407413</v>
       </c>
       <c r="B118" t="s">
         <v>827</v>
@@ -7292,7 +7415,7 @@
     </row>
     <row r="119" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="31">
-        <v>5.8960879629629632</v>
+        <v>5.8960648148148147</v>
       </c>
       <c r="B119" t="s">
         <v>828</v>
@@ -7306,7 +7429,7 @@
     </row>
     <row r="120" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="31">
-        <v>5.8960995370370375</v>
+        <v>5.896076388888889</v>
       </c>
       <c r="B120" t="s">
         <v>829</v>
@@ -7320,7 +7443,7 @@
     </row>
     <row r="121" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="31">
-        <v>5.8962499999999993</v>
+        <v>5.8961805555555555</v>
       </c>
       <c r="B121" t="s">
         <v>830</v>
@@ -7334,7 +7457,7 @@
     </row>
     <row r="122" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="31">
-        <v>5.8962615740740745</v>
+        <v>5.8961921296296298</v>
       </c>
       <c r="B122" t="s">
         <v>831</v>
@@ -7348,7 +7471,7 @@
     </row>
     <row r="123" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="31">
-        <v>5.8962731481481478</v>
+        <v>5.8962037037037041</v>
       </c>
       <c r="B123" t="s">
         <v>832</v>
@@ -7362,7 +7485,7 @@
     </row>
     <row r="124" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="31">
-        <v>5.8962962962962964</v>
+        <v>5.8962152777777774</v>
       </c>
       <c r="B124" t="s">
         <v>833</v>
@@ -7488,7 +7611,7 @@
     </row>
     <row r="133" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>22</v>
+        <v>1725</v>
       </c>
       <c r="B133" t="s">
         <v>283</v>
@@ -7502,7 +7625,7 @@
     </row>
     <row r="134" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>23</v>
+        <v>1726</v>
       </c>
       <c r="B134" t="s">
         <v>284</v>
@@ -7516,7 +7639,7 @@
     </row>
     <row r="135" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>24</v>
+        <v>1727</v>
       </c>
       <c r="B135" t="s">
         <v>285</v>
@@ -7530,7 +7653,7 @@
     </row>
     <row r="136" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>25</v>
+        <v>1728</v>
       </c>
       <c r="B136" t="s">
         <v>286</v>
@@ -7544,7 +7667,7 @@
     </row>
     <row r="137" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>26</v>
+        <v>1729</v>
       </c>
       <c r="B137" t="s">
         <v>287</v>
@@ -7558,7 +7681,7 @@
     </row>
     <row r="138" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>27</v>
+        <v>1730</v>
       </c>
       <c r="B138" t="s">
         <v>288</v>
@@ -7572,7 +7695,7 @@
     </row>
     <row r="139" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>28</v>
+        <v>1731</v>
       </c>
       <c r="B139" t="s">
         <v>289</v>
@@ -7586,7 +7709,7 @@
     </row>
     <row r="140" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>29</v>
+        <v>1732</v>
       </c>
       <c r="B140" t="s">
         <v>290</v>
@@ -7600,7 +7723,7 @@
     </row>
     <row r="141" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>1383</v>
+        <v>1733</v>
       </c>
       <c r="B141" t="s">
         <v>291</v>
@@ -9120,7 +9243,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>1429</v>
+        <v>1734</v>
       </c>
       <c r="B254" t="s">
         <v>605</v>
@@ -9133,7 +9256,7 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>1430</v>
+        <v>1735</v>
       </c>
       <c r="B255" t="s">
         <v>606</v>
@@ -9146,7 +9269,7 @@
     </row>
     <row r="256" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>1431</v>
+        <v>1736</v>
       </c>
       <c r="B256" t="s">
         <v>607</v>
@@ -9161,7 +9284,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>1432</v>
+        <v>1737</v>
       </c>
       <c r="B257" t="s">
         <v>608</v>
@@ -9174,7 +9297,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>1433</v>
+        <v>1738</v>
       </c>
       <c r="B258" t="s">
         <v>609</v>
@@ -9187,7 +9310,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>1434</v>
+        <v>1739</v>
       </c>
       <c r="B259" t="s">
         <v>610</v>
@@ -9317,7 +9440,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>83</v>
+        <v>1740</v>
       </c>
       <c r="B269" t="s">
         <v>624</v>
@@ -9330,7 +9453,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>84</v>
+        <v>1741</v>
       </c>
       <c r="B270" t="s">
         <v>625</v>
@@ -9343,7 +9466,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>85</v>
+        <v>1742</v>
       </c>
       <c r="B271" t="s">
         <v>626</v>
@@ -9356,7 +9479,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>86</v>
+        <v>1743</v>
       </c>
       <c r="B272" t="s">
         <v>627</v>
@@ -9434,7 +9557,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>225</v>
+        <v>1744</v>
       </c>
       <c r="B278" t="s">
         <v>673</v>
@@ -9447,7 +9570,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>226</v>
+        <v>1745</v>
       </c>
       <c r="B279" t="s">
         <v>674</v>
@@ -10149,7 +10272,7 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="26" t="s">
-        <v>1476</v>
+        <v>1640</v>
       </c>
       <c r="B333" s="22" t="s">
         <v>477</v>
@@ -10162,7 +10285,7 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="26" t="s">
-        <v>1477</v>
+        <v>1641</v>
       </c>
       <c r="B334" s="22" t="s">
         <v>478</v>
@@ -10175,7 +10298,7 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="26" t="s">
-        <v>1478</v>
+        <v>1642</v>
       </c>
       <c r="B335" s="22" t="s">
         <v>479</v>
@@ -10188,7 +10311,7 @@
     </row>
     <row r="336" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="26" t="s">
-        <v>1479</v>
+        <v>1643</v>
       </c>
       <c r="B336" s="22" t="s">
         <v>481</v>
@@ -10203,7 +10326,7 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="26" t="s">
-        <v>1480</v>
+        <v>1644</v>
       </c>
       <c r="B337" s="22" t="s">
         <v>482</v>
@@ -10216,7 +10339,7 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="26" t="s">
-        <v>1481</v>
+        <v>1645</v>
       </c>
       <c r="B338" s="22" t="s">
         <v>483</v>
@@ -10229,7 +10352,7 @@
     </row>
     <row r="339" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="26" t="s">
-        <v>1482</v>
+        <v>1646</v>
       </c>
       <c r="B339" s="22" t="s">
         <v>484</v>
@@ -10244,7 +10367,7 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="26" t="s">
-        <v>1483</v>
+        <v>1647</v>
       </c>
       <c r="B340" s="22" t="s">
         <v>485</v>
@@ -10257,7 +10380,7 @@
     </row>
     <row r="341" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>1640</v>
+        <v>1648</v>
       </c>
       <c r="B341" t="s">
         <v>486</v>
@@ -10272,7 +10395,7 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
       <c r="B342" t="s">
         <v>488</v>
@@ -10285,7 +10408,7 @@
     </row>
     <row r="343" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>1642</v>
+        <v>1650</v>
       </c>
       <c r="B343" t="s">
         <v>489</v>
@@ -10300,7 +10423,7 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="B344" t="s">
         <v>490</v>
@@ -10313,7 +10436,7 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>1644</v>
+        <v>1652</v>
       </c>
       <c r="B345" t="s">
         <v>491</v>
@@ -10326,7 +10449,7 @@
     </row>
     <row r="346" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>1645</v>
+        <v>1653</v>
       </c>
       <c r="B346" t="s">
         <v>492</v>
@@ -10341,7 +10464,7 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>1646</v>
+        <v>1654</v>
       </c>
       <c r="B347" t="s">
         <v>493</v>
@@ -10354,7 +10477,7 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>1647</v>
+        <v>1655</v>
       </c>
       <c r="B348" t="s">
         <v>494</v>
@@ -10367,7 +10490,7 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>1648</v>
+        <v>1656</v>
       </c>
       <c r="B349" t="s">
         <v>495</v>
@@ -10380,7 +10503,7 @@
     </row>
     <row r="350" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>1649</v>
+        <v>1657</v>
       </c>
       <c r="B350" t="s">
         <v>496</v>
@@ -10395,7 +10518,7 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>1650</v>
+        <v>1658</v>
       </c>
       <c r="B351" t="s">
         <v>497</v>
@@ -10408,7 +10531,7 @@
     </row>
     <row r="352" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>1651</v>
+        <v>1659</v>
       </c>
       <c r="B352" t="s">
         <v>498</v>
@@ -10423,7 +10546,7 @@
     </row>
     <row r="353" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>1652</v>
+        <v>1660</v>
       </c>
       <c r="B353" t="s">
         <v>499</v>
@@ -10438,7 +10561,7 @@
     </row>
     <row r="354" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>1653</v>
+        <v>1661</v>
       </c>
       <c r="B354" t="s">
         <v>500</v>
@@ -10453,7 +10576,7 @@
     </row>
     <row r="355" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>1654</v>
+        <v>1662</v>
       </c>
       <c r="B355" t="s">
         <v>501</v>
@@ -10468,7 +10591,7 @@
     </row>
     <row r="356" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="B356" t="s">
         <v>502</v>
@@ -10483,7 +10606,7 @@
     </row>
     <row r="357" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>1656</v>
+        <v>1664</v>
       </c>
       <c r="B357" t="s">
         <v>503</v>
@@ -10498,7 +10621,7 @@
     </row>
     <row r="358" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>1657</v>
+        <v>1515</v>
       </c>
       <c r="B358" t="s">
         <v>504</v>
@@ -10513,7 +10636,7 @@
     </row>
     <row r="359" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>1658</v>
+        <v>1665</v>
       </c>
       <c r="B359" t="s">
         <v>505</v>
@@ -10528,7 +10651,7 @@
     </row>
     <row r="360" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>1659</v>
+        <v>1666</v>
       </c>
       <c r="B360" t="s">
         <v>506</v>
@@ -10543,7 +10666,7 @@
     </row>
     <row r="361" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>1660</v>
+        <v>1667</v>
       </c>
       <c r="B361" t="s">
         <v>507</v>
@@ -10558,7 +10681,7 @@
     </row>
     <row r="362" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>1661</v>
+        <v>1514</v>
       </c>
       <c r="B362" t="s">
         <v>508</v>
@@ -10573,7 +10696,7 @@
     </row>
     <row r="363" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>1662</v>
+        <v>1668</v>
       </c>
       <c r="B363" t="s">
         <v>509</v>
@@ -10588,7 +10711,7 @@
     </row>
     <row r="364" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>1663</v>
+        <v>1669</v>
       </c>
       <c r="B364" t="s">
         <v>510</v>
@@ -10603,7 +10726,7 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>1664</v>
+        <v>1670</v>
       </c>
       <c r="B365" t="s">
         <v>511</v>
@@ -10616,7 +10739,7 @@
     </row>
     <row r="366" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>1515</v>
+        <v>1671</v>
       </c>
       <c r="B366" t="s">
         <v>512</v>
@@ -10631,7 +10754,7 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>1665</v>
+        <v>1672</v>
       </c>
       <c r="B367" t="s">
         <v>513</v>
@@ -10644,7 +10767,7 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>1666</v>
+        <v>1673</v>
       </c>
       <c r="B368" t="s">
         <v>514</v>
@@ -10657,7 +10780,7 @@
     </row>
     <row r="369" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>1667</v>
+        <v>1674</v>
       </c>
       <c r="B369" t="s">
         <v>515</v>
@@ -10672,7 +10795,7 @@
     </row>
     <row r="370" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>1514</v>
+        <v>1675</v>
       </c>
       <c r="B370" t="s">
         <v>516</v>
@@ -10687,7 +10810,7 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>1668</v>
+        <v>1676</v>
       </c>
       <c r="B371" t="s">
         <v>517</v>
@@ -10700,7 +10823,7 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>1669</v>
+        <v>1677</v>
       </c>
       <c r="B372" t="s">
         <v>518</v>
@@ -10713,7 +10836,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>1670</v>
+        <v>1678</v>
       </c>
       <c r="B373" t="s">
         <v>519</v>
@@ -10726,7 +10849,7 @@
     </row>
     <row r="374" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>1671</v>
+        <v>1679</v>
       </c>
       <c r="B374" t="s">
         <v>520</v>
@@ -10741,7 +10864,7 @@
     </row>
     <row r="375" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>1672</v>
+        <v>1680</v>
       </c>
       <c r="B375" t="s">
         <v>521</v>
@@ -10756,7 +10879,7 @@
     </row>
     <row r="376" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>1673</v>
+        <v>1681</v>
       </c>
       <c r="B376" t="s">
         <v>522</v>
@@ -10771,7 +10894,7 @@
     </row>
     <row r="377" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>1674</v>
+        <v>1682</v>
       </c>
       <c r="B377" t="s">
         <v>523</v>
@@ -10786,7 +10909,7 @@
     </row>
     <row r="378" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>1675</v>
+        <v>1683</v>
       </c>
       <c r="B378" t="s">
         <v>524</v>
@@ -10801,7 +10924,7 @@
     </row>
     <row r="379" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>1676</v>
+        <v>1684</v>
       </c>
       <c r="B379" t="s">
         <v>525</v>
@@ -10816,7 +10939,7 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>1677</v>
+        <v>1685</v>
       </c>
       <c r="B380" t="s">
         <v>526</v>
@@ -10829,7 +10952,7 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>1678</v>
+        <v>1686</v>
       </c>
       <c r="B381" t="s">
         <v>527</v>
@@ -10842,7 +10965,7 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>1679</v>
+        <v>1687</v>
       </c>
       <c r="B382" t="s">
         <v>528</v>
@@ -10855,7 +10978,7 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="B383" t="s">
         <v>529</v>
@@ -10868,7 +10991,7 @@
     </row>
     <row r="384" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
       <c r="B384" t="s">
         <v>530</v>
@@ -10883,7 +11006,7 @@
     </row>
     <row r="385" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
       <c r="B385" t="s">
         <v>531</v>
@@ -10898,7 +11021,7 @@
     </row>
     <row r="386" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
       <c r="B386" t="s">
         <v>532</v>
@@ -10913,7 +11036,7 @@
     </row>
     <row r="387" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
       <c r="B387" t="s">
         <v>533</v>
@@ -10928,7 +11051,7 @@
     </row>
     <row r="388" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
       <c r="B388" t="s">
         <v>534</v>
@@ -10943,7 +11066,7 @@
     </row>
     <row r="389" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
-        <v>1686</v>
+        <v>1694</v>
       </c>
       <c r="B389" t="s">
         <v>535</v>
@@ -10958,7 +11081,7 @@
     </row>
     <row r="390" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
       <c r="B390" t="s">
         <v>536</v>
@@ -10973,7 +11096,7 @@
     </row>
     <row r="391" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>1688</v>
+        <v>1696</v>
       </c>
       <c r="B391" t="s">
         <v>537</v>
@@ -10988,7 +11111,7 @@
     </row>
     <row r="392" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>1689</v>
+        <v>1697</v>
       </c>
       <c r="B392" t="s">
         <v>538</v>
@@ -11004,7 +11127,7 @@
     </row>
     <row r="393" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>1690</v>
+        <v>1698</v>
       </c>
       <c r="B393" t="s">
         <v>539</v>
@@ -11019,7 +11142,7 @@
     </row>
     <row r="394" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>1691</v>
+        <v>1746</v>
       </c>
       <c r="B394" t="s">
         <v>540</v>
@@ -11034,7 +11157,7 @@
     </row>
     <row r="395" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>1692</v>
+        <v>1747</v>
       </c>
       <c r="B395" t="s">
         <v>541</v>
@@ -11049,7 +11172,7 @@
     </row>
     <row r="396" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>1693</v>
+        <v>1748</v>
       </c>
       <c r="B396" t="s">
         <v>542</v>
@@ -11064,7 +11187,7 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>1694</v>
+        <v>1749</v>
       </c>
       <c r="B397" t="s">
         <v>543</v>
@@ -11077,7 +11200,7 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>1695</v>
+        <v>1750</v>
       </c>
       <c r="B398" t="s">
         <v>544</v>
@@ -11090,7 +11213,7 @@
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>1696</v>
+        <v>1704</v>
       </c>
       <c r="B399" t="s">
         <v>545</v>
@@ -11103,7 +11226,7 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="B400" t="s">
         <v>546</v>
@@ -11116,7 +11239,7 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>1698</v>
+        <v>1706</v>
       </c>
       <c r="B401" t="s">
         <v>547</v>
@@ -11129,7 +11252,7 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
       <c r="B402" t="s">
         <v>548</v>
@@ -11142,7 +11265,7 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>1700</v>
+        <v>1708</v>
       </c>
       <c r="B403" t="s">
         <v>549</v>
@@ -11155,7 +11278,7 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>1701</v>
+        <v>1709</v>
       </c>
       <c r="B404" t="s">
         <v>550</v>
@@ -11168,7 +11291,7 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
-        <v>1702</v>
+        <v>1710</v>
       </c>
       <c r="B405" t="s">
         <v>551</v>
@@ -11181,7 +11304,7 @@
     </row>
     <row r="406" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>1703</v>
+        <v>1711</v>
       </c>
       <c r="B406" t="s">
         <v>552</v>
@@ -11196,7 +11319,7 @@
     </row>
     <row r="407" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>1704</v>
+        <v>1712</v>
       </c>
       <c r="B407" t="s">
         <v>553</v>
@@ -11211,7 +11334,7 @@
     </row>
     <row r="408" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>1705</v>
+        <v>1713</v>
       </c>
       <c r="B408" t="s">
         <v>554</v>
@@ -11226,7 +11349,7 @@
     </row>
     <row r="409" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>1706</v>
+        <v>1714</v>
       </c>
       <c r="B409" t="s">
         <v>555</v>
@@ -11240,7 +11363,7 @@
     </row>
     <row r="410" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>1707</v>
+        <v>1715</v>
       </c>
       <c r="B410" t="s">
         <v>556</v>
@@ -11254,7 +11377,7 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
-        <v>1708</v>
+        <v>1716</v>
       </c>
       <c r="B411" t="s">
         <v>557</v>
@@ -11267,7 +11390,7 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>1709</v>
+        <v>1717</v>
       </c>
       <c r="B412" t="s">
         <v>558</v>
@@ -11280,7 +11403,7 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>1710</v>
+        <v>1718</v>
       </c>
       <c r="B413" t="s">
         <v>559</v>
@@ -11293,7 +11416,7 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>1711</v>
+        <v>1719</v>
       </c>
       <c r="B414" t="s">
         <v>560</v>
@@ -11306,7 +11429,7 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
-        <v>1712</v>
+        <v>1720</v>
       </c>
       <c r="B415" t="s">
         <v>561</v>
@@ -11319,7 +11442,7 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>1713</v>
+        <v>1721</v>
       </c>
       <c r="B416" t="s">
         <v>562</v>
@@ -11332,7 +11455,7 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>1714</v>
+        <v>1751</v>
       </c>
       <c r="B417" t="s">
         <v>563</v>
@@ -11345,7 +11468,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>1715</v>
+        <v>1752</v>
       </c>
       <c r="B418" t="s">
         <v>564</v>
@@ -11358,7 +11481,7 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>1716</v>
+        <v>1753</v>
       </c>
       <c r="B419" t="s">
         <v>565</v>
@@ -11371,7 +11494,7 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
-        <v>1717</v>
+        <v>1754</v>
       </c>
       <c r="B420" t="s">
         <v>566</v>
@@ -11384,7 +11507,7 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
-        <v>1718</v>
+        <v>1755</v>
       </c>
       <c r="B421" t="s">
         <v>568</v>
@@ -11397,7 +11520,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
-        <v>1719</v>
+        <v>1756</v>
       </c>
       <c r="B422" t="s">
         <v>569</v>
@@ -11410,7 +11533,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
-        <v>1720</v>
+        <v>1757</v>
       </c>
       <c r="B423" t="s">
         <v>571</v>
@@ -11423,7 +11546,7 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
-        <v>1721</v>
+        <v>1577</v>
       </c>
       <c r="B424" t="s">
         <v>573</v>
@@ -11436,7 +11559,7 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
-        <v>1722</v>
+        <v>1578</v>
       </c>
       <c r="B425" t="s">
         <v>575</v>
@@ -11449,7 +11572,7 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
-        <v>1723</v>
+        <v>1579</v>
       </c>
       <c r="B426" t="s">
         <v>576</v>
@@ -11462,7 +11585,7 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
-        <v>1570</v>
+        <v>1580</v>
       </c>
       <c r="B427" t="s">
         <v>578</v>
@@ -11475,7 +11598,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="26" t="s">
-        <v>1571</v>
+        <v>1581</v>
       </c>
       <c r="B428" s="22" t="s">
         <v>579</v>
@@ -11488,7 +11611,7 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="26" t="s">
-        <v>1572</v>
+        <v>1582</v>
       </c>
       <c r="B429" s="22" t="s">
         <v>580</v>
@@ -11501,7 +11624,7 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
-        <v>1573</v>
+        <v>1583</v>
       </c>
       <c r="B430" t="s">
         <v>582</v>
@@ -11514,7 +11637,7 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
-        <v>1574</v>
+        <v>266</v>
       </c>
       <c r="B431" t="s">
         <v>596</v>
@@ -11527,7 +11650,7 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
-        <v>1575</v>
+        <v>267</v>
       </c>
       <c r="B432" t="s">
         <v>598</v>
@@ -11540,7 +11663,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
-        <v>1576</v>
+        <v>1584</v>
       </c>
       <c r="B433" t="s">
         <v>599</v>
@@ -11553,7 +11676,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>1577</v>
+        <v>1585</v>
       </c>
       <c r="B434" t="s">
         <v>602</v>
@@ -11566,7 +11689,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
-        <v>1578</v>
+        <v>1586</v>
       </c>
       <c r="B435" t="s">
         <v>603</v>
@@ -11579,7 +11702,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
-        <v>1579</v>
+        <v>1587</v>
       </c>
       <c r="B436" t="s">
         <v>604</v>
@@ -11763,7 +11886,7 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>1009</v>
+        <v>1758</v>
       </c>
       <c r="B450" t="s">
         <v>310</v>
@@ -11841,7 +11964,7 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
-        <v>1010</v>
+        <v>1759</v>
       </c>
       <c r="B456" t="s">
         <v>316</v>
@@ -12361,7 +12484,7 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
-        <v>1015</v>
+        <v>1760</v>
       </c>
       <c r="B496" t="s">
         <v>635</v>
@@ -12374,7 +12497,7 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
-        <v>1016</v>
+        <v>1761</v>
       </c>
       <c r="B497" t="s">
         <v>636</v>
@@ -12737,8 +12860,8 @@
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A525" s="31">
-        <v>4.1857754629629627</v>
+      <c r="A525" s="31" t="s">
+        <v>1762</v>
       </c>
       <c r="B525" t="s">
         <v>675</v>
@@ -12750,8 +12873,8 @@
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A526" s="31">
-        <v>4.1859606481481482</v>
+      <c r="A526" s="31" t="s">
+        <v>1763</v>
       </c>
       <c r="B526" t="s">
         <v>676</v>
@@ -12763,8 +12886,8 @@
       </c>
     </row>
     <row r="527" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="31">
-        <v>4.1862962962962964</v>
+      <c r="A527" s="31" t="s">
+        <v>1764</v>
       </c>
       <c r="B527" t="s">
         <v>677</v>
@@ -12776,8 +12899,8 @@
       </c>
     </row>
     <row r="528" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="31">
-        <v>4.1919097222222224</v>
+      <c r="A528" s="31" t="s">
+        <v>1765</v>
       </c>
       <c r="B528" t="s">
         <v>678</v>
@@ -12790,7 +12913,7 @@
     </row>
     <row r="529" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="31">
-        <v>4.1992476851851857</v>
+        <v>4.2048032407407403</v>
       </c>
       <c r="B529" t="s">
         <v>679</v>
@@ -12803,7 +12926,7 @@
     </row>
     <row r="530" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A530" s="31">
-        <v>4.1994791666666664</v>
+        <v>4.205034722222222</v>
       </c>
       <c r="B530" t="s">
         <v>680</v>
@@ -12816,7 +12939,7 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="31">
-        <v>4.1997106481481481</v>
+        <v>4.2052777777777779</v>
       </c>
       <c r="B531" t="s">
         <v>681</v>
@@ -12868,7 +12991,7 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="31">
-        <v>4.2558449074074076</v>
+        <v>4.2614004629629632</v>
       </c>
       <c r="B535" t="s">
         <v>685</v>
@@ -12881,7 +13004,7 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="31">
-        <v>4.2560763888888884</v>
+        <v>4.2616435185185191</v>
       </c>
       <c r="B536" t="s">
         <v>686</v>
@@ -12894,7 +13017,7 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="31">
-        <v>4.2563194444444443</v>
+        <v>4.2618749999999999</v>
       </c>
       <c r="B537" t="s">
         <v>687</v>
@@ -12907,7 +13030,7 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="31">
-        <v>4.2565277777777775</v>
+        <v>4.2620833333333339</v>
       </c>
       <c r="B538" t="s">
         <v>688</v>
@@ -12920,7 +13043,7 @@
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="31">
-        <v>4.2567939814814819</v>
+        <v>4.2623495370370366</v>
       </c>
       <c r="B539" t="s">
         <v>689</v>
@@ -12933,7 +13056,7 @@
     </row>
     <row r="540" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="31">
-        <v>4.2571064814814816</v>
+        <v>4.2626620370370372</v>
       </c>
       <c r="B540" t="s">
         <v>690</v>
@@ -12946,7 +13069,7 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="31">
-        <v>4.2572106481481482</v>
+        <v>4.2627662037037037</v>
       </c>
       <c r="B541" t="s">
         <v>691</v>
@@ -12959,7 +13082,7 @@
     </row>
     <row r="542" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A542" s="31">
-        <v>4.2578472222222219</v>
+        <v>4.2634027777777783</v>
       </c>
       <c r="B542" t="s">
         <v>692</v>
@@ -12972,7 +13095,7 @@
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="31">
-        <v>4.2593865740740737</v>
+        <v>4.2649421296296302</v>
       </c>
       <c r="B543" t="s">
         <v>693</v>
@@ -12985,7 +13108,7 @@
     </row>
     <row r="544" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="31">
-        <v>4.2629166666666665</v>
+        <v>4.2675925925925924</v>
       </c>
       <c r="B544" t="s">
         <v>694</v>
@@ -13779,7 +13902,7 @@
     </row>
     <row r="605" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A605" s="31">
-        <v>5.0167129629629628</v>
+        <v>5.0136805555555553</v>
       </c>
       <c r="B605" t="s">
         <v>755</v>
@@ -13792,7 +13915,7 @@
     </row>
     <row r="606" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A606" s="31">
-        <v>5.0179513888888891</v>
+        <v>5.0139467592592597</v>
       </c>
       <c r="B606" t="s">
         <v>756</v>

--- a/MISSION_DATA/A13_photos.xlsx
+++ b/MISSION_DATA/A13_photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo_13\MISSION_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA990EB5-4508-4951-86B9-DF094786B3A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E5E3A4-12CA-4788-8E88-C7813A3DCC61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10500" yWindow="4260" windowWidth="38535" windowHeight="23985" xr2:uid="{E7285D04-3DFB-428F-BD58-901528569A82}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3999" uniqueCount="1588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4660" uniqueCount="1595">
   <si>
     <t>LM &amp; S-IVB during Transposition and Docking</t>
   </si>
@@ -4832,6 +4832,27 @@
   </si>
   <si>
     <t>-03:49:57</t>
+  </si>
+  <si>
+    <t>SIVB_impact_435094main_m109420042le_thumb.jpg</t>
+  </si>
+  <si>
+    <t>077:56:30</t>
+  </si>
+  <si>
+    <t>SIVB_impact</t>
+  </si>
+  <si>
+    <t>The impact site of the S-IVB as photographed by the&lt;a href="https://lunar.gsfc.nasa.gov/about.html" target="_blank"&gt; Lunar Reconnaissance Orbiter&lt;/a&gt; in 2010. A scientific paper was written in 1974 about &lt;a href="https://media.apolloinrealtime.org/A13/documents/Lindeman_et_al-1974-Journal_of_Geophysical_Research.pdf" target="_blank"&gt;The Interaction Between an Impact-Produced Neutral Gas Cloud and the Solar Wind at the Lunar Surface&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>NASA/GSFC/ASU</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>NASA</t>
   </si>
 </sst>
 </file>
@@ -4918,7 +4939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4988,6 +5009,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5305,8 +5332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA25AE87-EBB6-4592-B83F-0D7E34AA70ED}">
   <dimension ref="A1:H704"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A704"/>
+    <sheetView tabSelected="1" topLeftCell="A621" workbookViewId="0">
+      <selection activeCell="F659" sqref="F659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5316,10 +5343,11 @@
     <col min="3" max="3" width="24.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="49.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="139.28515625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>827</v>
       </c>
@@ -5335,8 +5363,11 @@
       <c r="E1" s="10" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="29" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>827</v>
       </c>
@@ -5346,8 +5377,11 @@
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>860</v>
       </c>
@@ -5361,8 +5395,11 @@
       <c r="E3" s="11" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>1587</v>
       </c>
@@ -5376,8 +5413,11 @@
       <c r="E4" s="11" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>885</v>
       </c>
@@ -5391,8 +5431,11 @@
       <c r="E5" s="11" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>864</v>
       </c>
@@ -5406,8 +5449,11 @@
       <c r="E6" s="11" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>827</v>
       </c>
@@ -5419,8 +5465,11 @@
       <c r="E7" s="11" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>827</v>
       </c>
@@ -5434,8 +5483,11 @@
       <c r="E8" s="11" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>827</v>
       </c>
@@ -5449,8 +5501,11 @@
       <c r="E9" s="11" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>1278</v>
       </c>
@@ -5462,8 +5517,11 @@
       <c r="E10" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>1279</v>
       </c>
@@ -5475,8 +5533,11 @@
       <c r="E11" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>1280</v>
       </c>
@@ -5488,8 +5549,11 @@
       <c r="E12" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>1281</v>
       </c>
@@ -5501,8 +5565,11 @@
       <c r="E13" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>1282</v>
       </c>
@@ -5514,8 +5581,11 @@
       <c r="E14" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>1283</v>
       </c>
@@ -5527,8 +5597,11 @@
       <c r="E15" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>1284</v>
       </c>
@@ -5540,8 +5613,11 @@
       <c r="E16" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>1285</v>
       </c>
@@ -5553,8 +5629,11 @@
       <c r="E17" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>1286</v>
       </c>
@@ -5566,8 +5645,11 @@
       <c r="E18" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>1179</v>
       </c>
@@ -5579,8 +5661,11 @@
       <c r="E19" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>1287</v>
       </c>
@@ -5592,8 +5677,11 @@
       <c r="E20" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>1288</v>
       </c>
@@ -5605,8 +5693,11 @@
       <c r="E21" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>1289</v>
       </c>
@@ -5618,8 +5709,11 @@
       <c r="E22" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>1290</v>
       </c>
@@ -5631,8 +5725,11 @@
       <c r="E23" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>1291</v>
       </c>
@@ -5644,8 +5741,11 @@
       <c r="E24" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>1292</v>
       </c>
@@ -5657,8 +5757,11 @@
       <c r="E25" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>1293</v>
       </c>
@@ -5670,8 +5773,11 @@
       <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>1294</v>
       </c>
@@ -5683,8 +5789,11 @@
       <c r="E27" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>1297</v>
       </c>
@@ -5696,8 +5805,11 @@
       <c r="E28" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>1298</v>
       </c>
@@ -5709,8 +5821,11 @@
       <c r="E29" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>1524</v>
       </c>
@@ -5722,8 +5837,11 @@
       <c r="E30" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>1525</v>
       </c>
@@ -5735,8 +5853,11 @@
       <c r="E31" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>1526</v>
       </c>
@@ -5748,8 +5869,11 @@
       <c r="E32" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>1527</v>
       </c>
@@ -5761,8 +5885,11 @@
       <c r="E33" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>1528</v>
       </c>
@@ -5774,8 +5901,11 @@
       <c r="E34" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>1529</v>
       </c>
@@ -5787,8 +5917,11 @@
       <c r="E35" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>1161</v>
       </c>
@@ -5800,8 +5933,11 @@
       <c r="E36" s="16" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>1162</v>
       </c>
@@ -5813,8 +5949,11 @@
       <c r="E37" s="16" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>1163</v>
       </c>
@@ -5826,8 +5965,11 @@
       <c r="E38" s="16" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>1164</v>
       </c>
@@ -5839,8 +5981,11 @@
       <c r="E39" s="16" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>1165</v>
       </c>
@@ -5852,8 +5997,11 @@
       <c r="E40" s="16" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>1166</v>
       </c>
@@ -5865,8 +6013,11 @@
       <c r="E41" s="16" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>1167</v>
       </c>
@@ -5878,8 +6029,11 @@
       <c r="E42" s="16" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>1168</v>
       </c>
@@ -5891,8 +6045,11 @@
       <c r="E43" s="16" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>1169</v>
       </c>
@@ -5904,8 +6061,11 @@
       <c r="E44" s="16" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>1170</v>
       </c>
@@ -5917,8 +6077,11 @@
       <c r="E45" s="16" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
         <v>1530</v>
       </c>
@@ -5930,8 +6093,11 @@
       <c r="E46" s="17" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
         <v>1531</v>
       </c>
@@ -5943,8 +6109,11 @@
       <c r="E47" s="17" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>1532</v>
       </c>
@@ -5956,8 +6125,11 @@
       <c r="E48" s="17" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
         <v>1533</v>
       </c>
@@ -5969,8 +6141,11 @@
       <c r="E49" s="17" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>1534</v>
       </c>
@@ -5982,8 +6157,11 @@
       <c r="E50" s="17" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
         <v>1535</v>
       </c>
@@ -5995,8 +6173,11 @@
       <c r="E51" s="17" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>1536</v>
       </c>
@@ -6008,8 +6189,11 @@
       <c r="E52" s="17" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>1537</v>
       </c>
@@ -6021,8 +6205,11 @@
       <c r="E53" s="17" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>1171</v>
       </c>
@@ -6034,8 +6221,11 @@
       <c r="E54" s="20" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
         <v>1172</v>
       </c>
@@ -6047,8 +6237,11 @@
       <c r="E55" s="20" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
         <v>1173</v>
       </c>
@@ -6060,8 +6253,11 @@
       <c r="E56" s="17" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
         <v>1174</v>
       </c>
@@ -6073,8 +6269,11 @@
       <c r="E57" s="17" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>1175</v>
       </c>
@@ -6086,8 +6285,11 @@
       <c r="E58" s="17" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
         <v>1176</v>
       </c>
@@ -6099,8 +6301,11 @@
       <c r="E59" s="17" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>1177</v>
       </c>
@@ -6112,8 +6317,11 @@
       <c r="E60" s="17" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
         <v>1178</v>
       </c>
@@ -6125,8 +6333,11 @@
       <c r="E61" s="17" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
         <v>1300</v>
       </c>
@@ -6138,8 +6349,11 @@
       <c r="E62" s="17" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
         <v>1301</v>
       </c>
@@ -6151,8 +6365,11 @@
       <c r="E63" s="17" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
         <v>1538</v>
       </c>
@@ -6164,8 +6381,11 @@
       <c r="E64" s="17" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
         <v>1295</v>
       </c>
@@ -6177,8 +6397,11 @@
       <c r="E65" s="17" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
         <v>1296</v>
       </c>
@@ -6190,8 +6413,11 @@
       <c r="E66" s="17" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
         <v>1160</v>
       </c>
@@ -6203,8 +6429,11 @@
       <c r="E67" s="17" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
         <v>1299</v>
       </c>
@@ -6216,8 +6445,11 @@
       <c r="E68" s="17" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
         <v>1539</v>
       </c>
@@ -6229,8 +6461,11 @@
       <c r="E69" s="17" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
         <v>1540</v>
       </c>
@@ -6242,8 +6477,11 @@
       <c r="E70" s="17" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
         <v>1541</v>
       </c>
@@ -6255,8 +6493,11 @@
       <c r="E71" s="17" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
         <v>1542</v>
       </c>
@@ -6268,8 +6509,11 @@
       <c r="E72" s="17" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
         <v>1180</v>
       </c>
@@ -6281,8 +6525,11 @@
       <c r="E73" s="17" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
         <v>1181</v>
       </c>
@@ -6294,8 +6541,11 @@
       <c r="E74" s="17" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
         <v>1182</v>
       </c>
@@ -6307,8 +6557,11 @@
       <c r="E75" s="17" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>1183</v>
       </c>
@@ -6320,8 +6573,11 @@
       <c r="E76" s="17" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
         <v>1184</v>
       </c>
@@ -6333,8 +6589,11 @@
       <c r="E77" s="17" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
         <v>1185</v>
       </c>
@@ -6346,8 +6605,11 @@
       <c r="E78" s="17" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
         <v>1186</v>
       </c>
@@ -6359,8 +6621,11 @@
       <c r="E79" s="17" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
         <v>1543</v>
       </c>
@@ -6372,8 +6637,11 @@
       <c r="E80" s="17" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
         <v>1544</v>
       </c>
@@ -6385,8 +6653,11 @@
       <c r="E81" s="17" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
         <v>1545</v>
       </c>
@@ -6398,8 +6669,11 @@
       <c r="E82" s="17" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
         <v>1546</v>
       </c>
@@ -6411,8 +6685,11 @@
       <c r="E83" s="17" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
         <v>1547</v>
       </c>
@@ -6424,8 +6701,11 @@
       <c r="E84" s="17" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
         <v>1548</v>
       </c>
@@ -6437,8 +6717,11 @@
       <c r="E85" s="17" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
         <v>1549</v>
       </c>
@@ -6450,8 +6733,11 @@
       <c r="E86" s="17" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
         <v>1187</v>
       </c>
@@ -6463,8 +6749,11 @@
       <c r="E87" s="17" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
         <v>1550</v>
       </c>
@@ -6476,8 +6765,11 @@
       <c r="E88" s="17" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
         <v>1188</v>
       </c>
@@ -6489,8 +6781,11 @@
       <c r="E89" s="17" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
         <v>1551</v>
       </c>
@@ -6502,8 +6797,11 @@
       <c r="E90" s="17" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
         <v>1552</v>
       </c>
@@ -6515,8 +6813,11 @@
       <c r="E91" s="17" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
         <v>1553</v>
       </c>
@@ -6528,8 +6829,11 @@
       <c r="E92" s="17" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
         <v>1554</v>
       </c>
@@ -6541,8 +6845,11 @@
       <c r="E93" s="17" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
         <v>1555</v>
       </c>
@@ -6554,8 +6861,11 @@
       <c r="E94" s="17" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
         <v>1556</v>
       </c>
@@ -6567,8 +6877,11 @@
       <c r="E95" s="17" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
         <v>1557</v>
       </c>
@@ -6580,6 +6893,9 @@
       <c r="E96" s="17" t="s">
         <v>979</v>
       </c>
+      <c r="F96" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="97" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
@@ -6593,7 +6909,9 @@
       <c r="E97" s="17" t="s">
         <v>979</v>
       </c>
-      <c r="F97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="98" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
@@ -6607,7 +6925,9 @@
       <c r="E98" s="17" t="s">
         <v>979</v>
       </c>
-      <c r="F98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="99" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
@@ -6621,7 +6941,9 @@
       <c r="E99" s="17" t="s">
         <v>979</v>
       </c>
-      <c r="F99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="100" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
@@ -6635,7 +6957,9 @@
       <c r="E100" s="17" t="s">
         <v>979</v>
       </c>
-      <c r="F100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="27" t="s">
@@ -6649,6 +6973,9 @@
       <c r="E101" s="17" t="s">
         <v>979</v>
       </c>
+      <c r="F101" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="27" t="s">
@@ -6662,6 +6989,9 @@
       <c r="E102" s="17" t="s">
         <v>979</v>
       </c>
+      <c r="F102" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="27" t="s">
@@ -6675,6 +7005,9 @@
       <c r="E103" s="17" t="s">
         <v>980</v>
       </c>
+      <c r="F103" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="27" t="s">
@@ -6688,6 +7021,9 @@
       <c r="E104" s="17" t="s">
         <v>980</v>
       </c>
+      <c r="F104" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
@@ -6701,6 +7037,9 @@
       <c r="E105" s="17" t="s">
         <v>980</v>
       </c>
+      <c r="F105" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="27" t="s">
@@ -6714,6 +7053,9 @@
       <c r="E106" s="17" t="s">
         <v>980</v>
       </c>
+      <c r="F106" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="27" t="s">
@@ -6727,6 +7069,9 @@
       <c r="E107" s="17" t="s">
         <v>980</v>
       </c>
+      <c r="F107" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="27" t="s">
@@ -6740,6 +7085,9 @@
       <c r="E108" s="17" t="s">
         <v>980</v>
       </c>
+      <c r="F108" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="27" t="s">
@@ -6753,6 +7101,9 @@
       <c r="E109" s="17" t="s">
         <v>980</v>
       </c>
+      <c r="F109" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="27" t="s">
@@ -6766,6 +7117,9 @@
       <c r="E110" s="17" t="s">
         <v>980</v>
       </c>
+      <c r="F110" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="27" t="s">
@@ -6779,6 +7133,9 @@
       <c r="E111" s="17" t="s">
         <v>980</v>
       </c>
+      <c r="F111" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="27" t="s">
@@ -6792,6 +7149,9 @@
       <c r="E112" s="17" t="s">
         <v>981</v>
       </c>
+      <c r="F112" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="27" t="s">
@@ -6805,6 +7165,9 @@
       <c r="E113" s="17" t="s">
         <v>981</v>
       </c>
+      <c r="F113" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="27" t="s">
@@ -6818,6 +7181,9 @@
       <c r="E114" s="17" t="s">
         <v>981</v>
       </c>
+      <c r="F114" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="115" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
@@ -6831,7 +7197,9 @@
       <c r="E115" s="17" t="s">
         <v>981</v>
       </c>
-      <c r="F115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="116" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
@@ -6845,7 +7213,9 @@
       <c r="E116" s="17" t="s">
         <v>981</v>
       </c>
-      <c r="F116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="117" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
@@ -6859,7 +7229,9 @@
       <c r="E117" s="17" t="s">
         <v>981</v>
       </c>
-      <c r="F117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="118" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="27" t="s">
@@ -6873,7 +7245,9 @@
       <c r="E118" s="17" t="s">
         <v>981</v>
       </c>
-      <c r="F118" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="119" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="27" t="s">
@@ -6887,7 +7261,9 @@
       <c r="E119" s="17" t="s">
         <v>981</v>
       </c>
-      <c r="F119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="120" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="27" t="s">
@@ -6901,7 +7277,9 @@
       <c r="E120" s="17" t="s">
         <v>981</v>
       </c>
-      <c r="F120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="121" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="27" t="s">
@@ -6915,7 +7293,9 @@
       <c r="E121" s="17" t="s">
         <v>981</v>
       </c>
-      <c r="F121" s="1"/>
+      <c r="F121" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="122" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="27" t="s">
@@ -6929,7 +7309,9 @@
       <c r="E122" s="17" t="s">
         <v>981</v>
       </c>
-      <c r="F122" s="1"/>
+      <c r="F122" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="123" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="27" t="s">
@@ -6943,7 +7325,9 @@
       <c r="E123" s="17" t="s">
         <v>981</v>
       </c>
-      <c r="F123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="124" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
@@ -6957,7 +7341,9 @@
       <c r="E124" s="17" t="s">
         <v>981</v>
       </c>
-      <c r="F124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="125" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
@@ -6971,7 +7357,9 @@
       <c r="E125" s="17" t="s">
         <v>981</v>
       </c>
-      <c r="F125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="126" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="27" t="s">
@@ -6985,7 +7373,9 @@
       <c r="E126" s="17" t="s">
         <v>981</v>
       </c>
-      <c r="F126" s="1"/>
+      <c r="F126" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="127" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="27" t="s">
@@ -6999,7 +7389,9 @@
       <c r="E127" s="17" t="s">
         <v>981</v>
       </c>
-      <c r="F127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="128" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="27" t="s">
@@ -7013,7 +7405,9 @@
       <c r="E128" s="17" t="s">
         <v>982</v>
       </c>
-      <c r="F128" s="1"/>
+      <c r="F128" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="129" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="27" t="s">
@@ -7027,7 +7421,9 @@
       <c r="E129" s="17" t="s">
         <v>982</v>
       </c>
-      <c r="F129" s="1"/>
+      <c r="F129" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="130" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
@@ -7041,7 +7437,9 @@
       <c r="E130" s="17" t="s">
         <v>982</v>
       </c>
-      <c r="F130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="131" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="27" t="s">
@@ -7055,7 +7453,9 @@
       <c r="E131" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F131" s="1"/>
+      <c r="F131" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="132" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="27" t="s">
@@ -7069,7 +7469,9 @@
       <c r="E132" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F132" s="1"/>
+      <c r="F132" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="133" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="27" t="s">
@@ -7083,7 +7485,9 @@
       <c r="E133" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F133" s="1"/>
+      <c r="F133" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="134" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="27" t="s">
@@ -7097,7 +7501,9 @@
       <c r="E134" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F134" s="1"/>
+      <c r="F134" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="135" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="27" t="s">
@@ -7111,7 +7517,9 @@
       <c r="E135" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F135" s="1"/>
+      <c r="F135" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="136" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="27" t="s">
@@ -7125,7 +7533,9 @@
       <c r="E136" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F136" s="1"/>
+      <c r="F136" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="137" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="27" t="s">
@@ -7139,7 +7549,9 @@
       <c r="E137" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F137" s="1"/>
+      <c r="F137" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="138" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="27" t="s">
@@ -7153,7 +7565,9 @@
       <c r="E138" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F138" s="1"/>
+      <c r="F138" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="139" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="27" t="s">
@@ -7167,7 +7581,9 @@
       <c r="E139" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="140" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="27" t="s">
@@ -7181,7 +7597,9 @@
       <c r="E140" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F140" s="1"/>
+      <c r="F140" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="141" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="27" t="s">
@@ -7195,7 +7613,9 @@
       <c r="E141" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F141" s="1"/>
+      <c r="F141" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="142" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="27" t="s">
@@ -7209,7 +7629,9 @@
       <c r="E142" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="143" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="27" t="s">
@@ -7223,7 +7645,9 @@
       <c r="E143" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F143" s="1"/>
+      <c r="F143" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="144" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="27" t="s">
@@ -7237,7 +7661,9 @@
       <c r="E144" s="17" t="s">
         <v>983</v>
       </c>
-      <c r="F144" s="1"/>
+      <c r="F144" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="145" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="27" t="s">
@@ -7251,7 +7677,9 @@
       <c r="E145" s="19" t="s">
         <v>984</v>
       </c>
-      <c r="F145" s="1"/>
+      <c r="F145" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="146" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="27" t="s">
@@ -7265,7 +7693,9 @@
       <c r="E146" s="19" t="s">
         <v>984</v>
       </c>
-      <c r="F146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="147" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="27" t="s">
@@ -7279,7 +7709,9 @@
       <c r="E147" s="19" t="s">
         <v>984</v>
       </c>
-      <c r="F147" s="1"/>
+      <c r="F147" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="148" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="27" t="s">
@@ -7293,7 +7725,9 @@
       <c r="E148" s="19" t="s">
         <v>984</v>
       </c>
-      <c r="F148" s="1"/>
+      <c r="F148" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="27" t="s">
@@ -7307,6 +7741,9 @@
       <c r="E149" s="19" t="s">
         <v>985</v>
       </c>
+      <c r="F149" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="150" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="27" t="s">
@@ -7320,7 +7757,9 @@
       <c r="E150" s="19" t="s">
         <v>985</v>
       </c>
-      <c r="F150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
@@ -7334,6 +7773,9 @@
       <c r="E151" s="19" t="s">
         <v>985</v>
       </c>
+      <c r="F151" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="152" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="27" t="s">
@@ -7347,7 +7789,9 @@
       <c r="E152" s="19" t="s">
         <v>985</v>
       </c>
-      <c r="F152" s="1"/>
+      <c r="F152" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="27" t="s">
@@ -7361,6 +7805,9 @@
       <c r="E153" s="19" t="s">
         <v>985</v>
       </c>
+      <c r="F153" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="27" t="s">
@@ -7374,6 +7821,9 @@
       <c r="E154" s="18" t="s">
         <v>7</v>
       </c>
+      <c r="F154" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="27" t="s">
@@ -7387,6 +7837,9 @@
       <c r="E155" s="18" t="s">
         <v>27</v>
       </c>
+      <c r="F155" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="156" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="27" t="s">
@@ -7400,7 +7853,9 @@
       <c r="E156" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F156" s="1"/>
+      <c r="F156" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="157" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="27" t="s">
@@ -7414,7 +7869,9 @@
       <c r="E157" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F157" s="1"/>
+      <c r="F157" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="27" t="s">
@@ -7428,6 +7885,9 @@
       <c r="E158" s="17" t="s">
         <v>58</v>
       </c>
+      <c r="F158" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="159" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="27" t="s">
@@ -7441,7 +7901,9 @@
       <c r="E159" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F159" s="1"/>
+      <c r="F159" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
@@ -7455,6 +7917,9 @@
       <c r="E160" s="17" t="s">
         <v>22</v>
       </c>
+      <c r="F160" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="161" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="27" t="s">
@@ -7468,7 +7933,9 @@
       <c r="E161" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="F161" s="1"/>
+      <c r="F161" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
@@ -7482,6 +7949,9 @@
       <c r="E162" s="17" t="s">
         <v>122</v>
       </c>
+      <c r="F162" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="27" t="s">
@@ -7495,6 +7965,9 @@
       <c r="E163" s="17" t="s">
         <v>123</v>
       </c>
+      <c r="F163" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="164" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="27" t="s">
@@ -7508,7 +7981,9 @@
       <c r="E164" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F164" s="1"/>
+      <c r="F164" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="165" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="27" t="s">
@@ -7522,7 +7997,9 @@
       <c r="E165" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F165" s="1"/>
+      <c r="F165" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="166" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="27" t="s">
@@ -7536,7 +8013,9 @@
       <c r="E166" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F166" s="1"/>
+      <c r="F166" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="167" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="27" t="s">
@@ -7550,7 +8029,9 @@
       <c r="E167" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F167" s="1"/>
+      <c r="F167" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="168" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="27" t="s">
@@ -7564,7 +8045,9 @@
       <c r="E168" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F168" s="1"/>
+      <c r="F168" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="169" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="27" t="s">
@@ -7578,7 +8061,9 @@
       <c r="E169" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F169" s="1"/>
+      <c r="F169" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="170" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="27" t="s">
@@ -7592,7 +8077,9 @@
       <c r="E170" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F170" s="1"/>
+      <c r="F170" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="171" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="27" t="s">
@@ -7606,7 +8093,9 @@
       <c r="E171" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F171" s="1"/>
+      <c r="F171" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="172" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="27" t="s">
@@ -7620,7 +8109,9 @@
       <c r="E172" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F172" s="1"/>
+      <c r="F172" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="173" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="27" t="s">
@@ -7634,7 +8125,9 @@
       <c r="E173" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F173" s="1"/>
+      <c r="F173" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="174" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="27" t="s">
@@ -7648,7 +8141,9 @@
       <c r="E174" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="F174" s="1"/>
+      <c r="F174" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="27" t="s">
@@ -7662,6 +8157,9 @@
       <c r="E175" s="17" t="s">
         <v>113</v>
       </c>
+      <c r="F175" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="27" t="s">
@@ -7675,8 +8173,11 @@
       <c r="E176" s="20" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="27" t="s">
         <v>1037</v>
       </c>
@@ -7688,8 +8189,11 @@
       <c r="E177" s="17" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="27" t="s">
         <v>1038</v>
       </c>
@@ -7701,8 +8205,11 @@
       <c r="E178" s="20" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="27" t="s">
         <v>1039</v>
       </c>
@@ -7714,8 +8221,11 @@
       <c r="E179" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="27" t="s">
         <v>1040</v>
       </c>
@@ -7727,8 +8237,11 @@
       <c r="E180" s="17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="27" t="s">
         <v>106</v>
       </c>
@@ -7740,8 +8253,11 @@
       <c r="E181" s="17" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="27" t="s">
         <v>1041</v>
       </c>
@@ -7753,8 +8269,11 @@
       <c r="E182" s="17" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="27" t="s">
         <v>1042</v>
       </c>
@@ -7766,8 +8285,11 @@
       <c r="E183" s="20" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="27" t="s">
         <v>1043</v>
       </c>
@@ -7779,8 +8301,11 @@
       <c r="E184" s="17" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="27" t="s">
         <v>1044</v>
       </c>
@@ -7792,8 +8317,11 @@
       <c r="E185" s="17" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="27" t="s">
         <v>1045</v>
       </c>
@@ -7805,8 +8333,11 @@
       <c r="E186" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="27" t="s">
         <v>1046</v>
       </c>
@@ -7818,8 +8349,11 @@
       <c r="E187" s="17" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="27" t="s">
         <v>1047</v>
       </c>
@@ -7831,8 +8365,11 @@
       <c r="E188" s="17" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="27" t="s">
         <v>1048</v>
       </c>
@@ -7844,8 +8381,11 @@
       <c r="E189" s="17" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="27" t="s">
         <v>1049</v>
       </c>
@@ -7857,8 +8397,11 @@
       <c r="E190" s="17" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="27" t="s">
         <v>1050</v>
       </c>
@@ -7870,8 +8413,11 @@
       <c r="E191" s="17" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="27" t="s">
         <v>1051</v>
       </c>
@@ -7883,6 +8429,9 @@
       <c r="E192" s="17" t="s">
         <v>132</v>
       </c>
+      <c r="F192" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="27" t="s">
@@ -7896,6 +8445,9 @@
       <c r="E193" s="17" t="s">
         <v>133</v>
       </c>
+      <c r="F193" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="27" t="s">
@@ -7909,6 +8461,9 @@
       <c r="E194" s="17" t="s">
         <v>134</v>
       </c>
+      <c r="F194" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="195" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="27" t="s">
@@ -7922,7 +8477,9 @@
       <c r="E195" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F195" s="1"/>
+      <c r="F195" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="27" t="s">
@@ -7936,6 +8493,9 @@
       <c r="E196" s="17" t="s">
         <v>135</v>
       </c>
+      <c r="F196" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="197" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="27" t="s">
@@ -7949,7 +8509,9 @@
       <c r="E197" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F197" s="1"/>
+      <c r="F197" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="198" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="27" t="s">
@@ -7963,7 +8525,9 @@
       <c r="E198" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F198" s="1"/>
+      <c r="F198" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="199" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="27" t="s">
@@ -7977,7 +8541,9 @@
       <c r="E199" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F199" s="1"/>
+      <c r="F199" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="200" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="27" t="s">
@@ -7991,7 +8557,9 @@
       <c r="E200" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="F200" s="1"/>
+      <c r="F200" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="201" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="27" t="s">
@@ -8005,7 +8573,9 @@
       <c r="E201" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F201" s="1"/>
+      <c r="F201" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="202" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="27" t="s">
@@ -8019,7 +8589,9 @@
       <c r="E202" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F202" s="1"/>
+      <c r="F202" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="203" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="27" t="s">
@@ -8033,7 +8605,9 @@
       <c r="E203" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F203" s="1"/>
+      <c r="F203" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="204" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="27" t="s">
@@ -8047,7 +8621,9 @@
       <c r="E204" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="F204" s="1"/>
+      <c r="F204" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="205" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="27" t="s">
@@ -8061,7 +8637,9 @@
       <c r="E205" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F205" s="1"/>
+      <c r="F205" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="206" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="27" t="s">
@@ -8075,7 +8653,9 @@
       <c r="E206" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="F206" s="1"/>
+      <c r="F206" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="207" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="27" t="s">
@@ -8089,7 +8669,9 @@
       <c r="E207" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F207" s="1"/>
+      <c r="F207" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G207" s="5"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -8104,6 +8686,9 @@
       <c r="E208" s="17" t="s">
         <v>147</v>
       </c>
+      <c r="F208" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="27" t="s">
@@ -8117,6 +8702,9 @@
       <c r="E209" s="17" t="s">
         <v>148</v>
       </c>
+      <c r="F209" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="27" t="s">
@@ -8130,6 +8718,9 @@
       <c r="E210" s="17" t="s">
         <v>149</v>
       </c>
+      <c r="F210" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="27" t="s">
@@ -8143,6 +8734,9 @@
       <c r="E211" s="17" t="s">
         <v>150</v>
       </c>
+      <c r="F211" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="27" t="s">
@@ -8156,6 +8750,9 @@
       <c r="E212" s="17" t="s">
         <v>151</v>
       </c>
+      <c r="F212" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="27" t="s">
@@ -8169,6 +8766,9 @@
       <c r="E213" s="17" t="s">
         <v>152</v>
       </c>
+      <c r="F213" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="27" t="s">
@@ -8182,6 +8782,9 @@
       <c r="E214" s="17" t="s">
         <v>153</v>
       </c>
+      <c r="F214" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="27" t="s">
@@ -8195,6 +8798,9 @@
       <c r="E215" s="17" t="s">
         <v>154</v>
       </c>
+      <c r="F215" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="27" t="s">
@@ -8208,6 +8814,9 @@
       <c r="E216" s="17" t="s">
         <v>155</v>
       </c>
+      <c r="F216" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="27" t="s">
@@ -8221,6 +8830,9 @@
       <c r="E217" s="17" t="s">
         <v>156</v>
       </c>
+      <c r="F217" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="27" t="s">
@@ -8234,6 +8846,9 @@
       <c r="E218" s="17" t="s">
         <v>156</v>
       </c>
+      <c r="F218" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="219" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="27" t="s">
@@ -8247,7 +8862,9 @@
       <c r="E219" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="F219" s="1"/>
+      <c r="F219" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="27" t="s">
@@ -8261,6 +8878,9 @@
       <c r="E220" s="17" t="s">
         <v>158</v>
       </c>
+      <c r="F220" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="27" t="s">
@@ -8274,6 +8894,9 @@
       <c r="E221" s="17" t="s">
         <v>159</v>
       </c>
+      <c r="F221" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="27" t="s">
@@ -8287,6 +8910,9 @@
       <c r="E222" s="17" t="s">
         <v>160</v>
       </c>
+      <c r="F222" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="27" t="s">
@@ -8300,6 +8926,9 @@
       <c r="E223" s="17" t="s">
         <v>9</v>
       </c>
+      <c r="F223" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="224" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="27" t="s">
@@ -8313,7 +8942,9 @@
       <c r="E224" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="F224" s="1"/>
+      <c r="F224" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G224" s="2"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -8328,6 +8959,9 @@
       <c r="E225" s="17" t="s">
         <v>166</v>
       </c>
+      <c r="F225" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="27" t="s">
@@ -8341,6 +8975,9 @@
       <c r="E226" s="17" t="s">
         <v>167</v>
       </c>
+      <c r="F226" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="27" t="s">
@@ -8354,6 +8991,9 @@
       <c r="E227" s="17" t="s">
         <v>168</v>
       </c>
+      <c r="F227" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="27" t="s">
@@ -8367,6 +9007,9 @@
       <c r="E228" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="F228" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="229" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="27" t="s">
@@ -8380,7 +9023,9 @@
       <c r="E229" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F229" s="1"/>
+      <c r="F229" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G229" s="2"/>
     </row>
     <row r="230" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8395,7 +9040,9 @@
       <c r="E230" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="F230" s="1"/>
+      <c r="F230" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G230" s="2"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -8410,6 +9057,9 @@
       <c r="E231" s="17" t="s">
         <v>170</v>
       </c>
+      <c r="F231" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="27" t="s">
@@ -8423,6 +9073,9 @@
       <c r="E232" s="20" t="s">
         <v>171</v>
       </c>
+      <c r="F232" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="27" t="s">
@@ -8436,6 +9089,9 @@
       <c r="E233" s="17" t="s">
         <v>172</v>
       </c>
+      <c r="F233" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="27" t="s">
@@ -8449,6 +9105,9 @@
       <c r="E234" s="20" t="s">
         <v>173</v>
       </c>
+      <c r="F234" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="27" t="s">
@@ -8462,6 +9121,9 @@
       <c r="E235" s="17" t="s">
         <v>174</v>
       </c>
+      <c r="F235" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="236" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="27" t="s">
@@ -8475,7 +9137,9 @@
       <c r="E236" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="F236" s="1"/>
+      <c r="F236" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G236" s="2"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -8490,6 +9154,9 @@
       <c r="E237" s="17" t="s">
         <v>184</v>
       </c>
+      <c r="F237" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="27" t="s">
@@ -8503,6 +9170,9 @@
       <c r="E238" s="17" t="s">
         <v>184</v>
       </c>
+      <c r="F238" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="27" t="s">
@@ -8516,6 +9186,9 @@
       <c r="E239" s="17" t="s">
         <v>185</v>
       </c>
+      <c r="F239" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="27" t="s">
@@ -8529,6 +9202,9 @@
       <c r="E240" s="17" t="s">
         <v>186</v>
       </c>
+      <c r="F240" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="241" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="27" t="s">
@@ -8542,7 +9218,9 @@
       <c r="E241" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="F241" s="1"/>
+      <c r="F241" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G241" s="2"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -8557,6 +9235,9 @@
       <c r="E242" s="20" t="s">
         <v>188</v>
       </c>
+      <c r="F242" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="27" t="s">
@@ -8570,6 +9251,9 @@
       <c r="E243" s="20" t="s">
         <v>257</v>
       </c>
+      <c r="F243" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="27" t="s">
@@ -8583,6 +9267,9 @@
       <c r="E244" s="17" t="s">
         <v>189</v>
       </c>
+      <c r="F244" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="27" t="s">
@@ -8596,6 +9283,9 @@
       <c r="E245" s="17" t="s">
         <v>190</v>
       </c>
+      <c r="F245" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="27" t="s">
@@ -8609,6 +9299,9 @@
       <c r="E246" s="17" t="s">
         <v>191</v>
       </c>
+      <c r="F246" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="27" t="s">
@@ -8622,6 +9315,9 @@
       <c r="E247" s="17" t="s">
         <v>192</v>
       </c>
+      <c r="F247" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="27" t="s">
@@ -8635,6 +9331,9 @@
       <c r="E248" s="17" t="s">
         <v>193</v>
       </c>
+      <c r="F248" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="249" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="27" t="s">
@@ -8648,7 +9347,9 @@
       <c r="E249" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="F249" s="1"/>
+      <c r="F249" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G249" s="2"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -8663,6 +9364,9 @@
       <c r="E250" s="17" t="s">
         <v>192</v>
       </c>
+      <c r="F250" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="27" t="s">
@@ -8676,6 +9380,9 @@
       <c r="E251" s="17" t="s">
         <v>194</v>
       </c>
+      <c r="F251" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="27" t="s">
@@ -8689,6 +9396,9 @@
       <c r="E252" s="17" t="s">
         <v>183</v>
       </c>
+      <c r="F252" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="27" t="s">
@@ -8702,6 +9412,9 @@
       <c r="E253" s="17" t="s">
         <v>182</v>
       </c>
+      <c r="F253" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="27" t="s">
@@ -8715,6 +9428,9 @@
       <c r="E254" s="17" t="s">
         <v>181</v>
       </c>
+      <c r="F254" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="27" t="s">
@@ -8728,6 +9444,9 @@
       <c r="E255" s="17" t="s">
         <v>180</v>
       </c>
+      <c r="F255" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="256" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="27" t="s">
@@ -8741,10 +9460,12 @@
       <c r="E256" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="F256" s="1"/>
+      <c r="F256" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G256" s="2"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="27" t="s">
         <v>1492</v>
       </c>
@@ -8756,8 +9477,11 @@
       <c r="E257" s="17" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="27" t="s">
         <v>1493</v>
       </c>
@@ -8769,8 +9493,11 @@
       <c r="E258" s="17" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="27" t="s">
         <v>1494</v>
       </c>
@@ -8782,8 +9509,11 @@
       <c r="E259" s="17" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="27" t="s">
         <v>1328</v>
       </c>
@@ -8795,8 +9525,11 @@
       <c r="E260" s="17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="27" t="s">
         <v>1329</v>
       </c>
@@ -8808,8 +9541,11 @@
       <c r="E261" s="17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="27" t="s">
         <v>1330</v>
       </c>
@@ -8821,8 +9557,11 @@
       <c r="E262" s="17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="27" t="s">
         <v>1331</v>
       </c>
@@ -8834,8 +9573,11 @@
       <c r="E263" s="17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="27" t="s">
         <v>1332</v>
       </c>
@@ -8847,8 +9589,11 @@
       <c r="E264" s="17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="27" t="s">
         <v>1333</v>
       </c>
@@ -8860,8 +9605,11 @@
       <c r="E265" s="17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="27" t="s">
         <v>1334</v>
       </c>
@@ -8873,8 +9621,11 @@
       <c r="E266" s="17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="27" t="s">
         <v>1335</v>
       </c>
@@ -8886,8 +9637,11 @@
       <c r="E267" s="17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="27" t="s">
         <v>1336</v>
       </c>
@@ -8899,8 +9653,11 @@
       <c r="E268" s="17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="27" t="s">
         <v>1495</v>
       </c>
@@ -8912,8 +9669,11 @@
       <c r="E269" s="17" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="27" t="s">
         <v>1496</v>
       </c>
@@ -8925,8 +9685,11 @@
       <c r="E270" s="17" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="27" t="s">
         <v>1497</v>
       </c>
@@ -8938,8 +9701,11 @@
       <c r="E271" s="17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="27" t="s">
         <v>1498</v>
       </c>
@@ -8951,8 +9717,11 @@
       <c r="E272" s="17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F272" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="27" t="s">
         <v>70</v>
       </c>
@@ -8964,8 +9733,11 @@
       <c r="E273" s="17" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="27" t="s">
         <v>71</v>
       </c>
@@ -8977,8 +9749,11 @@
       <c r="E274" s="17" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F274" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="27" t="s">
         <v>72</v>
       </c>
@@ -8990,8 +9765,11 @@
       <c r="E275" s="17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="27" t="s">
         <v>73</v>
       </c>
@@ -9003,8 +9781,11 @@
       <c r="E276" s="17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="27" t="s">
         <v>74</v>
       </c>
@@ -9016,8 +9797,11 @@
       <c r="E277" s="17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="27" t="s">
         <v>1499</v>
       </c>
@@ -9029,8 +9813,11 @@
       <c r="E278" s="17" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="27" t="s">
         <v>1500</v>
       </c>
@@ -9042,8 +9829,11 @@
       <c r="E279" s="17" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F279" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="27" t="s">
         <v>1088</v>
       </c>
@@ -9055,8 +9845,11 @@
       <c r="E280" s="20" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F280" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="27" t="s">
         <v>1087</v>
       </c>
@@ -9068,8 +9861,11 @@
       <c r="E281" s="20" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="27" t="s">
         <v>1086</v>
       </c>
@@ -9081,8 +9877,11 @@
       <c r="E282" s="20" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="27" t="s">
         <v>1085</v>
       </c>
@@ -9094,8 +9893,11 @@
       <c r="E283" s="17" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="27" t="s">
         <v>1084</v>
       </c>
@@ -9107,8 +9909,11 @@
       <c r="E284" s="17" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F284" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="27" t="s">
         <v>255</v>
       </c>
@@ -9120,8 +9925,11 @@
       <c r="E285" s="17" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="27" t="s">
         <v>1083</v>
       </c>
@@ -9133,8 +9941,11 @@
       <c r="E286" s="17" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="27" t="s">
         <v>1082</v>
       </c>
@@ -9146,8 +9957,11 @@
       <c r="E287" s="17" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="27" t="s">
         <v>1081</v>
       </c>
@@ -9159,8 +9973,11 @@
       <c r="E288" s="17" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="27" t="s">
         <v>256</v>
       </c>
@@ -9172,8 +9989,11 @@
       <c r="E289" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="27" t="s">
         <v>1080</v>
       </c>
@@ -9185,8 +10005,11 @@
       <c r="E290" s="20" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="27" t="s">
         <v>1079</v>
       </c>
@@ -9198,8 +10021,11 @@
       <c r="E291" s="20" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="27" t="s">
         <v>1078</v>
       </c>
@@ -9211,8 +10037,11 @@
       <c r="E292" s="17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="27" t="s">
         <v>1077</v>
       </c>
@@ -9224,8 +10053,11 @@
       <c r="E293" s="17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="27" t="s">
         <v>1076</v>
       </c>
@@ -9237,8 +10069,11 @@
       <c r="E294" s="17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="27" t="s">
         <v>1075</v>
       </c>
@@ -9250,8 +10085,11 @@
       <c r="E295" s="17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="27" t="s">
         <v>1074</v>
       </c>
@@ -9263,8 +10101,11 @@
       <c r="E296" s="17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="27" t="s">
         <v>1073</v>
       </c>
@@ -9276,8 +10117,11 @@
       <c r="E297" s="17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="27" t="s">
         <v>1072</v>
       </c>
@@ -9289,8 +10133,11 @@
       <c r="E298" s="17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="27" t="s">
         <v>1071</v>
       </c>
@@ -9302,8 +10149,11 @@
       <c r="E299" s="17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="27" t="s">
         <v>1070</v>
       </c>
@@ -9315,8 +10165,11 @@
       <c r="E300" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="27" t="s">
         <v>1370</v>
       </c>
@@ -9328,8 +10181,11 @@
       <c r="E301" s="17" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="27" t="s">
         <v>1371</v>
       </c>
@@ -9341,8 +10197,11 @@
       <c r="E302" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="27" t="s">
         <v>1372</v>
       </c>
@@ -9354,8 +10213,11 @@
       <c r="E303" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="27" t="s">
         <v>1373</v>
       </c>
@@ -9367,8 +10229,11 @@
       <c r="E304" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F304" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="27" t="s">
         <v>1374</v>
       </c>
@@ -9380,8 +10245,11 @@
       <c r="E305" s="17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F305" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="27" t="s">
         <v>1375</v>
       </c>
@@ -9393,8 +10261,11 @@
       <c r="E306" s="17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F306" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="27" t="s">
         <v>1376</v>
       </c>
@@ -9406,8 +10277,11 @@
       <c r="E307" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F307" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="27" t="s">
         <v>1377</v>
       </c>
@@ -9419,8 +10293,11 @@
       <c r="E308" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="27" t="s">
         <v>1378</v>
       </c>
@@ -9432,8 +10309,11 @@
       <c r="E309" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="27" t="s">
         <v>1379</v>
       </c>
@@ -9445,8 +10325,11 @@
       <c r="E310" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F310" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="27" t="s">
         <v>1380</v>
       </c>
@@ -9458,8 +10341,11 @@
       <c r="E311" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F311" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="27" t="s">
         <v>1381</v>
       </c>
@@ -9471,8 +10357,11 @@
       <c r="E312" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F312" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="27" t="s">
         <v>1382</v>
       </c>
@@ -9484,8 +10373,11 @@
       <c r="E313" s="17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F313" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="27" t="s">
         <v>1383</v>
       </c>
@@ -9497,8 +10389,11 @@
       <c r="E314" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F314" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="27" t="s">
         <v>1384</v>
       </c>
@@ -9510,8 +10405,11 @@
       <c r="E315" s="17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F315" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="27" t="s">
         <v>1385</v>
       </c>
@@ -9523,8 +10421,11 @@
       <c r="E316" s="17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F316" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="27" t="s">
         <v>1386</v>
       </c>
@@ -9536,8 +10437,11 @@
       <c r="E317" s="17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F317" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="27" t="s">
         <v>1387</v>
       </c>
@@ -9549,8 +10453,11 @@
       <c r="E318" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F318" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="27" t="s">
         <v>1388</v>
       </c>
@@ -9562,8 +10469,11 @@
       <c r="E319" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F319" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="27" t="s">
         <v>1389</v>
       </c>
@@ -9575,6 +10485,9 @@
       <c r="E320" s="17" t="s">
         <v>38</v>
       </c>
+      <c r="F320" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="27" t="s">
@@ -9588,6 +10501,9 @@
       <c r="E321" s="17" t="s">
         <v>39</v>
       </c>
+      <c r="F321" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="27" t="s">
@@ -9601,6 +10517,9 @@
       <c r="E322" s="17" t="s">
         <v>39</v>
       </c>
+      <c r="F322" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="27" t="s">
@@ -9614,6 +10533,9 @@
       <c r="E323" s="17" t="s">
         <v>39</v>
       </c>
+      <c r="F323" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="27" t="s">
@@ -9627,6 +10549,9 @@
       <c r="E324" s="17" t="s">
         <v>38</v>
       </c>
+      <c r="F324" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="27" t="s">
@@ -9640,6 +10565,9 @@
       <c r="E325" s="17" t="s">
         <v>41</v>
       </c>
+      <c r="F325" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="27" t="s">
@@ -9653,6 +10581,9 @@
       <c r="E326" s="17" t="s">
         <v>41</v>
       </c>
+      <c r="F326" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="27" t="s">
@@ -9666,6 +10597,9 @@
       <c r="E327" s="17" t="s">
         <v>38</v>
       </c>
+      <c r="F327" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="27" t="s">
@@ -9679,6 +10613,9 @@
       <c r="E328" s="17" t="s">
         <v>39</v>
       </c>
+      <c r="F328" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="27" t="s">
@@ -9692,6 +10629,9 @@
       <c r="E329" s="17" t="s">
         <v>39</v>
       </c>
+      <c r="F329" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="27" t="s">
@@ -9705,6 +10645,9 @@
       <c r="E330" s="17" t="s">
         <v>39</v>
       </c>
+      <c r="F330" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="27" t="s">
@@ -9718,6 +10661,9 @@
       <c r="E331" s="17" t="s">
         <v>39</v>
       </c>
+      <c r="F331" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="27" t="s">
@@ -9731,6 +10677,9 @@
       <c r="E332" s="17" t="s">
         <v>39</v>
       </c>
+      <c r="F332" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="25" t="s">
@@ -9744,6 +10693,9 @@
       <c r="E333" s="17" t="s">
         <v>262</v>
       </c>
+      <c r="F333" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="25" t="s">
@@ -9757,6 +10709,9 @@
       <c r="E334" s="17" t="s">
         <v>262</v>
       </c>
+      <c r="F334" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="25" t="s">
@@ -9770,6 +10725,9 @@
       <c r="E335" s="17" t="s">
         <v>262</v>
       </c>
+      <c r="F335" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="336" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="25" t="s">
@@ -9783,7 +10741,9 @@
       <c r="E336" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="F336" s="1"/>
+      <c r="F336" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G336" s="2"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -9798,6 +10758,9 @@
       <c r="E337" s="17" t="s">
         <v>262</v>
       </c>
+      <c r="F337" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="25" t="s">
@@ -9811,6 +10774,9 @@
       <c r="E338" s="17" t="s">
         <v>262</v>
       </c>
+      <c r="F338" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="339" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="25" t="s">
@@ -9824,7 +10790,9 @@
       <c r="E339" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="F339" s="1"/>
+      <c r="F339" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G339" s="2"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -9839,6 +10807,9 @@
       <c r="E340" s="17" t="s">
         <v>262</v>
       </c>
+      <c r="F340" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="341" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="27" t="s">
@@ -9852,7 +10823,9 @@
       <c r="E341" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F341" s="1"/>
+      <c r="F341" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G341" s="2"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -9867,6 +10840,9 @@
       <c r="E342" s="20" t="s">
         <v>42</v>
       </c>
+      <c r="F342" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="343" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="27" t="s">
@@ -9880,7 +10856,9 @@
       <c r="E343" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F343" s="1"/>
+      <c r="F343" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G343" s="2"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -9895,6 +10873,9 @@
       <c r="E344" s="20" t="s">
         <v>42</v>
       </c>
+      <c r="F344" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="27" t="s">
@@ -9908,6 +10889,9 @@
       <c r="E345" s="20" t="s">
         <v>42</v>
       </c>
+      <c r="F345" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="346" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="27" t="s">
@@ -9921,7 +10905,9 @@
       <c r="E346" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F346" s="1"/>
+      <c r="F346" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G346" s="2"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -9936,6 +10922,9 @@
       <c r="E347" s="20" t="s">
         <v>42</v>
       </c>
+      <c r="F347" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="27" t="s">
@@ -9949,6 +10938,9 @@
       <c r="E348" s="20" t="s">
         <v>42</v>
       </c>
+      <c r="F348" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="27" t="s">
@@ -9962,6 +10954,9 @@
       <c r="E349" s="20" t="s">
         <v>42</v>
       </c>
+      <c r="F349" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="350" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="27" t="s">
@@ -9975,7 +10970,9 @@
       <c r="E350" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F350" s="1"/>
+      <c r="F350" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G350" s="2"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -9990,6 +10987,9 @@
       <c r="E351" s="20" t="s">
         <v>42</v>
       </c>
+      <c r="F351" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="352" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="27" t="s">
@@ -10003,7 +11003,9 @@
       <c r="E352" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F352" s="1"/>
+      <c r="F352" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G352" s="2"/>
     </row>
     <row r="353" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10018,7 +11020,9 @@
       <c r="E353" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F353" s="1"/>
+      <c r="F353" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G353" s="2"/>
     </row>
     <row r="354" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10033,7 +11037,9 @@
       <c r="E354" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F354" s="1"/>
+      <c r="F354" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G354" s="2"/>
     </row>
     <row r="355" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10048,7 +11054,9 @@
       <c r="E355" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F355" s="1"/>
+      <c r="F355" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G355" s="2"/>
     </row>
     <row r="356" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10063,7 +11071,9 @@
       <c r="E356" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="F356" s="1"/>
+      <c r="F356" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G356" s="2"/>
     </row>
     <row r="357" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10078,7 +11088,9 @@
       <c r="E357" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="F357" s="1"/>
+      <c r="F357" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G357" s="2"/>
     </row>
     <row r="358" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10093,7 +11105,9 @@
       <c r="E358" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="F358" s="1"/>
+      <c r="F358" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G358" s="2"/>
     </row>
     <row r="359" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10108,7 +11122,9 @@
       <c r="E359" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="F359" s="1"/>
+      <c r="F359" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G359" s="2"/>
     </row>
     <row r="360" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10123,7 +11139,9 @@
       <c r="E360" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="F360" s="1"/>
+      <c r="F360" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G360" s="2"/>
     </row>
     <row r="361" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10138,7 +11156,9 @@
       <c r="E361" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="F361" s="1"/>
+      <c r="F361" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G361" s="2"/>
     </row>
     <row r="362" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10153,7 +11173,9 @@
       <c r="E362" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="F362" s="1"/>
+      <c r="F362" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G362" s="2"/>
     </row>
     <row r="363" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10168,7 +11190,9 @@
       <c r="E363" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="F363" s="1"/>
+      <c r="F363" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G363" s="2"/>
     </row>
     <row r="364" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10183,7 +11207,9 @@
       <c r="E364" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="F364" s="1"/>
+      <c r="F364" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G364" s="2"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -10198,6 +11224,9 @@
       <c r="E365" s="20" t="s">
         <v>240</v>
       </c>
+      <c r="F365" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="366" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="27" t="s">
@@ -10211,7 +11240,9 @@
       <c r="E366" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="F366" s="1"/>
+      <c r="F366" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G366" s="2"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -10226,6 +11257,9 @@
       <c r="E367" s="20" t="s">
         <v>240</v>
       </c>
+      <c r="F367" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="27" t="s">
@@ -10239,6 +11273,9 @@
       <c r="E368" s="20" t="s">
         <v>240</v>
       </c>
+      <c r="F368" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="369" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="27" t="s">
@@ -10252,7 +11289,9 @@
       <c r="E369" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="F369" s="1"/>
+      <c r="F369" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G369" s="5"/>
     </row>
     <row r="370" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10267,7 +11306,9 @@
       <c r="E370" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="F370" s="1"/>
+      <c r="F370" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G370" s="5"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -10282,6 +11323,9 @@
       <c r="E371" s="20" t="s">
         <v>240</v>
       </c>
+      <c r="F371" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="27" t="s">
@@ -10295,6 +11339,9 @@
       <c r="E372" s="20" t="s">
         <v>240</v>
       </c>
+      <c r="F372" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="27" t="s">
@@ -10308,6 +11355,9 @@
       <c r="E373" s="20" t="s">
         <v>240</v>
       </c>
+      <c r="F373" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="374" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="27" t="s">
@@ -10321,7 +11371,9 @@
       <c r="E374" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="F374" s="2"/>
+      <c r="F374" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G374" s="6"/>
     </row>
     <row r="375" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10336,7 +11388,9 @@
       <c r="E375" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="F375" s="2"/>
+      <c r="F375" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G375" s="6"/>
     </row>
     <row r="376" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10351,7 +11405,9 @@
       <c r="E376" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="F376" s="2"/>
+      <c r="F376" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G376" s="6"/>
     </row>
     <row r="377" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10366,7 +11422,9 @@
       <c r="E377" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="F377" s="2"/>
+      <c r="F377" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G377" s="6"/>
     </row>
     <row r="378" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10381,7 +11439,9 @@
       <c r="E378" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="F378" s="2"/>
+      <c r="F378" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G378" s="6"/>
     </row>
     <row r="379" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10396,7 +11456,9 @@
       <c r="E379" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="F379" s="2"/>
+      <c r="F379" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G379" s="6"/>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
@@ -10411,6 +11473,9 @@
       <c r="E380" s="17" t="s">
         <v>161</v>
       </c>
+      <c r="F380" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="27" t="s">
@@ -10424,6 +11489,9 @@
       <c r="E381" s="17" t="s">
         <v>161</v>
       </c>
+      <c r="F381" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="27" t="s">
@@ -10437,6 +11505,9 @@
       <c r="E382" s="17" t="s">
         <v>265</v>
       </c>
+      <c r="F382" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="27" t="s">
@@ -10450,6 +11521,9 @@
       <c r="E383" s="17" t="s">
         <v>162</v>
       </c>
+      <c r="F383" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="384" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="27" t="s">
@@ -10463,7 +11537,9 @@
       <c r="E384" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F384" s="2"/>
+      <c r="F384" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G384" s="6"/>
     </row>
     <row r="385" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10478,7 +11554,9 @@
       <c r="E385" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="F385" s="2"/>
+      <c r="F385" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G385" s="6"/>
     </row>
     <row r="386" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10493,7 +11571,9 @@
       <c r="E386" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="F386" s="2"/>
+      <c r="F386" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G386" s="6"/>
     </row>
     <row r="387" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10508,7 +11588,9 @@
       <c r="E387" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="F387" s="2"/>
+      <c r="F387" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G387" s="6"/>
     </row>
     <row r="388" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10523,7 +11605,9 @@
       <c r="E388" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="F388" s="2"/>
+      <c r="F388" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G388" s="6"/>
     </row>
     <row r="389" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10538,7 +11622,9 @@
       <c r="E389" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F389" s="2"/>
+      <c r="F389" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G389" s="6"/>
     </row>
     <row r="390" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10553,7 +11639,9 @@
       <c r="E390" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F390" s="2"/>
+      <c r="F390" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G390" s="6"/>
     </row>
     <row r="391" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10568,7 +11656,9 @@
       <c r="E391" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="F391" s="2"/>
+      <c r="F391" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G391" s="6"/>
     </row>
     <row r="392" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10583,7 +11673,9 @@
       <c r="E392" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="F392" s="2"/>
+      <c r="F392" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G392" s="7"/>
       <c r="H392" s="8"/>
     </row>
@@ -10599,7 +11691,9 @@
       <c r="E393" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="F393" s="1"/>
+      <c r="F393" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G393" s="6"/>
     </row>
     <row r="394" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10614,7 +11708,9 @@
       <c r="E394" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="F394" s="1"/>
+      <c r="F394" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G394" s="6"/>
     </row>
     <row r="395" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10629,7 +11725,9 @@
       <c r="E395" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="F395" s="2"/>
+      <c r="F395" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G395" s="6"/>
     </row>
     <row r="396" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -10644,7 +11742,9 @@
       <c r="E396" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="F396" s="2"/>
+      <c r="F396" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G396" s="6"/>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
@@ -10659,6 +11759,9 @@
       <c r="E397" s="20" t="s">
         <v>254</v>
       </c>
+      <c r="F397" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="27" t="s">
@@ -10672,6 +11775,9 @@
       <c r="E398" s="20" t="s">
         <v>254</v>
       </c>
+      <c r="F398" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="27" t="s">
@@ -10685,6 +11791,9 @@
       <c r="E399" s="20" t="s">
         <v>254</v>
       </c>
+      <c r="F399" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="27" t="s">
@@ -10698,6 +11807,9 @@
       <c r="E400" s="20" t="s">
         <v>254</v>
       </c>
+      <c r="F400" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="27" t="s">
@@ -10711,6 +11823,9 @@
       <c r="E401" s="20" t="s">
         <v>254</v>
       </c>
+      <c r="F401" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="27" t="s">
@@ -10724,6 +11839,9 @@
       <c r="E402" s="17" t="s">
         <v>161</v>
       </c>
+      <c r="F402" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="27" t="s">
@@ -10737,6 +11855,9 @@
       <c r="E403" s="17" t="s">
         <v>161</v>
       </c>
+      <c r="F403" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="27" t="s">
@@ -10750,6 +11871,9 @@
       <c r="E404" s="17" t="s">
         <v>161</v>
       </c>
+      <c r="F404" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="27" t="s">
@@ -10763,6 +11887,9 @@
       <c r="E405" s="17" t="s">
         <v>161</v>
       </c>
+      <c r="F405" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="406" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="27" t="s">
@@ -10776,7 +11903,9 @@
       <c r="E406" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="F406" s="1"/>
+      <c r="F406" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G406" s="6"/>
     </row>
     <row r="407" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10791,7 +11920,9 @@
       <c r="E407" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="F407" s="1"/>
+      <c r="F407" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G407" s="6"/>
     </row>
     <row r="408" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10806,7 +11937,9 @@
       <c r="E408" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="F408" s="2"/>
+      <c r="F408" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="G408" s="6"/>
     </row>
     <row r="409" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10821,7 +11954,9 @@
       <c r="E409" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="F409" s="1"/>
+      <c r="F409" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="410" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="27" t="s">
@@ -10835,7 +11970,9 @@
       <c r="E410" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="F410" s="1"/>
+      <c r="F410" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="27" t="s">
@@ -10849,6 +11986,9 @@
       <c r="E411" s="17" t="s">
         <v>164</v>
       </c>
+      <c r="F411" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="27" t="s">
@@ -10862,6 +12002,9 @@
       <c r="E412" s="17" t="s">
         <v>161</v>
       </c>
+      <c r="F412" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="27" t="s">
@@ -10875,6 +12018,9 @@
       <c r="E413" s="17" t="s">
         <v>161</v>
       </c>
+      <c r="F413" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="27" t="s">
@@ -10888,6 +12034,9 @@
       <c r="E414" s="17" t="s">
         <v>161</v>
       </c>
+      <c r="F414" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="27" t="s">
@@ -10901,6 +12050,9 @@
       <c r="E415" s="17" t="s">
         <v>161</v>
       </c>
+      <c r="F415" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="27" t="s">
@@ -10914,8 +12066,11 @@
       <c r="E416" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F416" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="27" t="s">
         <v>1506</v>
       </c>
@@ -10927,8 +12082,11 @@
       <c r="E417" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F417" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="27" t="s">
         <v>1507</v>
       </c>
@@ -10940,8 +12098,11 @@
       <c r="E418" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F418" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="27" t="s">
         <v>1508</v>
       </c>
@@ -10953,8 +12114,11 @@
       <c r="E419" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F419" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="27" t="s">
         <v>1509</v>
       </c>
@@ -10966,8 +12130,11 @@
       <c r="E420" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F420" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="27" t="s">
         <v>1510</v>
       </c>
@@ -10979,8 +12146,11 @@
       <c r="E421" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F421" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="27" t="s">
         <v>1511</v>
       </c>
@@ -10992,8 +12162,11 @@
       <c r="E422" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F422" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="27" t="s">
         <v>1512</v>
       </c>
@@ -11005,8 +12178,11 @@
       <c r="E423" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F423" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="27" t="s">
         <v>1339</v>
       </c>
@@ -11018,8 +12194,11 @@
       <c r="E424" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F424" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="27" t="s">
         <v>1340</v>
       </c>
@@ -11031,8 +12210,11 @@
       <c r="E425" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F425" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="27" t="s">
         <v>1341</v>
       </c>
@@ -11044,8 +12226,11 @@
       <c r="E426" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F426" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="27" t="s">
         <v>1342</v>
       </c>
@@ -11057,8 +12242,11 @@
       <c r="E427" s="17" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F427" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="25" t="s">
         <v>1343</v>
       </c>
@@ -11070,8 +12258,11 @@
       <c r="E428" s="17" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F428" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="25" t="s">
         <v>1344</v>
       </c>
@@ -11083,8 +12274,11 @@
       <c r="E429" s="17" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F429" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="27" t="s">
         <v>1345</v>
       </c>
@@ -11096,8 +12290,11 @@
       <c r="E430" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F430" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="27" t="s">
         <v>252</v>
       </c>
@@ -11109,8 +12306,11 @@
       <c r="E431" s="17" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F431" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="27" t="s">
         <v>253</v>
       </c>
@@ -11122,6 +12322,9 @@
       <c r="E432" s="17" t="s">
         <v>991</v>
       </c>
+      <c r="F432" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="27" t="s">
@@ -11135,6 +12338,9 @@
       <c r="E433" s="17" t="s">
         <v>161</v>
       </c>
+      <c r="F433" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="27" t="s">
@@ -11148,6 +12354,9 @@
       <c r="E434" s="17" t="s">
         <v>214</v>
       </c>
+      <c r="F434" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="27" t="s">
@@ -11161,6 +12370,9 @@
       <c r="E435" s="17" t="s">
         <v>992</v>
       </c>
+      <c r="F435" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="27" t="s">
@@ -11174,6 +12386,9 @@
       <c r="E436" s="17" t="s">
         <v>992</v>
       </c>
+      <c r="F436" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="27" t="s">
@@ -11187,6 +12402,9 @@
       <c r="E437" s="17" t="s">
         <v>992</v>
       </c>
+      <c r="F437" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="27" t="s">
@@ -11200,6 +12418,9 @@
       <c r="E438" s="17" t="s">
         <v>992</v>
       </c>
+      <c r="F438" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="27" t="s">
@@ -11213,6 +12434,9 @@
       <c r="E439" s="17" t="s">
         <v>992</v>
       </c>
+      <c r="F439" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="27" t="s">
@@ -11226,6 +12450,9 @@
       <c r="E440" s="17" t="s">
         <v>992</v>
       </c>
+      <c r="F440" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="27" t="s">
@@ -11239,6 +12466,9 @@
       <c r="E441" s="17" t="s">
         <v>992</v>
       </c>
+      <c r="F441" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="442" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="27" t="s">
@@ -11252,7 +12482,9 @@
       <c r="E442" s="17" t="s">
         <v>992</v>
       </c>
-      <c r="F442" s="1"/>
+      <c r="F442" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="443" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="27" t="s">
@@ -11266,7 +12498,9 @@
       <c r="E443" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="F443" s="1"/>
+      <c r="F443" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="27" t="s">
@@ -11280,6 +12514,9 @@
       <c r="E444" s="17" t="s">
         <v>259</v>
       </c>
+      <c r="F444" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="27" t="s">
@@ -11293,6 +12530,9 @@
       <c r="E445" s="17" t="s">
         <v>260</v>
       </c>
+      <c r="F445" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="27" t="s">
@@ -11306,6 +12546,9 @@
       <c r="E446" s="17" t="s">
         <v>260</v>
       </c>
+      <c r="F446" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="27" t="s">
@@ -11319,6 +12562,9 @@
       <c r="E447" s="17" t="s">
         <v>45</v>
       </c>
+      <c r="F447" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="27" t="s">
@@ -11332,8 +12578,11 @@
       <c r="E448" s="19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F448" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="27" t="s">
         <v>79</v>
       </c>
@@ -11345,8 +12594,11 @@
       <c r="E449" s="19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F449" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="27" t="s">
         <v>1513</v>
       </c>
@@ -11358,8 +12610,11 @@
       <c r="E450" s="19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F450" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="27" t="s">
         <v>80</v>
       </c>
@@ -11371,8 +12626,11 @@
       <c r="E451" s="19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F451" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="27" t="s">
         <v>81</v>
       </c>
@@ -11384,8 +12642,11 @@
       <c r="E452" s="19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F452" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="27" t="s">
         <v>82</v>
       </c>
@@ -11397,8 +12658,11 @@
       <c r="E453" s="17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F453" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="27" t="s">
         <v>83</v>
       </c>
@@ -11410,8 +12674,11 @@
       <c r="E454" s="17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F454" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="27" t="s">
         <v>84</v>
       </c>
@@ -11423,8 +12690,11 @@
       <c r="E455" s="17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F455" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="27" t="s">
         <v>1514</v>
       </c>
@@ -11436,8 +12706,11 @@
       <c r="E456" s="17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F456" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="27" t="s">
         <v>91</v>
       </c>
@@ -11449,8 +12722,11 @@
       <c r="E457" s="17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F457" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="27" t="s">
         <v>92</v>
       </c>
@@ -11462,8 +12738,11 @@
       <c r="E458" s="17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F458" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="27" t="s">
         <v>93</v>
       </c>
@@ -11475,8 +12754,11 @@
       <c r="E459" s="17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F459" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="27" t="s">
         <v>85</v>
       </c>
@@ -11488,8 +12770,11 @@
       <c r="E460" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F460" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="27" t="s">
         <v>86</v>
       </c>
@@ -11501,8 +12786,11 @@
       <c r="E461" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F461" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="27" t="s">
         <v>87</v>
       </c>
@@ -11514,8 +12802,11 @@
       <c r="E462" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F462" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="27" t="s">
         <v>88</v>
       </c>
@@ -11527,8 +12818,11 @@
       <c r="E463" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F463" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="27" t="s">
         <v>89</v>
       </c>
@@ -11540,8 +12834,11 @@
       <c r="E464" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F464" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="27" t="s">
         <v>994</v>
       </c>
@@ -11553,8 +12850,11 @@
       <c r="E465" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F465" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="27" t="s">
         <v>995</v>
       </c>
@@ -11566,8 +12866,11 @@
       <c r="E466" s="17" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F466" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="27" t="s">
         <v>996</v>
       </c>
@@ -11579,8 +12882,11 @@
       <c r="E467" s="17" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F467" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="27" t="s">
         <v>94</v>
       </c>
@@ -11592,8 +12898,11 @@
       <c r="E468" s="17" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F468" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="27" t="s">
         <v>95</v>
       </c>
@@ -11605,8 +12914,11 @@
       <c r="E469" s="17" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F469" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="27" t="s">
         <v>96</v>
       </c>
@@ -11618,8 +12930,11 @@
       <c r="E470" s="17" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F470" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="27" t="s">
         <v>97</v>
       </c>
@@ -11631,8 +12946,11 @@
       <c r="E471" s="17" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F471" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="27" t="s">
         <v>98</v>
       </c>
@@ -11644,8 +12962,11 @@
       <c r="E472" s="17" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F472" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="27" t="s">
         <v>99</v>
       </c>
@@ -11657,8 +12978,11 @@
       <c r="E473" s="17" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F473" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="27" t="s">
         <v>104</v>
       </c>
@@ -11670,8 +12994,11 @@
       <c r="E474" s="17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F474" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="27" t="s">
         <v>1091</v>
       </c>
@@ -11683,8 +13010,11 @@
       <c r="E475" s="17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F475" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="27" t="s">
         <v>1092</v>
       </c>
@@ -11696,8 +13026,11 @@
       <c r="E476" s="17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F476" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="27" t="s">
         <v>1093</v>
       </c>
@@ -11709,8 +13042,11 @@
       <c r="E477" s="17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F477" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="27" t="s">
         <v>1094</v>
       </c>
@@ -11722,8 +13058,11 @@
       <c r="E478" s="17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F478" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="27" t="s">
         <v>1095</v>
       </c>
@@ -11735,8 +13074,11 @@
       <c r="E479" s="17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F479" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="27" t="s">
         <v>1096</v>
       </c>
@@ -11748,8 +13090,11 @@
       <c r="E480" s="17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F480" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="27" t="s">
         <v>1097</v>
       </c>
@@ -11761,8 +13106,11 @@
       <c r="E481" s="17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F481" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="27" t="s">
         <v>1098</v>
       </c>
@@ -11774,8 +13122,11 @@
       <c r="E482" s="17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F482" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="27" t="s">
         <v>1099</v>
       </c>
@@ -11787,8 +13138,11 @@
       <c r="E483" s="17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F483" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="27" t="s">
         <v>1100</v>
       </c>
@@ -11800,8 +13154,11 @@
       <c r="E484" s="17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F484" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="27" t="s">
         <v>1101</v>
       </c>
@@ -11813,8 +13170,11 @@
       <c r="E485" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F485" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="27" t="s">
         <v>1102</v>
       </c>
@@ -11826,8 +13186,11 @@
       <c r="E486" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F486" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="27" t="s">
         <v>1103</v>
       </c>
@@ -11839,8 +13202,11 @@
       <c r="E487" s="17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F487" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="27" t="s">
         <v>1104</v>
       </c>
@@ -11852,8 +13218,11 @@
       <c r="E488" s="17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F488" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="27" t="s">
         <v>1105</v>
       </c>
@@ -11865,8 +13234,11 @@
       <c r="E489" s="17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F489" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="27" t="s">
         <v>1106</v>
       </c>
@@ -11878,8 +13250,11 @@
       <c r="E490" s="17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F490" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="27" t="s">
         <v>63</v>
       </c>
@@ -11891,8 +13266,11 @@
       <c r="E491" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F491" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="27" t="s">
         <v>66</v>
       </c>
@@ -11904,8 +13282,11 @@
       <c r="E492" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F492" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="27" t="s">
         <v>67</v>
       </c>
@@ -11917,8 +13298,11 @@
       <c r="E493" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F493" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="27" t="s">
         <v>68</v>
       </c>
@@ -11930,8 +13314,11 @@
       <c r="E494" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F494" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="27" t="s">
         <v>69</v>
       </c>
@@ -11943,8 +13330,11 @@
       <c r="E495" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F495" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="27" t="s">
         <v>1515</v>
       </c>
@@ -11956,8 +13346,11 @@
       <c r="E496" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F496" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="27" t="s">
         <v>1516</v>
       </c>
@@ -11969,8 +13362,11 @@
       <c r="E497" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F497" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="27" t="s">
         <v>244</v>
       </c>
@@ -11982,8 +13378,11 @@
       <c r="E498" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F498" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="27" t="s">
         <v>245</v>
       </c>
@@ -11995,8 +13394,11 @@
       <c r="E499" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F499" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="27" t="s">
         <v>242</v>
       </c>
@@ -12008,8 +13410,11 @@
       <c r="E500" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F500" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="27" t="s">
         <v>243</v>
       </c>
@@ -12021,8 +13426,11 @@
       <c r="E501" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F501" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="27" t="s">
         <v>251</v>
       </c>
@@ -12034,8 +13442,11 @@
       <c r="E502" s="17" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F502" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="27" t="s">
         <v>250</v>
       </c>
@@ -12047,8 +13458,11 @@
       <c r="E503" s="17" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F503" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="27" t="s">
         <v>246</v>
       </c>
@@ -12060,8 +13474,11 @@
       <c r="E504" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F504" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="27" t="s">
         <v>247</v>
       </c>
@@ -12073,8 +13490,11 @@
       <c r="E505" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F505" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="27" t="s">
         <v>248</v>
       </c>
@@ -12086,8 +13506,11 @@
       <c r="E506" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F506" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="27" t="s">
         <v>249</v>
       </c>
@@ -12099,8 +13522,11 @@
       <c r="E507" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F507" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="27" t="s">
         <v>226</v>
       </c>
@@ -12112,8 +13538,11 @@
       <c r="E508" s="17" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F508" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="27" t="s">
         <v>225</v>
       </c>
@@ -12125,8 +13554,11 @@
       <c r="E509" s="17" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F509" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="27" t="s">
         <v>203</v>
       </c>
@@ -12138,8 +13570,11 @@
       <c r="E510" s="17" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F510" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="27" t="s">
         <v>227</v>
       </c>
@@ -12151,8 +13586,11 @@
       <c r="E511" s="17" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F511" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="27" t="s">
         <v>228</v>
       </c>
@@ -12164,8 +13602,11 @@
       <c r="E512" s="17" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F512" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="27" t="s">
         <v>229</v>
       </c>
@@ -12177,8 +13618,11 @@
       <c r="E513" s="17" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F513" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="27" t="s">
         <v>204</v>
       </c>
@@ -12190,8 +13634,11 @@
       <c r="E514" s="17" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F514" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="27" t="s">
         <v>205</v>
       </c>
@@ -12203,8 +13650,11 @@
       <c r="E515" s="17" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F515" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="27" t="s">
         <v>206</v>
       </c>
@@ -12216,8 +13666,11 @@
       <c r="E516" s="17" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F516" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="27" t="s">
         <v>233</v>
       </c>
@@ -12229,8 +13682,11 @@
       <c r="E517" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F517" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="27" t="s">
         <v>234</v>
       </c>
@@ -12242,8 +13698,11 @@
       <c r="E518" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F518" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="27" t="s">
         <v>235</v>
       </c>
@@ -12255,8 +13714,11 @@
       <c r="E519" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F519" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="27" t="s">
         <v>236</v>
       </c>
@@ -12268,8 +13730,11 @@
       <c r="E520" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F520" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="27" t="s">
         <v>207</v>
       </c>
@@ -12281,8 +13746,11 @@
       <c r="E521" s="17" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F521" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="27" t="s">
         <v>238</v>
       </c>
@@ -12294,8 +13762,11 @@
       <c r="E522" s="17" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F522" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="27" t="s">
         <v>208</v>
       </c>
@@ -12307,8 +13778,11 @@
       <c r="E523" s="17" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F523" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="27" t="s">
         <v>209</v>
       </c>
@@ -12320,8 +13794,11 @@
       <c r="E524" s="17" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F524" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="27" t="s">
         <v>1517</v>
       </c>
@@ -12333,8 +13810,11 @@
       <c r="E525" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F525" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="27" t="s">
         <v>1518</v>
       </c>
@@ -12346,8 +13826,11 @@
       <c r="E526" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="527" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F526" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A527" s="27" t="s">
         <v>1519</v>
       </c>
@@ -12359,8 +13842,11 @@
       <c r="E527" s="17" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="528" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F527" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A528" s="27" t="s">
         <v>1520</v>
       </c>
@@ -12372,8 +13858,11 @@
       <c r="E528" s="17" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="529" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F528" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="27" t="s">
         <v>1572</v>
       </c>
@@ -12385,8 +13874,11 @@
       <c r="E529" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="530" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F529" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A530" s="27" t="s">
         <v>1573</v>
       </c>
@@ -12398,8 +13890,11 @@
       <c r="E530" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F530" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="27" t="s">
         <v>1574</v>
       </c>
@@ -12411,8 +13906,11 @@
       <c r="E531" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="532" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F531" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A532" s="27" t="s">
         <v>1209</v>
       </c>
@@ -12424,8 +13922,11 @@
       <c r="E532" s="17" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F532" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="27" t="s">
         <v>1210</v>
       </c>
@@ -12437,8 +13938,11 @@
       <c r="E533" s="17" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F533" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="27" t="s">
         <v>1211</v>
       </c>
@@ -12450,8 +13954,11 @@
       <c r="E534" s="17" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F534" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="27" t="s">
         <v>1575</v>
       </c>
@@ -12463,8 +13970,11 @@
       <c r="E535" s="17" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F535" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="27" t="s">
         <v>1576</v>
       </c>
@@ -12476,8 +13986,11 @@
       <c r="E536" s="17" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F536" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="27" t="s">
         <v>1577</v>
       </c>
@@ -12489,8 +14002,11 @@
       <c r="E537" s="17" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F537" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="27" t="s">
         <v>1578</v>
       </c>
@@ -12502,8 +14018,11 @@
       <c r="E538" s="17" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F538" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="27" t="s">
         <v>1579</v>
       </c>
@@ -12515,8 +14034,11 @@
       <c r="E539" s="17" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="540" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F539" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="27" t="s">
         <v>1580</v>
       </c>
@@ -12528,8 +14050,11 @@
       <c r="E540" s="17" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F540" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="27" t="s">
         <v>1581</v>
       </c>
@@ -12541,8 +14066,11 @@
       <c r="E541" s="17" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F541" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A542" s="27" t="s">
         <v>1582</v>
       </c>
@@ -12554,8 +14082,11 @@
       <c r="E542" s="17" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F542" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="27" t="s">
         <v>1583</v>
       </c>
@@ -12567,8 +14098,11 @@
       <c r="E543" s="17" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="544" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F543" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="27" t="s">
         <v>1584</v>
       </c>
@@ -12580,8 +14114,11 @@
       <c r="E544" s="17" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F544" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="27" t="s">
         <v>1212</v>
       </c>
@@ -12593,8 +14130,11 @@
       <c r="E545" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="546" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F545" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" s="27" t="s">
         <v>1213</v>
       </c>
@@ -12606,8 +14146,11 @@
       <c r="E546" s="17" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F546" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="27" t="s">
         <v>1214</v>
       </c>
@@ -12619,8 +14162,11 @@
       <c r="E547" s="17" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="548" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F547" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="27" t="s">
         <v>1215</v>
       </c>
@@ -12632,8 +14178,11 @@
       <c r="E548" s="17" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F548" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="27" t="s">
         <v>1216</v>
       </c>
@@ -12645,8 +14194,11 @@
       <c r="E549" s="17" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="550" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F549" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" s="27" t="s">
         <v>1217</v>
       </c>
@@ -12658,8 +14210,11 @@
       <c r="E550" s="17" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F550" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="27" t="s">
         <v>1218</v>
       </c>
@@ -12671,8 +14226,11 @@
       <c r="E551" s="17" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="552" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F551" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="27" t="s">
         <v>1219</v>
       </c>
@@ -12684,8 +14242,11 @@
       <c r="E552" s="17" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F552" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="27" t="s">
         <v>1220</v>
       </c>
@@ -12697,8 +14258,11 @@
       <c r="E553" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="554" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F553" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" s="27" t="s">
         <v>1221</v>
       </c>
@@ -12710,8 +14274,11 @@
       <c r="E554" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F554" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="27" t="s">
         <v>1222</v>
       </c>
@@ -12723,8 +14290,11 @@
       <c r="E555" s="17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="556" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F555" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A556" s="27" t="s">
         <v>1223</v>
       </c>
@@ -12736,8 +14306,11 @@
       <c r="E556" s="17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F556" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="27" t="s">
         <v>1224</v>
       </c>
@@ -12749,8 +14322,11 @@
       <c r="E557" s="17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="558" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F557" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" s="27" t="s">
         <v>1225</v>
       </c>
@@ -12762,8 +14338,11 @@
       <c r="E558" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F558" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="27" t="s">
         <v>1226</v>
       </c>
@@ -12775,8 +14354,11 @@
       <c r="E559" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="560" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F559" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A560" s="27" t="s">
         <v>1227</v>
       </c>
@@ -12788,8 +14370,11 @@
       <c r="E560" s="17" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F560" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="27" t="s">
         <v>1228</v>
       </c>
@@ -12801,8 +14386,11 @@
       <c r="E561" s="17" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F561" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="27" t="s">
         <v>1229</v>
       </c>
@@ -12814,8 +14402,11 @@
       <c r="E562" s="17" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="563" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F562" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="27" t="s">
         <v>1230</v>
       </c>
@@ -12827,8 +14418,11 @@
       <c r="E563" s="17" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F563" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="27" t="s">
         <v>1231</v>
       </c>
@@ -12840,8 +14434,11 @@
       <c r="E564" s="17" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="565" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F564" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="27" t="s">
         <v>1232</v>
       </c>
@@ -12853,8 +14450,11 @@
       <c r="E565" s="17" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F565" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="27" t="s">
         <v>1233</v>
       </c>
@@ -12866,8 +14466,11 @@
       <c r="E566" s="17" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="567" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F566" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="27" t="s">
         <v>1234</v>
       </c>
@@ -12879,8 +14482,11 @@
       <c r="E567" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F567" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="27" t="s">
         <v>1235</v>
       </c>
@@ -12892,8 +14498,11 @@
       <c r="E568" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="569" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F568" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" s="27" t="s">
         <v>1236</v>
       </c>
@@ -12905,8 +14514,11 @@
       <c r="E569" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F569" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="27" t="s">
         <v>1237</v>
       </c>
@@ -12918,8 +14530,11 @@
       <c r="E570" s="17" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F570" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="27" t="s">
         <v>1238</v>
       </c>
@@ -12931,8 +14546,11 @@
       <c r="E571" s="17" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="572" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F571" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A572" s="27" t="s">
         <v>1239</v>
       </c>
@@ -12944,8 +14562,11 @@
       <c r="E572" s="17" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="573" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F572" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="27" t="s">
         <v>1240</v>
       </c>
@@ -12957,8 +14578,11 @@
       <c r="E573" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="574" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F573" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A574" s="27" t="s">
         <v>1241</v>
       </c>
@@ -12970,8 +14594,11 @@
       <c r="E574" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="575" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F574" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A575" s="27" t="s">
         <v>1242</v>
       </c>
@@ -12983,8 +14610,11 @@
       <c r="E575" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="576" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F575" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A576" s="27" t="s">
         <v>1243</v>
       </c>
@@ -12996,6 +14626,9 @@
       <c r="E576" s="17" t="s">
         <v>60</v>
       </c>
+      <c r="F576" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="577" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A577" s="27" t="s">
@@ -13009,6 +14642,9 @@
       <c r="E577" s="17" t="s">
         <v>60</v>
       </c>
+      <c r="F577" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="578" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A578" s="27" t="s">
@@ -13022,6 +14658,9 @@
       <c r="E578" s="17" t="s">
         <v>195</v>
       </c>
+      <c r="F578" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="579" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A579" s="27" t="s">
@@ -13035,6 +14674,9 @@
       <c r="E579" s="17" t="s">
         <v>195</v>
       </c>
+      <c r="F579" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="580" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A580" s="27" t="s">
@@ -13048,6 +14690,9 @@
       <c r="E580" s="17" t="s">
         <v>195</v>
       </c>
+      <c r="F580" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="581" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A581" s="27" t="s">
@@ -13061,6 +14706,9 @@
       <c r="E581" s="17" t="s">
         <v>195</v>
       </c>
+      <c r="F581" s="1" t="s">
+        <v>1594</v>
+      </c>
       <c r="H581" s="4"/>
     </row>
     <row r="582" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -13075,6 +14723,9 @@
       <c r="E582" s="17" t="s">
         <v>60</v>
       </c>
+      <c r="F582" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="583" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A583" s="27" t="s">
@@ -13088,6 +14739,9 @@
       <c r="E583" s="17" t="s">
         <v>60</v>
       </c>
+      <c r="F583" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="584" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A584" s="27" t="s">
@@ -13101,6 +14755,9 @@
       <c r="E584" s="17" t="s">
         <v>60</v>
       </c>
+      <c r="F584" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="585" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A585" s="27" t="s">
@@ -13114,6 +14771,9 @@
       <c r="E585" s="17" t="s">
         <v>195</v>
       </c>
+      <c r="F585" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="586" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A586" s="27" t="s">
@@ -13127,6 +14787,9 @@
       <c r="E586" s="17" t="s">
         <v>195</v>
       </c>
+      <c r="F586" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="587" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A587" s="27" t="s">
@@ -13140,6 +14803,9 @@
       <c r="E587" s="17" t="s">
         <v>195</v>
       </c>
+      <c r="F587" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="588" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A588" s="27" t="s">
@@ -13153,6 +14819,9 @@
       <c r="E588" s="17" t="s">
         <v>60</v>
       </c>
+      <c r="F588" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="589" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A589" s="27" t="s">
@@ -13166,6 +14835,9 @@
       <c r="E589" s="17" t="s">
         <v>60</v>
       </c>
+      <c r="F589" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="590" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A590" s="27" t="s">
@@ -13179,6 +14851,9 @@
       <c r="E590" s="17" t="s">
         <v>60</v>
       </c>
+      <c r="F590" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="591" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A591" s="27" t="s">
@@ -13192,6 +14867,9 @@
       <c r="E591" s="17" t="s">
         <v>196</v>
       </c>
+      <c r="F591" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="592" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A592" s="27" t="s">
@@ -13205,8 +14883,11 @@
       <c r="E592" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="593" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F592" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A593" s="27" t="s">
         <v>1260</v>
       </c>
@@ -13218,8 +14899,11 @@
       <c r="E593" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="594" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F593" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A594" s="27" t="s">
         <v>1261</v>
       </c>
@@ -13231,8 +14915,11 @@
       <c r="E594" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="595" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F594" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A595" s="27" t="s">
         <v>1262</v>
       </c>
@@ -13244,8 +14931,11 @@
       <c r="E595" s="17" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="596" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F595" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A596" s="27" t="s">
         <v>1263</v>
       </c>
@@ -13257,8 +14947,11 @@
       <c r="E596" s="17" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="597" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F596" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A597" s="27" t="s">
         <v>1264</v>
       </c>
@@ -13270,8 +14963,11 @@
       <c r="E597" s="17" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="598" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F597" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A598" s="27" t="s">
         <v>1265</v>
       </c>
@@ -13283,8 +14979,11 @@
       <c r="E598" s="17" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="599" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F598" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A599" s="27" t="s">
         <v>1266</v>
       </c>
@@ -13296,8 +14995,11 @@
       <c r="E599" s="17" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="600" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F599" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A600" s="27" t="s">
         <v>1267</v>
       </c>
@@ -13309,8 +15011,11 @@
       <c r="E600" s="17" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="601" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F600" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A601" s="27" t="s">
         <v>1268</v>
       </c>
@@ -13322,8 +15027,11 @@
       <c r="E601" s="17" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="602" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F601" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A602" s="27" t="s">
         <v>1269</v>
       </c>
@@ -13335,8 +15043,11 @@
       <c r="E602" s="17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="603" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F602" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A603" s="27" t="s">
         <v>1270</v>
       </c>
@@ -13348,8 +15059,11 @@
       <c r="E603" s="17" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="604" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F603" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A604" s="27" t="s">
         <v>1271</v>
       </c>
@@ -13361,8 +15075,11 @@
       <c r="E604" s="17" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="605" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F604" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A605" s="27" t="s">
         <v>1585</v>
       </c>
@@ -13374,8 +15091,11 @@
       <c r="E605" s="17" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="606" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F605" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A606" s="27" t="s">
         <v>1586</v>
       </c>
@@ -13387,8 +15107,11 @@
       <c r="E606" s="17" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="607" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F606" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A607" s="27" t="s">
         <v>827</v>
       </c>
@@ -13400,8 +15123,11 @@
       <c r="E607" s="18" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F607" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="27" t="s">
         <v>1272</v>
       </c>
@@ -13413,8 +15139,11 @@
       <c r="E608" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F608" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="27" t="s">
         <v>1273</v>
       </c>
@@ -13426,8 +15155,11 @@
       <c r="E609" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F609" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="27" t="s">
         <v>1274</v>
       </c>
@@ -13439,8 +15171,11 @@
       <c r="E610" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F610" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="27" t="s">
         <v>1275</v>
       </c>
@@ -13452,8 +15187,11 @@
       <c r="E611" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F611" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="27" t="s">
         <v>1276</v>
       </c>
@@ -13465,8 +15203,11 @@
       <c r="E612" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F612" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="27" t="s">
         <v>1277</v>
       </c>
@@ -13478,8 +15219,11 @@
       <c r="E613" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F613" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="24" t="s">
         <v>827</v>
       </c>
@@ -13489,8 +15233,11 @@
       <c r="C614" s="11"/>
       <c r="D614" s="11"/>
       <c r="E614" s="11"/>
-    </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F614" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="24" t="s">
         <v>891</v>
       </c>
@@ -13504,8 +15251,11 @@
       <c r="E615" s="11" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F615" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="24" t="s">
         <v>892</v>
       </c>
@@ -13519,8 +15269,11 @@
       <c r="E616" s="11" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F616" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="24" t="s">
         <v>893</v>
       </c>
@@ -13534,8 +15287,11 @@
       <c r="E617" s="11" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F617" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="24" t="s">
         <v>827</v>
       </c>
@@ -13547,8 +15303,11 @@
       <c r="E618" s="11" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F618" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="24" t="s">
         <v>894</v>
       </c>
@@ -13562,8 +15321,11 @@
       <c r="E619" s="11" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F619" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="24" t="s">
         <v>895</v>
       </c>
@@ -13577,8 +15339,11 @@
       <c r="E620" s="11" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F620" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="24" t="s">
         <v>1021</v>
       </c>
@@ -13592,8 +15357,11 @@
       <c r="E621" s="11" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F621" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="24" t="s">
         <v>896</v>
       </c>
@@ -13607,8 +15375,11 @@
       <c r="E622" s="11" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F622" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="24" t="s">
         <v>897</v>
       </c>
@@ -13622,8 +15393,11 @@
       <c r="E623" s="11" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F623" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="24" t="s">
         <v>898</v>
       </c>
@@ -13637,8 +15411,11 @@
       <c r="E624" s="11" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F624" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" s="24" t="s">
         <v>899</v>
       </c>
@@ -13652,8 +15429,11 @@
       <c r="E625" s="11" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F625" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" s="24" t="s">
         <v>900</v>
       </c>
@@ -13667,8 +15447,11 @@
       <c r="E626" s="11" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F626" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="24" t="s">
         <v>955</v>
       </c>
@@ -13682,8 +15465,11 @@
       <c r="E627" s="11" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F627" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" s="24" t="s">
         <v>957</v>
       </c>
@@ -13697,8 +15483,11 @@
       <c r="E628" s="11" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F628" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" s="24" t="s">
         <v>965</v>
       </c>
@@ -13712,8 +15501,11 @@
       <c r="E629" s="11" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F629" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" s="24" t="s">
         <v>827</v>
       </c>
@@ -13727,8 +15519,11 @@
       <c r="E630" s="11" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F630" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" s="24" t="s">
         <v>966</v>
       </c>
@@ -13742,8 +15537,11 @@
       <c r="E631" s="11" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F631" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" s="24" t="s">
         <v>1022</v>
       </c>
@@ -13757,8 +15555,11 @@
       <c r="E632" s="11" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F632" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" s="24" t="s">
         <v>970</v>
       </c>
@@ -13772,8 +15573,11 @@
       <c r="E633" s="11" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F633" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" s="24" t="s">
         <v>967</v>
       </c>
@@ -13787,8 +15591,11 @@
       <c r="E634" s="11" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F634" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" s="24" t="s">
         <v>964</v>
       </c>
@@ -13802,8 +15609,11 @@
       <c r="E635" s="11" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F635" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" s="24" t="s">
         <v>960</v>
       </c>
@@ -13817,8 +15627,11 @@
       <c r="E636" s="11" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F636" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" s="24" t="s">
         <v>827</v>
       </c>
@@ -13832,8 +15645,11 @@
       <c r="E637" s="11" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F637" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" s="24" t="s">
         <v>961</v>
       </c>
@@ -13847,8 +15663,11 @@
       <c r="E638" s="11" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F638" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" s="24" t="s">
         <v>962</v>
       </c>
@@ -13862,8 +15681,11 @@
       <c r="E639" s="11" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F639" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" s="24" t="s">
         <v>901</v>
       </c>
@@ -13877,8 +15699,11 @@
       <c r="E640" s="11" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F640" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" s="24" t="s">
         <v>902</v>
       </c>
@@ -13892,8 +15717,11 @@
       <c r="E641" s="11" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F641" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" s="24" t="s">
         <v>903</v>
       </c>
@@ -13907,8 +15735,11 @@
       <c r="E642" s="11" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F642" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" s="24" t="s">
         <v>904</v>
       </c>
@@ -13922,8 +15753,11 @@
       <c r="E643" s="11" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F643" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="24" t="s">
         <v>1018</v>
       </c>
@@ -13937,8 +15771,11 @@
       <c r="E644" s="11" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F644" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" s="24" t="s">
         <v>958</v>
       </c>
@@ -13952,8 +15789,11 @@
       <c r="E645" s="11" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F645" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" s="24" t="s">
         <v>1000</v>
       </c>
@@ -13967,8 +15807,11 @@
       <c r="E646" s="11" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F646" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" s="24" t="s">
         <v>1005</v>
       </c>
@@ -13982,8 +15825,11 @@
       <c r="E647" s="11" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F647" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" s="24" t="s">
         <v>959</v>
       </c>
@@ -13997,8 +15843,11 @@
       <c r="E648" s="11" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F648" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" s="24" t="s">
         <v>1009</v>
       </c>
@@ -14010,8 +15859,11 @@
         <v>1007</v>
       </c>
       <c r="E649" s="11"/>
-    </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F649" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" s="24" t="s">
         <v>956</v>
       </c>
@@ -14025,8 +15877,11 @@
       <c r="E650" s="11" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F650" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" s="24" t="s">
         <v>963</v>
       </c>
@@ -14040,8 +15895,11 @@
       <c r="E651" s="11" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F651" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" s="24" t="s">
         <v>976</v>
       </c>
@@ -14055,8 +15913,11 @@
       <c r="E652" s="11" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F652" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" s="24" t="s">
         <v>977</v>
       </c>
@@ -14070,8 +15931,11 @@
       <c r="E653" s="11" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F653" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" s="24" t="s">
         <v>978</v>
       </c>
@@ -14085,8 +15949,11 @@
       <c r="E654" s="11" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F654" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" s="24" t="s">
         <v>1013</v>
       </c>
@@ -14100,8 +15967,11 @@
       <c r="E655" s="11" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F655" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" s="24" t="s">
         <v>972</v>
       </c>
@@ -14115,53 +15985,70 @@
       <c r="E656" s="11" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="24"/>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F656" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A657" s="24" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D657" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E657" s="28" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F657" s="1" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" s="24"/>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" s="24"/>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" s="24"/>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" s="24"/>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" s="24"/>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" s="24"/>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664" s="24"/>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" s="24"/>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" s="24"/>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667" s="24"/>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" s="24"/>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669" s="24"/>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" s="24"/>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671" s="24"/>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" s="24"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">

--- a/MISSION_DATA/A13_photos.xlsx
+++ b/MISSION_DATA/A13_photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo_13\MISSION_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E5E3A4-12CA-4788-8E88-C7813A3DCC61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145B3BEF-DEDF-4983-BED3-2B91AFCC50DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10500" yWindow="4260" windowWidth="38535" windowHeight="23985" xr2:uid="{E7285D04-3DFB-428F-BD58-901528569A82}"/>
   </bookViews>
@@ -4834,18 +4834,12 @@
     <t>-03:49:57</t>
   </si>
   <si>
-    <t>SIVB_impact_435094main_m109420042le_thumb.jpg</t>
-  </si>
-  <si>
     <t>077:56:30</t>
   </si>
   <si>
     <t>SIVB_impact</t>
   </si>
   <si>
-    <t>The impact site of the S-IVB as photographed by the&lt;a href="https://lunar.gsfc.nasa.gov/about.html" target="_blank"&gt; Lunar Reconnaissance Orbiter&lt;/a&gt; in 2010. A scientific paper was written in 1974 about &lt;a href="https://media.apolloinrealtime.org/A13/documents/Lindeman_et_al-1974-Journal_of_Geophysical_Research.pdf" target="_blank"&gt;The Interaction Between an Impact-Produced Neutral Gas Cloud and the Solar Wind at the Lunar Surface&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>NASA/GSFC/ASU</t>
   </si>
   <si>
@@ -4853,6 +4847,12 @@
   </si>
   <si>
     <t>NASA</t>
+  </si>
+  <si>
+    <t>SIVB_impact_large.jpg</t>
+  </si>
+  <si>
+    <t>The impact site of the S-IVB as photographed by the &lt;a href="https://lunar.gsfc.nasa.gov/about.html" target="_blank"&gt; Lunar Reconnaissance Orbiter&lt;/a&gt; in 2010. A scientific paper was written in 1974 about &lt;a href="https://media.apolloinrealtime.org/A13/documents/Lindeman_et_al-1974-Journal_of_Geophysical_Research.pdf" target="_blank"&gt;The Interaction Between an Impact-Produced Neutral Gas Cloud and the Solar Wind at the Lunar Surface&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -4939,7 +4939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5009,9 +5009,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5332,8 +5329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA25AE87-EBB6-4592-B83F-0D7E34AA70ED}">
   <dimension ref="A1:H704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A621" workbookViewId="0">
-      <selection activeCell="F659" sqref="F659"/>
+    <sheetView tabSelected="1" topLeftCell="A546" workbookViewId="0">
+      <selection activeCell="E662" sqref="E662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5363,8 +5360,8 @@
       <c r="E1" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>1593</v>
+      <c r="F1" s="28" t="s">
+        <v>1591</v>
       </c>
     </row>
     <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5378,7 +5375,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5396,7 +5393,7 @@
         <v>861</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5414,7 +5411,7 @@
         <v>1522</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5432,7 +5429,7 @@
         <v>884</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5450,7 +5447,7 @@
         <v>861</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5466,7 +5463,7 @@
         <v>889</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5484,7 +5481,7 @@
         <v>919</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5502,7 +5499,7 @@
         <v>919</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5518,7 +5515,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5534,7 +5531,7 @@
         <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5550,7 +5547,7 @@
         <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5566,7 +5563,7 @@
         <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5582,7 +5579,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5598,7 +5595,7 @@
         <v>28</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5614,7 +5611,7 @@
         <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5630,7 +5627,7 @@
         <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5646,7 +5643,7 @@
         <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5662,7 +5659,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5678,7 +5675,7 @@
         <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5694,7 +5691,7 @@
         <v>28</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5710,7 +5707,7 @@
         <v>28</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5726,7 +5723,7 @@
         <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5742,7 +5739,7 @@
         <v>28</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5758,7 +5755,7 @@
         <v>28</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5774,7 +5771,7 @@
         <v>28</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5790,7 +5787,7 @@
         <v>28</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5806,7 +5803,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5822,7 +5819,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5838,7 +5835,7 @@
         <v>28</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5854,7 +5851,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5870,7 +5867,7 @@
         <v>28</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5886,7 +5883,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5902,7 +5899,7 @@
         <v>28</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5918,7 +5915,7 @@
         <v>28</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5934,7 +5931,7 @@
         <v>1151</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5950,7 +5947,7 @@
         <v>1151</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -5966,7 +5963,7 @@
         <v>1152</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5982,7 +5979,7 @@
         <v>1152</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -5998,7 +5995,7 @@
         <v>1152</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -6014,7 +6011,7 @@
         <v>1152</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6030,7 +6027,7 @@
         <v>1152</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6046,7 +6043,7 @@
         <v>1152</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -6062,7 +6059,7 @@
         <v>1152</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6078,7 +6075,7 @@
         <v>1152</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6094,7 +6091,7 @@
         <v>1153</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6110,7 +6107,7 @@
         <v>1153</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6126,7 +6123,7 @@
         <v>1153</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6142,7 +6139,7 @@
         <v>1153</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -6158,7 +6155,7 @@
         <v>1153</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -6174,7 +6171,7 @@
         <v>1153</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6190,7 +6187,7 @@
         <v>1153</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6206,7 +6203,7 @@
         <v>1153</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6222,7 +6219,7 @@
         <v>1154</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6238,7 +6235,7 @@
         <v>1154</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6254,7 +6251,7 @@
         <v>1156</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -6270,7 +6267,7 @@
         <v>1156</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -6286,7 +6283,7 @@
         <v>1156</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -6302,7 +6299,7 @@
         <v>1157</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -6318,7 +6315,7 @@
         <v>1157</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -6334,7 +6331,7 @@
         <v>1157</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -6350,7 +6347,7 @@
         <v>1158</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6366,7 +6363,7 @@
         <v>1158</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6382,7 +6379,7 @@
         <v>1158</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -6398,7 +6395,7 @@
         <v>1158</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -6414,7 +6411,7 @@
         <v>1158</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -6430,7 +6427,7 @@
         <v>1158</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -6446,7 +6443,7 @@
         <v>1158</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -6462,7 +6459,7 @@
         <v>1158</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -6478,7 +6475,7 @@
         <v>1158</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -6494,7 +6491,7 @@
         <v>1155</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -6510,7 +6507,7 @@
         <v>1155</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -6526,7 +6523,7 @@
         <v>1155</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -6542,7 +6539,7 @@
         <v>1155</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -6558,7 +6555,7 @@
         <v>1155</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -6574,7 +6571,7 @@
         <v>1155</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -6590,7 +6587,7 @@
         <v>1155</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -6606,7 +6603,7 @@
         <v>1155</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -6622,7 +6619,7 @@
         <v>1155</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -6638,7 +6635,7 @@
         <v>979</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -6654,7 +6651,7 @@
         <v>979</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -6670,7 +6667,7 @@
         <v>979</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -6686,7 +6683,7 @@
         <v>979</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -6702,7 +6699,7 @@
         <v>979</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -6718,7 +6715,7 @@
         <v>979</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -6734,7 +6731,7 @@
         <v>979</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -6750,7 +6747,7 @@
         <v>979</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -6766,7 +6763,7 @@
         <v>979</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -6782,7 +6779,7 @@
         <v>979</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -6798,7 +6795,7 @@
         <v>979</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -6814,7 +6811,7 @@
         <v>979</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -6830,7 +6827,7 @@
         <v>979</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -6846,7 +6843,7 @@
         <v>979</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -6862,7 +6859,7 @@
         <v>979</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -6878,7 +6875,7 @@
         <v>979</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -6894,7 +6891,7 @@
         <v>979</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="97" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6910,7 +6907,7 @@
         <v>979</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="98" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6926,7 +6923,7 @@
         <v>979</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="99" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6942,7 +6939,7 @@
         <v>979</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="100" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6958,7 +6955,7 @@
         <v>979</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -6974,7 +6971,7 @@
         <v>979</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -6990,7 +6987,7 @@
         <v>979</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -7006,7 +7003,7 @@
         <v>980</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -7022,7 +7019,7 @@
         <v>980</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -7038,7 +7035,7 @@
         <v>980</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -7054,7 +7051,7 @@
         <v>980</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -7070,7 +7067,7 @@
         <v>980</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -7086,7 +7083,7 @@
         <v>980</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -7102,7 +7099,7 @@
         <v>980</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -7118,7 +7115,7 @@
         <v>980</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -7134,7 +7131,7 @@
         <v>980</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -7150,7 +7147,7 @@
         <v>981</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -7166,7 +7163,7 @@
         <v>981</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -7182,7 +7179,7 @@
         <v>981</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="115" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7198,7 +7195,7 @@
         <v>981</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="116" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7214,7 +7211,7 @@
         <v>981</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="117" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7230,7 +7227,7 @@
         <v>981</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="118" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7246,7 +7243,7 @@
         <v>981</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="119" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7262,7 +7259,7 @@
         <v>981</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="120" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7278,7 +7275,7 @@
         <v>981</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="121" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7294,7 +7291,7 @@
         <v>981</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="122" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7310,7 +7307,7 @@
         <v>981</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="123" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7326,7 +7323,7 @@
         <v>981</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="124" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7342,7 +7339,7 @@
         <v>981</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="125" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7358,7 +7355,7 @@
         <v>981</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="126" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7374,7 +7371,7 @@
         <v>981</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="127" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7390,7 +7387,7 @@
         <v>981</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="128" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7406,7 +7403,7 @@
         <v>982</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="129" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7422,7 +7419,7 @@
         <v>982</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="130" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7438,7 +7435,7 @@
         <v>982</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="131" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7454,7 +7451,7 @@
         <v>6</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="132" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7470,7 +7467,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="133" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7486,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="134" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7502,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="135" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7518,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="136" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7534,7 +7531,7 @@
         <v>2</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="137" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7550,7 +7547,7 @@
         <v>2</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="138" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7566,7 +7563,7 @@
         <v>2</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="139" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7582,7 +7579,7 @@
         <v>2</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="140" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7598,7 +7595,7 @@
         <v>2</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="141" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7614,7 +7611,7 @@
         <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="142" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7630,7 +7627,7 @@
         <v>5</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="143" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7646,7 +7643,7 @@
         <v>3</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="144" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7662,7 +7659,7 @@
         <v>983</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="145" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7678,7 +7675,7 @@
         <v>984</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="146" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7694,7 +7691,7 @@
         <v>984</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="147" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7710,7 +7707,7 @@
         <v>984</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="148" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7726,7 +7723,7 @@
         <v>984</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -7742,7 +7739,7 @@
         <v>985</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="150" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7758,7 +7755,7 @@
         <v>985</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -7774,7 +7771,7 @@
         <v>985</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="152" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7790,7 +7787,7 @@
         <v>985</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -7806,7 +7803,7 @@
         <v>985</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -7822,7 +7819,7 @@
         <v>7</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -7838,7 +7835,7 @@
         <v>27</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="156" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7854,7 +7851,7 @@
         <v>27</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="157" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7870,7 +7867,7 @@
         <v>23</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -7886,7 +7883,7 @@
         <v>58</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="159" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7902,7 +7899,7 @@
         <v>59</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -7918,7 +7915,7 @@
         <v>22</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="161" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7934,7 +7931,7 @@
         <v>121</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -7950,7 +7947,7 @@
         <v>122</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -7966,7 +7963,7 @@
         <v>123</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="164" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7982,7 +7979,7 @@
         <v>117</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="165" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7998,7 +7995,7 @@
         <v>117</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="166" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8014,7 +8011,7 @@
         <v>118</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="167" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8030,7 +8027,7 @@
         <v>117</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="168" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8046,7 +8043,7 @@
         <v>117</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="169" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8062,7 +8059,7 @@
         <v>112</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="170" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8078,7 +8075,7 @@
         <v>111</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="171" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8094,7 +8091,7 @@
         <v>110</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="172" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8110,7 +8107,7 @@
         <v>108</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="173" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8126,7 +8123,7 @@
         <v>107</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="174" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8142,7 +8139,7 @@
         <v>109</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -8158,7 +8155,7 @@
         <v>113</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -8174,7 +8171,7 @@
         <v>114</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -8190,7 +8187,7 @@
         <v>115</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -8206,7 +8203,7 @@
         <v>116</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -8222,7 +8219,7 @@
         <v>24</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -8238,7 +8235,7 @@
         <v>25</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -8254,7 +8251,7 @@
         <v>119</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -8270,7 +8267,7 @@
         <v>120</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -8286,7 +8283,7 @@
         <v>124</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -8302,7 +8299,7 @@
         <v>125</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -8318,7 +8315,7 @@
         <v>126</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -8334,7 +8331,7 @@
         <v>127</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -8350,7 +8347,7 @@
         <v>128</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -8366,7 +8363,7 @@
         <v>128</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -8382,7 +8379,7 @@
         <v>129</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -8398,7 +8395,7 @@
         <v>130</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -8414,7 +8411,7 @@
         <v>131</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -8430,7 +8427,7 @@
         <v>132</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -8446,7 +8443,7 @@
         <v>133</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -8462,7 +8459,7 @@
         <v>134</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="195" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8478,7 +8475,7 @@
         <v>134</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -8494,7 +8491,7 @@
         <v>135</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="197" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8510,7 +8507,7 @@
         <v>136</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="198" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8526,7 +8523,7 @@
         <v>137</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="199" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8542,7 +8539,7 @@
         <v>138</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="200" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8558,7 +8555,7 @@
         <v>139</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="201" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8574,7 +8571,7 @@
         <v>140</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="202" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8590,7 +8587,7 @@
         <v>141</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="203" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8606,7 +8603,7 @@
         <v>142</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="204" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8622,7 +8619,7 @@
         <v>143</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="205" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8638,7 +8635,7 @@
         <v>144</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="206" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8654,7 +8651,7 @@
         <v>145</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="207" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8670,7 +8667,7 @@
         <v>146</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G207" s="5"/>
     </row>
@@ -8687,7 +8684,7 @@
         <v>147</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -8703,7 +8700,7 @@
         <v>148</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -8719,7 +8716,7 @@
         <v>149</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -8735,7 +8732,7 @@
         <v>150</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -8751,7 +8748,7 @@
         <v>151</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -8767,7 +8764,7 @@
         <v>152</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -8783,7 +8780,7 @@
         <v>153</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -8799,7 +8796,7 @@
         <v>154</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -8815,7 +8812,7 @@
         <v>155</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -8831,7 +8828,7 @@
         <v>156</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -8847,7 +8844,7 @@
         <v>156</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="219" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8863,7 +8860,7 @@
         <v>157</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -8879,7 +8876,7 @@
         <v>158</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -8895,7 +8892,7 @@
         <v>159</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -8911,7 +8908,7 @@
         <v>160</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -8927,7 +8924,7 @@
         <v>9</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="224" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8943,7 +8940,7 @@
         <v>165</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G224" s="2"/>
     </row>
@@ -8960,7 +8957,7 @@
         <v>166</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -8976,7 +8973,7 @@
         <v>167</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -8992,7 +8989,7 @@
         <v>168</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -9008,7 +9005,7 @@
         <v>26</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="229" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9024,7 +9021,7 @@
         <v>169</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G229" s="2"/>
     </row>
@@ -9041,7 +9038,7 @@
         <v>170</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G230" s="2"/>
     </row>
@@ -9058,7 +9055,7 @@
         <v>170</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -9074,7 +9071,7 @@
         <v>171</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -9090,7 +9087,7 @@
         <v>172</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -9106,7 +9103,7 @@
         <v>173</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -9122,7 +9119,7 @@
         <v>174</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="236" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9138,7 +9135,7 @@
         <v>175</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G236" s="2"/>
     </row>
@@ -9155,7 +9152,7 @@
         <v>184</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -9171,7 +9168,7 @@
         <v>184</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -9187,7 +9184,7 @@
         <v>185</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -9203,7 +9200,7 @@
         <v>186</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="241" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9219,7 +9216,7 @@
         <v>187</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G241" s="2"/>
     </row>
@@ -9236,7 +9233,7 @@
         <v>188</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -9252,7 +9249,7 @@
         <v>257</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -9268,7 +9265,7 @@
         <v>189</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -9284,7 +9281,7 @@
         <v>190</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -9300,7 +9297,7 @@
         <v>191</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -9316,7 +9313,7 @@
         <v>192</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -9332,7 +9329,7 @@
         <v>193</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="249" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9348,7 +9345,7 @@
         <v>257</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G249" s="2"/>
     </row>
@@ -9365,7 +9362,7 @@
         <v>192</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -9381,7 +9378,7 @@
         <v>194</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -9397,7 +9394,7 @@
         <v>183</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -9413,7 +9410,7 @@
         <v>182</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -9429,7 +9426,7 @@
         <v>181</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -9445,7 +9442,7 @@
         <v>180</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="256" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9461,7 +9458,7 @@
         <v>179</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G256" s="2"/>
     </row>
@@ -9478,7 +9475,7 @@
         <v>178</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -9494,7 +9491,7 @@
         <v>178</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -9510,7 +9507,7 @@
         <v>177</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -9526,7 +9523,7 @@
         <v>212</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -9542,7 +9539,7 @@
         <v>212</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -9558,7 +9555,7 @@
         <v>212</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -9574,7 +9571,7 @@
         <v>212</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -9590,7 +9587,7 @@
         <v>212</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -9606,7 +9603,7 @@
         <v>212</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -9622,7 +9619,7 @@
         <v>212</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -9638,7 +9635,7 @@
         <v>212</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -9654,7 +9651,7 @@
         <v>212</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -9670,7 +9667,7 @@
         <v>986</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -9686,7 +9683,7 @@
         <v>986</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -9702,7 +9699,7 @@
         <v>212</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -9718,7 +9715,7 @@
         <v>212</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -9734,7 +9731,7 @@
         <v>210</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -9750,7 +9747,7 @@
         <v>210</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -9766,7 +9763,7 @@
         <v>212</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -9782,7 +9779,7 @@
         <v>212</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -9798,7 +9795,7 @@
         <v>212</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -9814,7 +9811,7 @@
         <v>211</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -9830,7 +9827,7 @@
         <v>211</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -9846,7 +9843,7 @@
         <v>987</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -9862,7 +9859,7 @@
         <v>988</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -9878,7 +9875,7 @@
         <v>988</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -9894,7 +9891,7 @@
         <v>1089</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -9910,7 +9907,7 @@
         <v>1089</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -9926,7 +9923,7 @@
         <v>1090</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -9942,7 +9939,7 @@
         <v>1090</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -9958,7 +9955,7 @@
         <v>1090</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -9974,7 +9971,7 @@
         <v>1090</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -9990,7 +9987,7 @@
         <v>29</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -10006,7 +10003,7 @@
         <v>990</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -10022,7 +10019,7 @@
         <v>990</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -10038,7 +10035,7 @@
         <v>30</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -10054,7 +10051,7 @@
         <v>31</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -10070,7 +10067,7 @@
         <v>102</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -10086,7 +10083,7 @@
         <v>102</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -10102,7 +10099,7 @@
         <v>102</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -10118,7 +10115,7 @@
         <v>102</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -10134,7 +10131,7 @@
         <v>102</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -10150,7 +10147,7 @@
         <v>31</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -10166,7 +10163,7 @@
         <v>32</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -10182,7 +10179,7 @@
         <v>258</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -10198,7 +10195,7 @@
         <v>35</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -10214,7 +10211,7 @@
         <v>36</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -10230,7 +10227,7 @@
         <v>36</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -10246,7 +10243,7 @@
         <v>37</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -10262,7 +10259,7 @@
         <v>37</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -10278,7 +10275,7 @@
         <v>33</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -10294,7 +10291,7 @@
         <v>34</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -10310,7 +10307,7 @@
         <v>34</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -10326,7 +10323,7 @@
         <v>34</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -10342,7 +10339,7 @@
         <v>33</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -10358,7 +10355,7 @@
         <v>33</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -10374,7 +10371,7 @@
         <v>38</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -10390,7 +10387,7 @@
         <v>39</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -10406,7 +10403,7 @@
         <v>38</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -10422,7 +10419,7 @@
         <v>40</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -10438,7 +10435,7 @@
         <v>38</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -10454,7 +10451,7 @@
         <v>41</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -10470,7 +10467,7 @@
         <v>39</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -10486,7 +10483,7 @@
         <v>38</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -10502,7 +10499,7 @@
         <v>39</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -10518,7 +10515,7 @@
         <v>39</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -10534,7 +10531,7 @@
         <v>39</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -10550,7 +10547,7 @@
         <v>38</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -10566,7 +10563,7 @@
         <v>41</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -10582,7 +10579,7 @@
         <v>41</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -10598,7 +10595,7 @@
         <v>38</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -10614,7 +10611,7 @@
         <v>39</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -10630,7 +10627,7 @@
         <v>39</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -10646,7 +10643,7 @@
         <v>39</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -10662,7 +10659,7 @@
         <v>39</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -10678,7 +10675,7 @@
         <v>39</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -10694,7 +10691,7 @@
         <v>262</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -10710,7 +10707,7 @@
         <v>262</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -10726,7 +10723,7 @@
         <v>262</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="336" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10742,7 +10739,7 @@
         <v>262</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G336" s="2"/>
     </row>
@@ -10759,7 +10756,7 @@
         <v>262</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -10775,7 +10772,7 @@
         <v>262</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="339" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10791,7 +10788,7 @@
         <v>262</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G339" s="2"/>
     </row>
@@ -10808,7 +10805,7 @@
         <v>262</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="341" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10824,7 +10821,7 @@
         <v>42</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G341" s="2"/>
     </row>
@@ -10841,7 +10838,7 @@
         <v>42</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="343" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10857,7 +10854,7 @@
         <v>42</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G343" s="2"/>
     </row>
@@ -10874,7 +10871,7 @@
         <v>42</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -10890,7 +10887,7 @@
         <v>42</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="346" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10906,7 +10903,7 @@
         <v>42</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G346" s="2"/>
     </row>
@@ -10923,7 +10920,7 @@
         <v>42</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -10939,7 +10936,7 @@
         <v>42</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -10955,7 +10952,7 @@
         <v>42</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="350" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10971,7 +10968,7 @@
         <v>42</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G350" s="2"/>
     </row>
@@ -10988,7 +10985,7 @@
         <v>42</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="352" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -11004,7 +11001,7 @@
         <v>42</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G352" s="2"/>
     </row>
@@ -11021,7 +11018,7 @@
         <v>42</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G353" s="2"/>
     </row>
@@ -11038,7 +11035,7 @@
         <v>42</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G354" s="2"/>
     </row>
@@ -11055,7 +11052,7 @@
         <v>42</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G355" s="2"/>
     </row>
@@ -11072,7 +11069,7 @@
         <v>240</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G356" s="2"/>
     </row>
@@ -11089,7 +11086,7 @@
         <v>240</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G357" s="2"/>
     </row>
@@ -11106,7 +11103,7 @@
         <v>240</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G358" s="2"/>
     </row>
@@ -11123,7 +11120,7 @@
         <v>240</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G359" s="2"/>
     </row>
@@ -11140,7 +11137,7 @@
         <v>240</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G360" s="2"/>
     </row>
@@ -11157,7 +11154,7 @@
         <v>240</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G361" s="2"/>
     </row>
@@ -11174,7 +11171,7 @@
         <v>240</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G362" s="2"/>
     </row>
@@ -11191,7 +11188,7 @@
         <v>240</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G363" s="2"/>
     </row>
@@ -11208,7 +11205,7 @@
         <v>240</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G364" s="2"/>
     </row>
@@ -11225,7 +11222,7 @@
         <v>240</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="366" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -11241,7 +11238,7 @@
         <v>240</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G366" s="2"/>
     </row>
@@ -11258,7 +11255,7 @@
         <v>240</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -11274,7 +11271,7 @@
         <v>240</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="369" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -11290,7 +11287,7 @@
         <v>240</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G369" s="5"/>
     </row>
@@ -11307,7 +11304,7 @@
         <v>240</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G370" s="5"/>
     </row>
@@ -11324,7 +11321,7 @@
         <v>240</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
@@ -11340,7 +11337,7 @@
         <v>240</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -11356,7 +11353,7 @@
         <v>240</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="374" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -11372,7 +11369,7 @@
         <v>266</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G374" s="6"/>
     </row>
@@ -11389,7 +11386,7 @@
         <v>266</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G375" s="6"/>
     </row>
@@ -11406,7 +11403,7 @@
         <v>161</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G376" s="6"/>
     </row>
@@ -11423,7 +11420,7 @@
         <v>161</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G377" s="6"/>
     </row>
@@ -11440,7 +11437,7 @@
         <v>161</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G378" s="6"/>
     </row>
@@ -11457,7 +11454,7 @@
         <v>161</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G379" s="6"/>
     </row>
@@ -11474,7 +11471,7 @@
         <v>161</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
@@ -11490,7 +11487,7 @@
         <v>161</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
@@ -11506,7 +11503,7 @@
         <v>265</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -11522,7 +11519,7 @@
         <v>162</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="384" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -11538,7 +11535,7 @@
         <v>163</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G384" s="6"/>
     </row>
@@ -11555,7 +11552,7 @@
         <v>162</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G385" s="6"/>
     </row>
@@ -11572,7 +11569,7 @@
         <v>162</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G386" s="6"/>
     </row>
@@ -11589,7 +11586,7 @@
         <v>162</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G387" s="6"/>
     </row>
@@ -11606,7 +11603,7 @@
         <v>162</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G388" s="6"/>
     </row>
@@ -11623,7 +11620,7 @@
         <v>43</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G389" s="6"/>
     </row>
@@ -11640,7 +11637,7 @@
         <v>43</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G390" s="6"/>
     </row>
@@ -11657,7 +11654,7 @@
         <v>254</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G391" s="6"/>
     </row>
@@ -11674,7 +11671,7 @@
         <v>254</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G392" s="7"/>
       <c r="H392" s="8"/>
@@ -11692,7 +11689,7 @@
         <v>254</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G393" s="6"/>
     </row>
@@ -11709,7 +11706,7 @@
         <v>254</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G394" s="6"/>
     </row>
@@ -11726,7 +11723,7 @@
         <v>254</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G395" s="6"/>
     </row>
@@ -11743,7 +11740,7 @@
         <v>254</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G396" s="6"/>
     </row>
@@ -11760,7 +11757,7 @@
         <v>254</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
@@ -11776,7 +11773,7 @@
         <v>254</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -11792,7 +11789,7 @@
         <v>254</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -11808,7 +11805,7 @@
         <v>254</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -11824,7 +11821,7 @@
         <v>254</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
@@ -11840,7 +11837,7 @@
         <v>161</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -11856,7 +11853,7 @@
         <v>161</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
@@ -11872,7 +11869,7 @@
         <v>161</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -11888,7 +11885,7 @@
         <v>161</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="406" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -11904,7 +11901,7 @@
         <v>161</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G406" s="6"/>
     </row>
@@ -11921,7 +11918,7 @@
         <v>213</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G407" s="6"/>
     </row>
@@ -11938,7 +11935,7 @@
         <v>213</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="G408" s="6"/>
     </row>
@@ -11955,7 +11952,7 @@
         <v>213</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="410" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -11971,7 +11968,7 @@
         <v>213</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -11987,7 +11984,7 @@
         <v>164</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -12003,7 +12000,7 @@
         <v>161</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -12019,7 +12016,7 @@
         <v>161</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -12035,7 +12032,7 @@
         <v>161</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -12051,7 +12048,7 @@
         <v>161</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
@@ -12067,7 +12064,7 @@
         <v>161</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -12083,7 +12080,7 @@
         <v>161</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -12099,7 +12096,7 @@
         <v>161</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
@@ -12115,7 +12112,7 @@
         <v>161</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
@@ -12131,7 +12128,7 @@
         <v>161</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
@@ -12147,7 +12144,7 @@
         <v>161</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -12163,7 +12160,7 @@
         <v>161</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -12179,7 +12176,7 @@
         <v>161</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -12195,7 +12192,7 @@
         <v>161</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -12211,7 +12208,7 @@
         <v>161</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -12227,7 +12224,7 @@
         <v>161</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -12243,7 +12240,7 @@
         <v>65</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
@@ -12259,7 +12256,7 @@
         <v>65</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
@@ -12275,7 +12272,7 @@
         <v>65</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -12291,7 +12288,7 @@
         <v>161</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -12307,7 +12304,7 @@
         <v>214</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
@@ -12323,7 +12320,7 @@
         <v>991</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
@@ -12339,7 +12336,7 @@
         <v>161</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
@@ -12355,7 +12352,7 @@
         <v>214</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
@@ -12371,7 +12368,7 @@
         <v>992</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
@@ -12387,7 +12384,7 @@
         <v>992</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
@@ -12403,7 +12400,7 @@
         <v>992</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -12419,7 +12416,7 @@
         <v>992</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
@@ -12435,7 +12432,7 @@
         <v>992</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
@@ -12451,7 +12448,7 @@
         <v>992</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -12467,7 +12464,7 @@
         <v>992</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="442" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12483,7 +12480,7 @@
         <v>992</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="443" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12499,7 +12496,7 @@
         <v>259</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -12515,7 +12512,7 @@
         <v>259</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
@@ -12531,7 +12528,7 @@
         <v>260</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
@@ -12547,7 +12544,7 @@
         <v>260</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -12563,7 +12560,7 @@
         <v>45</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -12579,7 +12576,7 @@
         <v>48</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -12595,7 +12592,7 @@
         <v>48</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -12611,7 +12608,7 @@
         <v>48</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -12627,7 +12624,7 @@
         <v>48</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -12643,7 +12640,7 @@
         <v>48</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -12659,7 +12656,7 @@
         <v>90</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -12675,7 +12672,7 @@
         <v>90</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -12691,7 +12688,7 @@
         <v>90</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -12707,7 +12704,7 @@
         <v>90</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -12723,7 +12720,7 @@
         <v>46</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -12739,7 +12736,7 @@
         <v>46</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -12755,7 +12752,7 @@
         <v>46</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -12771,7 +12768,7 @@
         <v>47</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -12787,7 +12784,7 @@
         <v>47</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -12803,7 +12800,7 @@
         <v>47</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -12819,7 +12816,7 @@
         <v>47</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -12835,7 +12832,7 @@
         <v>47</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
@@ -12851,7 +12848,7 @@
         <v>100</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -12867,7 +12864,7 @@
         <v>101</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -12883,7 +12880,7 @@
         <v>101</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
@@ -12899,7 +12896,7 @@
         <v>997</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -12915,7 +12912,7 @@
         <v>997</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -12931,7 +12928,7 @@
         <v>997</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -12947,7 +12944,7 @@
         <v>997</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -12963,7 +12960,7 @@
         <v>997</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
@@ -12979,7 +12976,7 @@
         <v>997</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
@@ -12995,7 +12992,7 @@
         <v>49</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
@@ -13011,7 +13008,7 @@
         <v>49</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -13027,7 +13024,7 @@
         <v>51</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -13043,7 +13040,7 @@
         <v>49</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -13059,7 +13056,7 @@
         <v>52</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
@@ -13075,7 +13072,7 @@
         <v>49</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
@@ -13091,7 +13088,7 @@
         <v>53</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
@@ -13107,7 +13104,7 @@
         <v>54</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
@@ -13123,7 +13120,7 @@
         <v>50</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
@@ -13139,7 +13136,7 @@
         <v>50</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
@@ -13155,7 +13152,7 @@
         <v>50</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
@@ -13171,7 +13168,7 @@
         <v>55</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
@@ -13187,7 +13184,7 @@
         <v>56</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
@@ -13203,7 +13200,7 @@
         <v>57</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
@@ -13219,7 +13216,7 @@
         <v>55</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
@@ -13235,7 +13232,7 @@
         <v>57</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
@@ -13251,7 +13248,7 @@
         <v>50</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -13267,7 +13264,7 @@
         <v>161</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -13283,7 +13280,7 @@
         <v>161</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
@@ -13299,7 +13296,7 @@
         <v>161</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -13315,7 +13312,7 @@
         <v>161</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
@@ -13331,7 +13328,7 @@
         <v>161</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
@@ -13347,7 +13344,7 @@
         <v>8</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
@@ -13363,7 +13360,7 @@
         <v>8</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
@@ -13379,7 +13376,7 @@
         <v>44</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -13395,7 +13392,7 @@
         <v>44</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -13411,7 +13408,7 @@
         <v>161</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
@@ -13427,7 +13424,7 @@
         <v>161</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
@@ -13443,7 +13440,7 @@
         <v>263</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
@@ -13459,7 +13456,7 @@
         <v>264</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
@@ -13475,7 +13472,7 @@
         <v>161</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
@@ -13491,7 +13488,7 @@
         <v>161</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
@@ -13507,7 +13504,7 @@
         <v>161</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
@@ -13523,7 +13520,7 @@
         <v>161</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
@@ -13539,7 +13536,7 @@
         <v>224</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
@@ -13555,7 +13552,7 @@
         <v>223</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
@@ -13571,7 +13568,7 @@
         <v>198</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
@@ -13587,7 +13584,7 @@
         <v>219</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
@@ -13603,7 +13600,7 @@
         <v>222</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
@@ -13619,7 +13616,7 @@
         <v>222</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
@@ -13635,7 +13632,7 @@
         <v>198</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
@@ -13651,7 +13648,7 @@
         <v>198</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
@@ -13667,7 +13664,7 @@
         <v>198</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
@@ -13683,7 +13680,7 @@
         <v>161</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
@@ -13699,7 +13696,7 @@
         <v>161</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
@@ -13715,7 +13712,7 @@
         <v>161</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
@@ -13731,7 +13728,7 @@
         <v>161</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
@@ -13747,7 +13744,7 @@
         <v>237</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
@@ -13763,7 +13760,7 @@
         <v>218</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
@@ -13779,7 +13776,7 @@
         <v>198</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
@@ -13795,7 +13792,7 @@
         <v>198</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
@@ -13811,7 +13808,7 @@
         <v>217</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
@@ -13827,7 +13824,7 @@
         <v>217</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="527" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13843,7 +13840,7 @@
         <v>216</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="528" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13859,7 +13856,7 @@
         <v>216</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="529" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13875,7 +13872,7 @@
         <v>161</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="530" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13891,7 +13888,7 @@
         <v>161</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
@@ -13907,7 +13904,7 @@
         <v>161</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="532" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13923,7 +13920,7 @@
         <v>221</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
@@ -13939,7 +13936,7 @@
         <v>220</v>
       </c>
       <c r="F533" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
@@ -13955,7 +13952,7 @@
         <v>220</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
@@ -13971,7 +13968,7 @@
         <v>199</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
@@ -13987,7 +13984,7 @@
         <v>199</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
@@ -14003,7 +14000,7 @@
         <v>200</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
@@ -14019,7 +14016,7 @@
         <v>200</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
@@ -14035,7 +14032,7 @@
         <v>199</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="540" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14051,7 +14048,7 @@
         <v>231</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
@@ -14067,7 +14064,7 @@
         <v>231</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="542" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14083,7 +14080,7 @@
         <v>230</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
@@ -14099,7 +14096,7 @@
         <v>232</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="544" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14115,7 +14112,7 @@
         <v>199</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
@@ -14131,7 +14128,7 @@
         <v>161</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="546" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14147,7 +14144,7 @@
         <v>201</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
@@ -14163,7 +14160,7 @@
         <v>201</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="548" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14179,7 +14176,7 @@
         <v>201</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
@@ -14195,7 +14192,7 @@
         <v>201</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="550" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14211,7 +14208,7 @@
         <v>201</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
@@ -14227,7 +14224,7 @@
         <v>201</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="552" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14243,7 +14240,7 @@
         <v>201</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
@@ -14259,7 +14256,7 @@
         <v>161</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="554" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14275,7 +14272,7 @@
         <v>161</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
@@ -14291,7 +14288,7 @@
         <v>62</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="556" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14307,7 +14304,7 @@
         <v>62</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
@@ -14323,7 +14320,7 @@
         <v>62</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="558" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14339,7 +14336,7 @@
         <v>161</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
@@ -14355,7 +14352,7 @@
         <v>161</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="560" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14371,7 +14368,7 @@
         <v>197</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
@@ -14387,7 +14384,7 @@
         <v>197</v>
       </c>
       <c r="F561" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
@@ -14403,7 +14400,7 @@
         <v>197</v>
       </c>
       <c r="F562" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="563" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14419,7 +14416,7 @@
         <v>202</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
@@ -14435,7 +14432,7 @@
         <v>202</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="565" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14451,7 +14448,7 @@
         <v>202</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
@@ -14467,7 +14464,7 @@
         <v>197</v>
       </c>
       <c r="F566" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="567" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14483,7 +14480,7 @@
         <v>60</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
@@ -14499,7 +14496,7 @@
         <v>60</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="569" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14515,7 +14512,7 @@
         <v>60</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
@@ -14531,7 +14528,7 @@
         <v>241</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
@@ -14547,7 +14544,7 @@
         <v>241</v>
       </c>
       <c r="F571" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="572" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14563,7 +14560,7 @@
         <v>241</v>
       </c>
       <c r="F572" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="573" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14579,7 +14576,7 @@
         <v>60</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="574" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14595,7 +14592,7 @@
         <v>60</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="575" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14611,7 +14608,7 @@
         <v>60</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="576" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14627,7 +14624,7 @@
         <v>60</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="577" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14643,7 +14640,7 @@
         <v>60</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="578" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14659,7 +14656,7 @@
         <v>195</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="579" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14675,7 +14672,7 @@
         <v>195</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="580" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14691,7 +14688,7 @@
         <v>195</v>
       </c>
       <c r="F580" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="581" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14707,7 +14704,7 @@
         <v>195</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="H581" s="4"/>
     </row>
@@ -14724,7 +14721,7 @@
         <v>60</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="583" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14740,7 +14737,7 @@
         <v>60</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="584" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14756,7 +14753,7 @@
         <v>60</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="585" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14772,7 +14769,7 @@
         <v>195</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="586" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14788,7 +14785,7 @@
         <v>195</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="587" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14804,7 +14801,7 @@
         <v>195</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="588" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14820,7 +14817,7 @@
         <v>60</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="589" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14836,7 +14833,7 @@
         <v>60</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="590" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14852,7 +14849,7 @@
         <v>60</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="591" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14868,7 +14865,7 @@
         <v>196</v>
       </c>
       <c r="F591" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="592" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14884,7 +14881,7 @@
         <v>196</v>
       </c>
       <c r="F592" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="593" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14900,7 +14897,7 @@
         <v>196</v>
       </c>
       <c r="F593" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="594" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14916,7 +14913,7 @@
         <v>196</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="595" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14932,7 +14929,7 @@
         <v>196</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="596" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14948,7 +14945,7 @@
         <v>215</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="597" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14964,7 +14961,7 @@
         <v>215</v>
       </c>
       <c r="F597" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="598" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14980,7 +14977,7 @@
         <v>215</v>
       </c>
       <c r="F598" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="599" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14996,7 +14993,7 @@
         <v>215</v>
       </c>
       <c r="F599" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="600" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15012,7 +15009,7 @@
         <v>998</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="601" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15028,7 +15025,7 @@
         <v>998</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="602" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15044,7 +15041,7 @@
         <v>61</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="603" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15060,7 +15057,7 @@
         <v>998</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="604" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15076,7 +15073,7 @@
         <v>998</v>
       </c>
       <c r="F604" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="605" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15092,7 +15089,7 @@
         <v>998</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="606" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15108,7 +15105,7 @@
         <v>239</v>
       </c>
       <c r="F606" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="607" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15124,7 +15121,7 @@
         <v>64</v>
       </c>
       <c r="F607" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
@@ -15140,7 +15137,7 @@
         <v>261</v>
       </c>
       <c r="F608" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
@@ -15156,7 +15153,7 @@
         <v>261</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
@@ -15172,7 +15169,7 @@
         <v>261</v>
       </c>
       <c r="F610" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
@@ -15188,7 +15185,7 @@
         <v>261</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
@@ -15204,7 +15201,7 @@
         <v>261</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
@@ -15220,7 +15217,7 @@
         <v>261</v>
       </c>
       <c r="F613" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
@@ -15234,7 +15231,7 @@
       <c r="D614" s="11"/>
       <c r="E614" s="11"/>
       <c r="F614" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
@@ -15252,7 +15249,7 @@
         <v>869</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
@@ -15270,7 +15267,7 @@
         <v>872</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
@@ -15288,7 +15285,7 @@
         <v>867</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
@@ -15304,7 +15301,7 @@
         <v>868</v>
       </c>
       <c r="F618" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
@@ -15322,7 +15319,7 @@
         <v>875</v>
       </c>
       <c r="F619" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
@@ -15340,7 +15337,7 @@
         <v>863</v>
       </c>
       <c r="F620" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
@@ -15358,7 +15355,7 @@
         <v>1014</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
@@ -15376,7 +15373,7 @@
         <v>863</v>
       </c>
       <c r="F622" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
@@ -15394,7 +15391,7 @@
         <v>863</v>
       </c>
       <c r="F623" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
@@ -15412,7 +15409,7 @@
         <v>881</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
@@ -15430,7 +15427,7 @@
         <v>863</v>
       </c>
       <c r="F625" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
@@ -15448,7 +15445,7 @@
         <v>878</v>
       </c>
       <c r="F626" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
@@ -15466,7 +15463,7 @@
         <v>910</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
@@ -15484,7 +15481,7 @@
         <v>913</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
@@ -15502,7 +15499,7 @@
         <v>943</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
@@ -15520,7 +15517,7 @@
         <v>942</v>
       </c>
       <c r="F630" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
@@ -15538,7 +15535,7 @@
         <v>948</v>
       </c>
       <c r="F631" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
@@ -15556,7 +15553,7 @@
         <v>923</v>
       </c>
       <c r="F632" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
@@ -15574,7 +15571,7 @@
         <v>862</v>
       </c>
       <c r="F633" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
@@ -15592,7 +15589,7 @@
         <v>951</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
@@ -15610,7 +15607,7 @@
         <v>939</v>
       </c>
       <c r="F635" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
@@ -15628,7 +15625,7 @@
         <v>928</v>
       </c>
       <c r="F636" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
@@ -15646,7 +15643,7 @@
         <v>954</v>
       </c>
       <c r="F637" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
@@ -15664,7 +15661,7 @@
         <v>928</v>
       </c>
       <c r="F638" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
@@ -15682,7 +15679,7 @@
         <v>933</v>
       </c>
       <c r="F639" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
@@ -15700,7 +15697,7 @@
         <v>890</v>
       </c>
       <c r="F640" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
@@ -15718,7 +15715,7 @@
         <v>863</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
@@ -15736,7 +15733,7 @@
         <v>863</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
@@ -15754,7 +15751,7 @@
         <v>863</v>
       </c>
       <c r="F643" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
@@ -15772,7 +15769,7 @@
         <v>1015</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
@@ -15790,7 +15787,7 @@
         <v>916</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
@@ -15808,7 +15805,7 @@
         <v>1002</v>
       </c>
       <c r="F646" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
@@ -15826,7 +15823,7 @@
         <v>1006</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
@@ -15844,7 +15841,7 @@
         <v>922</v>
       </c>
       <c r="F648" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
@@ -15860,7 +15857,7 @@
       </c>
       <c r="E649" s="11"/>
       <c r="F649" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
@@ -15878,7 +15875,7 @@
         <v>862</v>
       </c>
       <c r="F650" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
@@ -15896,7 +15893,7 @@
         <v>935</v>
       </c>
       <c r="F651" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
@@ -15914,7 +15911,7 @@
         <v>862</v>
       </c>
       <c r="F652" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
@@ -15932,7 +15929,7 @@
         <v>862</v>
       </c>
       <c r="F653" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
@@ -15950,7 +15947,7 @@
         <v>862</v>
       </c>
       <c r="F654" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
@@ -15968,7 +15965,7 @@
         <v>1012</v>
       </c>
       <c r="F655" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
@@ -15986,24 +15983,24 @@
         <v>1014</v>
       </c>
       <c r="F656" s="1" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A657" s="24" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D657" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E657" s="3" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="657" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A657" s="24" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B657" s="3" t="s">
+      <c r="F657" s="1" t="s">
         <v>1590</v>
-      </c>
-      <c r="D657" s="3" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E657" s="28" t="s">
-        <v>1591</v>
-      </c>
-      <c r="F657" s="1" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">

--- a/MISSION_DATA/A13_photos.xlsx
+++ b/MISSION_DATA/A13_photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo_13\MISSION_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145B3BEF-DEDF-4983-BED3-2B91AFCC50DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27B2728-8D73-47B9-B3A6-B28D41AC349B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10500" yWindow="4260" windowWidth="38535" windowHeight="23985" xr2:uid="{E7285D04-3DFB-428F-BD58-901528569A82}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4660" uniqueCount="1595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4660" uniqueCount="1698">
   <si>
     <t>LM &amp; S-IVB during Transposition and Docking</t>
   </si>
@@ -4834,9 +4834,6 @@
     <t>-03:49:57</t>
   </si>
   <si>
-    <t>077:56:30</t>
-  </si>
-  <si>
     <t>SIVB_impact</t>
   </si>
   <si>
@@ -4853,6 +4850,318 @@
   </si>
   <si>
     <t>The impact site of the S-IVB as photographed by the &lt;a href="https://lunar.gsfc.nasa.gov/about.html" target="_blank"&gt; Lunar Reconnaissance Orbiter&lt;/a&gt; in 2010. A scientific paper was written in 1974 about &lt;a href="https://media.apolloinrealtime.org/A13/documents/Lindeman_et_al-1974-Journal_of_Geophysical_Research.pdf" target="_blank"&gt;The Interaction Between an Impact-Produced Neutral Gas Cloud and the Solar Wind at the Lunar Surface&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>138:06:58</t>
+  </si>
+  <si>
+    <t>138:07:11</t>
+  </si>
+  <si>
+    <t>138:07:15</t>
+  </si>
+  <si>
+    <t>138:07:27</t>
+  </si>
+  <si>
+    <t>138:07:36</t>
+  </si>
+  <si>
+    <t>138:07:40</t>
+  </si>
+  <si>
+    <t>138:07:43</t>
+  </si>
+  <si>
+    <t>138:07:54</t>
+  </si>
+  <si>
+    <t>138:07:58</t>
+  </si>
+  <si>
+    <t>138:08:04</t>
+  </si>
+  <si>
+    <t>138:08:05</t>
+  </si>
+  <si>
+    <t>138:08:07</t>
+  </si>
+  <si>
+    <t>138:08:11</t>
+  </si>
+  <si>
+    <t>138:08:15</t>
+  </si>
+  <si>
+    <t>138:08:20</t>
+  </si>
+  <si>
+    <t>138:08:22</t>
+  </si>
+  <si>
+    <t>138:08:25</t>
+  </si>
+  <si>
+    <t>138:08:28</t>
+  </si>
+  <si>
+    <t>138:08:30</t>
+  </si>
+  <si>
+    <t>138:08:31</t>
+  </si>
+  <si>
+    <t>138:08:34</t>
+  </si>
+  <si>
+    <t>138:08:36</t>
+  </si>
+  <si>
+    <t>138:08:37</t>
+  </si>
+  <si>
+    <t>138:08:39</t>
+  </si>
+  <si>
+    <t>138:04:44</t>
+  </si>
+  <si>
+    <t>138:04:54</t>
+  </si>
+  <si>
+    <t>138:04:58</t>
+  </si>
+  <si>
+    <t>138:04:59</t>
+  </si>
+  <si>
+    <t>138:05:03</t>
+  </si>
+  <si>
+    <t>138:05:12</t>
+  </si>
+  <si>
+    <t>138:05:21</t>
+  </si>
+  <si>
+    <t>138:05:23</t>
+  </si>
+  <si>
+    <t>138:05:28</t>
+  </si>
+  <si>
+    <t>138:05:30</t>
+  </si>
+  <si>
+    <t>138:05:31</t>
+  </si>
+  <si>
+    <t>138:05:32</t>
+  </si>
+  <si>
+    <t>138:08:52</t>
+  </si>
+  <si>
+    <t>138:08:54</t>
+  </si>
+  <si>
+    <t>138:08:59</t>
+  </si>
+  <si>
+    <t>138:09:01</t>
+  </si>
+  <si>
+    <t>138:09:08</t>
+  </si>
+  <si>
+    <t>138:09:14</t>
+  </si>
+  <si>
+    <t>138:09:19</t>
+  </si>
+  <si>
+    <t>138:09:53</t>
+  </si>
+  <si>
+    <t>138:09:56</t>
+  </si>
+  <si>
+    <t>138:09:58</t>
+  </si>
+  <si>
+    <t>138:10:16</t>
+  </si>
+  <si>
+    <t>138:10:49</t>
+  </si>
+  <si>
+    <t>138:10:51</t>
+  </si>
+  <si>
+    <t>138:10:53</t>
+  </si>
+  <si>
+    <t>138:10:57</t>
+  </si>
+  <si>
+    <t>138:10:59</t>
+  </si>
+  <si>
+    <t>138:11:05</t>
+  </si>
+  <si>
+    <t>138:11:09</t>
+  </si>
+  <si>
+    <t>138:11:11</t>
+  </si>
+  <si>
+    <t>138:11:17</t>
+  </si>
+  <si>
+    <t>138:11:19</t>
+  </si>
+  <si>
+    <t>138:11:21</t>
+  </si>
+  <si>
+    <t>138:11:37</t>
+  </si>
+  <si>
+    <t>138:11:41</t>
+  </si>
+  <si>
+    <t>138:11:46</t>
+  </si>
+  <si>
+    <t>138:11:50</t>
+  </si>
+  <si>
+    <t>138:12:01</t>
+  </si>
+  <si>
+    <t>138:12:03</t>
+  </si>
+  <si>
+    <t>138:12:06</t>
+  </si>
+  <si>
+    <t>141:29:47</t>
+  </si>
+  <si>
+    <t>141:29:51</t>
+  </si>
+  <si>
+    <t>141:29:53</t>
+  </si>
+  <si>
+    <t>141:29:56</t>
+  </si>
+  <si>
+    <t>141:29:57</t>
+  </si>
+  <si>
+    <t>141:29:59</t>
+  </si>
+  <si>
+    <t>141:30:08</t>
+  </si>
+  <si>
+    <t>141:30:10</t>
+  </si>
+  <si>
+    <t>141:30:12</t>
+  </si>
+  <si>
+    <t>141:30:16</t>
+  </si>
+  <si>
+    <t>141:30:17</t>
+  </si>
+  <si>
+    <t>141:30:18</t>
+  </si>
+  <si>
+    <t>141:30:24</t>
+  </si>
+  <si>
+    <t>141:30:25</t>
+  </si>
+  <si>
+    <t>141:30:26</t>
+  </si>
+  <si>
+    <t>141:30:27</t>
+  </si>
+  <si>
+    <t>009:03:13</t>
+  </si>
+  <si>
+    <t>009:26:36</t>
+  </si>
+  <si>
+    <t>095:50:49</t>
+  </si>
+  <si>
+    <t>095:51:01</t>
+  </si>
+  <si>
+    <t>095:52:38</t>
+  </si>
+  <si>
+    <t>094:15:02</t>
+  </si>
+  <si>
+    <t>094:15:48</t>
+  </si>
+  <si>
+    <t>113:27:01</t>
+  </si>
+  <si>
+    <t>113:27:18</t>
+  </si>
+  <si>
+    <t>113:27:32</t>
+  </si>
+  <si>
+    <t>113:28:37</t>
+  </si>
+  <si>
+    <t>113:28:48</t>
+  </si>
+  <si>
+    <t>113:30:25</t>
+  </si>
+  <si>
+    <t>113:34:48</t>
+  </si>
+  <si>
+    <t>113:35:11</t>
+  </si>
+  <si>
+    <t>113:35:52</t>
+  </si>
+  <si>
+    <t>113:35:59</t>
+  </si>
+  <si>
+    <t>113:36:07</t>
+  </si>
+  <si>
+    <t>113:37:36</t>
+  </si>
+  <si>
+    <t>113:38:21</t>
+  </si>
+  <si>
+    <t>113:38:26</t>
+  </si>
+  <si>
+    <t>113:38:30</t>
+  </si>
+  <si>
+    <t>078:02:20</t>
   </si>
 </sst>
 </file>
@@ -4939,7 +5248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5013,6 +5322,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5329,8 +5639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA25AE87-EBB6-4592-B83F-0D7E34AA70ED}">
   <dimension ref="A1:H704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A546" workbookViewId="0">
-      <selection activeCell="E662" sqref="E662"/>
+    <sheetView tabSelected="1" topLeftCell="A607" workbookViewId="0">
+      <selection activeCell="A659" sqref="A659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5361,7 +5671,7 @@
         <v>826</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5375,7 +5685,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5393,7 +5703,7 @@
         <v>861</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5411,7 +5721,7 @@
         <v>1522</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5429,7 +5739,7 @@
         <v>884</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5447,7 +5757,7 @@
         <v>861</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5463,7 +5773,7 @@
         <v>889</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5481,7 +5791,7 @@
         <v>919</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5499,12 +5809,12 @@
         <v>919</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>1278</v>
+        <v>1183</v>
       </c>
       <c r="B10" t="s">
         <v>748</v>
@@ -5515,12 +5825,12 @@
         <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>1279</v>
+        <v>1594</v>
       </c>
       <c r="B11" t="s">
         <v>750</v>
@@ -5531,12 +5841,12 @@
         <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>1280</v>
+        <v>1595</v>
       </c>
       <c r="B12" t="s">
         <v>751</v>
@@ -5547,12 +5857,12 @@
         <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>1281</v>
+        <v>1596</v>
       </c>
       <c r="B13" t="s">
         <v>752</v>
@@ -5563,12 +5873,12 @@
         <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>1282</v>
+        <v>1597</v>
       </c>
       <c r="B14" t="s">
         <v>753</v>
@@ -5579,12 +5889,12 @@
         <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>1283</v>
+        <v>1598</v>
       </c>
       <c r="B15" t="s">
         <v>754</v>
@@ -5595,12 +5905,12 @@
         <v>28</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>1284</v>
+        <v>1599</v>
       </c>
       <c r="B16" t="s">
         <v>755</v>
@@ -5611,12 +5921,12 @@
         <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>1285</v>
+        <v>1600</v>
       </c>
       <c r="B17" t="s">
         <v>756</v>
@@ -5627,12 +5937,12 @@
         <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>1286</v>
+        <v>1186</v>
       </c>
       <c r="B18" t="s">
         <v>758</v>
@@ -5643,12 +5953,12 @@
         <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>1179</v>
+        <v>1601</v>
       </c>
       <c r="B19" t="s">
         <v>760</v>
@@ -5659,12 +5969,12 @@
         <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>1287</v>
+        <v>1602</v>
       </c>
       <c r="B20" t="s">
         <v>762</v>
@@ -5675,12 +5985,12 @@
         <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>1288</v>
+        <v>1603</v>
       </c>
       <c r="B21" t="s">
         <v>764</v>
@@ -5691,12 +6001,12 @@
         <v>28</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>1289</v>
+        <v>1604</v>
       </c>
       <c r="B22" t="s">
         <v>766</v>
@@ -5707,12 +6017,12 @@
         <v>28</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>1290</v>
+        <v>1605</v>
       </c>
       <c r="B23" t="s">
         <v>768</v>
@@ -5723,12 +6033,12 @@
         <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>1291</v>
+        <v>1606</v>
       </c>
       <c r="B24" t="s">
         <v>770</v>
@@ -5739,12 +6049,12 @@
         <v>28</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>1292</v>
+        <v>1607</v>
       </c>
       <c r="B25" t="s">
         <v>772</v>
@@ -5755,12 +6065,12 @@
         <v>28</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>1293</v>
+        <v>1608</v>
       </c>
       <c r="B26" t="s">
         <v>774</v>
@@ -5771,12 +6081,12 @@
         <v>28</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>1294</v>
+        <v>1609</v>
       </c>
       <c r="B27" t="s">
         <v>776</v>
@@ -5787,12 +6097,12 @@
         <v>28</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>1297</v>
+        <v>1610</v>
       </c>
       <c r="B28" t="s">
         <v>778</v>
@@ -5803,12 +6113,12 @@
         <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>1298</v>
+        <v>1611</v>
       </c>
       <c r="B29" t="s">
         <v>779</v>
@@ -5819,12 +6129,12 @@
         <v>28</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>1524</v>
+        <v>1612</v>
       </c>
       <c r="B30" t="s">
         <v>781</v>
@@ -5835,12 +6145,12 @@
         <v>28</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>1525</v>
+        <v>1613</v>
       </c>
       <c r="B31" t="s">
         <v>1159</v>
@@ -5851,12 +6161,12 @@
         <v>28</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>1526</v>
+        <v>1614</v>
       </c>
       <c r="B32" t="s">
         <v>783</v>
@@ -5867,12 +6177,12 @@
         <v>28</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>1527</v>
+        <v>1615</v>
       </c>
       <c r="B33" t="s">
         <v>785</v>
@@ -5883,12 +6193,12 @@
         <v>28</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>1528</v>
+        <v>1616</v>
       </c>
       <c r="B34" t="s">
         <v>787</v>
@@ -5899,12 +6209,12 @@
         <v>28</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>1529</v>
+        <v>1617</v>
       </c>
       <c r="B35" t="s">
         <v>788</v>
@@ -5915,7 +6225,7 @@
         <v>28</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5931,7 +6241,7 @@
         <v>1151</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5947,7 +6257,7 @@
         <v>1151</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -5963,7 +6273,7 @@
         <v>1152</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5979,7 +6289,7 @@
         <v>1152</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -5995,7 +6305,7 @@
         <v>1152</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -6011,7 +6321,7 @@
         <v>1152</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6027,7 +6337,7 @@
         <v>1152</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6043,7 +6353,7 @@
         <v>1152</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -6059,7 +6369,7 @@
         <v>1152</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6075,7 +6385,7 @@
         <v>1152</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6091,7 +6401,7 @@
         <v>1153</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6107,7 +6417,7 @@
         <v>1153</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6123,7 +6433,7 @@
         <v>1153</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6139,7 +6449,7 @@
         <v>1153</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -6155,7 +6465,7 @@
         <v>1153</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -6171,7 +6481,7 @@
         <v>1153</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6187,7 +6497,7 @@
         <v>1153</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6203,12 +6513,12 @@
         <v>1153</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
-        <v>1171</v>
+        <v>1618</v>
       </c>
       <c r="B54" t="s">
         <v>1131</v>
@@ -6219,12 +6529,12 @@
         <v>1154</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B55" t="s">
         <v>1132</v>
@@ -6235,12 +6545,12 @@
         <v>1154</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B56" t="s">
         <v>1127</v>
@@ -6251,12 +6561,12 @@
         <v>1156</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
-        <v>1174</v>
+        <v>1619</v>
       </c>
       <c r="B57" t="s">
         <v>1128</v>
@@ -6267,12 +6577,12 @@
         <v>1156</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
-        <v>1175</v>
+        <v>1620</v>
       </c>
       <c r="B58" t="s">
         <v>1129</v>
@@ -6283,12 +6593,12 @@
         <v>1156</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
-        <v>1176</v>
+        <v>1621</v>
       </c>
       <c r="B59" t="s">
         <v>1130</v>
@@ -6299,12 +6609,12 @@
         <v>1157</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B60" t="s">
         <v>1124</v>
@@ -6315,12 +6625,12 @@
         <v>1157</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
-        <v>1178</v>
+        <v>1622</v>
       </c>
       <c r="B61" t="s">
         <v>1125</v>
@@ -6331,12 +6641,12 @@
         <v>1157</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
-        <v>1300</v>
+        <v>1177</v>
       </c>
       <c r="B62" t="s">
         <v>1126</v>
@@ -6347,12 +6657,12 @@
         <v>1158</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
-        <v>1301</v>
+        <v>1623</v>
       </c>
       <c r="B63" t="s">
         <v>1123</v>
@@ -6363,12 +6673,12 @@
         <v>1158</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
-        <v>1538</v>
+        <v>1179</v>
       </c>
       <c r="B64" t="s">
         <v>1122</v>
@@ -6379,12 +6689,12 @@
         <v>1158</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
-        <v>1295</v>
+        <v>1624</v>
       </c>
       <c r="B65" t="s">
         <v>1119</v>
@@ -6395,12 +6705,12 @@
         <v>1158</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
-        <v>1296</v>
+        <v>1625</v>
       </c>
       <c r="B66" t="s">
         <v>1120</v>
@@ -6411,12 +6721,12 @@
         <v>1158</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
-        <v>1160</v>
+        <v>1626</v>
       </c>
       <c r="B67" t="s">
         <v>1121</v>
@@ -6427,12 +6737,12 @@
         <v>1158</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
-        <v>1299</v>
+        <v>1627</v>
       </c>
       <c r="B68" t="s">
         <v>1116</v>
@@ -6443,12 +6753,12 @@
         <v>1158</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
-        <v>1539</v>
+        <v>1628</v>
       </c>
       <c r="B69" t="s">
         <v>1117</v>
@@ -6459,12 +6769,12 @@
         <v>1158</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
-        <v>1540</v>
+        <v>1629</v>
       </c>
       <c r="B70" t="s">
         <v>1118</v>
@@ -6475,12 +6785,12 @@
         <v>1158</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
-        <v>1541</v>
+        <v>1630</v>
       </c>
       <c r="B71" t="s">
         <v>1113</v>
@@ -6491,12 +6801,12 @@
         <v>1155</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
-        <v>1542</v>
+        <v>1631</v>
       </c>
       <c r="B72" t="s">
         <v>1114</v>
@@ -6507,12 +6817,12 @@
         <v>1155</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
-        <v>1180</v>
+        <v>1632</v>
       </c>
       <c r="B73" t="s">
         <v>1115</v>
@@ -6523,12 +6833,12 @@
         <v>1155</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
-        <v>1181</v>
+        <v>1633</v>
       </c>
       <c r="B74" t="s">
         <v>1110</v>
@@ -6539,12 +6849,12 @@
         <v>1155</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="B75" t="s">
         <v>1111</v>
@@ -6555,12 +6865,12 @@
         <v>1155</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
-        <v>1183</v>
+        <v>1634</v>
       </c>
       <c r="B76" t="s">
         <v>1112</v>
@@ -6571,12 +6881,12 @@
         <v>1155</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
-        <v>1184</v>
+        <v>1635</v>
       </c>
       <c r="B77" t="s">
         <v>1109</v>
@@ -6587,12 +6897,12 @@
         <v>1155</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
-        <v>1185</v>
+        <v>1636</v>
       </c>
       <c r="B78" t="s">
         <v>1108</v>
@@ -6603,12 +6913,12 @@
         <v>1155</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
-        <v>1186</v>
+        <v>1637</v>
       </c>
       <c r="B79" t="s">
         <v>1107</v>
@@ -6619,12 +6929,12 @@
         <v>1155</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
-        <v>1543</v>
+        <v>1638</v>
       </c>
       <c r="B80" t="s">
         <v>744</v>
@@ -6635,12 +6945,12 @@
         <v>979</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
-        <v>1544</v>
+        <v>1639</v>
       </c>
       <c r="B81" t="s">
         <v>745</v>
@@ -6651,12 +6961,12 @@
         <v>979</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
-        <v>1545</v>
+        <v>1557</v>
       </c>
       <c r="B82" t="s">
         <v>746</v>
@@ -6667,12 +6977,12 @@
         <v>979</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
-        <v>1546</v>
+        <v>1558</v>
       </c>
       <c r="B83" t="s">
         <v>747</v>
@@ -6683,12 +6993,12 @@
         <v>979</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
-        <v>1547</v>
+        <v>1640</v>
       </c>
       <c r="B84" t="s">
         <v>749</v>
@@ -6699,12 +7009,12 @@
         <v>979</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
-        <v>1548</v>
+        <v>1641</v>
       </c>
       <c r="B85" t="s">
         <v>757</v>
@@ -6715,12 +7025,12 @@
         <v>979</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
-        <v>1549</v>
+        <v>1642</v>
       </c>
       <c r="B86" t="s">
         <v>759</v>
@@ -6731,12 +7041,12 @@
         <v>979</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
-        <v>1187</v>
+        <v>1643</v>
       </c>
       <c r="B87" t="s">
         <v>761</v>
@@ -6747,12 +7057,12 @@
         <v>979</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
-        <v>1550</v>
+        <v>1644</v>
       </c>
       <c r="B88" t="s">
         <v>763</v>
@@ -6763,12 +7073,12 @@
         <v>979</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>1188</v>
+        <v>1645</v>
       </c>
       <c r="B89" t="s">
         <v>765</v>
@@ -6779,12 +7089,12 @@
         <v>979</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
-        <v>1551</v>
+        <v>1646</v>
       </c>
       <c r="B90" t="s">
         <v>767</v>
@@ -6795,12 +7105,12 @@
         <v>979</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
-        <v>1552</v>
+        <v>1647</v>
       </c>
       <c r="B91" t="s">
         <v>769</v>
@@ -6811,12 +7121,12 @@
         <v>979</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
-        <v>1553</v>
+        <v>1648</v>
       </c>
       <c r="B92" t="s">
         <v>771</v>
@@ -6827,12 +7137,12 @@
         <v>979</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
-        <v>1554</v>
+        <v>1649</v>
       </c>
       <c r="B93" t="s">
         <v>773</v>
@@ -6843,12 +7153,12 @@
         <v>979</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
-        <v>1555</v>
+        <v>1650</v>
       </c>
       <c r="B94" t="s">
         <v>775</v>
@@ -6859,12 +7169,12 @@
         <v>979</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
-        <v>1556</v>
+        <v>1651</v>
       </c>
       <c r="B95" t="s">
         <v>777</v>
@@ -6875,12 +7185,12 @@
         <v>979</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
-        <v>1557</v>
+        <v>1652</v>
       </c>
       <c r="B96" t="s">
         <v>780</v>
@@ -6891,12 +7201,12 @@
         <v>979</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="97" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
-        <v>1558</v>
+        <v>1653</v>
       </c>
       <c r="B97" t="s">
         <v>782</v>
@@ -6907,12 +7217,12 @@
         <v>979</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="98" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
-        <v>1559</v>
+        <v>1654</v>
       </c>
       <c r="B98" t="s">
         <v>784</v>
@@ -6923,12 +7233,12 @@
         <v>979</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="99" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
-        <v>1560</v>
+        <v>1655</v>
       </c>
       <c r="B99" t="s">
         <v>786</v>
@@ -6939,12 +7249,12 @@
         <v>979</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="100" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
-        <v>1561</v>
+        <v>1656</v>
       </c>
       <c r="B100" t="s">
         <v>789</v>
@@ -6955,12 +7265,12 @@
         <v>979</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="27" t="s">
-        <v>1562</v>
+        <v>1657</v>
       </c>
       <c r="B101" t="s">
         <v>790</v>
@@ -6971,12 +7281,12 @@
         <v>979</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="27" t="s">
-        <v>1563</v>
+        <v>1658</v>
       </c>
       <c r="B102" t="s">
         <v>791</v>
@@ -6987,7 +7297,7 @@
         <v>979</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -7003,12 +7313,12 @@
         <v>980</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="27" t="s">
-        <v>1190</v>
+        <v>1659</v>
       </c>
       <c r="B104" t="s">
         <v>799</v>
@@ -7019,12 +7329,12 @@
         <v>980</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B105" t="s">
         <v>800</v>
@@ -7035,12 +7345,12 @@
         <v>980</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="27" t="s">
-        <v>1192</v>
+        <v>1660</v>
       </c>
       <c r="B106" t="s">
         <v>801</v>
@@ -7051,12 +7361,12 @@
         <v>980</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="27" t="s">
-        <v>1193</v>
+        <v>1661</v>
       </c>
       <c r="B107" t="s">
         <v>802</v>
@@ -7067,12 +7377,12 @@
         <v>980</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="27" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="B108" t="s">
         <v>803</v>
@@ -7083,12 +7393,12 @@
         <v>980</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="27" t="s">
-        <v>1195</v>
+        <v>1662</v>
       </c>
       <c r="B109" t="s">
         <v>804</v>
@@ -7099,12 +7409,12 @@
         <v>980</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="27" t="s">
-        <v>1196</v>
+        <v>1663</v>
       </c>
       <c r="B110" t="s">
         <v>805</v>
@@ -7115,12 +7425,12 @@
         <v>980</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="27" t="s">
-        <v>1197</v>
+        <v>1664</v>
       </c>
       <c r="B111" t="s">
         <v>806</v>
@@ -7131,12 +7441,12 @@
         <v>980</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="27" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B112" t="s">
         <v>807</v>
@@ -7147,12 +7457,12 @@
         <v>981</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="27" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B113" t="s">
         <v>808</v>
@@ -7163,12 +7473,12 @@
         <v>981</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="27" t="s">
-        <v>1564</v>
+        <v>1194</v>
       </c>
       <c r="B114" t="s">
         <v>809</v>
@@ -7179,12 +7489,12 @@
         <v>981</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="115" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
-        <v>1565</v>
+        <v>1195</v>
       </c>
       <c r="B115" t="s">
         <v>810</v>
@@ -7195,12 +7505,12 @@
         <v>981</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="116" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="B116" t="s">
         <v>811</v>
@@ -7211,12 +7521,12 @@
         <v>981</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="117" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="B117" t="s">
         <v>812</v>
@@ -7227,12 +7537,12 @@
         <v>981</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="118" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="27" t="s">
-        <v>1566</v>
+        <v>1198</v>
       </c>
       <c r="B118" t="s">
         <v>813</v>
@@ -7243,12 +7553,12 @@
         <v>981</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="119" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="27" t="s">
-        <v>1567</v>
+        <v>1665</v>
       </c>
       <c r="B119" t="s">
         <v>814</v>
@@ -7259,12 +7569,12 @@
         <v>981</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="120" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="27" t="s">
-        <v>1202</v>
+        <v>1666</v>
       </c>
       <c r="B120" t="s">
         <v>815</v>
@@ -7275,12 +7585,12 @@
         <v>981</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="121" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="27" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="B121" t="s">
         <v>816</v>
@@ -7291,12 +7601,12 @@
         <v>981</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="122" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="27" t="s">
-        <v>1569</v>
+        <v>1667</v>
       </c>
       <c r="B122" t="s">
         <v>817</v>
@@ -7307,12 +7617,12 @@
         <v>981</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="123" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="27" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="B123" t="s">
         <v>818</v>
@@ -7323,12 +7633,12 @@
         <v>981</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="124" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
-        <v>1571</v>
+        <v>1668</v>
       </c>
       <c r="B124" t="s">
         <v>819</v>
@@ -7339,12 +7649,12 @@
         <v>981</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="125" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
-        <v>1203</v>
+        <v>1669</v>
       </c>
       <c r="B125" t="s">
         <v>820</v>
@@ -7355,12 +7665,12 @@
         <v>981</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="126" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="27" t="s">
-        <v>1204</v>
+        <v>1670</v>
       </c>
       <c r="B126" t="s">
         <v>821</v>
@@ -7371,12 +7681,12 @@
         <v>981</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="127" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="27" t="s">
-        <v>1205</v>
+        <v>1671</v>
       </c>
       <c r="B127" t="s">
         <v>822</v>
@@ -7387,12 +7697,12 @@
         <v>981</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="128" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="27" t="s">
-        <v>1206</v>
+        <v>1672</v>
       </c>
       <c r="B128" t="s">
         <v>823</v>
@@ -7403,12 +7713,12 @@
         <v>982</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="129" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="27" t="s">
-        <v>1207</v>
+        <v>1673</v>
       </c>
       <c r="B129" t="s">
         <v>824</v>
@@ -7419,12 +7729,12 @@
         <v>982</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="130" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
-        <v>1208</v>
+        <v>1674</v>
       </c>
       <c r="B130" t="s">
         <v>825</v>
@@ -7435,7 +7745,7 @@
         <v>982</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="131" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7451,7 +7761,7 @@
         <v>6</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="132" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7467,7 +7777,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="133" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7483,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="134" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7499,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="135" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7515,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="136" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7531,7 +7841,7 @@
         <v>2</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="137" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7547,7 +7857,7 @@
         <v>2</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="138" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7563,7 +7873,7 @@
         <v>2</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="139" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7579,7 +7889,7 @@
         <v>2</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="140" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7595,7 +7905,7 @@
         <v>2</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="141" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7611,7 +7921,7 @@
         <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="142" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7627,7 +7937,7 @@
         <v>5</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="143" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7643,7 +7953,7 @@
         <v>3</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="144" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7659,7 +7969,7 @@
         <v>983</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="145" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7675,7 +7985,7 @@
         <v>984</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="146" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7691,12 +8001,12 @@
         <v>984</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="147" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="27" t="s">
-        <v>13</v>
+        <v>1675</v>
       </c>
       <c r="B147" t="s">
         <v>283</v>
@@ -7707,12 +8017,12 @@
         <v>984</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="148" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="27" t="s">
-        <v>14</v>
+        <v>1676</v>
       </c>
       <c r="B148" t="s">
         <v>284</v>
@@ -7723,7 +8033,7 @@
         <v>984</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -7739,7 +8049,7 @@
         <v>985</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="150" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7755,7 +8065,7 @@
         <v>985</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -7771,7 +8081,7 @@
         <v>985</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="152" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7787,7 +8097,7 @@
         <v>985</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -7803,7 +8113,7 @@
         <v>985</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -7819,7 +8129,7 @@
         <v>7</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -7835,7 +8145,7 @@
         <v>27</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="156" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7851,7 +8161,7 @@
         <v>27</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="157" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7867,7 +8177,7 @@
         <v>23</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -7883,7 +8193,7 @@
         <v>58</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="159" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7899,7 +8209,7 @@
         <v>59</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -7915,7 +8225,7 @@
         <v>22</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="161" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7931,7 +8241,7 @@
         <v>121</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -7947,7 +8257,7 @@
         <v>122</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -7963,7 +8273,7 @@
         <v>123</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="164" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7979,7 +8289,7 @@
         <v>117</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="165" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7995,7 +8305,7 @@
         <v>117</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="166" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8011,7 +8321,7 @@
         <v>118</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="167" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8027,7 +8337,7 @@
         <v>117</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="168" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8043,7 +8353,7 @@
         <v>117</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="169" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8059,7 +8369,7 @@
         <v>112</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="170" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8075,7 +8385,7 @@
         <v>111</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="171" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8091,7 +8401,7 @@
         <v>110</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="172" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8107,7 +8417,7 @@
         <v>108</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="173" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8123,7 +8433,7 @@
         <v>107</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="174" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8139,7 +8449,7 @@
         <v>109</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -8155,7 +8465,7 @@
         <v>113</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -8171,7 +8481,7 @@
         <v>114</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -8187,7 +8497,7 @@
         <v>115</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -8203,7 +8513,7 @@
         <v>116</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -8219,7 +8529,7 @@
         <v>24</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -8235,7 +8545,7 @@
         <v>25</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -8251,7 +8561,7 @@
         <v>119</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -8267,7 +8577,7 @@
         <v>120</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -8283,7 +8593,7 @@
         <v>124</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -8299,7 +8609,7 @@
         <v>125</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -8315,7 +8625,7 @@
         <v>126</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -8331,7 +8641,7 @@
         <v>127</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -8347,7 +8657,7 @@
         <v>128</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -8363,7 +8673,7 @@
         <v>128</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -8379,7 +8689,7 @@
         <v>129</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -8395,7 +8705,7 @@
         <v>130</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -8411,7 +8721,7 @@
         <v>131</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -8427,7 +8737,7 @@
         <v>132</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -8443,7 +8753,7 @@
         <v>133</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -8459,7 +8769,7 @@
         <v>134</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="195" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8475,7 +8785,7 @@
         <v>134</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -8491,7 +8801,7 @@
         <v>135</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="197" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8507,7 +8817,7 @@
         <v>136</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="198" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8523,7 +8833,7 @@
         <v>137</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="199" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8539,7 +8849,7 @@
         <v>138</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="200" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8555,7 +8865,7 @@
         <v>139</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="201" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8571,7 +8881,7 @@
         <v>140</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="202" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8587,7 +8897,7 @@
         <v>141</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="203" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8603,7 +8913,7 @@
         <v>142</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="204" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8619,7 +8929,7 @@
         <v>143</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="205" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8635,7 +8945,7 @@
         <v>144</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="206" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8651,7 +8961,7 @@
         <v>145</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="207" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8667,7 +8977,7 @@
         <v>146</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G207" s="5"/>
     </row>
@@ -8684,7 +8994,7 @@
         <v>147</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -8700,7 +9010,7 @@
         <v>148</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -8716,7 +9026,7 @@
         <v>149</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -8732,7 +9042,7 @@
         <v>150</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -8748,7 +9058,7 @@
         <v>151</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -8764,7 +9074,7 @@
         <v>152</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -8780,7 +9090,7 @@
         <v>153</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -8796,7 +9106,7 @@
         <v>154</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -8812,7 +9122,7 @@
         <v>155</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -8828,7 +9138,7 @@
         <v>156</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -8844,7 +9154,7 @@
         <v>156</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="219" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8860,7 +9170,7 @@
         <v>157</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -8876,7 +9186,7 @@
         <v>158</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -8892,7 +9202,7 @@
         <v>159</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -8908,7 +9218,7 @@
         <v>160</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -8924,7 +9234,7 @@
         <v>9</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="224" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8940,7 +9250,7 @@
         <v>165</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G224" s="2"/>
     </row>
@@ -8957,7 +9267,7 @@
         <v>166</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -8973,7 +9283,7 @@
         <v>167</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -8989,7 +9299,7 @@
         <v>168</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -9005,7 +9315,7 @@
         <v>26</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="229" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9021,7 +9331,7 @@
         <v>169</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G229" s="2"/>
     </row>
@@ -9038,7 +9348,7 @@
         <v>170</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G230" s="2"/>
     </row>
@@ -9055,7 +9365,7 @@
         <v>170</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -9071,7 +9381,7 @@
         <v>171</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -9087,7 +9397,7 @@
         <v>172</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -9103,7 +9413,7 @@
         <v>173</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -9119,7 +9429,7 @@
         <v>174</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="236" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9135,7 +9445,7 @@
         <v>175</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G236" s="2"/>
     </row>
@@ -9152,7 +9462,7 @@
         <v>184</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -9168,7 +9478,7 @@
         <v>184</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -9184,7 +9494,7 @@
         <v>185</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -9200,7 +9510,7 @@
         <v>186</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="241" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9216,7 +9526,7 @@
         <v>187</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G241" s="2"/>
     </row>
@@ -9233,7 +9543,7 @@
         <v>188</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -9249,7 +9559,7 @@
         <v>257</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -9265,7 +9575,7 @@
         <v>189</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -9281,7 +9591,7 @@
         <v>190</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -9297,7 +9607,7 @@
         <v>191</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -9313,7 +9623,7 @@
         <v>192</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -9329,7 +9639,7 @@
         <v>193</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="249" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9345,7 +9655,7 @@
         <v>257</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G249" s="2"/>
     </row>
@@ -9362,7 +9672,7 @@
         <v>192</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -9378,7 +9688,7 @@
         <v>194</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -9394,7 +9704,7 @@
         <v>183</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -9410,7 +9720,7 @@
         <v>182</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -9426,7 +9736,7 @@
         <v>181</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -9442,7 +9752,7 @@
         <v>180</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="256" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9458,7 +9768,7 @@
         <v>179</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G256" s="2"/>
     </row>
@@ -9475,7 +9785,7 @@
         <v>178</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -9491,7 +9801,7 @@
         <v>178</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -9507,7 +9817,7 @@
         <v>177</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -9523,7 +9833,7 @@
         <v>212</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -9539,7 +9849,7 @@
         <v>212</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -9555,7 +9865,7 @@
         <v>212</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -9571,7 +9881,7 @@
         <v>212</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -9587,7 +9897,7 @@
         <v>212</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -9603,7 +9913,7 @@
         <v>212</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -9619,7 +9929,7 @@
         <v>212</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -9635,7 +9945,7 @@
         <v>212</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -9651,7 +9961,7 @@
         <v>212</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -9667,7 +9977,7 @@
         <v>986</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -9683,7 +9993,7 @@
         <v>986</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -9699,7 +10009,7 @@
         <v>212</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -9715,7 +10025,7 @@
         <v>212</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -9731,7 +10041,7 @@
         <v>210</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -9747,7 +10057,7 @@
         <v>210</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -9763,7 +10073,7 @@
         <v>212</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -9779,7 +10089,7 @@
         <v>212</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -9795,7 +10105,7 @@
         <v>212</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -9811,7 +10121,7 @@
         <v>211</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -9827,7 +10137,7 @@
         <v>211</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -9843,7 +10153,7 @@
         <v>987</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -9859,7 +10169,7 @@
         <v>988</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -9875,7 +10185,7 @@
         <v>988</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -9891,7 +10201,7 @@
         <v>1089</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -9907,7 +10217,7 @@
         <v>1089</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -9923,7 +10233,7 @@
         <v>1090</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -9939,7 +10249,7 @@
         <v>1090</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -9955,7 +10265,7 @@
         <v>1090</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -9971,7 +10281,7 @@
         <v>1090</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -9987,7 +10297,7 @@
         <v>29</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -10003,7 +10313,7 @@
         <v>990</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -10019,7 +10329,7 @@
         <v>990</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -10035,7 +10345,7 @@
         <v>30</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -10051,7 +10361,7 @@
         <v>31</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -10067,7 +10377,7 @@
         <v>102</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -10083,7 +10393,7 @@
         <v>102</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -10099,7 +10409,7 @@
         <v>102</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -10115,7 +10425,7 @@
         <v>102</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -10131,7 +10441,7 @@
         <v>102</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -10147,7 +10457,7 @@
         <v>31</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -10163,7 +10473,7 @@
         <v>32</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -10179,7 +10489,7 @@
         <v>258</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -10195,7 +10505,7 @@
         <v>35</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -10211,7 +10521,7 @@
         <v>36</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -10227,7 +10537,7 @@
         <v>36</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -10243,7 +10553,7 @@
         <v>37</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -10259,7 +10569,7 @@
         <v>37</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -10275,7 +10585,7 @@
         <v>33</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -10291,7 +10601,7 @@
         <v>34</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -10307,7 +10617,7 @@
         <v>34</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -10323,7 +10633,7 @@
         <v>34</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -10339,7 +10649,7 @@
         <v>33</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -10355,7 +10665,7 @@
         <v>33</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -10371,7 +10681,7 @@
         <v>38</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -10387,7 +10697,7 @@
         <v>39</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -10403,7 +10713,7 @@
         <v>38</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -10419,7 +10729,7 @@
         <v>40</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -10435,7 +10745,7 @@
         <v>38</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -10451,7 +10761,7 @@
         <v>41</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -10467,7 +10777,7 @@
         <v>39</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -10483,7 +10793,7 @@
         <v>38</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -10499,7 +10809,7 @@
         <v>39</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -10515,7 +10825,7 @@
         <v>39</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -10531,7 +10841,7 @@
         <v>39</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -10547,7 +10857,7 @@
         <v>38</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -10563,7 +10873,7 @@
         <v>41</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -10579,7 +10889,7 @@
         <v>41</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -10595,7 +10905,7 @@
         <v>38</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -10611,7 +10921,7 @@
         <v>39</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -10627,7 +10937,7 @@
         <v>39</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -10643,7 +10953,7 @@
         <v>39</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -10659,7 +10969,7 @@
         <v>39</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -10675,11 +10985,11 @@
         <v>39</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" s="25" t="s">
+      <c r="A333" s="29" t="s">
         <v>1402</v>
       </c>
       <c r="B333" s="22" t="s">
@@ -10691,11 +11001,11 @@
         <v>262</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="25" t="s">
+      <c r="A334" s="29" t="s">
         <v>1403</v>
       </c>
       <c r="B334" s="22" t="s">
@@ -10707,11 +11017,11 @@
         <v>262</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="25" t="s">
+      <c r="A335" s="29" t="s">
         <v>1404</v>
       </c>
       <c r="B335" s="22" t="s">
@@ -10723,11 +11033,11 @@
         <v>262</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="336" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="25" t="s">
+      <c r="A336" s="29" t="s">
         <v>1405</v>
       </c>
       <c r="B336" s="22" t="s">
@@ -10739,12 +11049,12 @@
         <v>262</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G336" s="2"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" s="25" t="s">
+      <c r="A337" s="29" t="s">
         <v>1406</v>
       </c>
       <c r="B337" s="22" t="s">
@@ -10756,11 +11066,11 @@
         <v>262</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" s="25" t="s">
+      <c r="A338" s="29" t="s">
         <v>1407</v>
       </c>
       <c r="B338" s="22" t="s">
@@ -10772,11 +11082,11 @@
         <v>262</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="339" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="25" t="s">
+      <c r="A339" s="29" t="s">
         <v>1408</v>
       </c>
       <c r="B339" s="22" t="s">
@@ -10788,12 +11098,12 @@
         <v>262</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G339" s="2"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A340" s="25" t="s">
+      <c r="A340" s="29" t="s">
         <v>1409</v>
       </c>
       <c r="B340" s="22" t="s">
@@ -10805,7 +11115,7 @@
         <v>262</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="341" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10821,7 +11131,7 @@
         <v>42</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G341" s="2"/>
     </row>
@@ -10838,7 +11148,7 @@
         <v>42</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="343" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10854,7 +11164,7 @@
         <v>42</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G343" s="2"/>
     </row>
@@ -10871,7 +11181,7 @@
         <v>42</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -10887,7 +11197,7 @@
         <v>42</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="346" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10903,7 +11213,7 @@
         <v>42</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G346" s="2"/>
     </row>
@@ -10920,7 +11230,7 @@
         <v>42</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -10936,7 +11246,7 @@
         <v>42</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -10952,7 +11262,7 @@
         <v>42</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="350" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10968,7 +11278,7 @@
         <v>42</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G350" s="2"/>
     </row>
@@ -10985,7 +11295,7 @@
         <v>42</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="352" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -11001,7 +11311,7 @@
         <v>42</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G352" s="2"/>
     </row>
@@ -11018,7 +11328,7 @@
         <v>42</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G353" s="2"/>
     </row>
@@ -11035,7 +11345,7 @@
         <v>42</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G354" s="2"/>
     </row>
@@ -11052,7 +11362,7 @@
         <v>42</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G355" s="2"/>
     </row>
@@ -11069,7 +11379,7 @@
         <v>240</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G356" s="2"/>
     </row>
@@ -11086,7 +11396,7 @@
         <v>240</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G357" s="2"/>
     </row>
@@ -11103,7 +11413,7 @@
         <v>240</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G358" s="2"/>
     </row>
@@ -11120,7 +11430,7 @@
         <v>240</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G359" s="2"/>
     </row>
@@ -11137,7 +11447,7 @@
         <v>240</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G360" s="2"/>
     </row>
@@ -11154,7 +11464,7 @@
         <v>240</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G361" s="2"/>
     </row>
@@ -11171,7 +11481,7 @@
         <v>240</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G362" s="2"/>
     </row>
@@ -11188,7 +11498,7 @@
         <v>240</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G363" s="2"/>
     </row>
@@ -11205,7 +11515,7 @@
         <v>240</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G364" s="2"/>
     </row>
@@ -11222,7 +11532,7 @@
         <v>240</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="366" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -11238,7 +11548,7 @@
         <v>240</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G366" s="2"/>
     </row>
@@ -11255,7 +11565,7 @@
         <v>240</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -11271,7 +11581,7 @@
         <v>240</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="369" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -11287,7 +11597,7 @@
         <v>240</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G369" s="5"/>
     </row>
@@ -11304,7 +11614,7 @@
         <v>240</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G370" s="5"/>
     </row>
@@ -11321,7 +11631,7 @@
         <v>240</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
@@ -11337,7 +11647,7 @@
         <v>240</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -11353,7 +11663,7 @@
         <v>240</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="374" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -11369,7 +11679,7 @@
         <v>266</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G374" s="6"/>
     </row>
@@ -11386,7 +11696,7 @@
         <v>266</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G375" s="6"/>
     </row>
@@ -11403,7 +11713,7 @@
         <v>161</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G376" s="6"/>
     </row>
@@ -11420,7 +11730,7 @@
         <v>161</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G377" s="6"/>
     </row>
@@ -11437,7 +11747,7 @@
         <v>161</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G378" s="6"/>
     </row>
@@ -11454,7 +11764,7 @@
         <v>161</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G379" s="6"/>
     </row>
@@ -11471,7 +11781,7 @@
         <v>161</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
@@ -11487,7 +11797,7 @@
         <v>161</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
@@ -11503,7 +11813,7 @@
         <v>265</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -11519,7 +11829,7 @@
         <v>162</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="384" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -11535,7 +11845,7 @@
         <v>163</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G384" s="6"/>
     </row>
@@ -11552,7 +11862,7 @@
         <v>162</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G385" s="6"/>
     </row>
@@ -11569,7 +11879,7 @@
         <v>162</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G386" s="6"/>
     </row>
@@ -11586,7 +11896,7 @@
         <v>162</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G387" s="6"/>
     </row>
@@ -11603,7 +11913,7 @@
         <v>162</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G388" s="6"/>
     </row>
@@ -11620,7 +11930,7 @@
         <v>43</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G389" s="6"/>
     </row>
@@ -11637,7 +11947,7 @@
         <v>43</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G390" s="6"/>
     </row>
@@ -11654,7 +11964,7 @@
         <v>254</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G391" s="6"/>
     </row>
@@ -11671,7 +11981,7 @@
         <v>254</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G392" s="7"/>
       <c r="H392" s="8"/>
@@ -11689,7 +11999,7 @@
         <v>254</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G393" s="6"/>
     </row>
@@ -11706,7 +12016,7 @@
         <v>254</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G394" s="6"/>
     </row>
@@ -11723,7 +12033,7 @@
         <v>254</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G395" s="6"/>
     </row>
@@ -11740,7 +12050,7 @@
         <v>254</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G396" s="6"/>
     </row>
@@ -11757,7 +12067,7 @@
         <v>254</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
@@ -11773,7 +12083,7 @@
         <v>254</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -11789,7 +12099,7 @@
         <v>254</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -11805,7 +12115,7 @@
         <v>254</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -11821,7 +12131,7 @@
         <v>254</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
@@ -11837,7 +12147,7 @@
         <v>161</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -11853,7 +12163,7 @@
         <v>161</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
@@ -11869,7 +12179,7 @@
         <v>161</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -11885,7 +12195,7 @@
         <v>161</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="406" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -11901,7 +12211,7 @@
         <v>161</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G406" s="6"/>
     </row>
@@ -11918,7 +12228,7 @@
         <v>213</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G407" s="6"/>
     </row>
@@ -11935,7 +12245,7 @@
         <v>213</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G408" s="6"/>
     </row>
@@ -11952,7 +12262,7 @@
         <v>213</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="410" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
@@ -11968,7 +12278,7 @@
         <v>213</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -11984,7 +12294,7 @@
         <v>164</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -12000,7 +12310,7 @@
         <v>161</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -12016,7 +12326,7 @@
         <v>161</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -12032,7 +12342,7 @@
         <v>161</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -12048,7 +12358,7 @@
         <v>161</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
@@ -12064,7 +12374,7 @@
         <v>161</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -12080,7 +12390,7 @@
         <v>161</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -12096,7 +12406,7 @@
         <v>161</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
@@ -12112,7 +12422,7 @@
         <v>161</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
@@ -12128,7 +12438,7 @@
         <v>161</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
@@ -12144,7 +12454,7 @@
         <v>161</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -12160,7 +12470,7 @@
         <v>161</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -12176,7 +12486,7 @@
         <v>161</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -12192,7 +12502,7 @@
         <v>161</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -12208,7 +12518,7 @@
         <v>161</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -12224,7 +12534,7 @@
         <v>161</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -12240,11 +12550,11 @@
         <v>65</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" s="25" t="s">
+      <c r="A428" s="29" t="s">
         <v>1343</v>
       </c>
       <c r="B428" s="22" t="s">
@@ -12256,11 +12566,11 @@
         <v>65</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="25" t="s">
+      <c r="A429" s="29" t="s">
         <v>1344</v>
       </c>
       <c r="B429" s="22" t="s">
@@ -12272,7 +12582,7 @@
         <v>65</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -12288,7 +12598,7 @@
         <v>161</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -12304,7 +12614,7 @@
         <v>214</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
@@ -12320,7 +12630,7 @@
         <v>991</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
@@ -12336,7 +12646,7 @@
         <v>161</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
@@ -12352,7 +12662,7 @@
         <v>214</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
@@ -12368,7 +12678,7 @@
         <v>992</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
@@ -12384,7 +12694,7 @@
         <v>992</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
@@ -12400,7 +12710,7 @@
         <v>992</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -12416,7 +12726,7 @@
         <v>992</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
@@ -12432,7 +12742,7 @@
         <v>992</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
@@ -12448,7 +12758,7 @@
         <v>992</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -12464,7 +12774,7 @@
         <v>992</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="442" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12480,12 +12790,12 @@
         <v>992</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="443" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="27" t="s">
-        <v>1346</v>
+        <v>1677</v>
       </c>
       <c r="B443" t="s">
         <v>628</v>
@@ -12496,12 +12806,12 @@
         <v>259</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="27" t="s">
-        <v>1347</v>
+        <v>1678</v>
       </c>
       <c r="B444" t="s">
         <v>629</v>
@@ -12512,7 +12822,7 @@
         <v>259</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
@@ -12528,12 +12838,12 @@
         <v>260</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="27" t="s">
-        <v>1349</v>
+        <v>1679</v>
       </c>
       <c r="B446" t="s">
         <v>631</v>
@@ -12544,7 +12854,7 @@
         <v>260</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -12560,7 +12870,7 @@
         <v>45</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -12576,7 +12886,7 @@
         <v>48</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -12592,7 +12902,7 @@
         <v>48</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -12608,7 +12918,7 @@
         <v>48</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -12624,7 +12934,7 @@
         <v>48</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -12640,7 +12950,7 @@
         <v>48</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -12656,7 +12966,7 @@
         <v>90</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -12672,7 +12982,7 @@
         <v>90</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -12688,7 +12998,7 @@
         <v>90</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -12704,7 +13014,7 @@
         <v>90</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -12720,7 +13030,7 @@
         <v>46</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -12736,7 +13046,7 @@
         <v>46</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -12752,7 +13062,7 @@
         <v>46</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -12768,7 +13078,7 @@
         <v>47</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -12784,7 +13094,7 @@
         <v>47</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -12800,7 +13110,7 @@
         <v>47</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -12816,7 +13126,7 @@
         <v>47</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -12832,7 +13142,7 @@
         <v>47</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
@@ -12848,7 +13158,7 @@
         <v>100</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -12864,7 +13174,7 @@
         <v>101</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -12880,7 +13190,7 @@
         <v>101</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
@@ -12896,7 +13206,7 @@
         <v>997</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -12912,7 +13222,7 @@
         <v>997</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -12928,7 +13238,7 @@
         <v>997</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -12944,7 +13254,7 @@
         <v>997</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -12960,7 +13270,7 @@
         <v>997</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
@@ -12976,7 +13286,7 @@
         <v>997</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
@@ -12992,7 +13302,7 @@
         <v>49</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
@@ -13008,7 +13318,7 @@
         <v>49</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -13024,7 +13334,7 @@
         <v>51</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -13040,7 +13350,7 @@
         <v>49</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -13056,7 +13366,7 @@
         <v>52</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
@@ -13072,7 +13382,7 @@
         <v>49</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
@@ -13088,7 +13398,7 @@
         <v>53</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
@@ -13104,7 +13414,7 @@
         <v>54</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
@@ -13120,7 +13430,7 @@
         <v>50</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
@@ -13136,7 +13446,7 @@
         <v>50</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
@@ -13152,7 +13462,7 @@
         <v>50</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
@@ -13168,7 +13478,7 @@
         <v>55</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
@@ -13184,7 +13494,7 @@
         <v>56</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
@@ -13200,7 +13510,7 @@
         <v>57</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
@@ -13216,7 +13526,7 @@
         <v>55</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
@@ -13232,7 +13542,7 @@
         <v>57</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
@@ -13248,7 +13558,7 @@
         <v>50</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -13264,7 +13574,7 @@
         <v>161</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -13280,7 +13590,7 @@
         <v>161</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
@@ -13296,7 +13606,7 @@
         <v>161</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -13312,7 +13622,7 @@
         <v>161</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
@@ -13328,12 +13638,12 @@
         <v>161</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="27" t="s">
-        <v>1515</v>
+        <v>1680</v>
       </c>
       <c r="B496" t="s">
         <v>621</v>
@@ -13344,12 +13654,12 @@
         <v>8</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="27" t="s">
-        <v>1516</v>
+        <v>1681</v>
       </c>
       <c r="B497" t="s">
         <v>622</v>
@@ -13360,7 +13670,7 @@
         <v>8</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
@@ -13376,7 +13686,7 @@
         <v>44</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -13392,7 +13702,7 @@
         <v>44</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -13408,7 +13718,7 @@
         <v>161</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
@@ -13424,7 +13734,7 @@
         <v>161</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
@@ -13440,7 +13750,7 @@
         <v>263</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
@@ -13456,7 +13766,7 @@
         <v>264</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
@@ -13472,7 +13782,7 @@
         <v>161</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
@@ -13488,7 +13798,7 @@
         <v>161</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
@@ -13504,7 +13814,7 @@
         <v>161</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
@@ -13520,7 +13830,7 @@
         <v>161</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
@@ -13536,7 +13846,7 @@
         <v>224</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
@@ -13552,7 +13862,7 @@
         <v>223</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
@@ -13568,7 +13878,7 @@
         <v>198</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
@@ -13584,7 +13894,7 @@
         <v>219</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
@@ -13600,7 +13910,7 @@
         <v>222</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
@@ -13616,7 +13926,7 @@
         <v>222</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
@@ -13632,7 +13942,7 @@
         <v>198</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
@@ -13648,7 +13958,7 @@
         <v>198</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
@@ -13664,7 +13974,7 @@
         <v>198</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
@@ -13680,7 +13990,7 @@
         <v>161</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
@@ -13696,7 +14006,7 @@
         <v>161</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
@@ -13712,7 +14022,7 @@
         <v>161</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
@@ -13728,7 +14038,7 @@
         <v>161</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
@@ -13744,7 +14054,7 @@
         <v>237</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
@@ -13760,7 +14070,7 @@
         <v>218</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
@@ -13776,7 +14086,7 @@
         <v>198</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
@@ -13792,7 +14102,7 @@
         <v>198</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
@@ -13808,7 +14118,7 @@
         <v>217</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
@@ -13824,7 +14134,7 @@
         <v>217</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="527" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13840,7 +14150,7 @@
         <v>216</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="528" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13856,7 +14166,7 @@
         <v>216</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="529" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13872,7 +14182,7 @@
         <v>161</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="530" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13888,7 +14198,7 @@
         <v>161</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
@@ -13904,7 +14214,7 @@
         <v>161</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="532" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -13920,7 +14230,7 @@
         <v>221</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
@@ -13936,7 +14246,7 @@
         <v>220</v>
       </c>
       <c r="F533" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
@@ -13952,7 +14262,7 @@
         <v>220</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
@@ -13968,7 +14278,7 @@
         <v>199</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
@@ -13984,7 +14294,7 @@
         <v>199</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
@@ -14000,7 +14310,7 @@
         <v>200</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
@@ -14016,7 +14326,7 @@
         <v>200</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
@@ -14032,7 +14342,7 @@
         <v>199</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="540" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14048,7 +14358,7 @@
         <v>231</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
@@ -14064,7 +14374,7 @@
         <v>231</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="542" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14080,7 +14390,7 @@
         <v>230</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
@@ -14096,7 +14406,7 @@
         <v>232</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="544" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14112,7 +14422,7 @@
         <v>199</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
@@ -14128,7 +14438,7 @@
         <v>161</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="546" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14144,7 +14454,7 @@
         <v>201</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
@@ -14160,7 +14470,7 @@
         <v>201</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="548" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14176,7 +14486,7 @@
         <v>201</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
@@ -14192,7 +14502,7 @@
         <v>201</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="550" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14208,7 +14518,7 @@
         <v>201</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
@@ -14224,7 +14534,7 @@
         <v>201</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="552" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14240,7 +14550,7 @@
         <v>201</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
@@ -14256,7 +14566,7 @@
         <v>161</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="554" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14272,12 +14582,12 @@
         <v>161</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="27" t="s">
-        <v>1222</v>
+        <v>1682</v>
       </c>
       <c r="B555" t="s">
         <v>691</v>
@@ -14288,12 +14598,12 @@
         <v>62</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="556" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A556" s="27" t="s">
-        <v>1223</v>
+        <v>1683</v>
       </c>
       <c r="B556" t="s">
         <v>692</v>
@@ -14304,12 +14614,12 @@
         <v>62</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="27" t="s">
-        <v>1224</v>
+        <v>1684</v>
       </c>
       <c r="B557" t="s">
         <v>693</v>
@@ -14320,12 +14630,12 @@
         <v>62</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="558" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" s="27" t="s">
-        <v>1225</v>
+        <v>1685</v>
       </c>
       <c r="B558" t="s">
         <v>694</v>
@@ -14336,12 +14646,12 @@
         <v>161</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="27" t="s">
-        <v>1226</v>
+        <v>1686</v>
       </c>
       <c r="B559" t="s">
         <v>695</v>
@@ -14352,12 +14662,12 @@
         <v>161</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="560" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A560" s="27" t="s">
-        <v>1227</v>
+        <v>1687</v>
       </c>
       <c r="B560" t="s">
         <v>696</v>
@@ -14368,12 +14678,12 @@
         <v>197</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="27" t="s">
-        <v>1228</v>
+        <v>1688</v>
       </c>
       <c r="B561" t="s">
         <v>697</v>
@@ -14384,12 +14694,12 @@
         <v>197</v>
       </c>
       <c r="F561" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="27" t="s">
-        <v>1229</v>
+        <v>1689</v>
       </c>
       <c r="B562" t="s">
         <v>698</v>
@@ -14400,12 +14710,12 @@
         <v>197</v>
       </c>
       <c r="F562" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="563" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="27" t="s">
-        <v>1230</v>
+        <v>1690</v>
       </c>
       <c r="B563" t="s">
         <v>699</v>
@@ -14416,12 +14726,12 @@
         <v>202</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="27" t="s">
-        <v>1231</v>
+        <v>1691</v>
       </c>
       <c r="B564" t="s">
         <v>700</v>
@@ -14432,12 +14742,12 @@
         <v>202</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="565" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="27" t="s">
-        <v>1232</v>
+        <v>1692</v>
       </c>
       <c r="B565" t="s">
         <v>701</v>
@@ -14448,12 +14758,12 @@
         <v>202</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="27" t="s">
-        <v>1233</v>
+        <v>1693</v>
       </c>
       <c r="B566" t="s">
         <v>702</v>
@@ -14464,12 +14774,12 @@
         <v>197</v>
       </c>
       <c r="F566" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="567" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="27" t="s">
-        <v>1234</v>
+        <v>1694</v>
       </c>
       <c r="B567" t="s">
         <v>703</v>
@@ -14480,12 +14790,12 @@
         <v>60</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="27" t="s">
-        <v>1235</v>
+        <v>1695</v>
       </c>
       <c r="B568" t="s">
         <v>704</v>
@@ -14496,12 +14806,12 @@
         <v>60</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="569" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" s="27" t="s">
-        <v>1236</v>
+        <v>1696</v>
       </c>
       <c r="B569" t="s">
         <v>705</v>
@@ -14512,7 +14822,7 @@
         <v>60</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
@@ -14528,7 +14838,7 @@
         <v>241</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
@@ -14544,7 +14854,7 @@
         <v>241</v>
       </c>
       <c r="F571" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="572" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14560,7 +14870,7 @@
         <v>241</v>
       </c>
       <c r="F572" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="573" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14576,7 +14886,7 @@
         <v>60</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="574" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14592,7 +14902,7 @@
         <v>60</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="575" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14608,7 +14918,7 @@
         <v>60</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="576" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14624,7 +14934,7 @@
         <v>60</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="577" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14640,7 +14950,7 @@
         <v>60</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="578" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14656,7 +14966,7 @@
         <v>195</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="579" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14672,7 +14982,7 @@
         <v>195</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="580" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14688,7 +14998,7 @@
         <v>195</v>
       </c>
       <c r="F580" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="581" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14704,7 +15014,7 @@
         <v>195</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H581" s="4"/>
     </row>
@@ -14721,7 +15031,7 @@
         <v>60</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="583" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14737,7 +15047,7 @@
         <v>60</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="584" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14753,7 +15063,7 @@
         <v>60</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="585" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14769,7 +15079,7 @@
         <v>195</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="586" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14785,7 +15095,7 @@
         <v>195</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="587" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14801,7 +15111,7 @@
         <v>195</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="588" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14817,7 +15127,7 @@
         <v>60</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="589" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14833,7 +15143,7 @@
         <v>60</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="590" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14849,7 +15159,7 @@
         <v>60</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="591" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14865,7 +15175,7 @@
         <v>196</v>
       </c>
       <c r="F591" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="592" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -14881,7 +15191,7 @@
         <v>196</v>
       </c>
       <c r="F592" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="593" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14897,7 +15207,7 @@
         <v>196</v>
       </c>
       <c r="F593" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="594" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14913,7 +15223,7 @@
         <v>196</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="595" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14929,7 +15239,7 @@
         <v>196</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="596" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14945,7 +15255,7 @@
         <v>215</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="597" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14961,7 +15271,7 @@
         <v>215</v>
       </c>
       <c r="F597" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="598" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14977,7 +15287,7 @@
         <v>215</v>
       </c>
       <c r="F598" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="599" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -14993,7 +15303,7 @@
         <v>215</v>
       </c>
       <c r="F599" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="600" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15009,7 +15319,7 @@
         <v>998</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="601" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15025,7 +15335,7 @@
         <v>998</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="602" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15041,7 +15351,7 @@
         <v>61</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="603" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15057,7 +15367,7 @@
         <v>998</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="604" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15073,7 +15383,7 @@
         <v>998</v>
       </c>
       <c r="F604" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="605" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15089,7 +15399,7 @@
         <v>998</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="606" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15105,7 +15415,7 @@
         <v>239</v>
       </c>
       <c r="F606" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="607" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15121,7 +15431,7 @@
         <v>64</v>
       </c>
       <c r="F607" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
@@ -15137,7 +15447,7 @@
         <v>261</v>
       </c>
       <c r="F608" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
@@ -15153,7 +15463,7 @@
         <v>261</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
@@ -15169,7 +15479,7 @@
         <v>261</v>
       </c>
       <c r="F610" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
@@ -15185,7 +15495,7 @@
         <v>261</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
@@ -15201,7 +15511,7 @@
         <v>261</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
@@ -15217,7 +15527,7 @@
         <v>261</v>
       </c>
       <c r="F613" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
@@ -15231,7 +15541,7 @@
       <c r="D614" s="11"/>
       <c r="E614" s="11"/>
       <c r="F614" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
@@ -15249,7 +15559,7 @@
         <v>869</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
@@ -15267,7 +15577,7 @@
         <v>872</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
@@ -15285,7 +15595,7 @@
         <v>867</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
@@ -15301,7 +15611,7 @@
         <v>868</v>
       </c>
       <c r="F618" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
@@ -15319,7 +15629,7 @@
         <v>875</v>
       </c>
       <c r="F619" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
@@ -15337,7 +15647,7 @@
         <v>863</v>
       </c>
       <c r="F620" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
@@ -15355,7 +15665,7 @@
         <v>1014</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
@@ -15373,7 +15683,7 @@
         <v>863</v>
       </c>
       <c r="F622" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
@@ -15391,7 +15701,7 @@
         <v>863</v>
       </c>
       <c r="F623" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
@@ -15409,7 +15719,7 @@
         <v>881</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
@@ -15427,7 +15737,7 @@
         <v>863</v>
       </c>
       <c r="F625" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
@@ -15445,7 +15755,7 @@
         <v>878</v>
       </c>
       <c r="F626" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
@@ -15463,7 +15773,7 @@
         <v>910</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
@@ -15481,7 +15791,7 @@
         <v>913</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
@@ -15499,7 +15809,7 @@
         <v>943</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
@@ -15517,7 +15827,7 @@
         <v>942</v>
       </c>
       <c r="F630" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
@@ -15535,7 +15845,7 @@
         <v>948</v>
       </c>
       <c r="F631" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
@@ -15553,7 +15863,7 @@
         <v>923</v>
       </c>
       <c r="F632" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
@@ -15571,7 +15881,7 @@
         <v>862</v>
       </c>
       <c r="F633" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
@@ -15589,7 +15899,7 @@
         <v>951</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
@@ -15607,7 +15917,7 @@
         <v>939</v>
       </c>
       <c r="F635" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
@@ -15625,7 +15935,7 @@
         <v>928</v>
       </c>
       <c r="F636" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
@@ -15643,7 +15953,7 @@
         <v>954</v>
       </c>
       <c r="F637" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
@@ -15661,7 +15971,7 @@
         <v>928</v>
       </c>
       <c r="F638" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
@@ -15679,7 +15989,7 @@
         <v>933</v>
       </c>
       <c r="F639" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
@@ -15697,7 +16007,7 @@
         <v>890</v>
       </c>
       <c r="F640" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
@@ -15715,7 +16025,7 @@
         <v>863</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
@@ -15733,7 +16043,7 @@
         <v>863</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
@@ -15751,7 +16061,7 @@
         <v>863</v>
       </c>
       <c r="F643" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
@@ -15769,7 +16079,7 @@
         <v>1015</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
@@ -15787,7 +16097,7 @@
         <v>916</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
@@ -15805,7 +16115,7 @@
         <v>1002</v>
       </c>
       <c r="F646" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
@@ -15823,7 +16133,7 @@
         <v>1006</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
@@ -15841,7 +16151,7 @@
         <v>922</v>
       </c>
       <c r="F648" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
@@ -15857,7 +16167,7 @@
       </c>
       <c r="E649" s="11"/>
       <c r="F649" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
@@ -15875,7 +16185,7 @@
         <v>862</v>
       </c>
       <c r="F650" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
@@ -15893,7 +16203,7 @@
         <v>935</v>
       </c>
       <c r="F651" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
@@ -15911,7 +16221,7 @@
         <v>862</v>
       </c>
       <c r="F652" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
@@ -15929,7 +16239,7 @@
         <v>862</v>
       </c>
       <c r="F653" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
@@ -15947,7 +16257,7 @@
         <v>862</v>
       </c>
       <c r="F654" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
@@ -15965,7 +16275,7 @@
         <v>1012</v>
       </c>
       <c r="F655" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
@@ -15983,24 +16293,24 @@
         <v>1014</v>
       </c>
       <c r="F656" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" s="24" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B657" s="3" t="s">
         <v>1588</v>
       </c>
-      <c r="B657" s="3" t="s">
+      <c r="D657" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E657" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F657" s="1" t="s">
         <v>1589</v>
-      </c>
-      <c r="D657" s="3" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E657" s="3" t="s">
-        <v>1594</v>
-      </c>
-      <c r="F657" s="1" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">

--- a/MISSION_DATA/A13_photos.xlsx
+++ b/MISSION_DATA/A13_photos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo_13\MISSION_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27B2728-8D73-47B9-B3A6-B28D41AC349B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A331F70-DE2C-4843-B328-B7878380191A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10500" yWindow="4260" windowWidth="38535" windowHeight="23985" xr2:uid="{E7285D04-3DFB-428F-BD58-901528569A82}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4660" uniqueCount="1698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4660" uniqueCount="1798">
   <si>
     <t>LM &amp; S-IVB during Transposition and Docking</t>
   </si>
@@ -5032,136 +5032,436 @@
     <t>138:11:41</t>
   </si>
   <si>
+    <t>138:11:50</t>
+  </si>
+  <si>
+    <t>138:12:01</t>
+  </si>
+  <si>
+    <t>138:12:03</t>
+  </si>
+  <si>
+    <t>138:12:06</t>
+  </si>
+  <si>
+    <t>141:29:47</t>
+  </si>
+  <si>
+    <t>141:29:51</t>
+  </si>
+  <si>
+    <t>141:29:53</t>
+  </si>
+  <si>
+    <t>141:29:56</t>
+  </si>
+  <si>
+    <t>141:29:57</t>
+  </si>
+  <si>
+    <t>141:29:59</t>
+  </si>
+  <si>
+    <t>141:30:08</t>
+  </si>
+  <si>
+    <t>141:30:10</t>
+  </si>
+  <si>
+    <t>141:30:12</t>
+  </si>
+  <si>
+    <t>141:30:16</t>
+  </si>
+  <si>
+    <t>141:30:17</t>
+  </si>
+  <si>
+    <t>141:30:18</t>
+  </si>
+  <si>
+    <t>141:30:24</t>
+  </si>
+  <si>
+    <t>141:30:25</t>
+  </si>
+  <si>
+    <t>141:30:26</t>
+  </si>
+  <si>
+    <t>141:30:27</t>
+  </si>
+  <si>
+    <t>009:03:13</t>
+  </si>
+  <si>
+    <t>009:26:36</t>
+  </si>
+  <si>
+    <t>095:50:49</t>
+  </si>
+  <si>
+    <t>095:51:01</t>
+  </si>
+  <si>
+    <t>095:52:38</t>
+  </si>
+  <si>
+    <t>094:15:02</t>
+  </si>
+  <si>
+    <t>094:15:48</t>
+  </si>
+  <si>
+    <t>078:02:15</t>
+  </si>
+  <si>
+    <t>087:47:15</t>
+  </si>
+  <si>
+    <t>087:47:27</t>
+  </si>
+  <si>
+    <t>100:47:16</t>
+  </si>
+  <si>
+    <t>100:49:48</t>
+  </si>
+  <si>
+    <t>104:45:58</t>
+  </si>
+  <si>
+    <t>104:46:20</t>
+  </si>
+  <si>
+    <t>091:02:15</t>
+  </si>
+  <si>
+    <t>091:44:40</t>
+  </si>
+  <si>
+    <t>091:44:56</t>
+  </si>
+  <si>
+    <t>091:32:54</t>
+  </si>
+  <si>
+    <t>075:17:21</t>
+  </si>
+  <si>
+    <t>075:17:35</t>
+  </si>
+  <si>
+    <t>075:17:47</t>
+  </si>
+  <si>
+    <t>075:18:02</t>
+  </si>
+  <si>
+    <t>097:18:58</t>
+  </si>
+  <si>
+    <t>104:57:21</t>
+  </si>
+  <si>
+    <t>104:59:33</t>
+  </si>
+  <si>
+    <t>105:00:16</t>
+  </si>
+  <si>
+    <t>105:00:28</t>
+  </si>
+  <si>
+    <t>105:01:40</t>
+  </si>
+  <si>
+    <t>105:02:21</t>
+  </si>
+  <si>
+    <t>105:04:03</t>
+  </si>
+  <si>
+    <t>105:05:26</t>
+  </si>
+  <si>
+    <t>105:05:50</t>
+  </si>
+  <si>
+    <t>105:06:17</t>
+  </si>
+  <si>
+    <t>105:06:41</t>
+  </si>
+  <si>
+    <t>105:08:06</t>
+  </si>
+  <si>
+    <t>105:08:21</t>
+  </si>
+  <si>
+    <t>105:08:39</t>
+  </si>
+  <si>
+    <t>105:12:12</t>
+  </si>
+  <si>
+    <t>105:54:46</t>
+  </si>
+  <si>
+    <t>105:55:01</t>
+  </si>
+  <si>
+    <t>105:55:28</t>
+  </si>
+  <si>
+    <t>105:56:32</t>
+  </si>
+  <si>
+    <t>107:10:55</t>
+  </si>
+  <si>
+    <t>107:11:15</t>
+  </si>
+  <si>
+    <t>107:11:36</t>
+  </si>
+  <si>
+    <t>107:12:38</t>
+  </si>
+  <si>
+    <t>107:13:25</t>
+  </si>
+  <si>
+    <t>107:13:50</t>
+  </si>
+  <si>
+    <t>108:32:47</t>
+  </si>
+  <si>
+    <t>108:32:55</t>
+  </si>
+  <si>
+    <t>108:33:04</t>
+  </si>
+  <si>
+    <t>108:33:12</t>
+  </si>
+  <si>
+    <t>108:42:27</t>
+  </si>
+  <si>
+    <t>108:42:35</t>
+  </si>
+  <si>
+    <t>108:42:45</t>
+  </si>
+  <si>
+    <t>108:42:53</t>
+  </si>
+  <si>
+    <t>109:02:27</t>
+  </si>
+  <si>
+    <t>118:54:16</t>
+  </si>
+  <si>
+    <t>118:54:55</t>
+  </si>
+  <si>
+    <t>118:55:20</t>
+  </si>
+  <si>
+    <t>118:55:42</t>
+  </si>
+  <si>
+    <t>118:55:59</t>
+  </si>
+  <si>
+    <t>118:56:13</t>
+  </si>
+  <si>
+    <t>118:56:23</t>
+  </si>
+  <si>
+    <t>119:00:10</t>
+  </si>
+  <si>
+    <t>119:00:16</t>
+  </si>
+  <si>
+    <t>119:16:02</t>
+  </si>
+  <si>
+    <t>119:16:07</t>
+  </si>
+  <si>
+    <t>119:16:13</t>
+  </si>
+  <si>
+    <t>119:16:30</t>
+  </si>
+  <si>
+    <t>119:16:36</t>
+  </si>
+  <si>
+    <t>119:19:57</t>
+  </si>
+  <si>
+    <t>119:20:08</t>
+  </si>
+  <si>
+    <t>119:20:17</t>
+  </si>
+  <si>
+    <t>119:20:24</t>
+  </si>
+  <si>
+    <t>119:20:31</t>
+  </si>
+  <si>
+    <t>119:20:40</t>
+  </si>
+  <si>
+    <t>119:20:51</t>
+  </si>
+  <si>
+    <t>119:23:17</t>
+  </si>
+  <si>
+    <t>119:23:25</t>
+  </si>
+  <si>
+    <t>119:23:32</t>
+  </si>
+  <si>
+    <t>119:36:00</t>
+  </si>
+  <si>
+    <t>119:36:03</t>
+  </si>
+  <si>
+    <t>119:36:08</t>
+  </si>
+  <si>
+    <t>122:08:12</t>
+  </si>
+  <si>
+    <t>122:08:20</t>
+  </si>
+  <si>
+    <t>122:08:27</t>
+  </si>
+  <si>
+    <t>122:08:33</t>
+  </si>
+  <si>
+    <t>122:08:41</t>
+  </si>
+  <si>
+    <t>124:46:21</t>
+  </si>
+  <si>
+    <t>124:47:00</t>
+  </si>
+  <si>
+    <t>124:46:46</t>
+  </si>
+  <si>
+    <t>124:49:58</t>
+  </si>
+  <si>
+    <t>124:50:09</t>
+  </si>
+  <si>
+    <t>124:50:17</t>
+  </si>
+  <si>
+    <t>124:52:08</t>
+  </si>
+  <si>
+    <t>124:52:15</t>
+  </si>
+  <si>
+    <t>124:52:24</t>
+  </si>
+  <si>
+    <t>124:55:16</t>
+  </si>
+  <si>
+    <t>124:55:24</t>
+  </si>
+  <si>
+    <t>124:55:33</t>
+  </si>
+  <si>
+    <t>127:07:26</t>
+  </si>
+  <si>
+    <t>127:07:40</t>
+  </si>
+  <si>
+    <t>127:07:51</t>
+  </si>
+  <si>
+    <t>127:08:05</t>
+  </si>
+  <si>
+    <t>127:08:26</t>
+  </si>
+  <si>
+    <t>127:18:13</t>
+  </si>
+  <si>
+    <t>127:18:21</t>
+  </si>
+  <si>
+    <t>127:18:30</t>
+  </si>
+  <si>
+    <t>127:18:47</t>
+  </si>
+  <si>
+    <t>127:22:42</t>
+  </si>
+  <si>
+    <t>127:22:55</t>
+  </si>
+  <si>
+    <t>127:26:36</t>
+  </si>
+  <si>
+    <t>127:31:45</t>
+  </si>
+  <si>
+    <t>127:31:58</t>
+  </si>
+  <si>
+    <t>127:32:16</t>
+  </si>
+  <si>
+    <t>127:32:25</t>
+  </si>
+  <si>
+    <t>137:15:54</t>
+  </si>
+  <si>
+    <t>137:16:10</t>
+  </si>
+  <si>
+    <t>137:16:22</t>
+  </si>
+  <si>
+    <t>137:16:38</t>
+  </si>
+  <si>
+    <t>137:16:52</t>
+  </si>
+  <si>
+    <t>137:17:04</t>
+  </si>
+  <si>
     <t>138:11:46</t>
-  </si>
-  <si>
-    <t>138:11:50</t>
-  </si>
-  <si>
-    <t>138:12:01</t>
-  </si>
-  <si>
-    <t>138:12:03</t>
-  </si>
-  <si>
-    <t>138:12:06</t>
-  </si>
-  <si>
-    <t>141:29:47</t>
-  </si>
-  <si>
-    <t>141:29:51</t>
-  </si>
-  <si>
-    <t>141:29:53</t>
-  </si>
-  <si>
-    <t>141:29:56</t>
-  </si>
-  <si>
-    <t>141:29:57</t>
-  </si>
-  <si>
-    <t>141:29:59</t>
-  </si>
-  <si>
-    <t>141:30:08</t>
-  </si>
-  <si>
-    <t>141:30:10</t>
-  </si>
-  <si>
-    <t>141:30:12</t>
-  </si>
-  <si>
-    <t>141:30:16</t>
-  </si>
-  <si>
-    <t>141:30:17</t>
-  </si>
-  <si>
-    <t>141:30:18</t>
-  </si>
-  <si>
-    <t>141:30:24</t>
-  </si>
-  <si>
-    <t>141:30:25</t>
-  </si>
-  <si>
-    <t>141:30:26</t>
-  </si>
-  <si>
-    <t>141:30:27</t>
-  </si>
-  <si>
-    <t>009:03:13</t>
-  </si>
-  <si>
-    <t>009:26:36</t>
-  </si>
-  <si>
-    <t>095:50:49</t>
-  </si>
-  <si>
-    <t>095:51:01</t>
-  </si>
-  <si>
-    <t>095:52:38</t>
-  </si>
-  <si>
-    <t>094:15:02</t>
-  </si>
-  <si>
-    <t>094:15:48</t>
-  </si>
-  <si>
-    <t>113:27:01</t>
-  </si>
-  <si>
-    <t>113:27:18</t>
-  </si>
-  <si>
-    <t>113:27:32</t>
-  </si>
-  <si>
-    <t>113:28:37</t>
-  </si>
-  <si>
-    <t>113:28:48</t>
-  </si>
-  <si>
-    <t>113:30:25</t>
-  </si>
-  <si>
-    <t>113:34:48</t>
-  </si>
-  <si>
-    <t>113:35:11</t>
-  </si>
-  <si>
-    <t>113:35:52</t>
-  </si>
-  <si>
-    <t>113:35:59</t>
-  </si>
-  <si>
-    <t>113:36:07</t>
-  </si>
-  <si>
-    <t>113:37:36</t>
-  </si>
-  <si>
-    <t>113:38:21</t>
-  </si>
-  <si>
-    <t>113:38:26</t>
-  </si>
-  <si>
-    <t>113:38:30</t>
-  </si>
-  <si>
-    <t>078:02:20</t>
   </si>
 </sst>
 </file>
@@ -5639,8 +5939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA25AE87-EBB6-4592-B83F-0D7E34AA70ED}">
   <dimension ref="A1:H704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A607" workbookViewId="0">
-      <selection activeCell="A659" sqref="A659"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7222,7 +7522,7 @@
     </row>
     <row r="98" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
-        <v>1654</v>
+        <v>1797</v>
       </c>
       <c r="B98" t="s">
         <v>784</v>
@@ -7238,7 +7538,7 @@
     </row>
     <row r="99" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B99" t="s">
         <v>786</v>
@@ -7254,7 +7554,7 @@
     </row>
     <row r="100" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B100" t="s">
         <v>789</v>
@@ -7270,7 +7570,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="27" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B101" t="s">
         <v>790</v>
@@ -7286,7 +7586,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="27" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B102" t="s">
         <v>791</v>
@@ -7318,7 +7618,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="27" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B104" t="s">
         <v>799</v>
@@ -7350,7 +7650,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="27" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B106" t="s">
         <v>801</v>
@@ -7366,7 +7666,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="27" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B107" t="s">
         <v>802</v>
@@ -7398,7 +7698,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="27" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B109" t="s">
         <v>804</v>
@@ -7414,7 +7714,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="27" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B110" t="s">
         <v>805</v>
@@ -7430,7 +7730,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="27" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B111" t="s">
         <v>806</v>
@@ -7558,7 +7858,7 @@
     </row>
     <row r="119" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="27" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B119" t="s">
         <v>814</v>
@@ -7574,7 +7874,7 @@
     </row>
     <row r="120" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="27" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B120" t="s">
         <v>815</v>
@@ -7606,7 +7906,7 @@
     </row>
     <row r="122" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="27" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B122" t="s">
         <v>817</v>
@@ -7638,7 +7938,7 @@
     </row>
     <row r="124" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B124" t="s">
         <v>819</v>
@@ -7654,7 +7954,7 @@
     </row>
     <row r="125" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B125" t="s">
         <v>820</v>
@@ -7670,7 +7970,7 @@
     </row>
     <row r="126" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="27" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B126" t="s">
         <v>821</v>
@@ -7686,7 +7986,7 @@
     </row>
     <row r="127" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="27" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B127" t="s">
         <v>822</v>
@@ -7702,7 +8002,7 @@
     </row>
     <row r="128" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="27" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B128" t="s">
         <v>823</v>
@@ -7718,7 +8018,7 @@
     </row>
     <row r="129" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="27" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B129" t="s">
         <v>824</v>
@@ -7734,7 +8034,7 @@
     </row>
     <row r="130" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B130" t="s">
         <v>825</v>
@@ -8006,7 +8306,7 @@
     </row>
     <row r="147" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="27" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B147" t="s">
         <v>283</v>
@@ -8022,7 +8322,7 @@
     </row>
     <row r="148" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="27" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B148" t="s">
         <v>284</v>
@@ -9966,7 +10266,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="27" t="s">
-        <v>1495</v>
+        <v>1682</v>
       </c>
       <c r="B269" t="s">
         <v>610</v>
@@ -9982,7 +10282,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="27" t="s">
-        <v>1496</v>
+        <v>1683</v>
       </c>
       <c r="B270" t="s">
         <v>611</v>
@@ -10030,7 +10330,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="27" t="s">
-        <v>70</v>
+        <v>1684</v>
       </c>
       <c r="B273" t="s">
         <v>623</v>
@@ -10046,7 +10346,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="27" t="s">
-        <v>71</v>
+        <v>1685</v>
       </c>
       <c r="B274" t="s">
         <v>624</v>
@@ -10110,7 +10410,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="27" t="s">
-        <v>1499</v>
+        <v>1686</v>
       </c>
       <c r="B278" t="s">
         <v>659</v>
@@ -10126,7 +10426,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="27" t="s">
-        <v>1500</v>
+        <v>1687</v>
       </c>
       <c r="B279" t="s">
         <v>660</v>
@@ -12603,7 +12903,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="27" t="s">
-        <v>252</v>
+        <v>1688</v>
       </c>
       <c r="B431" t="s">
         <v>582</v>
@@ -12619,7 +12919,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="27" t="s">
-        <v>253</v>
+        <v>1689</v>
       </c>
       <c r="B432" t="s">
         <v>584</v>
@@ -12635,7 +12935,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="27" t="s">
-        <v>1346</v>
+        <v>1690</v>
       </c>
       <c r="B433" t="s">
         <v>585</v>
@@ -12651,7 +12951,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="27" t="s">
-        <v>1347</v>
+        <v>1691</v>
       </c>
       <c r="B434" t="s">
         <v>588</v>
@@ -12795,7 +13095,7 @@
     </row>
     <row r="443" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="27" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B443" t="s">
         <v>628</v>
@@ -12811,7 +13111,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="27" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B444" t="s">
         <v>629</v>
@@ -12843,7 +13143,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="27" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B446" t="s">
         <v>631</v>
@@ -12955,7 +13255,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="27" t="s">
-        <v>82</v>
+        <v>1692</v>
       </c>
       <c r="B453" t="s">
         <v>299</v>
@@ -12971,7 +13271,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="27" t="s">
-        <v>83</v>
+        <v>1693</v>
       </c>
       <c r="B454" t="s">
         <v>300</v>
@@ -12987,7 +13287,7 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="27" t="s">
-        <v>84</v>
+        <v>1694</v>
       </c>
       <c r="B455" t="s">
         <v>301</v>
@@ -13003,7 +13303,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="27" t="s">
-        <v>1514</v>
+        <v>1695</v>
       </c>
       <c r="B456" t="s">
         <v>302</v>
@@ -13643,7 +13943,7 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="27" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B496" t="s">
         <v>621</v>
@@ -13659,7 +13959,7 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="27" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B497" t="s">
         <v>622</v>
@@ -13851,7 +14151,7 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="27" t="s">
-        <v>225</v>
+        <v>1696</v>
       </c>
       <c r="B509" t="s">
         <v>643</v>
@@ -13867,7 +14167,7 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="27" t="s">
-        <v>203</v>
+        <v>1697</v>
       </c>
       <c r="B510" t="s">
         <v>644</v>
@@ -13883,7 +14183,7 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="27" t="s">
-        <v>227</v>
+        <v>1698</v>
       </c>
       <c r="B511" t="s">
         <v>645</v>
@@ -13899,7 +14199,7 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="27" t="s">
-        <v>228</v>
+        <v>1699</v>
       </c>
       <c r="B512" t="s">
         <v>646</v>
@@ -13915,7 +14215,7 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="27" t="s">
-        <v>229</v>
+        <v>1700</v>
       </c>
       <c r="B513" t="s">
         <v>647</v>
@@ -13931,7 +14231,7 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="27" t="s">
-        <v>204</v>
+        <v>1701</v>
       </c>
       <c r="B514" t="s">
         <v>648</v>
@@ -13947,7 +14247,7 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="27" t="s">
-        <v>205</v>
+        <v>1702</v>
       </c>
       <c r="B515" t="s">
         <v>649</v>
@@ -13963,7 +14263,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="27" t="s">
-        <v>206</v>
+        <v>1703</v>
       </c>
       <c r="B516" t="s">
         <v>650</v>
@@ -13979,7 +14279,7 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="27" t="s">
-        <v>233</v>
+        <v>1704</v>
       </c>
       <c r="B517" t="s">
         <v>651</v>
@@ -13995,7 +14295,7 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="27" t="s">
-        <v>234</v>
+        <v>1705</v>
       </c>
       <c r="B518" t="s">
         <v>652</v>
@@ -14011,7 +14311,7 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="27" t="s">
-        <v>235</v>
+        <v>1706</v>
       </c>
       <c r="B519" t="s">
         <v>653</v>
@@ -14027,7 +14327,7 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="27" t="s">
-        <v>236</v>
+        <v>1707</v>
       </c>
       <c r="B520" t="s">
         <v>654</v>
@@ -14043,7 +14343,7 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="27" t="s">
-        <v>207</v>
+        <v>1708</v>
       </c>
       <c r="B521" t="s">
         <v>655</v>
@@ -14059,7 +14359,7 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="27" t="s">
-        <v>238</v>
+        <v>1709</v>
       </c>
       <c r="B522" t="s">
         <v>656</v>
@@ -14075,7 +14375,7 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="27" t="s">
-        <v>208</v>
+        <v>1710</v>
       </c>
       <c r="B523" t="s">
         <v>657</v>
@@ -14091,7 +14391,7 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="27" t="s">
-        <v>209</v>
+        <v>1711</v>
       </c>
       <c r="B524" t="s">
         <v>658</v>
@@ -14107,7 +14407,7 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="27" t="s">
-        <v>1517</v>
+        <v>1712</v>
       </c>
       <c r="B525" t="s">
         <v>661</v>
@@ -14123,7 +14423,7 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="27" t="s">
-        <v>1518</v>
+        <v>1713</v>
       </c>
       <c r="B526" t="s">
         <v>662</v>
@@ -14139,7 +14439,7 @@
     </row>
     <row r="527" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A527" s="27" t="s">
-        <v>1519</v>
+        <v>1714</v>
       </c>
       <c r="B527" t="s">
         <v>663</v>
@@ -14155,7 +14455,7 @@
     </row>
     <row r="528" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A528" s="27" t="s">
-        <v>1520</v>
+        <v>1715</v>
       </c>
       <c r="B528" t="s">
         <v>664</v>
@@ -14171,7 +14471,7 @@
     </row>
     <row r="529" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="27" t="s">
-        <v>1572</v>
+        <v>1716</v>
       </c>
       <c r="B529" t="s">
         <v>665</v>
@@ -14187,7 +14487,7 @@
     </row>
     <row r="530" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A530" s="27" t="s">
-        <v>1573</v>
+        <v>1717</v>
       </c>
       <c r="B530" t="s">
         <v>666</v>
@@ -14203,7 +14503,7 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="27" t="s">
-        <v>1574</v>
+        <v>1718</v>
       </c>
       <c r="B531" t="s">
         <v>667</v>
@@ -14219,7 +14519,7 @@
     </row>
     <row r="532" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A532" s="27" t="s">
-        <v>1209</v>
+        <v>1719</v>
       </c>
       <c r="B532" t="s">
         <v>668</v>
@@ -14235,7 +14535,7 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="27" t="s">
-        <v>1210</v>
+        <v>1720</v>
       </c>
       <c r="B533" t="s">
         <v>669</v>
@@ -14251,7 +14551,7 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="27" t="s">
-        <v>1211</v>
+        <v>1721</v>
       </c>
       <c r="B534" t="s">
         <v>670</v>
@@ -14267,7 +14567,7 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="27" t="s">
-        <v>1575</v>
+        <v>1721</v>
       </c>
       <c r="B535" t="s">
         <v>671</v>
@@ -14283,7 +14583,7 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="27" t="s">
-        <v>1576</v>
+        <v>1722</v>
       </c>
       <c r="B536" t="s">
         <v>672</v>
@@ -14299,7 +14599,7 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="27" t="s">
-        <v>1577</v>
+        <v>1723</v>
       </c>
       <c r="B537" t="s">
         <v>673</v>
@@ -14315,7 +14615,7 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="27" t="s">
-        <v>1578</v>
+        <v>1724</v>
       </c>
       <c r="B538" t="s">
         <v>674</v>
@@ -14331,7 +14631,7 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="27" t="s">
-        <v>1579</v>
+        <v>1725</v>
       </c>
       <c r="B539" t="s">
         <v>675</v>
@@ -14347,7 +14647,7 @@
     </row>
     <row r="540" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="27" t="s">
-        <v>1580</v>
+        <v>1726</v>
       </c>
       <c r="B540" t="s">
         <v>676</v>
@@ -14363,7 +14663,7 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="27" t="s">
-        <v>1581</v>
+        <v>1727</v>
       </c>
       <c r="B541" t="s">
         <v>677</v>
@@ -14379,7 +14679,7 @@
     </row>
     <row r="542" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A542" s="27" t="s">
-        <v>1582</v>
+        <v>1728</v>
       </c>
       <c r="B542" t="s">
         <v>678</v>
@@ -14395,7 +14695,7 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="27" t="s">
-        <v>1583</v>
+        <v>1729</v>
       </c>
       <c r="B543" t="s">
         <v>679</v>
@@ -14411,7 +14711,7 @@
     </row>
     <row r="544" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="27" t="s">
-        <v>1584</v>
+        <v>1730</v>
       </c>
       <c r="B544" t="s">
         <v>680</v>
@@ -14443,7 +14743,7 @@
     </row>
     <row r="546" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" s="27" t="s">
-        <v>1213</v>
+        <v>1731</v>
       </c>
       <c r="B546" t="s">
         <v>682</v>
@@ -14459,7 +14759,7 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="27" t="s">
-        <v>1214</v>
+        <v>1732</v>
       </c>
       <c r="B547" t="s">
         <v>683</v>
@@ -14475,7 +14775,7 @@
     </row>
     <row r="548" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="27" t="s">
-        <v>1215</v>
+        <v>1733</v>
       </c>
       <c r="B548" t="s">
         <v>684</v>
@@ -14491,7 +14791,7 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="27" t="s">
-        <v>1216</v>
+        <v>1734</v>
       </c>
       <c r="B549" t="s">
         <v>685</v>
@@ -14507,7 +14807,7 @@
     </row>
     <row r="550" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" s="27" t="s">
-        <v>1217</v>
+        <v>1735</v>
       </c>
       <c r="B550" t="s">
         <v>686</v>
@@ -14523,7 +14823,7 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="27" t="s">
-        <v>1218</v>
+        <v>1736</v>
       </c>
       <c r="B551" t="s">
         <v>687</v>
@@ -14539,7 +14839,7 @@
     </row>
     <row r="552" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="27" t="s">
-        <v>1219</v>
+        <v>1737</v>
       </c>
       <c r="B552" t="s">
         <v>688</v>
@@ -14555,7 +14855,7 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="27" t="s">
-        <v>1220</v>
+        <v>1738</v>
       </c>
       <c r="B553" t="s">
         <v>689</v>
@@ -14571,7 +14871,7 @@
     </row>
     <row r="554" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" s="27" t="s">
-        <v>1221</v>
+        <v>1739</v>
       </c>
       <c r="B554" t="s">
         <v>690</v>
@@ -14587,7 +14887,7 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="27" t="s">
-        <v>1682</v>
+        <v>1740</v>
       </c>
       <c r="B555" t="s">
         <v>691</v>
@@ -14603,7 +14903,7 @@
     </row>
     <row r="556" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A556" s="27" t="s">
-        <v>1683</v>
+        <v>1741</v>
       </c>
       <c r="B556" t="s">
         <v>692</v>
@@ -14619,7 +14919,7 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="27" t="s">
-        <v>1684</v>
+        <v>1742</v>
       </c>
       <c r="B557" t="s">
         <v>693</v>
@@ -14635,7 +14935,7 @@
     </row>
     <row r="558" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" s="27" t="s">
-        <v>1685</v>
+        <v>1743</v>
       </c>
       <c r="B558" t="s">
         <v>694</v>
@@ -14651,7 +14951,7 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="27" t="s">
-        <v>1686</v>
+        <v>1744</v>
       </c>
       <c r="B559" t="s">
         <v>695</v>
@@ -14667,7 +14967,7 @@
     </row>
     <row r="560" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A560" s="27" t="s">
-        <v>1687</v>
+        <v>1745</v>
       </c>
       <c r="B560" t="s">
         <v>696</v>
@@ -14683,7 +14983,7 @@
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="27" t="s">
-        <v>1688</v>
+        <v>1746</v>
       </c>
       <c r="B561" t="s">
         <v>697</v>
@@ -14699,7 +14999,7 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="27" t="s">
-        <v>1689</v>
+        <v>1747</v>
       </c>
       <c r="B562" t="s">
         <v>698</v>
@@ -14715,7 +15015,7 @@
     </row>
     <row r="563" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="27" t="s">
-        <v>1690</v>
+        <v>1748</v>
       </c>
       <c r="B563" t="s">
         <v>699</v>
@@ -14731,7 +15031,7 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="27" t="s">
-        <v>1691</v>
+        <v>1749</v>
       </c>
       <c r="B564" t="s">
         <v>700</v>
@@ -14747,7 +15047,7 @@
     </row>
     <row r="565" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="27" t="s">
-        <v>1692</v>
+        <v>1750</v>
       </c>
       <c r="B565" t="s">
         <v>701</v>
@@ -14763,7 +15063,7 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="27" t="s">
-        <v>1693</v>
+        <v>1751</v>
       </c>
       <c r="B566" t="s">
         <v>702</v>
@@ -14779,7 +15079,7 @@
     </row>
     <row r="567" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="27" t="s">
-        <v>1694</v>
+        <v>1752</v>
       </c>
       <c r="B567" t="s">
         <v>703</v>
@@ -14795,7 +15095,7 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="27" t="s">
-        <v>1695</v>
+        <v>1753</v>
       </c>
       <c r="B568" t="s">
         <v>704</v>
@@ -14811,7 +15111,7 @@
     </row>
     <row r="569" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" s="27" t="s">
-        <v>1696</v>
+        <v>1754</v>
       </c>
       <c r="B569" t="s">
         <v>705</v>
@@ -14827,7 +15127,7 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="27" t="s">
-        <v>1237</v>
+        <v>1755</v>
       </c>
       <c r="B570" t="s">
         <v>706</v>
@@ -14843,7 +15143,7 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="27" t="s">
-        <v>1238</v>
+        <v>1756</v>
       </c>
       <c r="B571" t="s">
         <v>707</v>
@@ -14859,7 +15159,7 @@
     </row>
     <row r="572" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A572" s="27" t="s">
-        <v>1239</v>
+        <v>1757</v>
       </c>
       <c r="B572" t="s">
         <v>708</v>
@@ -14875,7 +15175,7 @@
     </row>
     <row r="573" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="27" t="s">
-        <v>1240</v>
+        <v>1758</v>
       </c>
       <c r="B573" t="s">
         <v>709</v>
@@ -14891,7 +15191,7 @@
     </row>
     <row r="574" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A574" s="27" t="s">
-        <v>1241</v>
+        <v>1759</v>
       </c>
       <c r="B574" t="s">
         <v>710</v>
@@ -14907,7 +15207,7 @@
     </row>
     <row r="575" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A575" s="27" t="s">
-        <v>1242</v>
+        <v>1760</v>
       </c>
       <c r="B575" t="s">
         <v>711</v>
@@ -14923,7 +15223,7 @@
     </row>
     <row r="576" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A576" s="27" t="s">
-        <v>1243</v>
+        <v>1761</v>
       </c>
       <c r="B576" t="s">
         <v>712</v>
@@ -14939,7 +15239,7 @@
     </row>
     <row r="577" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A577" s="27" t="s">
-        <v>1244</v>
+        <v>1762</v>
       </c>
       <c r="B577" t="s">
         <v>713</v>
@@ -14955,7 +15255,7 @@
     </row>
     <row r="578" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A578" s="27" t="s">
-        <v>1245</v>
+        <v>1763</v>
       </c>
       <c r="B578" t="s">
         <v>714</v>
@@ -14971,7 +15271,7 @@
     </row>
     <row r="579" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A579" s="27" t="s">
-        <v>1246</v>
+        <v>1764</v>
       </c>
       <c r="B579" t="s">
         <v>715</v>
@@ -14987,7 +15287,7 @@
     </row>
     <row r="580" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A580" s="27" t="s">
-        <v>1247</v>
+        <v>1765</v>
       </c>
       <c r="B580" t="s">
         <v>716</v>
@@ -15003,7 +15303,7 @@
     </row>
     <row r="581" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A581" s="27" t="s">
-        <v>1248</v>
+        <v>1764</v>
       </c>
       <c r="B581" t="s">
         <v>717</v>
@@ -15020,7 +15320,7 @@
     </row>
     <row r="582" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A582" s="27" t="s">
-        <v>1249</v>
+        <v>1766</v>
       </c>
       <c r="B582" t="s">
         <v>718</v>
@@ -15036,7 +15336,7 @@
     </row>
     <row r="583" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A583" s="27" t="s">
-        <v>1250</v>
+        <v>1767</v>
       </c>
       <c r="B583" t="s">
         <v>719</v>
@@ -15052,7 +15352,7 @@
     </row>
     <row r="584" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A584" s="27" t="s">
-        <v>1251</v>
+        <v>1768</v>
       </c>
       <c r="B584" t="s">
         <v>720</v>
@@ -15068,7 +15368,7 @@
     </row>
     <row r="585" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A585" s="27" t="s">
-        <v>1252</v>
+        <v>1769</v>
       </c>
       <c r="B585" t="s">
         <v>721</v>
@@ -15084,7 +15384,7 @@
     </row>
     <row r="586" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A586" s="27" t="s">
-        <v>1253</v>
+        <v>1770</v>
       </c>
       <c r="B586" t="s">
         <v>722</v>
@@ -15100,7 +15400,7 @@
     </row>
     <row r="587" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A587" s="27" t="s">
-        <v>1254</v>
+        <v>1771</v>
       </c>
       <c r="B587" t="s">
         <v>723</v>
@@ -15116,7 +15416,7 @@
     </row>
     <row r="588" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A588" s="27" t="s">
-        <v>1255</v>
+        <v>1772</v>
       </c>
       <c r="B588" t="s">
         <v>724</v>
@@ -15132,7 +15432,7 @@
     </row>
     <row r="589" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A589" s="27" t="s">
-        <v>1256</v>
+        <v>1773</v>
       </c>
       <c r="B589" t="s">
         <v>725</v>
@@ -15148,7 +15448,7 @@
     </row>
     <row r="590" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A590" s="27" t="s">
-        <v>1257</v>
+        <v>1774</v>
       </c>
       <c r="B590" t="s">
         <v>726</v>
@@ -15164,7 +15464,7 @@
     </row>
     <row r="591" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A591" s="27" t="s">
-        <v>1258</v>
+        <v>1775</v>
       </c>
       <c r="B591" t="s">
         <v>727</v>
@@ -15180,7 +15480,7 @@
     </row>
     <row r="592" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A592" s="27" t="s">
-        <v>1259</v>
+        <v>1776</v>
       </c>
       <c r="B592" t="s">
         <v>728</v>
@@ -15196,7 +15496,7 @@
     </row>
     <row r="593" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A593" s="27" t="s">
-        <v>1260</v>
+        <v>1777</v>
       </c>
       <c r="B593" t="s">
         <v>729</v>
@@ -15212,7 +15512,7 @@
     </row>
     <row r="594" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A594" s="27" t="s">
-        <v>1261</v>
+        <v>1778</v>
       </c>
       <c r="B594" t="s">
         <v>730</v>
@@ -15228,7 +15528,7 @@
     </row>
     <row r="595" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A595" s="27" t="s">
-        <v>1262</v>
+        <v>1779</v>
       </c>
       <c r="B595" t="s">
         <v>731</v>
@@ -15244,7 +15544,7 @@
     </row>
     <row r="596" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A596" s="27" t="s">
-        <v>1263</v>
+        <v>1780</v>
       </c>
       <c r="B596" t="s">
         <v>732</v>
@@ -15260,7 +15560,7 @@
     </row>
     <row r="597" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A597" s="27" t="s">
-        <v>1264</v>
+        <v>1781</v>
       </c>
       <c r="B597" t="s">
         <v>733</v>
@@ -15276,7 +15576,7 @@
     </row>
     <row r="598" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A598" s="27" t="s">
-        <v>1265</v>
+        <v>1782</v>
       </c>
       <c r="B598" t="s">
         <v>734</v>
@@ -15292,7 +15592,7 @@
     </row>
     <row r="599" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A599" s="27" t="s">
-        <v>1266</v>
+        <v>1783</v>
       </c>
       <c r="B599" t="s">
         <v>735</v>
@@ -15308,7 +15608,7 @@
     </row>
     <row r="600" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A600" s="27" t="s">
-        <v>1267</v>
+        <v>1784</v>
       </c>
       <c r="B600" t="s">
         <v>736</v>
@@ -15324,7 +15624,7 @@
     </row>
     <row r="601" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A601" s="27" t="s">
-        <v>1268</v>
+        <v>1785</v>
       </c>
       <c r="B601" t="s">
         <v>737</v>
@@ -15340,7 +15640,7 @@
     </row>
     <row r="602" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A602" s="27" t="s">
-        <v>1269</v>
+        <v>1786</v>
       </c>
       <c r="B602" t="s">
         <v>738</v>
@@ -15356,7 +15656,7 @@
     </row>
     <row r="603" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A603" s="27" t="s">
-        <v>1270</v>
+        <v>1787</v>
       </c>
       <c r="B603" t="s">
         <v>739</v>
@@ -15372,7 +15672,7 @@
     </row>
     <row r="604" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A604" s="27" t="s">
-        <v>1271</v>
+        <v>1788</v>
       </c>
       <c r="B604" t="s">
         <v>740</v>
@@ -15388,7 +15688,7 @@
     </row>
     <row r="605" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A605" s="27" t="s">
-        <v>1585</v>
+        <v>1789</v>
       </c>
       <c r="B605" t="s">
         <v>741</v>
@@ -15404,7 +15704,7 @@
     </row>
     <row r="606" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A606" s="27" t="s">
-        <v>1586</v>
+        <v>1790</v>
       </c>
       <c r="B606" t="s">
         <v>742</v>
@@ -15436,7 +15736,7 @@
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="27" t="s">
-        <v>1272</v>
+        <v>1791</v>
       </c>
       <c r="B608" t="s">
         <v>792</v>
@@ -15452,7 +15752,7 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="27" t="s">
-        <v>1273</v>
+        <v>1792</v>
       </c>
       <c r="B609" t="s">
         <v>793</v>
@@ -15468,7 +15768,7 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="27" t="s">
-        <v>1274</v>
+        <v>1793</v>
       </c>
       <c r="B610" t="s">
         <v>794</v>
@@ -15484,7 +15784,7 @@
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="27" t="s">
-        <v>1275</v>
+        <v>1794</v>
       </c>
       <c r="B611" t="s">
         <v>795</v>
@@ -15500,7 +15800,7 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="27" t="s">
-        <v>1276</v>
+        <v>1795</v>
       </c>
       <c r="B612" t="s">
         <v>796</v>
@@ -15516,7 +15816,7 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="27" t="s">
-        <v>1277</v>
+        <v>1796</v>
       </c>
       <c r="B613" t="s">
         <v>797</v>
@@ -16298,7 +16598,7 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" s="24" t="s">
-        <v>1697</v>
+        <v>1681</v>
       </c>
       <c r="B657" s="3" t="s">
         <v>1588</v>

--- a/MISSION_DATA/A13_photos.xlsx
+++ b/MISSION_DATA/A13_photos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo_13\MISSION_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Spaceflight\Apollo\Apollo 13\Apollo 13 Handheld photography\Apollo 13 GET Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A331F70-DE2C-4843-B328-B7878380191A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC0E930-2F9B-4A14-A5DD-CC6C4374306F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="4260" windowWidth="38535" windowHeight="23985" xr2:uid="{E7285D04-3DFB-428F-BD58-901528569A82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E7285D04-3DFB-428F-BD58-901528569A82}"/>
   </bookViews>
   <sheets>
     <sheet name="A13_photos" sheetId="15" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="16" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4660" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4660" uniqueCount="1804">
   <si>
     <t>LM &amp; S-IVB during Transposition and Docking</t>
   </si>
@@ -5462,6 +5462,24 @@
   </si>
   <si>
     <t>138:11:46</t>
+  </si>
+  <si>
+    <t>Edge of Command Module with small Lunar Disc and SM on extreme left of frame, taken by CDR through the LM docking window as pitch up continues</t>
+  </si>
+  <si>
+    <t>Swigert &amp; Lovell working on air lines in LM. Double LioH canister by ECS</t>
+  </si>
+  <si>
+    <t>Lunar disc looking east with Mare Smythii and Mare Undarum through the LM AOT. The CSM EVA floodlight is visible</t>
+  </si>
+  <si>
+    <t>Apollo 13 Saturn V spot lit on the launch pad</t>
+  </si>
+  <si>
+    <t>Earth, western Africa</t>
+  </si>
+  <si>
+    <t>Earth, eastern Atlantic Ocean</t>
   </si>
 </sst>
 </file>
@@ -5939,8 +5957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA25AE87-EBB6-4592-B83F-0D7E34AA70ED}">
   <dimension ref="A1:H704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E601" sqref="E601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6954,7 +6972,7 @@
       <c r="C62" s="22"/>
       <c r="D62" s="15"/>
       <c r="E62" s="17" t="s">
-        <v>1158</v>
+        <v>1798</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>1591</v>
@@ -6970,7 +6988,7 @@
       <c r="C63" s="22"/>
       <c r="D63" s="15"/>
       <c r="E63" s="17" t="s">
-        <v>1158</v>
+        <v>1798</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>1591</v>
@@ -6986,7 +7004,7 @@
       <c r="C64" s="22"/>
       <c r="D64" s="15"/>
       <c r="E64" s="17" t="s">
-        <v>1158</v>
+        <v>1798</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>1591</v>
@@ -7002,7 +7020,7 @@
       <c r="C65" s="22"/>
       <c r="D65" s="15"/>
       <c r="E65" s="17" t="s">
-        <v>1158</v>
+        <v>1798</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>1591</v>
@@ -7018,7 +7036,7 @@
       <c r="C66" s="22"/>
       <c r="D66" s="15"/>
       <c r="E66" s="17" t="s">
-        <v>1158</v>
+        <v>1798</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>1591</v>
@@ -7034,7 +7052,7 @@
       <c r="C67" s="22"/>
       <c r="D67" s="15"/>
       <c r="E67" s="17" t="s">
-        <v>1158</v>
+        <v>1798</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>1591</v>
@@ -7050,7 +7068,7 @@
       <c r="C68" s="22"/>
       <c r="D68" s="15"/>
       <c r="E68" s="17" t="s">
-        <v>1158</v>
+        <v>1798</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>1591</v>
@@ -7066,7 +7084,7 @@
       <c r="C69" s="22"/>
       <c r="D69" s="15"/>
       <c r="E69" s="17" t="s">
-        <v>1158</v>
+        <v>1798</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>1591</v>
@@ -7082,7 +7100,7 @@
       <c r="C70" s="22"/>
       <c r="D70" s="15"/>
       <c r="E70" s="17" t="s">
-        <v>1158</v>
+        <v>1798</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>1591</v>
@@ -10674,7 +10692,7 @@
       <c r="C294" s="14"/>
       <c r="D294" s="15"/>
       <c r="E294" s="17" t="s">
-        <v>102</v>
+        <v>1800</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>1591</v>
@@ -10690,7 +10708,7 @@
       <c r="C295" s="14"/>
       <c r="D295" s="15"/>
       <c r="E295" s="17" t="s">
-        <v>102</v>
+        <v>1800</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>1591</v>
@@ -10706,7 +10724,7 @@
       <c r="C296" s="14"/>
       <c r="D296" s="15"/>
       <c r="E296" s="17" t="s">
-        <v>102</v>
+        <v>1800</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>1591</v>
@@ -10722,7 +10740,7 @@
       <c r="C297" s="14"/>
       <c r="D297" s="15"/>
       <c r="E297" s="17" t="s">
-        <v>102</v>
+        <v>1800</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>1591</v>
@@ -10738,7 +10756,7 @@
       <c r="C298" s="14"/>
       <c r="D298" s="15"/>
       <c r="E298" s="17" t="s">
-        <v>102</v>
+        <v>1800</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>1591</v>
@@ -11428,7 +11446,7 @@
       <c r="C341" s="14"/>
       <c r="D341" s="15"/>
       <c r="E341" s="20" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>1591</v>
@@ -11445,7 +11463,7 @@
       <c r="C342" s="14"/>
       <c r="D342" s="15"/>
       <c r="E342" s="20" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>1591</v>
@@ -11461,7 +11479,7 @@
       <c r="C343" s="14"/>
       <c r="D343" s="15"/>
       <c r="E343" s="20" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>1591</v>
@@ -11478,7 +11496,7 @@
       <c r="C344" s="14"/>
       <c r="D344" s="15"/>
       <c r="E344" s="20" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>1591</v>
@@ -11494,7 +11512,7 @@
       <c r="C345" s="14"/>
       <c r="D345" s="15"/>
       <c r="E345" s="20" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>1591</v>
@@ -11510,7 +11528,7 @@
       <c r="C346" s="14"/>
       <c r="D346" s="15"/>
       <c r="E346" s="20" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>1591</v>
@@ -11527,7 +11545,7 @@
       <c r="C347" s="14"/>
       <c r="D347" s="15"/>
       <c r="E347" s="20" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>1591</v>
@@ -11543,7 +11561,7 @@
       <c r="C348" s="14"/>
       <c r="D348" s="15"/>
       <c r="E348" s="20" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>1591</v>
@@ -11559,7 +11577,7 @@
       <c r="C349" s="14"/>
       <c r="D349" s="15"/>
       <c r="E349" s="20" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>1591</v>
@@ -11575,7 +11593,7 @@
       <c r="C350" s="14"/>
       <c r="D350" s="15"/>
       <c r="E350" s="20" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>1591</v>
@@ -11592,7 +11610,7 @@
       <c r="C351" s="14"/>
       <c r="D351" s="15"/>
       <c r="E351" s="20" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>1591</v>
@@ -11608,7 +11626,7 @@
       <c r="C352" s="14"/>
       <c r="D352" s="15"/>
       <c r="E352" s="20" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>1591</v>
@@ -11625,7 +11643,7 @@
       <c r="C353" s="14"/>
       <c r="D353" s="15"/>
       <c r="E353" s="20" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>1591</v>
@@ -11642,7 +11660,7 @@
       <c r="C354" s="14"/>
       <c r="D354" s="15"/>
       <c r="E354" s="20" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>1591</v>
@@ -11659,7 +11677,7 @@
       <c r="C355" s="14"/>
       <c r="D355" s="15"/>
       <c r="E355" s="20" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>1591</v>
@@ -15135,7 +15153,7 @@
       <c r="C570" s="14"/>
       <c r="D570" s="15"/>
       <c r="E570" s="17" t="s">
-        <v>241</v>
+        <v>1799</v>
       </c>
       <c r="F570" s="1" t="s">
         <v>1591</v>
@@ -15151,7 +15169,7 @@
       <c r="C571" s="14"/>
       <c r="D571" s="15"/>
       <c r="E571" s="17" t="s">
-        <v>241</v>
+        <v>1799</v>
       </c>
       <c r="F571" s="1" t="s">
         <v>1591</v>
@@ -15167,7 +15185,7 @@
       <c r="C572" s="14"/>
       <c r="D572" s="15"/>
       <c r="E572" s="17" t="s">
-        <v>241</v>
+        <v>1799</v>
       </c>
       <c r="F572" s="1" t="s">
         <v>1591</v>
@@ -15376,7 +15394,7 @@
       <c r="C585" s="14"/>
       <c r="D585" s="15"/>
       <c r="E585" s="17" t="s">
-        <v>195</v>
+        <v>1802</v>
       </c>
       <c r="F585" s="1" t="s">
         <v>1591</v>
@@ -15392,7 +15410,7 @@
       <c r="C586" s="14"/>
       <c r="D586" s="15"/>
       <c r="E586" s="17" t="s">
-        <v>195</v>
+        <v>1802</v>
       </c>
       <c r="F586" s="1" t="s">
         <v>1591</v>
@@ -15408,7 +15426,7 @@
       <c r="C587" s="14"/>
       <c r="D587" s="15"/>
       <c r="E587" s="17" t="s">
-        <v>195</v>
+        <v>1802</v>
       </c>
       <c r="F587" s="1" t="s">
         <v>1591</v>
@@ -15472,7 +15490,7 @@
       <c r="C591" s="14"/>
       <c r="D591" s="15"/>
       <c r="E591" s="17" t="s">
-        <v>196</v>
+        <v>1803</v>
       </c>
       <c r="F591" s="1" t="s">
         <v>1591</v>
@@ -15488,7 +15506,7 @@
       <c r="C592" s="14"/>
       <c r="D592" s="15"/>
       <c r="E592" s="17" t="s">
-        <v>196</v>
+        <v>1803</v>
       </c>
       <c r="F592" s="1" t="s">
         <v>1591</v>
@@ -15504,7 +15522,7 @@
       <c r="C593" s="14"/>
       <c r="D593" s="15"/>
       <c r="E593" s="17" t="s">
-        <v>196</v>
+        <v>1803</v>
       </c>
       <c r="F593" s="1" t="s">
         <v>1591</v>
@@ -15520,7 +15538,7 @@
       <c r="C594" s="14"/>
       <c r="D594" s="15"/>
       <c r="E594" s="17" t="s">
-        <v>196</v>
+        <v>1803</v>
       </c>
       <c r="F594" s="1" t="s">
         <v>1591</v>
@@ -15536,7 +15554,7 @@
       <c r="C595" s="14"/>
       <c r="D595" s="15"/>
       <c r="E595" s="17" t="s">
-        <v>196</v>
+        <v>1803</v>
       </c>
       <c r="F595" s="1" t="s">
         <v>1591</v>
@@ -16016,7 +16034,7 @@
       </c>
       <c r="D624" s="11"/>
       <c r="E624" s="11" t="s">
-        <v>881</v>
+        <v>1801</v>
       </c>
       <c r="F624" s="1" t="s">
         <v>1591</v>
@@ -16755,7 +16773,7 @@
       <c r="A704" s="24"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E658">
+  <sortState ref="A2:E658">
     <sortCondition ref="B2:B658"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MISSION_DATA/A13_photos.xlsx
+++ b/MISSION_DATA/A13_photos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Spaceflight\Apollo\Apollo 13\Apollo 13 Handheld photography\Apollo 13 GET Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo_13\MISSION_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC0E930-2F9B-4A14-A5DD-CC6C4374306F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4323AC70-BAB5-4EB3-8E62-DAF63070B094}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E7285D04-3DFB-428F-BD58-901528569A82}"/>
+    <workbookView xWindow="10500" yWindow="4260" windowWidth="38535" windowHeight="23985" xr2:uid="{E7285D04-3DFB-428F-BD58-901528569A82}"/>
   </bookViews>
   <sheets>
     <sheet name="A13_photos" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4660" uniqueCount="1804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4660" uniqueCount="1806">
   <si>
     <t>LM &amp; S-IVB during Transposition and Docking</t>
   </si>
@@ -4852,78 +4852,18 @@
     <t>The impact site of the S-IVB as photographed by the &lt;a href="https://lunar.gsfc.nasa.gov/about.html" target="_blank"&gt; Lunar Reconnaissance Orbiter&lt;/a&gt; in 2010. A scientific paper was written in 1974 about &lt;a href="https://media.apolloinrealtime.org/A13/documents/Lindeman_et_al-1974-Journal_of_Geophysical_Research.pdf" target="_blank"&gt;The Interaction Between an Impact-Produced Neutral Gas Cloud and the Solar Wind at the Lunar Surface&lt;/a&gt;</t>
   </si>
   <si>
-    <t>138:06:58</t>
-  </si>
-  <si>
-    <t>138:07:11</t>
-  </si>
-  <si>
-    <t>138:07:15</t>
-  </si>
-  <si>
-    <t>138:07:27</t>
-  </si>
-  <si>
-    <t>138:07:36</t>
-  </si>
-  <si>
-    <t>138:07:40</t>
-  </si>
-  <si>
-    <t>138:07:43</t>
-  </si>
-  <si>
-    <t>138:07:54</t>
-  </si>
-  <si>
     <t>138:07:58</t>
   </si>
   <si>
-    <t>138:08:04</t>
-  </si>
-  <si>
-    <t>138:08:05</t>
-  </si>
-  <si>
-    <t>138:08:07</t>
-  </si>
-  <si>
     <t>138:08:11</t>
   </si>
   <si>
     <t>138:08:15</t>
   </si>
   <si>
-    <t>138:08:20</t>
-  </si>
-  <si>
-    <t>138:08:22</t>
-  </si>
-  <si>
-    <t>138:08:25</t>
-  </si>
-  <si>
-    <t>138:08:28</t>
-  </si>
-  <si>
-    <t>138:08:30</t>
-  </si>
-  <si>
-    <t>138:08:31</t>
-  </si>
-  <si>
-    <t>138:08:34</t>
-  </si>
-  <si>
     <t>138:08:36</t>
   </si>
   <si>
-    <t>138:08:37</t>
-  </si>
-  <si>
-    <t>138:08:39</t>
-  </si>
-  <si>
     <t>138:04:44</t>
   </si>
   <si>
@@ -4960,90 +4900,15 @@
     <t>138:05:32</t>
   </si>
   <si>
-    <t>138:08:52</t>
-  </si>
-  <si>
     <t>138:08:54</t>
   </si>
   <si>
-    <t>138:08:59</t>
-  </si>
-  <si>
-    <t>138:09:01</t>
-  </si>
-  <si>
-    <t>138:09:08</t>
-  </si>
-  <si>
-    <t>138:09:14</t>
-  </si>
-  <si>
-    <t>138:09:19</t>
-  </si>
-  <si>
-    <t>138:09:53</t>
-  </si>
-  <si>
-    <t>138:09:56</t>
-  </si>
-  <si>
-    <t>138:09:58</t>
-  </si>
-  <si>
-    <t>138:10:16</t>
-  </si>
-  <si>
-    <t>138:10:49</t>
-  </si>
-  <si>
-    <t>138:10:51</t>
-  </si>
-  <si>
     <t>138:10:53</t>
   </si>
   <si>
-    <t>138:10:57</t>
-  </si>
-  <si>
-    <t>138:10:59</t>
-  </si>
-  <si>
-    <t>138:11:05</t>
-  </si>
-  <si>
     <t>138:11:09</t>
   </si>
   <si>
-    <t>138:11:11</t>
-  </si>
-  <si>
-    <t>138:11:17</t>
-  </si>
-  <si>
-    <t>138:11:19</t>
-  </si>
-  <si>
-    <t>138:11:21</t>
-  </si>
-  <si>
-    <t>138:11:37</t>
-  </si>
-  <si>
-    <t>138:11:41</t>
-  </si>
-  <si>
-    <t>138:11:50</t>
-  </si>
-  <si>
-    <t>138:12:01</t>
-  </si>
-  <si>
-    <t>138:12:03</t>
-  </si>
-  <si>
-    <t>138:12:06</t>
-  </si>
-  <si>
     <t>141:29:47</t>
   </si>
   <si>
@@ -5461,9 +5326,6 @@
     <t>137:17:04</t>
   </si>
   <si>
-    <t>138:11:46</t>
-  </si>
-  <si>
     <t>Edge of Command Module with small Lunar Disc and SM on extreme left of frame, taken by CDR through the LM docking window as pitch up continues</t>
   </si>
   <si>
@@ -5480,6 +5342,150 @@
   </si>
   <si>
     <t>Earth, eastern Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>138:07:56</t>
+  </si>
+  <si>
+    <t>138:08:27</t>
+  </si>
+  <si>
+    <t>138:08:40</t>
+  </si>
+  <si>
+    <t>138:08:43</t>
+  </si>
+  <si>
+    <t>138:08:58</t>
+  </si>
+  <si>
+    <t>138:09:05</t>
+  </si>
+  <si>
+    <t>138:09:07</t>
+  </si>
+  <si>
+    <t>138:09:11</t>
+  </si>
+  <si>
+    <t>138:09:15</t>
+  </si>
+  <si>
+    <t>138:09:20</t>
+  </si>
+  <si>
+    <t>138:09:25</t>
+  </si>
+  <si>
+    <t>138:09:28</t>
+  </si>
+  <si>
+    <t>138:09:30</t>
+  </si>
+  <si>
+    <t>138:09:31</t>
+  </si>
+  <si>
+    <t>138:09:34</t>
+  </si>
+  <si>
+    <t>138:09:36</t>
+  </si>
+  <si>
+    <t>138:09:37</t>
+  </si>
+  <si>
+    <t>138:09:39</t>
+  </si>
+  <si>
+    <t>138:09:52</t>
+  </si>
+  <si>
+    <t>138:09:54</t>
+  </si>
+  <si>
+    <t>138:09:59</t>
+  </si>
+  <si>
+    <t>138:10:01</t>
+  </si>
+  <si>
+    <t>138:10:04</t>
+  </si>
+  <si>
+    <t>138:10:08</t>
+  </si>
+  <si>
+    <t>138:10:14</t>
+  </si>
+  <si>
+    <t>138:10:19</t>
+  </si>
+  <si>
+    <t>138:10:56</t>
+  </si>
+  <si>
+    <t>138:10:58</t>
+  </si>
+  <si>
+    <t>138:11:12</t>
+  </si>
+  <si>
+    <t>138:11:16</t>
+  </si>
+  <si>
+    <t>138:11:49</t>
+  </si>
+  <si>
+    <t>138:11:51</t>
+  </si>
+  <si>
+    <t>138:11:53</t>
+  </si>
+  <si>
+    <t>138:11:57</t>
+  </si>
+  <si>
+    <t>138:11:59</t>
+  </si>
+  <si>
+    <t>138:12:05</t>
+  </si>
+  <si>
+    <t>138:12:09</t>
+  </si>
+  <si>
+    <t>138:12:11</t>
+  </si>
+  <si>
+    <t>138:12:17</t>
+  </si>
+  <si>
+    <t>138:12:19</t>
+  </si>
+  <si>
+    <t>138:12:21</t>
+  </si>
+  <si>
+    <t>138:12:37</t>
+  </si>
+  <si>
+    <t>138:12:41</t>
+  </si>
+  <si>
+    <t>138:12:46</t>
+  </si>
+  <si>
+    <t>138:12:50</t>
+  </si>
+  <si>
+    <t>138:13:01</t>
+  </si>
+  <si>
+    <t>138:13:03</t>
+  </si>
+  <si>
+    <t>138:13:06</t>
   </si>
 </sst>
 </file>
@@ -5566,7 +5572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5639,6 +5645,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -5958,7 +5967,7 @@
   <dimension ref="A1:H704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E601" sqref="E601"/>
+      <selection activeCell="A10" sqref="A10:A613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6131,8 +6140,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>1183</v>
+      <c r="A10" s="29" t="s">
+        <v>1758</v>
       </c>
       <c r="B10" t="s">
         <v>748</v>
@@ -6147,7 +6156,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="29" t="s">
         <v>1594</v>
       </c>
       <c r="B11" t="s">
@@ -6163,7 +6172,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="29" t="s">
         <v>1595</v>
       </c>
       <c r="B12" t="s">
@@ -6179,7 +6188,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="29" t="s">
         <v>1596</v>
       </c>
       <c r="B13" t="s">
@@ -6195,8 +6204,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>1597</v>
+      <c r="A14" s="29" t="s">
+        <v>1759</v>
       </c>
       <c r="B14" t="s">
         <v>753</v>
@@ -6211,8 +6220,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>1598</v>
+      <c r="A15" s="29" t="s">
+        <v>1597</v>
       </c>
       <c r="B15" t="s">
         <v>754</v>
@@ -6227,8 +6236,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>1599</v>
+      <c r="A16" s="29" t="s">
+        <v>1760</v>
       </c>
       <c r="B16" t="s">
         <v>755</v>
@@ -6243,8 +6252,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>1600</v>
+      <c r="A17" s="29" t="s">
+        <v>1761</v>
       </c>
       <c r="B17" t="s">
         <v>756</v>
@@ -6259,8 +6268,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>1186</v>
+      <c r="A18" s="29" t="s">
+        <v>1187</v>
       </c>
       <c r="B18" t="s">
         <v>758</v>
@@ -6275,8 +6284,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>1601</v>
+      <c r="A19" s="29" t="s">
+        <v>1610</v>
       </c>
       <c r="B19" t="s">
         <v>760</v>
@@ -6291,8 +6300,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>1602</v>
+      <c r="A20" s="29" t="s">
+        <v>1762</v>
       </c>
       <c r="B20" t="s">
         <v>762</v>
@@ -6307,8 +6316,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>1603</v>
+      <c r="A21" s="29" t="s">
+        <v>1188</v>
       </c>
       <c r="B21" t="s">
         <v>764</v>
@@ -6323,8 +6332,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>1604</v>
+      <c r="A22" s="29" t="s">
+        <v>1763</v>
       </c>
       <c r="B22" t="s">
         <v>766</v>
@@ -6339,8 +6348,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>1605</v>
+      <c r="A23" s="29" t="s">
+        <v>1764</v>
       </c>
       <c r="B23" t="s">
         <v>768</v>
@@ -6355,8 +6364,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>1606</v>
+      <c r="A24" s="29" t="s">
+        <v>1765</v>
       </c>
       <c r="B24" t="s">
         <v>770</v>
@@ -6371,8 +6380,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>1607</v>
+      <c r="A25" s="29" t="s">
+        <v>1766</v>
       </c>
       <c r="B25" t="s">
         <v>772</v>
@@ -6387,8 +6396,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>1608</v>
+      <c r="A26" s="29" t="s">
+        <v>1767</v>
       </c>
       <c r="B26" t="s">
         <v>774</v>
@@ -6403,8 +6412,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>1609</v>
+      <c r="A27" s="29" t="s">
+        <v>1553</v>
       </c>
       <c r="B27" t="s">
         <v>776</v>
@@ -6419,8 +6428,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>1610</v>
+      <c r="A28" s="29" t="s">
+        <v>1768</v>
       </c>
       <c r="B28" t="s">
         <v>778</v>
@@ -6435,8 +6444,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>1611</v>
+      <c r="A29" s="29" t="s">
+        <v>1769</v>
       </c>
       <c r="B29" t="s">
         <v>779</v>
@@ -6451,8 +6460,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>1612</v>
+      <c r="A30" s="29" t="s">
+        <v>1770</v>
       </c>
       <c r="B30" t="s">
         <v>781</v>
@@ -6467,8 +6476,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>1613</v>
+      <c r="A31" s="29" t="s">
+        <v>1771</v>
       </c>
       <c r="B31" t="s">
         <v>1159</v>
@@ -6483,8 +6492,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>1614</v>
+      <c r="A32" s="29" t="s">
+        <v>1772</v>
       </c>
       <c r="B32" t="s">
         <v>783</v>
@@ -6499,8 +6508,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>1615</v>
+      <c r="A33" s="29" t="s">
+        <v>1773</v>
       </c>
       <c r="B33" t="s">
         <v>785</v>
@@ -6515,8 +6524,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>1616</v>
+      <c r="A34" s="29" t="s">
+        <v>1774</v>
       </c>
       <c r="B34" t="s">
         <v>787</v>
@@ -6531,8 +6540,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>1617</v>
+      <c r="A35" s="29" t="s">
+        <v>1775</v>
       </c>
       <c r="B35" t="s">
         <v>788</v>
@@ -6547,7 +6556,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="29" t="s">
         <v>1161</v>
       </c>
       <c r="B36" t="s">
@@ -6563,7 +6572,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="29" t="s">
         <v>1162</v>
       </c>
       <c r="B37" t="s">
@@ -6579,7 +6588,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="29" t="s">
         <v>1163</v>
       </c>
       <c r="B38" t="s">
@@ -6595,7 +6604,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="29" t="s">
         <v>1164</v>
       </c>
       <c r="B39" t="s">
@@ -6611,7 +6620,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="29" t="s">
         <v>1165</v>
       </c>
       <c r="B40" t="s">
@@ -6627,7 +6636,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="29" t="s">
         <v>1166</v>
       </c>
       <c r="B41" t="s">
@@ -6643,7 +6652,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="29" t="s">
         <v>1167</v>
       </c>
       <c r="B42" t="s">
@@ -6659,7 +6668,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="29" t="s">
         <v>1168</v>
       </c>
       <c r="B43" t="s">
@@ -6675,7 +6684,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="29" t="s">
         <v>1169</v>
       </c>
       <c r="B44" t="s">
@@ -6691,7 +6700,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="29" t="s">
         <v>1170</v>
       </c>
       <c r="B45" t="s">
@@ -6707,7 +6716,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="29" t="s">
         <v>1530</v>
       </c>
       <c r="B46" t="s">
@@ -6723,7 +6732,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="29" t="s">
         <v>1531</v>
       </c>
       <c r="B47" t="s">
@@ -6739,7 +6748,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="29" t="s">
         <v>1532</v>
       </c>
       <c r="B48" t="s">
@@ -6755,7 +6764,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="29" t="s">
         <v>1533</v>
       </c>
       <c r="B49" t="s">
@@ -6771,7 +6780,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="29" t="s">
         <v>1534</v>
       </c>
       <c r="B50" t="s">
@@ -6787,7 +6796,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="29" t="s">
         <v>1535</v>
       </c>
       <c r="B51" t="s">
@@ -6803,7 +6812,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="29" t="s">
         <v>1536</v>
       </c>
       <c r="B52" t="s">
@@ -6819,7 +6828,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="29" t="s">
         <v>1537</v>
       </c>
       <c r="B53" t="s">
@@ -6835,8 +6844,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="27" t="s">
-        <v>1618</v>
+      <c r="A54" s="29" t="s">
+        <v>1598</v>
       </c>
       <c r="B54" t="s">
         <v>1131</v>
@@ -6851,7 +6860,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="29" t="s">
         <v>1173</v>
       </c>
       <c r="B55" t="s">
@@ -6867,7 +6876,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="29" t="s">
         <v>1174</v>
       </c>
       <c r="B56" t="s">
@@ -6883,8 +6892,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
-        <v>1619</v>
+      <c r="A57" s="29" t="s">
+        <v>1599</v>
       </c>
       <c r="B57" t="s">
         <v>1128</v>
@@ -6899,8 +6908,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="27" t="s">
-        <v>1620</v>
+      <c r="A58" s="29" t="s">
+        <v>1600</v>
       </c>
       <c r="B58" t="s">
         <v>1129</v>
@@ -6915,8 +6924,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
-        <v>1621</v>
+      <c r="A59" s="29" t="s">
+        <v>1601</v>
       </c>
       <c r="B59" t="s">
         <v>1130</v>
@@ -6931,7 +6940,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="29" t="s">
         <v>1176</v>
       </c>
       <c r="B60" t="s">
@@ -6947,8 +6956,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="27" t="s">
-        <v>1622</v>
+      <c r="A61" s="29" t="s">
+        <v>1602</v>
       </c>
       <c r="B61" t="s">
         <v>1125</v>
@@ -6963,7 +6972,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="29" t="s">
         <v>1177</v>
       </c>
       <c r="B62" t="s">
@@ -6972,15 +6981,15 @@
       <c r="C62" s="22"/>
       <c r="D62" s="15"/>
       <c r="E62" s="17" t="s">
-        <v>1798</v>
+        <v>1752</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
-        <v>1623</v>
+      <c r="A63" s="29" t="s">
+        <v>1603</v>
       </c>
       <c r="B63" t="s">
         <v>1123</v>
@@ -6988,14 +6997,14 @@
       <c r="C63" s="22"/>
       <c r="D63" s="15"/>
       <c r="E63" s="17" t="s">
-        <v>1798</v>
+        <v>1752</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="29" t="s">
         <v>1179</v>
       </c>
       <c r="B64" t="s">
@@ -7004,15 +7013,15 @@
       <c r="C64" s="22"/>
       <c r="D64" s="15"/>
       <c r="E64" s="17" t="s">
-        <v>1798</v>
+        <v>1752</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
-        <v>1624</v>
+      <c r="A65" s="29" t="s">
+        <v>1604</v>
       </c>
       <c r="B65" t="s">
         <v>1119</v>
@@ -7020,15 +7029,15 @@
       <c r="C65" s="22"/>
       <c r="D65" s="15"/>
       <c r="E65" s="17" t="s">
-        <v>1798</v>
+        <v>1752</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="27" t="s">
-        <v>1625</v>
+      <c r="A66" s="29" t="s">
+        <v>1605</v>
       </c>
       <c r="B66" t="s">
         <v>1120</v>
@@ -7036,15 +7045,15 @@
       <c r="C66" s="22"/>
       <c r="D66" s="15"/>
       <c r="E66" s="17" t="s">
-        <v>1798</v>
+        <v>1752</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
-        <v>1626</v>
+      <c r="A67" s="29" t="s">
+        <v>1606</v>
       </c>
       <c r="B67" t="s">
         <v>1121</v>
@@ -7052,15 +7061,15 @@
       <c r="C67" s="22"/>
       <c r="D67" s="15"/>
       <c r="E67" s="17" t="s">
-        <v>1798</v>
+        <v>1752</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
-        <v>1627</v>
+      <c r="A68" s="29" t="s">
+        <v>1607</v>
       </c>
       <c r="B68" t="s">
         <v>1116</v>
@@ -7068,15 +7077,15 @@
       <c r="C68" s="22"/>
       <c r="D68" s="15"/>
       <c r="E68" s="17" t="s">
-        <v>1798</v>
+        <v>1752</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="27" t="s">
-        <v>1628</v>
+      <c r="A69" s="29" t="s">
+        <v>1608</v>
       </c>
       <c r="B69" t="s">
         <v>1117</v>
@@ -7084,15 +7093,15 @@
       <c r="C69" s="22"/>
       <c r="D69" s="15"/>
       <c r="E69" s="17" t="s">
-        <v>1798</v>
+        <v>1752</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="27" t="s">
-        <v>1629</v>
+      <c r="A70" s="29" t="s">
+        <v>1609</v>
       </c>
       <c r="B70" t="s">
         <v>1118</v>
@@ -7100,15 +7109,15 @@
       <c r="C70" s="22"/>
       <c r="D70" s="15"/>
       <c r="E70" s="17" t="s">
-        <v>1798</v>
+        <v>1752</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
-        <v>1630</v>
+      <c r="A71" s="29" t="s">
+        <v>1776</v>
       </c>
       <c r="B71" t="s">
         <v>1113</v>
@@ -7123,8 +7132,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
-        <v>1631</v>
+      <c r="A72" s="29" t="s">
+        <v>1777</v>
       </c>
       <c r="B72" t="s">
         <v>1114</v>
@@ -7139,8 +7148,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="27" t="s">
-        <v>1632</v>
+      <c r="A73" s="29" t="s">
+        <v>1778</v>
       </c>
       <c r="B73" t="s">
         <v>1115</v>
@@ -7155,8 +7164,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
-        <v>1633</v>
+      <c r="A74" s="29" t="s">
+        <v>1779</v>
       </c>
       <c r="B74" t="s">
         <v>1110</v>
@@ -7171,8 +7180,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="27" t="s">
-        <v>1188</v>
+      <c r="A75" s="29" t="s">
+        <v>1780</v>
       </c>
       <c r="B75" t="s">
         <v>1111</v>
@@ -7187,8 +7196,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="27" t="s">
-        <v>1634</v>
+      <c r="A76" s="29" t="s">
+        <v>1781</v>
       </c>
       <c r="B76" t="s">
         <v>1112</v>
@@ -7203,8 +7212,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
-        <v>1635</v>
+      <c r="A77" s="29" t="s">
+        <v>1782</v>
       </c>
       <c r="B77" t="s">
         <v>1109</v>
@@ -7219,8 +7228,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="27" t="s">
-        <v>1636</v>
+      <c r="A78" s="29" t="s">
+        <v>1783</v>
       </c>
       <c r="B78" t="s">
         <v>1108</v>
@@ -7235,8 +7244,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="27" t="s">
-        <v>1637</v>
+      <c r="A79" s="29" t="s">
+        <v>1611</v>
       </c>
       <c r="B79" t="s">
         <v>1107</v>
@@ -7251,8 +7260,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="27" t="s">
-        <v>1638</v>
+      <c r="A80" s="29" t="s">
+        <v>1784</v>
       </c>
       <c r="B80" t="s">
         <v>744</v>
@@ -7267,8 +7276,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="27" t="s">
-        <v>1639</v>
+      <c r="A81" s="29" t="s">
+        <v>1785</v>
       </c>
       <c r="B81" t="s">
         <v>745</v>
@@ -7283,8 +7292,8 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="27" t="s">
-        <v>1557</v>
+      <c r="A82" s="29" t="s">
+        <v>1612</v>
       </c>
       <c r="B82" t="s">
         <v>746</v>
@@ -7299,8 +7308,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
-        <v>1558</v>
+      <c r="A83" s="29" t="s">
+        <v>1786</v>
       </c>
       <c r="B83" t="s">
         <v>747</v>
@@ -7315,8 +7324,8 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="27" t="s">
-        <v>1640</v>
+      <c r="A84" s="29" t="s">
+        <v>1787</v>
       </c>
       <c r="B84" t="s">
         <v>749</v>
@@ -7331,8 +7340,8 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="27" t="s">
-        <v>1641</v>
+      <c r="A85" s="29" t="s">
+        <v>1788</v>
       </c>
       <c r="B85" t="s">
         <v>757</v>
@@ -7347,8 +7356,8 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="27" t="s">
-        <v>1642</v>
+      <c r="A86" s="29" t="s">
+        <v>1789</v>
       </c>
       <c r="B86" t="s">
         <v>759</v>
@@ -7363,8 +7372,8 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="27" t="s">
-        <v>1643</v>
+      <c r="A87" s="29" t="s">
+        <v>1790</v>
       </c>
       <c r="B87" t="s">
         <v>761</v>
@@ -7379,8 +7388,8 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="27" t="s">
-        <v>1644</v>
+      <c r="A88" s="29" t="s">
+        <v>1791</v>
       </c>
       <c r="B88" t="s">
         <v>763</v>
@@ -7395,8 +7404,8 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="27" t="s">
-        <v>1645</v>
+      <c r="A89" s="29" t="s">
+        <v>1792</v>
       </c>
       <c r="B89" t="s">
         <v>765</v>
@@ -7411,8 +7420,8 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="27" t="s">
-        <v>1646</v>
+      <c r="A90" s="29" t="s">
+        <v>1793</v>
       </c>
       <c r="B90" t="s">
         <v>767</v>
@@ -7427,8 +7436,8 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="27" t="s">
-        <v>1647</v>
+      <c r="A91" s="29" t="s">
+        <v>1794</v>
       </c>
       <c r="B91" t="s">
         <v>769</v>
@@ -7443,8 +7452,8 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="27" t="s">
-        <v>1648</v>
+      <c r="A92" s="29" t="s">
+        <v>1795</v>
       </c>
       <c r="B92" t="s">
         <v>771</v>
@@ -7459,8 +7468,8 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="27" t="s">
-        <v>1649</v>
+      <c r="A93" s="29" t="s">
+        <v>1796</v>
       </c>
       <c r="B93" t="s">
         <v>773</v>
@@ -7475,8 +7484,8 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="27" t="s">
-        <v>1650</v>
+      <c r="A94" s="29" t="s">
+        <v>1797</v>
       </c>
       <c r="B94" t="s">
         <v>775</v>
@@ -7491,8 +7500,8 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="27" t="s">
-        <v>1651</v>
+      <c r="A95" s="29" t="s">
+        <v>1798</v>
       </c>
       <c r="B95" t="s">
         <v>777</v>
@@ -7507,8 +7516,8 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="27" t="s">
-        <v>1652</v>
+      <c r="A96" s="29" t="s">
+        <v>1799</v>
       </c>
       <c r="B96" t="s">
         <v>780</v>
@@ -7523,8 +7532,8 @@
       </c>
     </row>
     <row r="97" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="27" t="s">
-        <v>1653</v>
+      <c r="A97" s="29" t="s">
+        <v>1800</v>
       </c>
       <c r="B97" t="s">
         <v>782</v>
@@ -7539,8 +7548,8 @@
       </c>
     </row>
     <row r="98" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="27" t="s">
-        <v>1797</v>
+      <c r="A98" s="29" t="s">
+        <v>1801</v>
       </c>
       <c r="B98" t="s">
         <v>784</v>
@@ -7555,8 +7564,8 @@
       </c>
     </row>
     <row r="99" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="27" t="s">
-        <v>1654</v>
+      <c r="A99" s="29" t="s">
+        <v>1802</v>
       </c>
       <c r="B99" t="s">
         <v>786</v>
@@ -7571,8 +7580,8 @@
       </c>
     </row>
     <row r="100" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="27" t="s">
-        <v>1655</v>
+      <c r="A100" s="29" t="s">
+        <v>1803</v>
       </c>
       <c r="B100" t="s">
         <v>789</v>
@@ -7587,8 +7596,8 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="27" t="s">
-        <v>1656</v>
+      <c r="A101" s="29" t="s">
+        <v>1804</v>
       </c>
       <c r="B101" t="s">
         <v>790</v>
@@ -7603,8 +7612,8 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="27" t="s">
-        <v>1657</v>
+      <c r="A102" s="29" t="s">
+        <v>1805</v>
       </c>
       <c r="B102" t="s">
         <v>791</v>
@@ -7619,7 +7628,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="27" t="s">
+      <c r="A103" s="29" t="s">
         <v>1189</v>
       </c>
       <c r="B103" t="s">
@@ -7635,8 +7644,8 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="27" t="s">
-        <v>1658</v>
+      <c r="A104" s="29" t="s">
+        <v>1613</v>
       </c>
       <c r="B104" t="s">
         <v>799</v>
@@ -7651,7 +7660,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="27" t="s">
+      <c r="A105" s="29" t="s">
         <v>1190</v>
       </c>
       <c r="B105" t="s">
@@ -7667,8 +7676,8 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="27" t="s">
-        <v>1659</v>
+      <c r="A106" s="29" t="s">
+        <v>1614</v>
       </c>
       <c r="B106" t="s">
         <v>801</v>
@@ -7683,8 +7692,8 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="27" t="s">
-        <v>1660</v>
+      <c r="A107" s="29" t="s">
+        <v>1615</v>
       </c>
       <c r="B107" t="s">
         <v>802</v>
@@ -7699,7 +7708,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="27" t="s">
+      <c r="A108" s="29" t="s">
         <v>1191</v>
       </c>
       <c r="B108" t="s">
@@ -7715,8 +7724,8 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="27" t="s">
-        <v>1661</v>
+      <c r="A109" s="29" t="s">
+        <v>1616</v>
       </c>
       <c r="B109" t="s">
         <v>804</v>
@@ -7731,8 +7740,8 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="27" t="s">
-        <v>1662</v>
+      <c r="A110" s="29" t="s">
+        <v>1617</v>
       </c>
       <c r="B110" t="s">
         <v>805</v>
@@ -7747,8 +7756,8 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="27" t="s">
-        <v>1663</v>
+      <c r="A111" s="29" t="s">
+        <v>1618</v>
       </c>
       <c r="B111" t="s">
         <v>806</v>
@@ -7763,7 +7772,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="27" t="s">
+      <c r="A112" s="29" t="s">
         <v>1192</v>
       </c>
       <c r="B112" t="s">
@@ -7779,7 +7788,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="27" t="s">
+      <c r="A113" s="29" t="s">
         <v>1193</v>
       </c>
       <c r="B113" t="s">
@@ -7795,7 +7804,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="27" t="s">
+      <c r="A114" s="29" t="s">
         <v>1194</v>
       </c>
       <c r="B114" t="s">
@@ -7811,7 +7820,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="27" t="s">
+      <c r="A115" s="29" t="s">
         <v>1195</v>
       </c>
       <c r="B115" t="s">
@@ -7827,7 +7836,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="27" t="s">
+      <c r="A116" s="29" t="s">
         <v>1196</v>
       </c>
       <c r="B116" t="s">
@@ -7843,7 +7852,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="27" t="s">
+      <c r="A117" s="29" t="s">
         <v>1197</v>
       </c>
       <c r="B117" t="s">
@@ -7859,7 +7868,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="29" t="s">
         <v>1198</v>
       </c>
       <c r="B118" t="s">
@@ -7875,8 +7884,8 @@
       </c>
     </row>
     <row r="119" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="27" t="s">
-        <v>1664</v>
+      <c r="A119" s="29" t="s">
+        <v>1619</v>
       </c>
       <c r="B119" t="s">
         <v>814</v>
@@ -7891,8 +7900,8 @@
       </c>
     </row>
     <row r="120" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="27" t="s">
-        <v>1665</v>
+      <c r="A120" s="29" t="s">
+        <v>1620</v>
       </c>
       <c r="B120" t="s">
         <v>815</v>
@@ -7907,7 +7916,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="27" t="s">
+      <c r="A121" s="29" t="s">
         <v>1564</v>
       </c>
       <c r="B121" t="s">
@@ -7923,8 +7932,8 @@
       </c>
     </row>
     <row r="122" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="27" t="s">
-        <v>1666</v>
+      <c r="A122" s="29" t="s">
+        <v>1621</v>
       </c>
       <c r="B122" t="s">
         <v>817</v>
@@ -7939,7 +7948,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="27" t="s">
+      <c r="A123" s="29" t="s">
         <v>1565</v>
       </c>
       <c r="B123" t="s">
@@ -7955,8 +7964,8 @@
       </c>
     </row>
     <row r="124" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="27" t="s">
-        <v>1667</v>
+      <c r="A124" s="29" t="s">
+        <v>1622</v>
       </c>
       <c r="B124" t="s">
         <v>819</v>
@@ -7971,8 +7980,8 @@
       </c>
     </row>
     <row r="125" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="27" t="s">
-        <v>1668</v>
+      <c r="A125" s="29" t="s">
+        <v>1623</v>
       </c>
       <c r="B125" t="s">
         <v>820</v>
@@ -7987,8 +7996,8 @@
       </c>
     </row>
     <row r="126" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="27" t="s">
-        <v>1669</v>
+      <c r="A126" s="29" t="s">
+        <v>1624</v>
       </c>
       <c r="B126" t="s">
         <v>821</v>
@@ -8003,8 +8012,8 @@
       </c>
     </row>
     <row r="127" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="27" t="s">
-        <v>1670</v>
+      <c r="A127" s="29" t="s">
+        <v>1625</v>
       </c>
       <c r="B127" t="s">
         <v>822</v>
@@ -8019,8 +8028,8 @@
       </c>
     </row>
     <row r="128" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="27" t="s">
-        <v>1671</v>
+      <c r="A128" s="29" t="s">
+        <v>1626</v>
       </c>
       <c r="B128" t="s">
         <v>823</v>
@@ -8035,8 +8044,8 @@
       </c>
     </row>
     <row r="129" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="27" t="s">
-        <v>1672</v>
+      <c r="A129" s="29" t="s">
+        <v>1627</v>
       </c>
       <c r="B129" t="s">
         <v>824</v>
@@ -8051,8 +8060,8 @@
       </c>
     </row>
     <row r="130" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="27" t="s">
-        <v>1673</v>
+      <c r="A130" s="29" t="s">
+        <v>1628</v>
       </c>
       <c r="B130" t="s">
         <v>825</v>
@@ -8067,7 +8076,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="27" t="s">
+      <c r="A131" s="29" t="s">
         <v>1302</v>
       </c>
       <c r="B131" t="s">
@@ -8083,7 +8092,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="27" t="s">
+      <c r="A132" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B132" t="s">
@@ -8099,7 +8108,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="27" t="s">
+      <c r="A133" s="29" t="s">
         <v>1480</v>
       </c>
       <c r="B133" t="s">
@@ -8115,7 +8124,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="27" t="s">
+      <c r="A134" s="29" t="s">
         <v>1481</v>
       </c>
       <c r="B134" t="s">
@@ -8131,7 +8140,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="27" t="s">
+      <c r="A135" s="29" t="s">
         <v>1482</v>
       </c>
       <c r="B135" t="s">
@@ -8147,7 +8156,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="27" t="s">
+      <c r="A136" s="29" t="s">
         <v>1483</v>
       </c>
       <c r="B136" t="s">
@@ -8163,7 +8172,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="27" t="s">
+      <c r="A137" s="29" t="s">
         <v>1484</v>
       </c>
       <c r="B137" t="s">
@@ -8179,7 +8188,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="27" t="s">
+      <c r="A138" s="29" t="s">
         <v>1485</v>
       </c>
       <c r="B138" t="s">
@@ -8195,7 +8204,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="27" t="s">
+      <c r="A139" s="29" t="s">
         <v>1486</v>
       </c>
       <c r="B139" t="s">
@@ -8211,7 +8220,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="27" t="s">
+      <c r="A140" s="29" t="s">
         <v>1487</v>
       </c>
       <c r="B140" t="s">
@@ -8227,7 +8236,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="27" t="s">
+      <c r="A141" s="29" t="s">
         <v>1488</v>
       </c>
       <c r="B141" t="s">
@@ -8243,7 +8252,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="27" t="s">
+      <c r="A142" s="29" t="s">
         <v>1303</v>
       </c>
       <c r="B142" t="s">
@@ -8259,7 +8268,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="27" t="s">
+      <c r="A143" s="29" t="s">
         <v>1304</v>
       </c>
       <c r="B143" t="s">
@@ -8275,7 +8284,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="27" t="s">
+      <c r="A144" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B144" t="s">
@@ -8291,7 +8300,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="27" t="s">
+      <c r="A145" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B145" t="s">
@@ -8307,7 +8316,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="27" t="s">
+      <c r="A146" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B146" t="s">
@@ -8323,8 +8332,8 @@
       </c>
     </row>
     <row r="147" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="27" t="s">
-        <v>1674</v>
+      <c r="A147" s="29" t="s">
+        <v>1629</v>
       </c>
       <c r="B147" t="s">
         <v>283</v>
@@ -8339,8 +8348,8 @@
       </c>
     </row>
     <row r="148" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="27" t="s">
-        <v>1675</v>
+      <c r="A148" s="29" t="s">
+        <v>1630</v>
       </c>
       <c r="B148" t="s">
         <v>284</v>
@@ -8355,7 +8364,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="27" t="s">
+      <c r="A149" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B149" t="s">
@@ -8371,7 +8380,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="27" t="s">
+      <c r="A150" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B150" t="s">
@@ -8387,7 +8396,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="27" t="s">
+      <c r="A151" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B151" t="s">
@@ -8403,7 +8412,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="27" t="s">
+      <c r="A152" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B152" t="s">
@@ -8419,7 +8428,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="27" t="s">
+      <c r="A153" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B153" t="s">
@@ -8435,7 +8444,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="27" t="s">
+      <c r="A154" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B154" t="s">
@@ -8451,7 +8460,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="27" t="s">
+      <c r="A155" s="29" t="s">
         <v>1305</v>
       </c>
       <c r="B155" t="s">
@@ -8467,7 +8476,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="27" t="s">
+      <c r="A156" s="29" t="s">
         <v>1306</v>
       </c>
       <c r="B156" t="s">
@@ -8483,7 +8492,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="27" t="s">
+      <c r="A157" s="29" t="s">
         <v>1307</v>
       </c>
       <c r="B157" t="s">
@@ -8499,7 +8508,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="27" t="s">
+      <c r="A158" s="29" t="s">
         <v>75</v>
       </c>
       <c r="B158" t="s">
@@ -8515,7 +8524,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="27" t="s">
+      <c r="A159" s="29" t="s">
         <v>76</v>
       </c>
       <c r="B159" t="s">
@@ -8531,7 +8540,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="27" t="s">
+      <c r="A160" s="29" t="s">
         <v>77</v>
       </c>
       <c r="B160" t="s">
@@ -8547,7 +8556,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="27" t="s">
+      <c r="A161" s="29" t="s">
         <v>1023</v>
       </c>
       <c r="B161" t="s">
@@ -8563,7 +8572,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="27" t="s">
+      <c r="A162" s="29" t="s">
         <v>1024</v>
       </c>
       <c r="B162" t="s">
@@ -8579,7 +8588,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="27" t="s">
+      <c r="A163" s="29" t="s">
         <v>1025</v>
       </c>
       <c r="B163" t="s">
@@ -8595,7 +8604,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="27" t="s">
+      <c r="A164" s="29" t="s">
         <v>1026</v>
       </c>
       <c r="B164" t="s">
@@ -8611,7 +8620,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="27" t="s">
+      <c r="A165" s="29" t="s">
         <v>1027</v>
       </c>
       <c r="B165" t="s">
@@ -8627,7 +8636,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="27" t="s">
+      <c r="A166" s="29" t="s">
         <v>176</v>
       </c>
       <c r="B166" t="s">
@@ -8643,7 +8652,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="27" t="s">
+      <c r="A167" s="29" t="s">
         <v>1028</v>
       </c>
       <c r="B167" t="s">
@@ -8659,7 +8668,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="27" t="s">
+      <c r="A168" s="29" t="s">
         <v>1029</v>
       </c>
       <c r="B168" t="s">
@@ -8675,7 +8684,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="27" t="s">
+      <c r="A169" s="29" t="s">
         <v>1030</v>
       </c>
       <c r="B169" t="s">
@@ -8691,7 +8700,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="27" t="s">
+      <c r="A170" s="29" t="s">
         <v>1031</v>
       </c>
       <c r="B170" t="s">
@@ -8707,7 +8716,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="27" t="s">
+      <c r="A171" s="29" t="s">
         <v>1032</v>
       </c>
       <c r="B171" t="s">
@@ -8723,7 +8732,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="27" t="s">
+      <c r="A172" s="29" t="s">
         <v>1033</v>
       </c>
       <c r="B172" t="s">
@@ -8739,7 +8748,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="27" t="s">
+      <c r="A173" s="29" t="s">
         <v>105</v>
       </c>
       <c r="B173" t="s">
@@ -8755,7 +8764,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="27" t="s">
+      <c r="A174" s="29" t="s">
         <v>1034</v>
       </c>
       <c r="B174" t="s">
@@ -8771,7 +8780,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="27" t="s">
+      <c r="A175" s="29" t="s">
         <v>1035</v>
       </c>
       <c r="B175" t="s">
@@ -8787,7 +8796,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="27" t="s">
+      <c r="A176" s="29" t="s">
         <v>1036</v>
       </c>
       <c r="B176" t="s">
@@ -8803,7 +8812,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="29" t="s">
         <v>1037</v>
       </c>
       <c r="B177" t="s">
@@ -8819,7 +8828,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="27" t="s">
+      <c r="A178" s="29" t="s">
         <v>1038</v>
       </c>
       <c r="B178" t="s">
@@ -8835,7 +8844,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="27" t="s">
+      <c r="A179" s="29" t="s">
         <v>1039</v>
       </c>
       <c r="B179" t="s">
@@ -8851,7 +8860,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="27" t="s">
+      <c r="A180" s="29" t="s">
         <v>1040</v>
       </c>
       <c r="B180" t="s">
@@ -8867,7 +8876,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="27" t="s">
+      <c r="A181" s="29" t="s">
         <v>106</v>
       </c>
       <c r="B181" t="s">
@@ -8883,7 +8892,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="27" t="s">
+      <c r="A182" s="29" t="s">
         <v>1041</v>
       </c>
       <c r="B182" t="s">
@@ -8899,7 +8908,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="27" t="s">
+      <c r="A183" s="29" t="s">
         <v>1042</v>
       </c>
       <c r="B183" t="s">
@@ -8915,7 +8924,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="27" t="s">
+      <c r="A184" s="29" t="s">
         <v>1043</v>
       </c>
       <c r="B184" t="s">
@@ -8931,7 +8940,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="27" t="s">
+      <c r="A185" s="29" t="s">
         <v>1044</v>
       </c>
       <c r="B185" t="s">
@@ -8947,7 +8956,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="27" t="s">
+      <c r="A186" s="29" t="s">
         <v>1045</v>
       </c>
       <c r="B186" t="s">
@@ -8963,7 +8972,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="27" t="s">
+      <c r="A187" s="29" t="s">
         <v>1046</v>
       </c>
       <c r="B187" t="s">
@@ -8979,7 +8988,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="27" t="s">
+      <c r="A188" s="29" t="s">
         <v>1047</v>
       </c>
       <c r="B188" t="s">
@@ -8995,7 +9004,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="27" t="s">
+      <c r="A189" s="29" t="s">
         <v>1048</v>
       </c>
       <c r="B189" t="s">
@@ -9011,7 +9020,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="27" t="s">
+      <c r="A190" s="29" t="s">
         <v>1049</v>
       </c>
       <c r="B190" t="s">
@@ -9027,7 +9036,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="27" t="s">
+      <c r="A191" s="29" t="s">
         <v>1050</v>
       </c>
       <c r="B191" t="s">
@@ -9043,7 +9052,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="27" t="s">
+      <c r="A192" s="29" t="s">
         <v>1051</v>
       </c>
       <c r="B192" t="s">
@@ -9059,7 +9068,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="27" t="s">
+      <c r="A193" s="29" t="s">
         <v>1052</v>
       </c>
       <c r="B193" t="s">
@@ -9075,7 +9084,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="27" t="s">
+      <c r="A194" s="29" t="s">
         <v>1053</v>
       </c>
       <c r="B194" t="s">
@@ -9091,7 +9100,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="27" t="s">
+      <c r="A195" s="29" t="s">
         <v>1054</v>
       </c>
       <c r="B195" t="s">
@@ -9107,7 +9116,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="27" t="s">
+      <c r="A196" s="29" t="s">
         <v>1055</v>
       </c>
       <c r="B196" t="s">
@@ -9123,7 +9132,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="27" t="s">
+      <c r="A197" s="29" t="s">
         <v>1056</v>
       </c>
       <c r="B197" t="s">
@@ -9139,7 +9148,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="27" t="s">
+      <c r="A198" s="29" t="s">
         <v>1057</v>
       </c>
       <c r="B198" t="s">
@@ -9155,7 +9164,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="27" t="s">
+      <c r="A199" s="29" t="s">
         <v>1058</v>
       </c>
       <c r="B199" t="s">
@@ -9171,7 +9180,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="27" t="s">
+      <c r="A200" s="29" t="s">
         <v>1059</v>
       </c>
       <c r="B200" t="s">
@@ -9187,7 +9196,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="27" t="s">
+      <c r="A201" s="29" t="s">
         <v>1060</v>
       </c>
       <c r="B201" t="s">
@@ -9203,7 +9212,7 @@
       </c>
     </row>
     <row r="202" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="27" t="s">
+      <c r="A202" s="29" t="s">
         <v>1061</v>
       </c>
       <c r="B202" t="s">
@@ -9219,7 +9228,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="27" t="s">
+      <c r="A203" s="29" t="s">
         <v>1062</v>
       </c>
       <c r="B203" t="s">
@@ -9235,7 +9244,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="27" t="s">
+      <c r="A204" s="29" t="s">
         <v>1063</v>
       </c>
       <c r="B204" t="s">
@@ -9251,7 +9260,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="27" t="s">
+      <c r="A205" s="29" t="s">
         <v>1064</v>
       </c>
       <c r="B205" t="s">
@@ -9267,7 +9276,7 @@
       </c>
     </row>
     <row r="206" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="27" t="s">
+      <c r="A206" s="29" t="s">
         <v>1479</v>
       </c>
       <c r="B206" t="s">
@@ -9283,7 +9292,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="27" t="s">
+      <c r="A207" s="29" t="s">
         <v>1065</v>
       </c>
       <c r="B207" t="s">
@@ -9300,7 +9309,7 @@
       <c r="G207" s="5"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="27" t="s">
+      <c r="A208" s="29" t="s">
         <v>989</v>
       </c>
       <c r="B208" t="s">
@@ -9316,7 +9325,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="27" t="s">
+      <c r="A209" s="29" t="s">
         <v>1066</v>
       </c>
       <c r="B209" t="s">
@@ -9332,7 +9341,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="27" t="s">
+      <c r="A210" s="29" t="s">
         <v>103</v>
       </c>
       <c r="B210" t="s">
@@ -9348,7 +9357,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="27" t="s">
+      <c r="A211" s="29" t="s">
         <v>1067</v>
       </c>
       <c r="B211" t="s">
@@ -9364,7 +9373,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="27" t="s">
+      <c r="A212" s="29" t="s">
         <v>1068</v>
       </c>
       <c r="B212" t="s">
@@ -9380,7 +9389,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="27" t="s">
+      <c r="A213" s="29" t="s">
         <v>1308</v>
       </c>
       <c r="B213" t="s">
@@ -9396,7 +9405,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="27" t="s">
+      <c r="A214" s="29" t="s">
         <v>1309</v>
       </c>
       <c r="B214" t="s">
@@ -9412,7 +9421,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="27" t="s">
+      <c r="A215" s="29" t="s">
         <v>1310</v>
       </c>
       <c r="B215" t="s">
@@ -9428,7 +9437,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="27" t="s">
+      <c r="A216" s="29" t="s">
         <v>1311</v>
       </c>
       <c r="B216" t="s">
@@ -9444,7 +9453,7 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="27" t="s">
+      <c r="A217" s="29" t="s">
         <v>1312</v>
       </c>
       <c r="B217" t="s">
@@ -9460,7 +9469,7 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="27" t="s">
+      <c r="A218" s="29" t="s">
         <v>1313</v>
       </c>
       <c r="B218" t="s">
@@ -9476,7 +9485,7 @@
       </c>
     </row>
     <row r="219" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="27" t="s">
+      <c r="A219" s="29" t="s">
         <v>1314</v>
       </c>
       <c r="B219" t="s">
@@ -9492,7 +9501,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="27" t="s">
+      <c r="A220" s="29" t="s">
         <v>1315</v>
       </c>
       <c r="B220" t="s">
@@ -9508,7 +9517,7 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="27" t="s">
+      <c r="A221" s="29" t="s">
         <v>1316</v>
       </c>
       <c r="B221" t="s">
@@ -9524,7 +9533,7 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="27" t="s">
+      <c r="A222" s="29" t="s">
         <v>1317</v>
       </c>
       <c r="B222" t="s">
@@ -9540,7 +9549,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="27" t="s">
+      <c r="A223" s="29" t="s">
         <v>1069</v>
       </c>
       <c r="B223" t="s">
@@ -9556,7 +9565,7 @@
       </c>
     </row>
     <row r="224" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="27" t="s">
+      <c r="A224" s="29" t="s">
         <v>1318</v>
       </c>
       <c r="B224" t="s">
@@ -9573,7 +9582,7 @@
       <c r="G224" s="2"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="27" t="s">
+      <c r="A225" s="29" t="s">
         <v>1319</v>
       </c>
       <c r="B225" t="s">
@@ -9589,7 +9598,7 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="27" t="s">
+      <c r="A226" s="29" t="s">
         <v>1320</v>
       </c>
       <c r="B226" t="s">
@@ -9605,7 +9614,7 @@
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="27" t="s">
+      <c r="A227" s="29" t="s">
         <v>1350</v>
       </c>
       <c r="B227" t="s">
@@ -9621,7 +9630,7 @@
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="27" t="s">
+      <c r="A228" s="29" t="s">
         <v>1321</v>
       </c>
       <c r="B228" t="s">
@@ -9637,7 +9646,7 @@
       </c>
     </row>
     <row r="229" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="27" t="s">
+      <c r="A229" s="29" t="s">
         <v>1351</v>
       </c>
       <c r="B229" t="s">
@@ -9654,7 +9663,7 @@
       <c r="G229" s="2"/>
     </row>
     <row r="230" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="27" t="s">
+      <c r="A230" s="29" t="s">
         <v>1322</v>
       </c>
       <c r="B230" t="s">
@@ -9671,7 +9680,7 @@
       <c r="G230" s="2"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="27" t="s">
+      <c r="A231" s="29" t="s">
         <v>1352</v>
       </c>
       <c r="B231" t="s">
@@ -9687,7 +9696,7 @@
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="27" t="s">
+      <c r="A232" s="29" t="s">
         <v>1323</v>
       </c>
       <c r="B232" t="s">
@@ -9703,7 +9712,7 @@
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="27" t="s">
+      <c r="A233" s="29" t="s">
         <v>1353</v>
       </c>
       <c r="B233" t="s">
@@ -9719,7 +9728,7 @@
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="27" t="s">
+      <c r="A234" s="29" t="s">
         <v>1324</v>
       </c>
       <c r="B234" t="s">
@@ -9735,7 +9744,7 @@
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="27" t="s">
+      <c r="A235" s="29" t="s">
         <v>1325</v>
       </c>
       <c r="B235" t="s">
@@ -9751,7 +9760,7 @@
       </c>
     </row>
     <row r="236" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="27" t="s">
+      <c r="A236" s="29" t="s">
         <v>1326</v>
       </c>
       <c r="B236" t="s">
@@ -9768,7 +9777,7 @@
       <c r="G236" s="2"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="27" t="s">
+      <c r="A237" s="29" t="s">
         <v>1354</v>
       </c>
       <c r="B237" t="s">
@@ -9784,7 +9793,7 @@
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="29" t="s">
         <v>1355</v>
       </c>
       <c r="B238" t="s">
@@ -9800,7 +9809,7 @@
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="27" t="s">
+      <c r="A239" s="29" t="s">
         <v>1356</v>
       </c>
       <c r="B239" t="s">
@@ -9816,7 +9825,7 @@
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="27" t="s">
+      <c r="A240" s="29" t="s">
         <v>1357</v>
       </c>
       <c r="B240" t="s">
@@ -9832,7 +9841,7 @@
       </c>
     </row>
     <row r="241" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="27" t="s">
+      <c r="A241" s="29" t="s">
         <v>1358</v>
       </c>
       <c r="B241" t="s">
@@ -9849,7 +9858,7 @@
       <c r="G241" s="2"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="27" t="s">
+      <c r="A242" s="29" t="s">
         <v>1359</v>
       </c>
       <c r="B242" t="s">
@@ -9865,7 +9874,7 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="27" t="s">
+      <c r="A243" s="29" t="s">
         <v>1360</v>
       </c>
       <c r="B243" t="s">
@@ -9881,7 +9890,7 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="27" t="s">
+      <c r="A244" s="29" t="s">
         <v>1361</v>
       </c>
       <c r="B244" t="s">
@@ -9897,7 +9906,7 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="27" t="s">
+      <c r="A245" s="29" t="s">
         <v>1362</v>
       </c>
       <c r="B245" t="s">
@@ -9913,7 +9922,7 @@
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="27" t="s">
+      <c r="A246" s="29" t="s">
         <v>1327</v>
       </c>
       <c r="B246" t="s">
@@ -9929,7 +9938,7 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="27" t="s">
+      <c r="A247" s="29" t="s">
         <v>1363</v>
       </c>
       <c r="B247" t="s">
@@ -9945,7 +9954,7 @@
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="27" t="s">
+      <c r="A248" s="29" t="s">
         <v>1364</v>
       </c>
       <c r="B248" t="s">
@@ -9961,7 +9970,7 @@
       </c>
     </row>
     <row r="249" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="27" t="s">
+      <c r="A249" s="29" t="s">
         <v>1365</v>
       </c>
       <c r="B249" t="s">
@@ -9978,7 +9987,7 @@
       <c r="G249" s="2"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="27" t="s">
+      <c r="A250" s="29" t="s">
         <v>1366</v>
       </c>
       <c r="B250" t="s">
@@ -9994,7 +10003,7 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="27" t="s">
+      <c r="A251" s="29" t="s">
         <v>1367</v>
       </c>
       <c r="B251" t="s">
@@ -10010,7 +10019,7 @@
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="27" t="s">
+      <c r="A252" s="29" t="s">
         <v>1368</v>
       </c>
       <c r="B252" t="s">
@@ -10026,7 +10035,7 @@
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="27" t="s">
+      <c r="A253" s="29" t="s">
         <v>1369</v>
       </c>
       <c r="B253" t="s">
@@ -10042,7 +10051,7 @@
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="27" t="s">
+      <c r="A254" s="29" t="s">
         <v>1489</v>
       </c>
       <c r="B254" t="s">
@@ -10058,7 +10067,7 @@
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="27" t="s">
+      <c r="A255" s="29" t="s">
         <v>1490</v>
       </c>
       <c r="B255" t="s">
@@ -10074,7 +10083,7 @@
       </c>
     </row>
     <row r="256" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="27" t="s">
+      <c r="A256" s="29" t="s">
         <v>1491</v>
       </c>
       <c r="B256" t="s">
@@ -10091,7 +10100,7 @@
       <c r="G256" s="2"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="27" t="s">
+      <c r="A257" s="29" t="s">
         <v>1492</v>
       </c>
       <c r="B257" t="s">
@@ -10107,7 +10116,7 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="27" t="s">
+      <c r="A258" s="29" t="s">
         <v>1493</v>
       </c>
       <c r="B258" t="s">
@@ -10123,7 +10132,7 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="27" t="s">
+      <c r="A259" s="29" t="s">
         <v>1494</v>
       </c>
       <c r="B259" t="s">
@@ -10139,7 +10148,7 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="27" t="s">
+      <c r="A260" s="29" t="s">
         <v>1328</v>
       </c>
       <c r="B260" t="s">
@@ -10155,7 +10164,7 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="27" t="s">
+      <c r="A261" s="29" t="s">
         <v>1329</v>
       </c>
       <c r="B261" t="s">
@@ -10171,7 +10180,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="27" t="s">
+      <c r="A262" s="29" t="s">
         <v>1330</v>
       </c>
       <c r="B262" t="s">
@@ -10187,7 +10196,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="27" t="s">
+      <c r="A263" s="29" t="s">
         <v>1331</v>
       </c>
       <c r="B263" t="s">
@@ -10203,7 +10212,7 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="27" t="s">
+      <c r="A264" s="29" t="s">
         <v>1332</v>
       </c>
       <c r="B264" t="s">
@@ -10219,7 +10228,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="27" t="s">
+      <c r="A265" s="29" t="s">
         <v>1333</v>
       </c>
       <c r="B265" t="s">
@@ -10235,7 +10244,7 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="27" t="s">
+      <c r="A266" s="29" t="s">
         <v>1334</v>
       </c>
       <c r="B266" t="s">
@@ -10251,7 +10260,7 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="27" t="s">
+      <c r="A267" s="29" t="s">
         <v>1335</v>
       </c>
       <c r="B267" t="s">
@@ -10267,7 +10276,7 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="27" t="s">
+      <c r="A268" s="29" t="s">
         <v>1336</v>
       </c>
       <c r="B268" t="s">
@@ -10283,8 +10292,8 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="27" t="s">
-        <v>1682</v>
+      <c r="A269" s="29" t="s">
+        <v>1637</v>
       </c>
       <c r="B269" t="s">
         <v>610</v>
@@ -10299,8 +10308,8 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="27" t="s">
-        <v>1683</v>
+      <c r="A270" s="29" t="s">
+        <v>1638</v>
       </c>
       <c r="B270" t="s">
         <v>611</v>
@@ -10315,7 +10324,7 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="27" t="s">
+      <c r="A271" s="29" t="s">
         <v>1497</v>
       </c>
       <c r="B271" t="s">
@@ -10331,7 +10340,7 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="27" t="s">
+      <c r="A272" s="29" t="s">
         <v>1498</v>
       </c>
       <c r="B272" t="s">
@@ -10347,8 +10356,8 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="27" t="s">
-        <v>1684</v>
+      <c r="A273" s="29" t="s">
+        <v>1639</v>
       </c>
       <c r="B273" t="s">
         <v>623</v>
@@ -10363,8 +10372,8 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="27" t="s">
-        <v>1685</v>
+      <c r="A274" s="29" t="s">
+        <v>1640</v>
       </c>
       <c r="B274" t="s">
         <v>624</v>
@@ -10379,7 +10388,7 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="27" t="s">
+      <c r="A275" s="29" t="s">
         <v>72</v>
       </c>
       <c r="B275" t="s">
@@ -10395,7 +10404,7 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="27" t="s">
+      <c r="A276" s="29" t="s">
         <v>73</v>
       </c>
       <c r="B276" t="s">
@@ -10411,7 +10420,7 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="27" t="s">
+      <c r="A277" s="29" t="s">
         <v>74</v>
       </c>
       <c r="B277" t="s">
@@ -10427,8 +10436,8 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="27" t="s">
-        <v>1686</v>
+      <c r="A278" s="29" t="s">
+        <v>1641</v>
       </c>
       <c r="B278" t="s">
         <v>659</v>
@@ -10443,8 +10452,8 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="27" t="s">
-        <v>1687</v>
+      <c r="A279" s="29" t="s">
+        <v>1642</v>
       </c>
       <c r="B279" t="s">
         <v>660</v>
@@ -10459,7 +10468,7 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="27" t="s">
+      <c r="A280" s="29" t="s">
         <v>1088</v>
       </c>
       <c r="B280" t="s">
@@ -10475,7 +10484,7 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="27" t="s">
+      <c r="A281" s="29" t="s">
         <v>1087</v>
       </c>
       <c r="B281" t="s">
@@ -10491,7 +10500,7 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="27" t="s">
+      <c r="A282" s="29" t="s">
         <v>1086</v>
       </c>
       <c r="B282" t="s">
@@ -10507,7 +10516,7 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="27" t="s">
+      <c r="A283" s="29" t="s">
         <v>1085</v>
       </c>
       <c r="B283" t="s">
@@ -10523,7 +10532,7 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="27" t="s">
+      <c r="A284" s="29" t="s">
         <v>1084</v>
       </c>
       <c r="B284" t="s">
@@ -10539,7 +10548,7 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="27" t="s">
+      <c r="A285" s="29" t="s">
         <v>255</v>
       </c>
       <c r="B285" t="s">
@@ -10555,7 +10564,7 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="27" t="s">
+      <c r="A286" s="29" t="s">
         <v>1083</v>
       </c>
       <c r="B286" t="s">
@@ -10571,7 +10580,7 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="27" t="s">
+      <c r="A287" s="29" t="s">
         <v>1082</v>
       </c>
       <c r="B287" t="s">
@@ -10587,7 +10596,7 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="27" t="s">
+      <c r="A288" s="29" t="s">
         <v>1081</v>
       </c>
       <c r="B288" t="s">
@@ -10603,7 +10612,7 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="27" t="s">
+      <c r="A289" s="29" t="s">
         <v>256</v>
       </c>
       <c r="B289" t="s">
@@ -10619,7 +10628,7 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="27" t="s">
+      <c r="A290" s="29" t="s">
         <v>1080</v>
       </c>
       <c r="B290" t="s">
@@ -10635,7 +10644,7 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="27" t="s">
+      <c r="A291" s="29" t="s">
         <v>1079</v>
       </c>
       <c r="B291" t="s">
@@ -10651,7 +10660,7 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="27" t="s">
+      <c r="A292" s="29" t="s">
         <v>1078</v>
       </c>
       <c r="B292" t="s">
@@ -10667,7 +10676,7 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="27" t="s">
+      <c r="A293" s="29" t="s">
         <v>1077</v>
       </c>
       <c r="B293" t="s">
@@ -10683,7 +10692,7 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="27" t="s">
+      <c r="A294" s="29" t="s">
         <v>1076</v>
       </c>
       <c r="B294" t="s">
@@ -10692,14 +10701,14 @@
       <c r="C294" s="14"/>
       <c r="D294" s="15"/>
       <c r="E294" s="17" t="s">
-        <v>1800</v>
+        <v>1754</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="27" t="s">
+      <c r="A295" s="29" t="s">
         <v>1075</v>
       </c>
       <c r="B295" t="s">
@@ -10708,14 +10717,14 @@
       <c r="C295" s="14"/>
       <c r="D295" s="15"/>
       <c r="E295" s="17" t="s">
-        <v>1800</v>
+        <v>1754</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="29" t="s">
         <v>1074</v>
       </c>
       <c r="B296" t="s">
@@ -10724,14 +10733,14 @@
       <c r="C296" s="14"/>
       <c r="D296" s="15"/>
       <c r="E296" s="17" t="s">
-        <v>1800</v>
+        <v>1754</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="27" t="s">
+      <c r="A297" s="29" t="s">
         <v>1073</v>
       </c>
       <c r="B297" t="s">
@@ -10740,14 +10749,14 @@
       <c r="C297" s="14"/>
       <c r="D297" s="15"/>
       <c r="E297" s="17" t="s">
-        <v>1800</v>
+        <v>1754</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="27" t="s">
+      <c r="A298" s="29" t="s">
         <v>1072</v>
       </c>
       <c r="B298" t="s">
@@ -10756,14 +10765,14 @@
       <c r="C298" s="14"/>
       <c r="D298" s="15"/>
       <c r="E298" s="17" t="s">
-        <v>1800</v>
+        <v>1754</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="27" t="s">
+      <c r="A299" s="29" t="s">
         <v>1071</v>
       </c>
       <c r="B299" t="s">
@@ -10779,7 +10788,7 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="27" t="s">
+      <c r="A300" s="29" t="s">
         <v>1070</v>
       </c>
       <c r="B300" t="s">
@@ -10795,7 +10804,7 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="27" t="s">
+      <c r="A301" s="29" t="s">
         <v>1370</v>
       </c>
       <c r="B301" t="s">
@@ -10811,7 +10820,7 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="27" t="s">
+      <c r="A302" s="29" t="s">
         <v>1371</v>
       </c>
       <c r="B302" t="s">
@@ -10827,7 +10836,7 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="27" t="s">
+      <c r="A303" s="29" t="s">
         <v>1372</v>
       </c>
       <c r="B303" t="s">
@@ -10843,7 +10852,7 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="27" t="s">
+      <c r="A304" s="29" t="s">
         <v>1373</v>
       </c>
       <c r="B304" t="s">
@@ -10859,7 +10868,7 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="27" t="s">
+      <c r="A305" s="29" t="s">
         <v>1374</v>
       </c>
       <c r="B305" t="s">
@@ -10875,7 +10884,7 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="27" t="s">
+      <c r="A306" s="29" t="s">
         <v>1375</v>
       </c>
       <c r="B306" t="s">
@@ -10891,7 +10900,7 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="27" t="s">
+      <c r="A307" s="29" t="s">
         <v>1376</v>
       </c>
       <c r="B307" t="s">
@@ -10907,7 +10916,7 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="27" t="s">
+      <c r="A308" s="29" t="s">
         <v>1377</v>
       </c>
       <c r="B308" t="s">
@@ -10923,7 +10932,7 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="27" t="s">
+      <c r="A309" s="29" t="s">
         <v>1378</v>
       </c>
       <c r="B309" t="s">
@@ -10939,7 +10948,7 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="27" t="s">
+      <c r="A310" s="29" t="s">
         <v>1379</v>
       </c>
       <c r="B310" t="s">
@@ -10955,7 +10964,7 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="27" t="s">
+      <c r="A311" s="29" t="s">
         <v>1380</v>
       </c>
       <c r="B311" t="s">
@@ -10971,7 +10980,7 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="27" t="s">
+      <c r="A312" s="29" t="s">
         <v>1381</v>
       </c>
       <c r="B312" t="s">
@@ -10987,7 +10996,7 @@
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="27" t="s">
+      <c r="A313" s="29" t="s">
         <v>1382</v>
       </c>
       <c r="B313" t="s">
@@ -11003,7 +11012,7 @@
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="27" t="s">
+      <c r="A314" s="29" t="s">
         <v>1383</v>
       </c>
       <c r="B314" t="s">
@@ -11019,7 +11028,7 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="27" t="s">
+      <c r="A315" s="29" t="s">
         <v>1384</v>
       </c>
       <c r="B315" t="s">
@@ -11035,7 +11044,7 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="27" t="s">
+      <c r="A316" s="29" t="s">
         <v>1385</v>
       </c>
       <c r="B316" t="s">
@@ -11051,7 +11060,7 @@
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="27" t="s">
+      <c r="A317" s="29" t="s">
         <v>1386</v>
       </c>
       <c r="B317" t="s">
@@ -11067,7 +11076,7 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="27" t="s">
+      <c r="A318" s="29" t="s">
         <v>1387</v>
       </c>
       <c r="B318" t="s">
@@ -11083,7 +11092,7 @@
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="27" t="s">
+      <c r="A319" s="29" t="s">
         <v>1388</v>
       </c>
       <c r="B319" t="s">
@@ -11099,7 +11108,7 @@
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="27" t="s">
+      <c r="A320" s="29" t="s">
         <v>1389</v>
       </c>
       <c r="B320" t="s">
@@ -11115,7 +11124,7 @@
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="27" t="s">
+      <c r="A321" s="29" t="s">
         <v>1390</v>
       </c>
       <c r="B321" t="s">
@@ -11131,7 +11140,7 @@
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" s="27" t="s">
+      <c r="A322" s="29" t="s">
         <v>1391</v>
       </c>
       <c r="B322" t="s">
@@ -11147,7 +11156,7 @@
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" s="27" t="s">
+      <c r="A323" s="29" t="s">
         <v>1392</v>
       </c>
       <c r="B323" t="s">
@@ -11163,7 +11172,7 @@
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324" s="27" t="s">
+      <c r="A324" s="29" t="s">
         <v>1393</v>
       </c>
       <c r="B324" t="s">
@@ -11179,7 +11188,7 @@
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325" s="27" t="s">
+      <c r="A325" s="29" t="s">
         <v>1394</v>
       </c>
       <c r="B325" t="s">
@@ -11195,7 +11204,7 @@
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" s="27" t="s">
+      <c r="A326" s="29" t="s">
         <v>1395</v>
       </c>
       <c r="B326" t="s">
@@ -11211,7 +11220,7 @@
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" s="27" t="s">
+      <c r="A327" s="29" t="s">
         <v>1396</v>
       </c>
       <c r="B327" t="s">
@@ -11227,7 +11236,7 @@
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="27" t="s">
+      <c r="A328" s="29" t="s">
         <v>1397</v>
       </c>
       <c r="B328" t="s">
@@ -11243,7 +11252,7 @@
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="27" t="s">
+      <c r="A329" s="29" t="s">
         <v>1398</v>
       </c>
       <c r="B329" t="s">
@@ -11259,7 +11268,7 @@
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" s="27" t="s">
+      <c r="A330" s="29" t="s">
         <v>1399</v>
       </c>
       <c r="B330" t="s">
@@ -11275,7 +11284,7 @@
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" s="27" t="s">
+      <c r="A331" s="29" t="s">
         <v>1400</v>
       </c>
       <c r="B331" t="s">
@@ -11291,7 +11300,7 @@
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332" s="27" t="s">
+      <c r="A332" s="29" t="s">
         <v>1401</v>
       </c>
       <c r="B332" t="s">
@@ -11307,7 +11316,7 @@
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" s="29" t="s">
+      <c r="A333" s="30" t="s">
         <v>1402</v>
       </c>
       <c r="B333" s="22" t="s">
@@ -11323,7 +11332,7 @@
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="29" t="s">
+      <c r="A334" s="30" t="s">
         <v>1403</v>
       </c>
       <c r="B334" s="22" t="s">
@@ -11339,7 +11348,7 @@
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="29" t="s">
+      <c r="A335" s="30" t="s">
         <v>1404</v>
       </c>
       <c r="B335" s="22" t="s">
@@ -11355,7 +11364,7 @@
       </c>
     </row>
     <row r="336" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="29" t="s">
+      <c r="A336" s="30" t="s">
         <v>1405</v>
       </c>
       <c r="B336" s="22" t="s">
@@ -11372,7 +11381,7 @@
       <c r="G336" s="2"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" s="29" t="s">
+      <c r="A337" s="30" t="s">
         <v>1406</v>
       </c>
       <c r="B337" s="22" t="s">
@@ -11388,7 +11397,7 @@
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" s="29" t="s">
+      <c r="A338" s="30" t="s">
         <v>1407</v>
       </c>
       <c r="B338" s="22" t="s">
@@ -11404,7 +11413,7 @@
       </c>
     </row>
     <row r="339" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="29" t="s">
+      <c r="A339" s="30" t="s">
         <v>1408</v>
       </c>
       <c r="B339" s="22" t="s">
@@ -11421,7 +11430,7 @@
       <c r="G339" s="2"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A340" s="29" t="s">
+      <c r="A340" s="30" t="s">
         <v>1409</v>
       </c>
       <c r="B340" s="22" t="s">
@@ -11437,7 +11446,7 @@
       </c>
     </row>
     <row r="341" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="27" t="s">
+      <c r="A341" s="29" t="s">
         <v>1410</v>
       </c>
       <c r="B341" t="s">
@@ -11454,7 +11463,7 @@
       <c r="G341" s="2"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A342" s="27" t="s">
+      <c r="A342" s="29" t="s">
         <v>1411</v>
       </c>
       <c r="B342" t="s">
@@ -11470,7 +11479,7 @@
       </c>
     </row>
     <row r="343" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="27" t="s">
+      <c r="A343" s="29" t="s">
         <v>1412</v>
       </c>
       <c r="B343" t="s">
@@ -11487,7 +11496,7 @@
       <c r="G343" s="2"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="27" t="s">
+      <c r="A344" s="29" t="s">
         <v>1413</v>
       </c>
       <c r="B344" t="s">
@@ -11503,7 +11512,7 @@
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" s="27" t="s">
+      <c r="A345" s="29" t="s">
         <v>1414</v>
       </c>
       <c r="B345" t="s">
@@ -11519,7 +11528,7 @@
       </c>
     </row>
     <row r="346" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="27" t="s">
+      <c r="A346" s="29" t="s">
         <v>1415</v>
       </c>
       <c r="B346" t="s">
@@ -11536,7 +11545,7 @@
       <c r="G346" s="2"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A347" s="27" t="s">
+      <c r="A347" s="29" t="s">
         <v>1416</v>
       </c>
       <c r="B347" t="s">
@@ -11552,7 +11561,7 @@
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A348" s="27" t="s">
+      <c r="A348" s="29" t="s">
         <v>1417</v>
       </c>
       <c r="B348" t="s">
@@ -11568,7 +11577,7 @@
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A349" s="27" t="s">
+      <c r="A349" s="29" t="s">
         <v>1418</v>
       </c>
       <c r="B349" t="s">
@@ -11584,7 +11593,7 @@
       </c>
     </row>
     <row r="350" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="27" t="s">
+      <c r="A350" s="29" t="s">
         <v>1419</v>
       </c>
       <c r="B350" t="s">
@@ -11601,7 +11610,7 @@
       <c r="G350" s="2"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A351" s="27" t="s">
+      <c r="A351" s="29" t="s">
         <v>1420</v>
       </c>
       <c r="B351" t="s">
@@ -11617,7 +11626,7 @@
       </c>
     </row>
     <row r="352" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="27" t="s">
+      <c r="A352" s="29" t="s">
         <v>1421</v>
       </c>
       <c r="B352" t="s">
@@ -11634,7 +11643,7 @@
       <c r="G352" s="2"/>
     </row>
     <row r="353" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="27" t="s">
+      <c r="A353" s="29" t="s">
         <v>1422</v>
       </c>
       <c r="B353" t="s">
@@ -11651,7 +11660,7 @@
       <c r="G353" s="2"/>
     </row>
     <row r="354" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="27" t="s">
+      <c r="A354" s="29" t="s">
         <v>1423</v>
       </c>
       <c r="B354" t="s">
@@ -11668,7 +11677,7 @@
       <c r="G354" s="2"/>
     </row>
     <row r="355" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="27" t="s">
+      <c r="A355" s="29" t="s">
         <v>1424</v>
       </c>
       <c r="B355" t="s">
@@ -11685,7 +11694,7 @@
       <c r="G355" s="2"/>
     </row>
     <row r="356" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="27" t="s">
+      <c r="A356" s="29" t="s">
         <v>1425</v>
       </c>
       <c r="B356" t="s">
@@ -11702,7 +11711,7 @@
       <c r="G356" s="2"/>
     </row>
     <row r="357" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="27" t="s">
+      <c r="A357" s="29" t="s">
         <v>1426</v>
       </c>
       <c r="B357" t="s">
@@ -11719,7 +11728,7 @@
       <c r="G357" s="2"/>
     </row>
     <row r="358" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="27" t="s">
+      <c r="A358" s="29" t="s">
         <v>1338</v>
       </c>
       <c r="B358" t="s">
@@ -11736,7 +11745,7 @@
       <c r="G358" s="2"/>
     </row>
     <row r="359" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="27" t="s">
+      <c r="A359" s="29" t="s">
         <v>1427</v>
       </c>
       <c r="B359" t="s">
@@ -11753,7 +11762,7 @@
       <c r="G359" s="2"/>
     </row>
     <row r="360" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="27" t="s">
+      <c r="A360" s="29" t="s">
         <v>1428</v>
       </c>
       <c r="B360" t="s">
@@ -11770,7 +11779,7 @@
       <c r="G360" s="2"/>
     </row>
     <row r="361" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="27" t="s">
+      <c r="A361" s="29" t="s">
         <v>1429</v>
       </c>
       <c r="B361" t="s">
@@ -11787,7 +11796,7 @@
       <c r="G361" s="2"/>
     </row>
     <row r="362" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="27" t="s">
+      <c r="A362" s="29" t="s">
         <v>1337</v>
       </c>
       <c r="B362" t="s">
@@ -11804,7 +11813,7 @@
       <c r="G362" s="2"/>
     </row>
     <row r="363" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="27" t="s">
+      <c r="A363" s="29" t="s">
         <v>1430</v>
       </c>
       <c r="B363" t="s">
@@ -11821,7 +11830,7 @@
       <c r="G363" s="2"/>
     </row>
     <row r="364" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="27" t="s">
+      <c r="A364" s="29" t="s">
         <v>1431</v>
       </c>
       <c r="B364" t="s">
@@ -11838,7 +11847,7 @@
       <c r="G364" s="2"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A365" s="27" t="s">
+      <c r="A365" s="29" t="s">
         <v>1432</v>
       </c>
       <c r="B365" t="s">
@@ -11854,7 +11863,7 @@
       </c>
     </row>
     <row r="366" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="27" t="s">
+      <c r="A366" s="29" t="s">
         <v>1433</v>
       </c>
       <c r="B366" t="s">
@@ -11871,7 +11880,7 @@
       <c r="G366" s="2"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="27" t="s">
+      <c r="A367" s="29" t="s">
         <v>1434</v>
       </c>
       <c r="B367" t="s">
@@ -11887,7 +11896,7 @@
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A368" s="27" t="s">
+      <c r="A368" s="29" t="s">
         <v>1435</v>
       </c>
       <c r="B368" t="s">
@@ -11903,7 +11912,7 @@
       </c>
     </row>
     <row r="369" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="27" t="s">
+      <c r="A369" s="29" t="s">
         <v>1436</v>
       </c>
       <c r="B369" t="s">
@@ -11920,7 +11929,7 @@
       <c r="G369" s="5"/>
     </row>
     <row r="370" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="27" t="s">
+      <c r="A370" s="29" t="s">
         <v>1437</v>
       </c>
       <c r="B370" t="s">
@@ -11937,7 +11946,7 @@
       <c r="G370" s="5"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" s="27" t="s">
+      <c r="A371" s="29" t="s">
         <v>1438</v>
       </c>
       <c r="B371" t="s">
@@ -11953,7 +11962,7 @@
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" s="27" t="s">
+      <c r="A372" s="29" t="s">
         <v>1439</v>
       </c>
       <c r="B372" t="s">
@@ -11969,7 +11978,7 @@
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A373" s="27" t="s">
+      <c r="A373" s="29" t="s">
         <v>1440</v>
       </c>
       <c r="B373" t="s">
@@ -11985,7 +11994,7 @@
       </c>
     </row>
     <row r="374" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="27" t="s">
+      <c r="A374" s="29" t="s">
         <v>1441</v>
       </c>
       <c r="B374" t="s">
@@ -12002,7 +12011,7 @@
       <c r="G374" s="6"/>
     </row>
     <row r="375" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="27" t="s">
+      <c r="A375" s="29" t="s">
         <v>1442</v>
       </c>
       <c r="B375" t="s">
@@ -12019,7 +12028,7 @@
       <c r="G375" s="6"/>
     </row>
     <row r="376" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="27" t="s">
+      <c r="A376" s="29" t="s">
         <v>1443</v>
       </c>
       <c r="B376" t="s">
@@ -12036,7 +12045,7 @@
       <c r="G376" s="6"/>
     </row>
     <row r="377" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="27" t="s">
+      <c r="A377" s="29" t="s">
         <v>1444</v>
       </c>
       <c r="B377" t="s">
@@ -12053,7 +12062,7 @@
       <c r="G377" s="6"/>
     </row>
     <row r="378" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="27" t="s">
+      <c r="A378" s="29" t="s">
         <v>1445</v>
       </c>
       <c r="B378" t="s">
@@ -12070,7 +12079,7 @@
       <c r="G378" s="6"/>
     </row>
     <row r="379" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="27" t="s">
+      <c r="A379" s="29" t="s">
         <v>1446</v>
       </c>
       <c r="B379" t="s">
@@ -12087,7 +12096,7 @@
       <c r="G379" s="6"/>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A380" s="27" t="s">
+      <c r="A380" s="29" t="s">
         <v>1447</v>
       </c>
       <c r="B380" t="s">
@@ -12103,7 +12112,7 @@
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A381" s="27" t="s">
+      <c r="A381" s="29" t="s">
         <v>1448</v>
       </c>
       <c r="B381" t="s">
@@ -12119,7 +12128,7 @@
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A382" s="27" t="s">
+      <c r="A382" s="29" t="s">
         <v>1449</v>
       </c>
       <c r="B382" t="s">
@@ -12135,7 +12144,7 @@
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A383" s="27" t="s">
+      <c r="A383" s="29" t="s">
         <v>1450</v>
       </c>
       <c r="B383" t="s">
@@ -12151,7 +12160,7 @@
       </c>
     </row>
     <row r="384" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="27" t="s">
+      <c r="A384" s="29" t="s">
         <v>1451</v>
       </c>
       <c r="B384" t="s">
@@ -12168,7 +12177,7 @@
       <c r="G384" s="6"/>
     </row>
     <row r="385" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="27" t="s">
+      <c r="A385" s="29" t="s">
         <v>1452</v>
       </c>
       <c r="B385" t="s">
@@ -12185,7 +12194,7 @@
       <c r="G385" s="6"/>
     </row>
     <row r="386" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="27" t="s">
+      <c r="A386" s="29" t="s">
         <v>1453</v>
       </c>
       <c r="B386" t="s">
@@ -12202,7 +12211,7 @@
       <c r="G386" s="6"/>
     </row>
     <row r="387" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="27" t="s">
+      <c r="A387" s="29" t="s">
         <v>1454</v>
       </c>
       <c r="B387" t="s">
@@ -12219,7 +12228,7 @@
       <c r="G387" s="6"/>
     </row>
     <row r="388" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="27" t="s">
+      <c r="A388" s="29" t="s">
         <v>1455</v>
       </c>
       <c r="B388" t="s">
@@ -12236,7 +12245,7 @@
       <c r="G388" s="6"/>
     </row>
     <row r="389" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="27" t="s">
+      <c r="A389" s="29" t="s">
         <v>1456</v>
       </c>
       <c r="B389" t="s">
@@ -12253,7 +12262,7 @@
       <c r="G389" s="6"/>
     </row>
     <row r="390" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="27" t="s">
+      <c r="A390" s="29" t="s">
         <v>1457</v>
       </c>
       <c r="B390" t="s">
@@ -12270,7 +12279,7 @@
       <c r="G390" s="6"/>
     </row>
     <row r="391" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="27" t="s">
+      <c r="A391" s="29" t="s">
         <v>1458</v>
       </c>
       <c r="B391" t="s">
@@ -12287,7 +12296,7 @@
       <c r="G391" s="6"/>
     </row>
     <row r="392" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="27" t="s">
+      <c r="A392" s="29" t="s">
         <v>1459</v>
       </c>
       <c r="B392" t="s">
@@ -12305,7 +12314,7 @@
       <c r="H392" s="8"/>
     </row>
     <row r="393" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="27" t="s">
+      <c r="A393" s="29" t="s">
         <v>1460</v>
       </c>
       <c r="B393" t="s">
@@ -12322,7 +12331,7 @@
       <c r="G393" s="6"/>
     </row>
     <row r="394" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="27" t="s">
+      <c r="A394" s="29" t="s">
         <v>1501</v>
       </c>
       <c r="B394" t="s">
@@ -12339,7 +12348,7 @@
       <c r="G394" s="6"/>
     </row>
     <row r="395" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="27" t="s">
+      <c r="A395" s="29" t="s">
         <v>1502</v>
       </c>
       <c r="B395" t="s">
@@ -12356,7 +12365,7 @@
       <c r="G395" s="6"/>
     </row>
     <row r="396" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="27" t="s">
+      <c r="A396" s="29" t="s">
         <v>1503</v>
       </c>
       <c r="B396" t="s">
@@ -12373,7 +12382,7 @@
       <c r="G396" s="6"/>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A397" s="27" t="s">
+      <c r="A397" s="29" t="s">
         <v>1504</v>
       </c>
       <c r="B397" t="s">
@@ -12389,7 +12398,7 @@
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A398" s="27" t="s">
+      <c r="A398" s="29" t="s">
         <v>1505</v>
       </c>
       <c r="B398" t="s">
@@ -12405,7 +12414,7 @@
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A399" s="27" t="s">
+      <c r="A399" s="29" t="s">
         <v>1461</v>
       </c>
       <c r="B399" t="s">
@@ -12421,7 +12430,7 @@
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A400" s="27" t="s">
+      <c r="A400" s="29" t="s">
         <v>1462</v>
       </c>
       <c r="B400" t="s">
@@ -12437,7 +12446,7 @@
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="27" t="s">
+      <c r="A401" s="29" t="s">
         <v>1463</v>
       </c>
       <c r="B401" t="s">
@@ -12453,7 +12462,7 @@
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A402" s="27" t="s">
+      <c r="A402" s="29" t="s">
         <v>1464</v>
       </c>
       <c r="B402" t="s">
@@ -12469,7 +12478,7 @@
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A403" s="27" t="s">
+      <c r="A403" s="29" t="s">
         <v>1465</v>
       </c>
       <c r="B403" t="s">
@@ -12485,7 +12494,7 @@
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A404" s="27" t="s">
+      <c r="A404" s="29" t="s">
         <v>1466</v>
       </c>
       <c r="B404" t="s">
@@ -12501,7 +12510,7 @@
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A405" s="27" t="s">
+      <c r="A405" s="29" t="s">
         <v>1467</v>
       </c>
       <c r="B405" t="s">
@@ -12517,7 +12526,7 @@
       </c>
     </row>
     <row r="406" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="27" t="s">
+      <c r="A406" s="29" t="s">
         <v>1468</v>
       </c>
       <c r="B406" t="s">
@@ -12534,7 +12543,7 @@
       <c r="G406" s="6"/>
     </row>
     <row r="407" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="27" t="s">
+      <c r="A407" s="29" t="s">
         <v>1469</v>
       </c>
       <c r="B407" t="s">
@@ -12551,7 +12560,7 @@
       <c r="G407" s="6"/>
     </row>
     <row r="408" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="27" t="s">
+      <c r="A408" s="29" t="s">
         <v>1470</v>
       </c>
       <c r="B408" t="s">
@@ -12568,7 +12577,7 @@
       <c r="G408" s="6"/>
     </row>
     <row r="409" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="27" t="s">
+      <c r="A409" s="29" t="s">
         <v>1471</v>
       </c>
       <c r="B409" t="s">
@@ -12584,7 +12593,7 @@
       </c>
     </row>
     <row r="410" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="27" t="s">
+      <c r="A410" s="29" t="s">
         <v>1472</v>
       </c>
       <c r="B410" t="s">
@@ -12600,7 +12609,7 @@
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A411" s="27" t="s">
+      <c r="A411" s="29" t="s">
         <v>1473</v>
       </c>
       <c r="B411" t="s">
@@ -12616,7 +12625,7 @@
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A412" s="27" t="s">
+      <c r="A412" s="29" t="s">
         <v>1474</v>
       </c>
       <c r="B412" t="s">
@@ -12632,7 +12641,7 @@
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413" s="27" t="s">
+      <c r="A413" s="29" t="s">
         <v>1475</v>
       </c>
       <c r="B413" t="s">
@@ -12648,7 +12657,7 @@
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414" s="27" t="s">
+      <c r="A414" s="29" t="s">
         <v>1476</v>
       </c>
       <c r="B414" t="s">
@@ -12664,7 +12673,7 @@
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A415" s="27" t="s">
+      <c r="A415" s="29" t="s">
         <v>1477</v>
       </c>
       <c r="B415" t="s">
@@ -12680,7 +12689,7 @@
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A416" s="27" t="s">
+      <c r="A416" s="29" t="s">
         <v>1478</v>
       </c>
       <c r="B416" t="s">
@@ -12696,7 +12705,7 @@
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417" s="27" t="s">
+      <c r="A417" s="29" t="s">
         <v>1506</v>
       </c>
       <c r="B417" t="s">
@@ -12712,7 +12721,7 @@
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A418" s="27" t="s">
+      <c r="A418" s="29" t="s">
         <v>1507</v>
       </c>
       <c r="B418" t="s">
@@ -12728,7 +12737,7 @@
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A419" s="27" t="s">
+      <c r="A419" s="29" t="s">
         <v>1508</v>
       </c>
       <c r="B419" t="s">
@@ -12744,7 +12753,7 @@
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420" s="27" t="s">
+      <c r="A420" s="29" t="s">
         <v>1509</v>
       </c>
       <c r="B420" t="s">
@@ -12760,7 +12769,7 @@
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421" s="27" t="s">
+      <c r="A421" s="29" t="s">
         <v>1510</v>
       </c>
       <c r="B421" t="s">
@@ -12776,7 +12785,7 @@
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422" s="27" t="s">
+      <c r="A422" s="29" t="s">
         <v>1511</v>
       </c>
       <c r="B422" t="s">
@@ -12792,7 +12801,7 @@
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423" s="27" t="s">
+      <c r="A423" s="29" t="s">
         <v>1512</v>
       </c>
       <c r="B423" t="s">
@@ -12808,7 +12817,7 @@
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" s="27" t="s">
+      <c r="A424" s="29" t="s">
         <v>1339</v>
       </c>
       <c r="B424" t="s">
@@ -12824,7 +12833,7 @@
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" s="27" t="s">
+      <c r="A425" s="29" t="s">
         <v>1340</v>
       </c>
       <c r="B425" t="s">
@@ -12840,7 +12849,7 @@
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" s="27" t="s">
+      <c r="A426" s="29" t="s">
         <v>1341</v>
       </c>
       <c r="B426" t="s">
@@ -12856,7 +12865,7 @@
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427" s="27" t="s">
+      <c r="A427" s="29" t="s">
         <v>1342</v>
       </c>
       <c r="B427" t="s">
@@ -12872,7 +12881,7 @@
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" s="29" t="s">
+      <c r="A428" s="30" t="s">
         <v>1343</v>
       </c>
       <c r="B428" s="22" t="s">
@@ -12888,7 +12897,7 @@
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="29" t="s">
+      <c r="A429" s="30" t="s">
         <v>1344</v>
       </c>
       <c r="B429" s="22" t="s">
@@ -12904,7 +12913,7 @@
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" s="27" t="s">
+      <c r="A430" s="29" t="s">
         <v>1345</v>
       </c>
       <c r="B430" t="s">
@@ -12920,8 +12929,8 @@
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431" s="27" t="s">
-        <v>1688</v>
+      <c r="A431" s="29" t="s">
+        <v>1643</v>
       </c>
       <c r="B431" t="s">
         <v>582</v>
@@ -12936,8 +12945,8 @@
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" s="27" t="s">
-        <v>1689</v>
+      <c r="A432" s="29" t="s">
+        <v>1644</v>
       </c>
       <c r="B432" t="s">
         <v>584</v>
@@ -12952,8 +12961,8 @@
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" s="27" t="s">
-        <v>1690</v>
+      <c r="A433" s="29" t="s">
+        <v>1645</v>
       </c>
       <c r="B433" t="s">
         <v>585</v>
@@ -12968,8 +12977,8 @@
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="27" t="s">
-        <v>1691</v>
+      <c r="A434" s="29" t="s">
+        <v>1646</v>
       </c>
       <c r="B434" t="s">
         <v>588</v>
@@ -12984,7 +12993,7 @@
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A435" s="27" t="s">
+      <c r="A435" s="29" t="s">
         <v>1348</v>
       </c>
       <c r="B435" t="s">
@@ -13000,7 +13009,7 @@
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A436" s="27" t="s">
+      <c r="A436" s="29" t="s">
         <v>1349</v>
       </c>
       <c r="B436" t="s">
@@ -13016,7 +13025,7 @@
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A437" s="27" t="s">
+      <c r="A437" s="29" t="s">
         <v>1342</v>
       </c>
       <c r="B437" t="s">
@@ -13032,7 +13041,7 @@
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438" s="27" t="s">
+      <c r="A438" s="29" t="s">
         <v>1343</v>
       </c>
       <c r="B438" t="s">
@@ -13048,7 +13057,7 @@
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439" s="27" t="s">
+      <c r="A439" s="29" t="s">
         <v>1344</v>
       </c>
       <c r="B439" t="s">
@@ -13064,7 +13073,7 @@
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A440" s="27" t="s">
+      <c r="A440" s="29" t="s">
         <v>1345</v>
       </c>
       <c r="B440" t="s">
@@ -13080,7 +13089,7 @@
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441" s="27" t="s">
+      <c r="A441" s="29" t="s">
         <v>252</v>
       </c>
       <c r="B441" t="s">
@@ -13096,7 +13105,7 @@
       </c>
     </row>
     <row r="442" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="27" t="s">
+      <c r="A442" s="29" t="s">
         <v>253</v>
       </c>
       <c r="B442" t="s">
@@ -13112,8 +13121,8 @@
       </c>
     </row>
     <row r="443" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="27" t="s">
-        <v>1676</v>
+      <c r="A443" s="29" t="s">
+        <v>1631</v>
       </c>
       <c r="B443" t="s">
         <v>628</v>
@@ -13128,8 +13137,8 @@
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A444" s="27" t="s">
-        <v>1677</v>
+      <c r="A444" s="29" t="s">
+        <v>1632</v>
       </c>
       <c r="B444" t="s">
         <v>629</v>
@@ -13144,7 +13153,7 @@
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A445" s="27" t="s">
+      <c r="A445" s="29" t="s">
         <v>1348</v>
       </c>
       <c r="B445" t="s">
@@ -13160,8 +13169,8 @@
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A446" s="27" t="s">
-        <v>1678</v>
+      <c r="A446" s="29" t="s">
+        <v>1633</v>
       </c>
       <c r="B446" t="s">
         <v>631</v>
@@ -13176,7 +13185,7 @@
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A447" s="27" t="s">
+      <c r="A447" s="29" t="s">
         <v>993</v>
       </c>
       <c r="B447" t="s">
@@ -13192,7 +13201,7 @@
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A448" s="27" t="s">
+      <c r="A448" s="29" t="s">
         <v>78</v>
       </c>
       <c r="B448" t="s">
@@ -13208,7 +13217,7 @@
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A449" s="27" t="s">
+      <c r="A449" s="29" t="s">
         <v>79</v>
       </c>
       <c r="B449" t="s">
@@ -13224,7 +13233,7 @@
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A450" s="27" t="s">
+      <c r="A450" s="29" t="s">
         <v>1513</v>
       </c>
       <c r="B450" t="s">
@@ -13240,7 +13249,7 @@
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A451" s="27" t="s">
+      <c r="A451" s="29" t="s">
         <v>80</v>
       </c>
       <c r="B451" t="s">
@@ -13256,7 +13265,7 @@
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A452" s="27" t="s">
+      <c r="A452" s="29" t="s">
         <v>81</v>
       </c>
       <c r="B452" t="s">
@@ -13272,8 +13281,8 @@
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A453" s="27" t="s">
-        <v>1692</v>
+      <c r="A453" s="29" t="s">
+        <v>1647</v>
       </c>
       <c r="B453" t="s">
         <v>299</v>
@@ -13288,8 +13297,8 @@
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A454" s="27" t="s">
-        <v>1693</v>
+      <c r="A454" s="29" t="s">
+        <v>1648</v>
       </c>
       <c r="B454" t="s">
         <v>300</v>
@@ -13304,8 +13313,8 @@
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A455" s="27" t="s">
-        <v>1694</v>
+      <c r="A455" s="29" t="s">
+        <v>1649</v>
       </c>
       <c r="B455" t="s">
         <v>301</v>
@@ -13320,8 +13329,8 @@
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A456" s="27" t="s">
-        <v>1695</v>
+      <c r="A456" s="29" t="s">
+        <v>1650</v>
       </c>
       <c r="B456" t="s">
         <v>302</v>
@@ -13336,7 +13345,7 @@
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A457" s="27" t="s">
+      <c r="A457" s="29" t="s">
         <v>91</v>
       </c>
       <c r="B457" t="s">
@@ -13352,7 +13361,7 @@
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A458" s="27" t="s">
+      <c r="A458" s="29" t="s">
         <v>92</v>
       </c>
       <c r="B458" t="s">
@@ -13368,7 +13377,7 @@
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A459" s="27" t="s">
+      <c r="A459" s="29" t="s">
         <v>93</v>
       </c>
       <c r="B459" t="s">
@@ -13384,7 +13393,7 @@
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A460" s="27" t="s">
+      <c r="A460" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B460" t="s">
@@ -13400,7 +13409,7 @@
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A461" s="27" t="s">
+      <c r="A461" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B461" t="s">
@@ -13416,7 +13425,7 @@
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A462" s="27" t="s">
+      <c r="A462" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B462" t="s">
@@ -13432,7 +13441,7 @@
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A463" s="27" t="s">
+      <c r="A463" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B463" t="s">
@@ -13448,7 +13457,7 @@
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A464" s="27" t="s">
+      <c r="A464" s="29" t="s">
         <v>89</v>
       </c>
       <c r="B464" t="s">
@@ -13464,7 +13473,7 @@
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A465" s="27" t="s">
+      <c r="A465" s="29" t="s">
         <v>994</v>
       </c>
       <c r="B465" t="s">
@@ -13480,7 +13489,7 @@
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A466" s="27" t="s">
+      <c r="A466" s="29" t="s">
         <v>995</v>
       </c>
       <c r="B466" t="s">
@@ -13496,7 +13505,7 @@
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A467" s="27" t="s">
+      <c r="A467" s="29" t="s">
         <v>996</v>
       </c>
       <c r="B467" t="s">
@@ -13512,7 +13521,7 @@
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A468" s="27" t="s">
+      <c r="A468" s="29" t="s">
         <v>94</v>
       </c>
       <c r="B468" t="s">
@@ -13528,7 +13537,7 @@
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A469" s="27" t="s">
+      <c r="A469" s="29" t="s">
         <v>95</v>
       </c>
       <c r="B469" t="s">
@@ -13544,7 +13553,7 @@
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A470" s="27" t="s">
+      <c r="A470" s="29" t="s">
         <v>96</v>
       </c>
       <c r="B470" t="s">
@@ -13560,7 +13569,7 @@
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A471" s="27" t="s">
+      <c r="A471" s="29" t="s">
         <v>97</v>
       </c>
       <c r="B471" t="s">
@@ -13576,7 +13585,7 @@
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A472" s="27" t="s">
+      <c r="A472" s="29" t="s">
         <v>98</v>
       </c>
       <c r="B472" t="s">
@@ -13592,7 +13601,7 @@
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A473" s="27" t="s">
+      <c r="A473" s="29" t="s">
         <v>99</v>
       </c>
       <c r="B473" t="s">
@@ -13608,7 +13617,7 @@
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A474" s="27" t="s">
+      <c r="A474" s="29" t="s">
         <v>104</v>
       </c>
       <c r="B474" t="s">
@@ -13624,7 +13633,7 @@
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A475" s="27" t="s">
+      <c r="A475" s="29" t="s">
         <v>1091</v>
       </c>
       <c r="B475" t="s">
@@ -13640,7 +13649,7 @@
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A476" s="27" t="s">
+      <c r="A476" s="29" t="s">
         <v>1092</v>
       </c>
       <c r="B476" t="s">
@@ -13656,7 +13665,7 @@
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A477" s="27" t="s">
+      <c r="A477" s="29" t="s">
         <v>1093</v>
       </c>
       <c r="B477" t="s">
@@ -13672,7 +13681,7 @@
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A478" s="27" t="s">
+      <c r="A478" s="29" t="s">
         <v>1094</v>
       </c>
       <c r="B478" t="s">
@@ -13688,7 +13697,7 @@
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A479" s="27" t="s">
+      <c r="A479" s="29" t="s">
         <v>1095</v>
       </c>
       <c r="B479" t="s">
@@ -13704,7 +13713,7 @@
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A480" s="27" t="s">
+      <c r="A480" s="29" t="s">
         <v>1096</v>
       </c>
       <c r="B480" t="s">
@@ -13720,7 +13729,7 @@
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A481" s="27" t="s">
+      <c r="A481" s="29" t="s">
         <v>1097</v>
       </c>
       <c r="B481" t="s">
@@ -13736,7 +13745,7 @@
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A482" s="27" t="s">
+      <c r="A482" s="29" t="s">
         <v>1098</v>
       </c>
       <c r="B482" t="s">
@@ -13752,7 +13761,7 @@
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A483" s="27" t="s">
+      <c r="A483" s="29" t="s">
         <v>1099</v>
       </c>
       <c r="B483" t="s">
@@ -13768,7 +13777,7 @@
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A484" s="27" t="s">
+      <c r="A484" s="29" t="s">
         <v>1100</v>
       </c>
       <c r="B484" t="s">
@@ -13784,7 +13793,7 @@
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A485" s="27" t="s">
+      <c r="A485" s="29" t="s">
         <v>1101</v>
       </c>
       <c r="B485" t="s">
@@ -13800,7 +13809,7 @@
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A486" s="27" t="s">
+      <c r="A486" s="29" t="s">
         <v>1102</v>
       </c>
       <c r="B486" t="s">
@@ -13816,7 +13825,7 @@
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A487" s="27" t="s">
+      <c r="A487" s="29" t="s">
         <v>1103</v>
       </c>
       <c r="B487" t="s">
@@ -13832,7 +13841,7 @@
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A488" s="27" t="s">
+      <c r="A488" s="29" t="s">
         <v>1104</v>
       </c>
       <c r="B488" t="s">
@@ -13848,7 +13857,7 @@
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A489" s="27" t="s">
+      <c r="A489" s="29" t="s">
         <v>1105</v>
       </c>
       <c r="B489" t="s">
@@ -13864,7 +13873,7 @@
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A490" s="27" t="s">
+      <c r="A490" s="29" t="s">
         <v>1106</v>
       </c>
       <c r="B490" t="s">
@@ -13880,7 +13889,7 @@
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A491" s="27" t="s">
+      <c r="A491" s="29" t="s">
         <v>63</v>
       </c>
       <c r="B491" t="s">
@@ -13896,7 +13905,7 @@
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A492" s="27" t="s">
+      <c r="A492" s="29" t="s">
         <v>66</v>
       </c>
       <c r="B492" t="s">
@@ -13912,7 +13921,7 @@
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A493" s="27" t="s">
+      <c r="A493" s="29" t="s">
         <v>67</v>
       </c>
       <c r="B493" t="s">
@@ -13928,7 +13937,7 @@
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A494" s="27" t="s">
+      <c r="A494" s="29" t="s">
         <v>68</v>
       </c>
       <c r="B494" t="s">
@@ -13944,7 +13953,7 @@
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A495" s="27" t="s">
+      <c r="A495" s="29" t="s">
         <v>69</v>
       </c>
       <c r="B495" t="s">
@@ -13960,8 +13969,8 @@
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A496" s="27" t="s">
-        <v>1679</v>
+      <c r="A496" s="29" t="s">
+        <v>1634</v>
       </c>
       <c r="B496" t="s">
         <v>621</v>
@@ -13976,8 +13985,8 @@
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A497" s="27" t="s">
-        <v>1680</v>
+      <c r="A497" s="29" t="s">
+        <v>1635</v>
       </c>
       <c r="B497" t="s">
         <v>622</v>
@@ -13992,7 +14001,7 @@
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A498" s="27" t="s">
+      <c r="A498" s="29" t="s">
         <v>244</v>
       </c>
       <c r="B498" t="s">
@@ -14008,7 +14017,7 @@
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A499" s="27" t="s">
+      <c r="A499" s="29" t="s">
         <v>245</v>
       </c>
       <c r="B499" t="s">
@@ -14024,7 +14033,7 @@
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A500" s="27" t="s">
+      <c r="A500" s="29" t="s">
         <v>242</v>
       </c>
       <c r="B500" t="s">
@@ -14040,7 +14049,7 @@
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A501" s="27" t="s">
+      <c r="A501" s="29" t="s">
         <v>243</v>
       </c>
       <c r="B501" t="s">
@@ -14056,7 +14065,7 @@
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A502" s="27" t="s">
+      <c r="A502" s="29" t="s">
         <v>251</v>
       </c>
       <c r="B502" t="s">
@@ -14072,7 +14081,7 @@
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A503" s="27" t="s">
+      <c r="A503" s="29" t="s">
         <v>250</v>
       </c>
       <c r="B503" t="s">
@@ -14088,7 +14097,7 @@
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A504" s="27" t="s">
+      <c r="A504" s="29" t="s">
         <v>246</v>
       </c>
       <c r="B504" t="s">
@@ -14104,7 +14113,7 @@
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A505" s="27" t="s">
+      <c r="A505" s="29" t="s">
         <v>247</v>
       </c>
       <c r="B505" t="s">
@@ -14120,7 +14129,7 @@
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A506" s="27" t="s">
+      <c r="A506" s="29" t="s">
         <v>248</v>
       </c>
       <c r="B506" t="s">
@@ -14136,7 +14145,7 @@
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A507" s="27" t="s">
+      <c r="A507" s="29" t="s">
         <v>249</v>
       </c>
       <c r="B507" t="s">
@@ -14152,7 +14161,7 @@
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A508" s="27" t="s">
+      <c r="A508" s="29" t="s">
         <v>226</v>
       </c>
       <c r="B508" t="s">
@@ -14168,8 +14177,8 @@
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A509" s="27" t="s">
-        <v>1696</v>
+      <c r="A509" s="29" t="s">
+        <v>1651</v>
       </c>
       <c r="B509" t="s">
         <v>643</v>
@@ -14184,8 +14193,8 @@
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A510" s="27" t="s">
-        <v>1697</v>
+      <c r="A510" s="29" t="s">
+        <v>1652</v>
       </c>
       <c r="B510" t="s">
         <v>644</v>
@@ -14200,8 +14209,8 @@
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A511" s="27" t="s">
-        <v>1698</v>
+      <c r="A511" s="29" t="s">
+        <v>1653</v>
       </c>
       <c r="B511" t="s">
         <v>645</v>
@@ -14216,8 +14225,8 @@
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A512" s="27" t="s">
-        <v>1699</v>
+      <c r="A512" s="29" t="s">
+        <v>1654</v>
       </c>
       <c r="B512" t="s">
         <v>646</v>
@@ -14232,8 +14241,8 @@
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A513" s="27" t="s">
-        <v>1700</v>
+      <c r="A513" s="29" t="s">
+        <v>1655</v>
       </c>
       <c r="B513" t="s">
         <v>647</v>
@@ -14248,8 +14257,8 @@
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A514" s="27" t="s">
-        <v>1701</v>
+      <c r="A514" s="29" t="s">
+        <v>1656</v>
       </c>
       <c r="B514" t="s">
         <v>648</v>
@@ -14264,8 +14273,8 @@
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A515" s="27" t="s">
-        <v>1702</v>
+      <c r="A515" s="29" t="s">
+        <v>1657</v>
       </c>
       <c r="B515" t="s">
         <v>649</v>
@@ -14280,8 +14289,8 @@
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A516" s="27" t="s">
-        <v>1703</v>
+      <c r="A516" s="29" t="s">
+        <v>1658</v>
       </c>
       <c r="B516" t="s">
         <v>650</v>
@@ -14296,8 +14305,8 @@
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A517" s="27" t="s">
-        <v>1704</v>
+      <c r="A517" s="29" t="s">
+        <v>1659</v>
       </c>
       <c r="B517" t="s">
         <v>651</v>
@@ -14312,8 +14321,8 @@
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A518" s="27" t="s">
-        <v>1705</v>
+      <c r="A518" s="29" t="s">
+        <v>1660</v>
       </c>
       <c r="B518" t="s">
         <v>652</v>
@@ -14328,8 +14337,8 @@
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A519" s="27" t="s">
-        <v>1706</v>
+      <c r="A519" s="29" t="s">
+        <v>1661</v>
       </c>
       <c r="B519" t="s">
         <v>653</v>
@@ -14344,8 +14353,8 @@
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A520" s="27" t="s">
-        <v>1707</v>
+      <c r="A520" s="29" t="s">
+        <v>1662</v>
       </c>
       <c r="B520" t="s">
         <v>654</v>
@@ -14360,8 +14369,8 @@
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A521" s="27" t="s">
-        <v>1708</v>
+      <c r="A521" s="29" t="s">
+        <v>1663</v>
       </c>
       <c r="B521" t="s">
         <v>655</v>
@@ -14376,8 +14385,8 @@
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A522" s="27" t="s">
-        <v>1709</v>
+      <c r="A522" s="29" t="s">
+        <v>1664</v>
       </c>
       <c r="B522" t="s">
         <v>656</v>
@@ -14392,8 +14401,8 @@
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A523" s="27" t="s">
-        <v>1710</v>
+      <c r="A523" s="29" t="s">
+        <v>1665</v>
       </c>
       <c r="B523" t="s">
         <v>657</v>
@@ -14408,8 +14417,8 @@
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A524" s="27" t="s">
-        <v>1711</v>
+      <c r="A524" s="29" t="s">
+        <v>1666</v>
       </c>
       <c r="B524" t="s">
         <v>658</v>
@@ -14424,8 +14433,8 @@
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A525" s="27" t="s">
-        <v>1712</v>
+      <c r="A525" s="29" t="s">
+        <v>1667</v>
       </c>
       <c r="B525" t="s">
         <v>661</v>
@@ -14440,8 +14449,8 @@
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A526" s="27" t="s">
-        <v>1713</v>
+      <c r="A526" s="29" t="s">
+        <v>1668</v>
       </c>
       <c r="B526" t="s">
         <v>662</v>
@@ -14456,8 +14465,8 @@
       </c>
     </row>
     <row r="527" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="27" t="s">
-        <v>1714</v>
+      <c r="A527" s="29" t="s">
+        <v>1669</v>
       </c>
       <c r="B527" t="s">
         <v>663</v>
@@ -14472,8 +14481,8 @@
       </c>
     </row>
     <row r="528" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="27" t="s">
-        <v>1715</v>
+      <c r="A528" s="29" t="s">
+        <v>1670</v>
       </c>
       <c r="B528" t="s">
         <v>664</v>
@@ -14488,8 +14497,8 @@
       </c>
     </row>
     <row r="529" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="27" t="s">
-        <v>1716</v>
+      <c r="A529" s="29" t="s">
+        <v>1671</v>
       </c>
       <c r="B529" t="s">
         <v>665</v>
@@ -14504,8 +14513,8 @@
       </c>
     </row>
     <row r="530" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="27" t="s">
-        <v>1717</v>
+      <c r="A530" s="29" t="s">
+        <v>1672</v>
       </c>
       <c r="B530" t="s">
         <v>666</v>
@@ -14520,8 +14529,8 @@
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A531" s="27" t="s">
-        <v>1718</v>
+      <c r="A531" s="29" t="s">
+        <v>1673</v>
       </c>
       <c r="B531" t="s">
         <v>667</v>
@@ -14536,8 +14545,8 @@
       </c>
     </row>
     <row r="532" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="27" t="s">
-        <v>1719</v>
+      <c r="A532" s="29" t="s">
+        <v>1674</v>
       </c>
       <c r="B532" t="s">
         <v>668</v>
@@ -14552,8 +14561,8 @@
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A533" s="27" t="s">
-        <v>1720</v>
+      <c r="A533" s="29" t="s">
+        <v>1675</v>
       </c>
       <c r="B533" t="s">
         <v>669</v>
@@ -14568,8 +14577,8 @@
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A534" s="27" t="s">
-        <v>1721</v>
+      <c r="A534" s="29" t="s">
+        <v>1676</v>
       </c>
       <c r="B534" t="s">
         <v>670</v>
@@ -14584,8 +14593,8 @@
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A535" s="27" t="s">
-        <v>1721</v>
+      <c r="A535" s="29" t="s">
+        <v>1676</v>
       </c>
       <c r="B535" t="s">
         <v>671</v>
@@ -14600,8 +14609,8 @@
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A536" s="27" t="s">
-        <v>1722</v>
+      <c r="A536" s="29" t="s">
+        <v>1677</v>
       </c>
       <c r="B536" t="s">
         <v>672</v>
@@ -14616,8 +14625,8 @@
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A537" s="27" t="s">
-        <v>1723</v>
+      <c r="A537" s="29" t="s">
+        <v>1678</v>
       </c>
       <c r="B537" t="s">
         <v>673</v>
@@ -14632,8 +14641,8 @@
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A538" s="27" t="s">
-        <v>1724</v>
+      <c r="A538" s="29" t="s">
+        <v>1679</v>
       </c>
       <c r="B538" t="s">
         <v>674</v>
@@ -14648,8 +14657,8 @@
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A539" s="27" t="s">
-        <v>1725</v>
+      <c r="A539" s="29" t="s">
+        <v>1680</v>
       </c>
       <c r="B539" t="s">
         <v>675</v>
@@ -14664,8 +14673,8 @@
       </c>
     </row>
     <row r="540" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="27" t="s">
-        <v>1726</v>
+      <c r="A540" s="29" t="s">
+        <v>1681</v>
       </c>
       <c r="B540" t="s">
         <v>676</v>
@@ -14680,8 +14689,8 @@
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A541" s="27" t="s">
-        <v>1727</v>
+      <c r="A541" s="29" t="s">
+        <v>1682</v>
       </c>
       <c r="B541" t="s">
         <v>677</v>
@@ -14696,8 +14705,8 @@
       </c>
     </row>
     <row r="542" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="27" t="s">
-        <v>1728</v>
+      <c r="A542" s="29" t="s">
+        <v>1683</v>
       </c>
       <c r="B542" t="s">
         <v>678</v>
@@ -14712,8 +14721,8 @@
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A543" s="27" t="s">
-        <v>1729</v>
+      <c r="A543" s="29" t="s">
+        <v>1684</v>
       </c>
       <c r="B543" t="s">
         <v>679</v>
@@ -14728,8 +14737,8 @@
       </c>
     </row>
     <row r="544" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="27" t="s">
-        <v>1730</v>
+      <c r="A544" s="29" t="s">
+        <v>1685</v>
       </c>
       <c r="B544" t="s">
         <v>680</v>
@@ -14744,7 +14753,7 @@
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A545" s="27" t="s">
+      <c r="A545" s="29" t="s">
         <v>1212</v>
       </c>
       <c r="B545" t="s">
@@ -14760,8 +14769,8 @@
       </c>
     </row>
     <row r="546" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="27" t="s">
-        <v>1731</v>
+      <c r="A546" s="29" t="s">
+        <v>1686</v>
       </c>
       <c r="B546" t="s">
         <v>682</v>
@@ -14776,8 +14785,8 @@
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A547" s="27" t="s">
-        <v>1732</v>
+      <c r="A547" s="29" t="s">
+        <v>1687</v>
       </c>
       <c r="B547" t="s">
         <v>683</v>
@@ -14792,8 +14801,8 @@
       </c>
     </row>
     <row r="548" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="27" t="s">
-        <v>1733</v>
+      <c r="A548" s="29" t="s">
+        <v>1688</v>
       </c>
       <c r="B548" t="s">
         <v>684</v>
@@ -14808,8 +14817,8 @@
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A549" s="27" t="s">
-        <v>1734</v>
+      <c r="A549" s="29" t="s">
+        <v>1689</v>
       </c>
       <c r="B549" t="s">
         <v>685</v>
@@ -14824,8 +14833,8 @@
       </c>
     </row>
     <row r="550" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="27" t="s">
-        <v>1735</v>
+      <c r="A550" s="29" t="s">
+        <v>1690</v>
       </c>
       <c r="B550" t="s">
         <v>686</v>
@@ -14840,8 +14849,8 @@
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A551" s="27" t="s">
-        <v>1736</v>
+      <c r="A551" s="29" t="s">
+        <v>1691</v>
       </c>
       <c r="B551" t="s">
         <v>687</v>
@@ -14856,8 +14865,8 @@
       </c>
     </row>
     <row r="552" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="27" t="s">
-        <v>1737</v>
+      <c r="A552" s="29" t="s">
+        <v>1692</v>
       </c>
       <c r="B552" t="s">
         <v>688</v>
@@ -14872,8 +14881,8 @@
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A553" s="27" t="s">
-        <v>1738</v>
+      <c r="A553" s="29" t="s">
+        <v>1693</v>
       </c>
       <c r="B553" t="s">
         <v>689</v>
@@ -14888,8 +14897,8 @@
       </c>
     </row>
     <row r="554" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="27" t="s">
-        <v>1739</v>
+      <c r="A554" s="29" t="s">
+        <v>1694</v>
       </c>
       <c r="B554" t="s">
         <v>690</v>
@@ -14904,8 +14913,8 @@
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A555" s="27" t="s">
-        <v>1740</v>
+      <c r="A555" s="29" t="s">
+        <v>1695</v>
       </c>
       <c r="B555" t="s">
         <v>691</v>
@@ -14920,8 +14929,8 @@
       </c>
     </row>
     <row r="556" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="27" t="s">
-        <v>1741</v>
+      <c r="A556" s="29" t="s">
+        <v>1696</v>
       </c>
       <c r="B556" t="s">
         <v>692</v>
@@ -14936,8 +14945,8 @@
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A557" s="27" t="s">
-        <v>1742</v>
+      <c r="A557" s="29" t="s">
+        <v>1697</v>
       </c>
       <c r="B557" t="s">
         <v>693</v>
@@ -14952,8 +14961,8 @@
       </c>
     </row>
     <row r="558" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="27" t="s">
-        <v>1743</v>
+      <c r="A558" s="29" t="s">
+        <v>1698</v>
       </c>
       <c r="B558" t="s">
         <v>694</v>
@@ -14968,8 +14977,8 @@
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A559" s="27" t="s">
-        <v>1744</v>
+      <c r="A559" s="29" t="s">
+        <v>1699</v>
       </c>
       <c r="B559" t="s">
         <v>695</v>
@@ -14984,8 +14993,8 @@
       </c>
     </row>
     <row r="560" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="27" t="s">
-        <v>1745</v>
+      <c r="A560" s="29" t="s">
+        <v>1700</v>
       </c>
       <c r="B560" t="s">
         <v>696</v>
@@ -15000,8 +15009,8 @@
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A561" s="27" t="s">
-        <v>1746</v>
+      <c r="A561" s="29" t="s">
+        <v>1701</v>
       </c>
       <c r="B561" t="s">
         <v>697</v>
@@ -15016,8 +15025,8 @@
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A562" s="27" t="s">
-        <v>1747</v>
+      <c r="A562" s="29" t="s">
+        <v>1702</v>
       </c>
       <c r="B562" t="s">
         <v>698</v>
@@ -15032,8 +15041,8 @@
       </c>
     </row>
     <row r="563" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="27" t="s">
-        <v>1748</v>
+      <c r="A563" s="29" t="s">
+        <v>1703</v>
       </c>
       <c r="B563" t="s">
         <v>699</v>
@@ -15048,8 +15057,8 @@
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A564" s="27" t="s">
-        <v>1749</v>
+      <c r="A564" s="29" t="s">
+        <v>1704</v>
       </c>
       <c r="B564" t="s">
         <v>700</v>
@@ -15064,8 +15073,8 @@
       </c>
     </row>
     <row r="565" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="27" t="s">
-        <v>1750</v>
+      <c r="A565" s="29" t="s">
+        <v>1705</v>
       </c>
       <c r="B565" t="s">
         <v>701</v>
@@ -15080,8 +15089,8 @@
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A566" s="27" t="s">
-        <v>1751</v>
+      <c r="A566" s="29" t="s">
+        <v>1706</v>
       </c>
       <c r="B566" t="s">
         <v>702</v>
@@ -15096,8 +15105,8 @@
       </c>
     </row>
     <row r="567" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="27" t="s">
-        <v>1752</v>
+      <c r="A567" s="29" t="s">
+        <v>1707</v>
       </c>
       <c r="B567" t="s">
         <v>703</v>
@@ -15112,8 +15121,8 @@
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A568" s="27" t="s">
-        <v>1753</v>
+      <c r="A568" s="29" t="s">
+        <v>1708</v>
       </c>
       <c r="B568" t="s">
         <v>704</v>
@@ -15128,8 +15137,8 @@
       </c>
     </row>
     <row r="569" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="27" t="s">
-        <v>1754</v>
+      <c r="A569" s="29" t="s">
+        <v>1709</v>
       </c>
       <c r="B569" t="s">
         <v>705</v>
@@ -15144,8 +15153,8 @@
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A570" s="27" t="s">
-        <v>1755</v>
+      <c r="A570" s="29" t="s">
+        <v>1710</v>
       </c>
       <c r="B570" t="s">
         <v>706</v>
@@ -15153,15 +15162,15 @@
       <c r="C570" s="14"/>
       <c r="D570" s="15"/>
       <c r="E570" s="17" t="s">
-        <v>1799</v>
+        <v>1753</v>
       </c>
       <c r="F570" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A571" s="27" t="s">
-        <v>1756</v>
+      <c r="A571" s="29" t="s">
+        <v>1711</v>
       </c>
       <c r="B571" t="s">
         <v>707</v>
@@ -15169,15 +15178,15 @@
       <c r="C571" s="14"/>
       <c r="D571" s="15"/>
       <c r="E571" s="17" t="s">
-        <v>1799</v>
+        <v>1753</v>
       </c>
       <c r="F571" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="572" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="27" t="s">
-        <v>1757</v>
+      <c r="A572" s="29" t="s">
+        <v>1712</v>
       </c>
       <c r="B572" t="s">
         <v>708</v>
@@ -15185,15 +15194,15 @@
       <c r="C572" s="14"/>
       <c r="D572" s="15"/>
       <c r="E572" s="17" t="s">
-        <v>1799</v>
+        <v>1753</v>
       </c>
       <c r="F572" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="573" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="27" t="s">
-        <v>1758</v>
+      <c r="A573" s="29" t="s">
+        <v>1713</v>
       </c>
       <c r="B573" t="s">
         <v>709</v>
@@ -15208,8 +15217,8 @@
       </c>
     </row>
     <row r="574" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="27" t="s">
-        <v>1759</v>
+      <c r="A574" s="29" t="s">
+        <v>1714</v>
       </c>
       <c r="B574" t="s">
         <v>710</v>
@@ -15224,8 +15233,8 @@
       </c>
     </row>
     <row r="575" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="27" t="s">
-        <v>1760</v>
+      <c r="A575" s="29" t="s">
+        <v>1715</v>
       </c>
       <c r="B575" t="s">
         <v>711</v>
@@ -15240,8 +15249,8 @@
       </c>
     </row>
     <row r="576" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="27" t="s">
-        <v>1761</v>
+      <c r="A576" s="29" t="s">
+        <v>1716</v>
       </c>
       <c r="B576" t="s">
         <v>712</v>
@@ -15256,8 +15265,8 @@
       </c>
     </row>
     <row r="577" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="27" t="s">
-        <v>1762</v>
+      <c r="A577" s="29" t="s">
+        <v>1717</v>
       </c>
       <c r="B577" t="s">
         <v>713</v>
@@ -15272,8 +15281,8 @@
       </c>
     </row>
     <row r="578" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="27" t="s">
-        <v>1763</v>
+      <c r="A578" s="29" t="s">
+        <v>1718</v>
       </c>
       <c r="B578" t="s">
         <v>714</v>
@@ -15288,8 +15297,8 @@
       </c>
     </row>
     <row r="579" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="27" t="s">
-        <v>1764</v>
+      <c r="A579" s="29" t="s">
+        <v>1719</v>
       </c>
       <c r="B579" t="s">
         <v>715</v>
@@ -15304,8 +15313,8 @@
       </c>
     </row>
     <row r="580" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="27" t="s">
-        <v>1765</v>
+      <c r="A580" s="29" t="s">
+        <v>1720</v>
       </c>
       <c r="B580" t="s">
         <v>716</v>
@@ -15320,8 +15329,8 @@
       </c>
     </row>
     <row r="581" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="27" t="s">
-        <v>1764</v>
+      <c r="A581" s="29" t="s">
+        <v>1719</v>
       </c>
       <c r="B581" t="s">
         <v>717</v>
@@ -15337,8 +15346,8 @@
       <c r="H581" s="4"/>
     </row>
     <row r="582" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="27" t="s">
-        <v>1766</v>
+      <c r="A582" s="29" t="s">
+        <v>1721</v>
       </c>
       <c r="B582" t="s">
         <v>718</v>
@@ -15353,8 +15362,8 @@
       </c>
     </row>
     <row r="583" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="27" t="s">
-        <v>1767</v>
+      <c r="A583" s="29" t="s">
+        <v>1722</v>
       </c>
       <c r="B583" t="s">
         <v>719</v>
@@ -15369,8 +15378,8 @@
       </c>
     </row>
     <row r="584" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="27" t="s">
-        <v>1768</v>
+      <c r="A584" s="29" t="s">
+        <v>1723</v>
       </c>
       <c r="B584" t="s">
         <v>720</v>
@@ -15385,8 +15394,8 @@
       </c>
     </row>
     <row r="585" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="27" t="s">
-        <v>1769</v>
+      <c r="A585" s="29" t="s">
+        <v>1724</v>
       </c>
       <c r="B585" t="s">
         <v>721</v>
@@ -15394,15 +15403,15 @@
       <c r="C585" s="14"/>
       <c r="D585" s="15"/>
       <c r="E585" s="17" t="s">
-        <v>1802</v>
+        <v>1756</v>
       </c>
       <c r="F585" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="586" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="27" t="s">
-        <v>1770</v>
+      <c r="A586" s="29" t="s">
+        <v>1725</v>
       </c>
       <c r="B586" t="s">
         <v>722</v>
@@ -15410,15 +15419,15 @@
       <c r="C586" s="14"/>
       <c r="D586" s="15"/>
       <c r="E586" s="17" t="s">
-        <v>1802</v>
+        <v>1756</v>
       </c>
       <c r="F586" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="587" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="27" t="s">
-        <v>1771</v>
+      <c r="A587" s="29" t="s">
+        <v>1726</v>
       </c>
       <c r="B587" t="s">
         <v>723</v>
@@ -15426,15 +15435,15 @@
       <c r="C587" s="14"/>
       <c r="D587" s="15"/>
       <c r="E587" s="17" t="s">
-        <v>1802</v>
+        <v>1756</v>
       </c>
       <c r="F587" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="588" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="27" t="s">
-        <v>1772</v>
+      <c r="A588" s="29" t="s">
+        <v>1727</v>
       </c>
       <c r="B588" t="s">
         <v>724</v>
@@ -15449,8 +15458,8 @@
       </c>
     </row>
     <row r="589" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="27" t="s">
-        <v>1773</v>
+      <c r="A589" s="29" t="s">
+        <v>1728</v>
       </c>
       <c r="B589" t="s">
         <v>725</v>
@@ -15465,8 +15474,8 @@
       </c>
     </row>
     <row r="590" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="27" t="s">
-        <v>1774</v>
+      <c r="A590" s="29" t="s">
+        <v>1729</v>
       </c>
       <c r="B590" t="s">
         <v>726</v>
@@ -15481,8 +15490,8 @@
       </c>
     </row>
     <row r="591" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="27" t="s">
-        <v>1775</v>
+      <c r="A591" s="29" t="s">
+        <v>1730</v>
       </c>
       <c r="B591" t="s">
         <v>727</v>
@@ -15490,15 +15499,15 @@
       <c r="C591" s="14"/>
       <c r="D591" s="15"/>
       <c r="E591" s="17" t="s">
-        <v>1803</v>
+        <v>1757</v>
       </c>
       <c r="F591" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="592" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A592" s="27" t="s">
-        <v>1776</v>
+      <c r="A592" s="29" t="s">
+        <v>1731</v>
       </c>
       <c r="B592" t="s">
         <v>728</v>
@@ -15506,15 +15515,15 @@
       <c r="C592" s="14"/>
       <c r="D592" s="15"/>
       <c r="E592" s="17" t="s">
-        <v>1803</v>
+        <v>1757</v>
       </c>
       <c r="F592" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="593" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="27" t="s">
-        <v>1777</v>
+      <c r="A593" s="29" t="s">
+        <v>1732</v>
       </c>
       <c r="B593" t="s">
         <v>729</v>
@@ -15522,15 +15531,15 @@
       <c r="C593" s="14"/>
       <c r="D593" s="15"/>
       <c r="E593" s="17" t="s">
-        <v>1803</v>
+        <v>1757</v>
       </c>
       <c r="F593" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="594" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A594" s="27" t="s">
-        <v>1778</v>
+      <c r="A594" s="29" t="s">
+        <v>1733</v>
       </c>
       <c r="B594" t="s">
         <v>730</v>
@@ -15538,15 +15547,15 @@
       <c r="C594" s="14"/>
       <c r="D594" s="15"/>
       <c r="E594" s="17" t="s">
-        <v>1803</v>
+        <v>1757</v>
       </c>
       <c r="F594" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="595" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="27" t="s">
-        <v>1779</v>
+      <c r="A595" s="29" t="s">
+        <v>1734</v>
       </c>
       <c r="B595" t="s">
         <v>731</v>
@@ -15554,15 +15563,15 @@
       <c r="C595" s="14"/>
       <c r="D595" s="15"/>
       <c r="E595" s="17" t="s">
-        <v>1803</v>
+        <v>1757</v>
       </c>
       <c r="F595" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="596" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A596" s="27" t="s">
-        <v>1780</v>
+      <c r="A596" s="29" t="s">
+        <v>1735</v>
       </c>
       <c r="B596" t="s">
         <v>732</v>
@@ -15577,8 +15586,8 @@
       </c>
     </row>
     <row r="597" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="27" t="s">
-        <v>1781</v>
+      <c r="A597" s="29" t="s">
+        <v>1736</v>
       </c>
       <c r="B597" t="s">
         <v>733</v>
@@ -15593,8 +15602,8 @@
       </c>
     </row>
     <row r="598" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="27" t="s">
-        <v>1782</v>
+      <c r="A598" s="29" t="s">
+        <v>1737</v>
       </c>
       <c r="B598" t="s">
         <v>734</v>
@@ -15609,8 +15618,8 @@
       </c>
     </row>
     <row r="599" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="27" t="s">
-        <v>1783</v>
+      <c r="A599" s="29" t="s">
+        <v>1738</v>
       </c>
       <c r="B599" t="s">
         <v>735</v>
@@ -15625,8 +15634,8 @@
       </c>
     </row>
     <row r="600" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="27" t="s">
-        <v>1784</v>
+      <c r="A600" s="29" t="s">
+        <v>1739</v>
       </c>
       <c r="B600" t="s">
         <v>736</v>
@@ -15641,8 +15650,8 @@
       </c>
     </row>
     <row r="601" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="27" t="s">
-        <v>1785</v>
+      <c r="A601" s="29" t="s">
+        <v>1740</v>
       </c>
       <c r="B601" t="s">
         <v>737</v>
@@ -15657,8 +15666,8 @@
       </c>
     </row>
     <row r="602" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A602" s="27" t="s">
-        <v>1786</v>
+      <c r="A602" s="29" t="s">
+        <v>1741</v>
       </c>
       <c r="B602" t="s">
         <v>738</v>
@@ -15673,8 +15682,8 @@
       </c>
     </row>
     <row r="603" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A603" s="27" t="s">
-        <v>1787</v>
+      <c r="A603" s="29" t="s">
+        <v>1742</v>
       </c>
       <c r="B603" t="s">
         <v>739</v>
@@ -15689,8 +15698,8 @@
       </c>
     </row>
     <row r="604" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A604" s="27" t="s">
-        <v>1788</v>
+      <c r="A604" s="29" t="s">
+        <v>1743</v>
       </c>
       <c r="B604" t="s">
         <v>740</v>
@@ -15705,8 +15714,8 @@
       </c>
     </row>
     <row r="605" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="27" t="s">
-        <v>1789</v>
+      <c r="A605" s="29" t="s">
+        <v>1744</v>
       </c>
       <c r="B605" t="s">
         <v>741</v>
@@ -15721,8 +15730,8 @@
       </c>
     </row>
     <row r="606" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A606" s="27" t="s">
-        <v>1790</v>
+      <c r="A606" s="29" t="s">
+        <v>1745</v>
       </c>
       <c r="B606" t="s">
         <v>742</v>
@@ -15737,7 +15746,7 @@
       </c>
     </row>
     <row r="607" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A607" s="27" t="s">
+      <c r="A607" s="29" t="s">
         <v>827</v>
       </c>
       <c r="B607" t="s">
@@ -15753,8 +15762,8 @@
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A608" s="27" t="s">
-        <v>1791</v>
+      <c r="A608" s="29" t="s">
+        <v>1746</v>
       </c>
       <c r="B608" t="s">
         <v>792</v>
@@ -15769,8 +15778,8 @@
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A609" s="27" t="s">
-        <v>1792</v>
+      <c r="A609" s="29" t="s">
+        <v>1747</v>
       </c>
       <c r="B609" t="s">
         <v>793</v>
@@ -15785,8 +15794,8 @@
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A610" s="27" t="s">
-        <v>1793</v>
+      <c r="A610" s="29" t="s">
+        <v>1748</v>
       </c>
       <c r="B610" t="s">
         <v>794</v>
@@ -15801,8 +15810,8 @@
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A611" s="27" t="s">
-        <v>1794</v>
+      <c r="A611" s="29" t="s">
+        <v>1749</v>
       </c>
       <c r="B611" t="s">
         <v>795</v>
@@ -15817,8 +15826,8 @@
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A612" s="27" t="s">
-        <v>1795</v>
+      <c r="A612" s="29" t="s">
+        <v>1750</v>
       </c>
       <c r="B612" t="s">
         <v>796</v>
@@ -15833,8 +15842,8 @@
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A613" s="27" t="s">
-        <v>1796</v>
+      <c r="A613" s="29" t="s">
+        <v>1751</v>
       </c>
       <c r="B613" t="s">
         <v>797</v>
@@ -16034,7 +16043,7 @@
       </c>
       <c r="D624" s="11"/>
       <c r="E624" s="11" t="s">
-        <v>1801</v>
+        <v>1755</v>
       </c>
       <c r="F624" s="1" t="s">
         <v>1591</v>
@@ -16616,7 +16625,7 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" s="24" t="s">
-        <v>1681</v>
+        <v>1636</v>
       </c>
       <c r="B657" s="3" t="s">
         <v>1588</v>
@@ -16773,7 +16782,7 @@
       <c r="A704" s="24"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E658">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E658">
     <sortCondition ref="B2:B658"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MISSION_DATA/A13_photos.xlsx
+++ b/MISSION_DATA/A13_photos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo_13\MISSION_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C9C887-C52B-402F-B86C-722F93B87251}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B507B11E-6C10-4E48-BBD5-F84C1212FF72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10845" yWindow="4605" windowWidth="32355" windowHeight="25125" xr2:uid="{E7285D04-3DFB-428F-BD58-901528569A82}"/>
+    <workbookView xWindow="10500" yWindow="4260" windowWidth="32355" windowHeight="25125" xr2:uid="{E7285D04-3DFB-428F-BD58-901528569A82}"/>
   </bookViews>
   <sheets>
     <sheet name="A13_photos" sheetId="15" r:id="rId1"/>
@@ -3039,9 +3039,6 @@
     <t>S70-35144</t>
   </si>
   <si>
-    <t>143:39:43</t>
-  </si>
-  <si>
     <t>KSC-70PC-121.jpg</t>
   </si>
   <si>
@@ -4858,6 +4855,9 @@
   </si>
   <si>
     <t>The impact site of the S-IVB as photographed by the &lt;a href="https://lunar.gsfc.nasa.gov/about.html" target="_blank"&gt; Lunar Reconnaissance Orbiter&lt;/a&gt; in 2010. A scientific paper was written in 1974 about &lt;a href="https://media.apolloinrealtime.org/A13/documents/Lindeman_et_al-1974-Journal_of_Geophysical_Research.pdf" target="_blank"&gt;The Interaction Between an Impact-Produced Neutral Gas Cloud and the Solar Wind at the Lunar Surface&lt;/a&gt;. For more about this image &lt; href="http://lroc.sese.asu.edu/posts/364"&gt;read about SIVB impacts on the Moon&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>143:39:36</t>
   </si>
 </sst>
 </file>
@@ -5330,8 +5330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA25AE87-EBB6-4592-B83F-0D7E34AA70ED}">
   <dimension ref="A1:H704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A616" workbookViewId="0">
-      <selection activeCell="E657" sqref="E657"/>
+    <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
+      <selection activeCell="A637" sqref="A637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5362,7 +5362,7 @@
         <v>799</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5376,7 +5376,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5394,12 +5394,12 @@
         <v>834</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>859</v>
@@ -5409,10 +5409,10 @@
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5430,7 +5430,7 @@
         <v>856</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5448,7 +5448,7 @@
         <v>834</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5464,7 +5464,7 @@
         <v>861</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5482,7 +5482,7 @@
         <v>891</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5500,12 +5500,12 @@
         <v>891</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B10" t="s">
         <v>721</v>
@@ -5516,12 +5516,12 @@
         <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B11" t="s">
         <v>723</v>
@@ -5532,12 +5532,12 @@
         <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B12" t="s">
         <v>724</v>
@@ -5548,12 +5548,12 @@
         <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B13" t="s">
         <v>725</v>
@@ -5564,12 +5564,12 @@
         <v>26</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B14" t="s">
         <v>726</v>
@@ -5580,12 +5580,12 @@
         <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B15" t="s">
         <v>727</v>
@@ -5596,12 +5596,12 @@
         <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B16" t="s">
         <v>728</v>
@@ -5612,12 +5612,12 @@
         <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B17" t="s">
         <v>729</v>
@@ -5628,12 +5628,12 @@
         <v>26</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B18" t="s">
         <v>731</v>
@@ -5644,12 +5644,12 @@
         <v>26</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B19" t="s">
         <v>733</v>
@@ -5660,12 +5660,12 @@
         <v>26</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B20" t="s">
         <v>735</v>
@@ -5676,12 +5676,12 @@
         <v>26</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B21" t="s">
         <v>737</v>
@@ -5692,12 +5692,12 @@
         <v>26</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B22" t="s">
         <v>739</v>
@@ -5708,12 +5708,12 @@
         <v>26</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B23" t="s">
         <v>741</v>
@@ -5724,12 +5724,12 @@
         <v>26</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B24" t="s">
         <v>743</v>
@@ -5740,12 +5740,12 @@
         <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B25" t="s">
         <v>745</v>
@@ -5756,12 +5756,12 @@
         <v>26</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B26" t="s">
         <v>747</v>
@@ -5772,12 +5772,12 @@
         <v>26</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B27" t="s">
         <v>749</v>
@@ -5788,12 +5788,12 @@
         <v>26</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B28" t="s">
         <v>751</v>
@@ -5804,12 +5804,12 @@
         <v>26</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B29" t="s">
         <v>752</v>
@@ -5820,12 +5820,12 @@
         <v>26</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B30" t="s">
         <v>754</v>
@@ -5836,15 +5836,15 @@
         <v>26</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B31" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="15"/>
@@ -5852,12 +5852,12 @@
         <v>26</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B32" t="s">
         <v>756</v>
@@ -5868,12 +5868,12 @@
         <v>26</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B33" t="s">
         <v>758</v>
@@ -5884,12 +5884,12 @@
         <v>26</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B34" t="s">
         <v>760</v>
@@ -5900,12 +5900,12 @@
         <v>26</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B35" t="s">
         <v>761</v>
@@ -5916,716 +5916,716 @@
         <v>26</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B36" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="15"/>
       <c r="E36" s="16" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B37" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="15"/>
       <c r="E37" s="16" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B38" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="15"/>
       <c r="E38" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B39" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="15"/>
       <c r="E39" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B40" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="15"/>
       <c r="E40" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B41" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="15"/>
       <c r="E41" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B42" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="15"/>
       <c r="E42" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B43" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="15"/>
       <c r="E43" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B44" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="15"/>
       <c r="E44" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B45" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="15"/>
       <c r="E45" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B46" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="15"/>
       <c r="E46" s="17" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B47" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="15"/>
       <c r="E47" s="17" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B48" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="15"/>
       <c r="E48" s="17" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B49" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="15"/>
       <c r="E49" s="17" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B50" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="15"/>
       <c r="E50" s="17" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B51" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="15"/>
       <c r="E51" s="17" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B52" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="15"/>
       <c r="E52" s="17" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B53" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="15"/>
       <c r="E53" s="17" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B54" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="15"/>
       <c r="E54" s="20" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B55" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="15"/>
       <c r="E55" s="20" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B56" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="15"/>
       <c r="E56" s="17" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B57" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="15"/>
       <c r="E57" s="17" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B58" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="15"/>
       <c r="E58" s="17" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B59" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="15"/>
       <c r="E59" s="17" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B60" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C60" s="21"/>
       <c r="D60" s="15"/>
       <c r="E60" s="17" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B61" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="15"/>
       <c r="E61" s="17" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B62" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="15"/>
       <c r="E62" s="17" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B63" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C63" s="21"/>
       <c r="D63" s="15"/>
       <c r="E63" s="17" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B64" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C64" s="21"/>
       <c r="D64" s="15"/>
       <c r="E64" s="17" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B65" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="15"/>
       <c r="E65" s="17" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B66" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C66" s="21"/>
       <c r="D66" s="15"/>
       <c r="E66" s="17" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B67" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C67" s="21"/>
       <c r="D67" s="15"/>
       <c r="E67" s="17" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B68" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C68" s="21"/>
       <c r="D68" s="15"/>
       <c r="E68" s="17" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B69" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C69" s="21"/>
       <c r="D69" s="15"/>
       <c r="E69" s="17" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B70" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="15"/>
       <c r="E70" s="17" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B71" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C71" s="21"/>
       <c r="D71" s="15"/>
       <c r="E71" s="17" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B72" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C72" s="21"/>
       <c r="D72" s="15"/>
       <c r="E72" s="17" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B73" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C73" s="21"/>
       <c r="D73" s="15"/>
       <c r="E73" s="17" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B74" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C74" s="21"/>
       <c r="D74" s="15"/>
       <c r="E74" s="17" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B75" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C75" s="21"/>
       <c r="D75" s="15"/>
       <c r="E75" s="17" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B76" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C76" s="21"/>
       <c r="D76" s="15"/>
       <c r="E76" s="17" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B77" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C77" s="21"/>
       <c r="D77" s="15"/>
       <c r="E77" s="17" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B78" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C78" s="21"/>
       <c r="D78" s="15"/>
       <c r="E78" s="17" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B79" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C79" s="21"/>
       <c r="D79" s="15"/>
       <c r="E79" s="17" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B80" t="s">
         <v>717</v>
@@ -6636,12 +6636,12 @@
         <v>951</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B81" t="s">
         <v>718</v>
@@ -6652,12 +6652,12 @@
         <v>951</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B82" t="s">
         <v>719</v>
@@ -6668,12 +6668,12 @@
         <v>951</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B83" t="s">
         <v>720</v>
@@ -6684,12 +6684,12 @@
         <v>951</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B84" t="s">
         <v>722</v>
@@ -6700,12 +6700,12 @@
         <v>951</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B85" t="s">
         <v>730</v>
@@ -6716,12 +6716,12 @@
         <v>951</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B86" t="s">
         <v>732</v>
@@ -6732,12 +6732,12 @@
         <v>951</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B87" t="s">
         <v>734</v>
@@ -6748,12 +6748,12 @@
         <v>951</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B88" t="s">
         <v>736</v>
@@ -6764,12 +6764,12 @@
         <v>951</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B89" t="s">
         <v>738</v>
@@ -6780,12 +6780,12 @@
         <v>951</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B90" t="s">
         <v>740</v>
@@ -6796,12 +6796,12 @@
         <v>951</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B91" t="s">
         <v>742</v>
@@ -6812,12 +6812,12 @@
         <v>951</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B92" t="s">
         <v>744</v>
@@ -6828,12 +6828,12 @@
         <v>951</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B93" t="s">
         <v>746</v>
@@ -6844,12 +6844,12 @@
         <v>951</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B94" t="s">
         <v>748</v>
@@ -6860,12 +6860,12 @@
         <v>951</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B95" t="s">
         <v>750</v>
@@ -6876,12 +6876,12 @@
         <v>951</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B96" t="s">
         <v>753</v>
@@ -6892,12 +6892,12 @@
         <v>951</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="97" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B97" t="s">
         <v>755</v>
@@ -6908,12 +6908,12 @@
         <v>951</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="98" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B98" t="s">
         <v>757</v>
@@ -6924,12 +6924,12 @@
         <v>951</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="99" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B99" t="s">
         <v>759</v>
@@ -6940,12 +6940,12 @@
         <v>951</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="100" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B100" t="s">
         <v>762</v>
@@ -6956,12 +6956,12 @@
         <v>951</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B101" t="s">
         <v>763</v>
@@ -6972,12 +6972,12 @@
         <v>951</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B102" t="s">
         <v>764</v>
@@ -6988,12 +6988,12 @@
         <v>951</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B103" t="s">
         <v>771</v>
@@ -7004,12 +7004,12 @@
         <v>952</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B104" t="s">
         <v>772</v>
@@ -7020,12 +7020,12 @@
         <v>952</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B105" t="s">
         <v>773</v>
@@ -7036,12 +7036,12 @@
         <v>952</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B106" t="s">
         <v>774</v>
@@ -7052,12 +7052,12 @@
         <v>952</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B107" t="s">
         <v>775</v>
@@ -7068,12 +7068,12 @@
         <v>952</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B108" t="s">
         <v>776</v>
@@ -7084,12 +7084,12 @@
         <v>952</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B109" t="s">
         <v>777</v>
@@ -7100,12 +7100,12 @@
         <v>952</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B110" t="s">
         <v>778</v>
@@ -7116,12 +7116,12 @@
         <v>952</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B111" t="s">
         <v>779</v>
@@ -7132,12 +7132,12 @@
         <v>952</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B112" t="s">
         <v>780</v>
@@ -7148,12 +7148,12 @@
         <v>953</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B113" t="s">
         <v>781</v>
@@ -7164,12 +7164,12 @@
         <v>953</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B114" t="s">
         <v>782</v>
@@ -7180,12 +7180,12 @@
         <v>953</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="115" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B115" t="s">
         <v>783</v>
@@ -7196,12 +7196,12 @@
         <v>953</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="116" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="25" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B116" t="s">
         <v>784</v>
@@ -7212,12 +7212,12 @@
         <v>953</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="117" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B117" t="s">
         <v>785</v>
@@ -7228,12 +7228,12 @@
         <v>953</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="118" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B118" t="s">
         <v>786</v>
@@ -7244,12 +7244,12 @@
         <v>953</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="119" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B119" t="s">
         <v>787</v>
@@ -7260,12 +7260,12 @@
         <v>953</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="120" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B120" t="s">
         <v>788</v>
@@ -7276,12 +7276,12 @@
         <v>953</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="121" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B121" t="s">
         <v>789</v>
@@ -7292,12 +7292,12 @@
         <v>953</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="122" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="25" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B122" t="s">
         <v>790</v>
@@ -7308,12 +7308,12 @@
         <v>953</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="123" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="25" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B123" t="s">
         <v>791</v>
@@ -7324,12 +7324,12 @@
         <v>953</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="124" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="25" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B124" t="s">
         <v>792</v>
@@ -7340,12 +7340,12 @@
         <v>953</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="125" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="25" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B125" t="s">
         <v>793</v>
@@ -7356,12 +7356,12 @@
         <v>953</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="126" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B126" t="s">
         <v>794</v>
@@ -7372,12 +7372,12 @@
         <v>953</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="127" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B127" t="s">
         <v>795</v>
@@ -7388,12 +7388,12 @@
         <v>953</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="128" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="25" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B128" t="s">
         <v>796</v>
@@ -7404,12 +7404,12 @@
         <v>954</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="129" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="25" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B129" t="s">
         <v>797</v>
@@ -7420,12 +7420,12 @@
         <v>954</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="130" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B130" t="s">
         <v>798</v>
@@ -7436,12 +7436,12 @@
         <v>954</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="131" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B131" t="s">
         <v>240</v>
@@ -7452,7 +7452,7 @@
         <v>6</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="132" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7468,12 +7468,12 @@
         <v>1</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="133" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="25" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B133" t="s">
         <v>242</v>
@@ -7484,12 +7484,12 @@
         <v>0</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="134" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="25" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B134" t="s">
         <v>243</v>
@@ -7500,12 +7500,12 @@
         <v>0</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="135" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="25" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B135" t="s">
         <v>244</v>
@@ -7516,12 +7516,12 @@
         <v>0</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="136" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="25" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B136" t="s">
         <v>245</v>
@@ -7532,12 +7532,12 @@
         <v>2</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="137" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="25" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B137" t="s">
         <v>246</v>
@@ -7548,12 +7548,12 @@
         <v>2</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="138" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="25" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B138" t="s">
         <v>247</v>
@@ -7564,12 +7564,12 @@
         <v>2</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="139" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B139" t="s">
         <v>248</v>
@@ -7580,12 +7580,12 @@
         <v>2</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="140" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="25" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B140" t="s">
         <v>249</v>
@@ -7596,12 +7596,12 @@
         <v>2</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="141" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B141" t="s">
         <v>250</v>
@@ -7612,12 +7612,12 @@
         <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="142" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B142" t="s">
         <v>251</v>
@@ -7628,12 +7628,12 @@
         <v>5</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="143" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B143" t="s">
         <v>252</v>
@@ -7644,7 +7644,7 @@
         <v>3</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="144" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7660,7 +7660,7 @@
         <v>955</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="145" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7676,7 +7676,7 @@
         <v>956</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="146" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7692,12 +7692,12 @@
         <v>956</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="147" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="25" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B147" t="s">
         <v>256</v>
@@ -7708,12 +7708,12 @@
         <v>956</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="148" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="25" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B148" t="s">
         <v>257</v>
@@ -7724,7 +7724,7 @@
         <v>956</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -7740,7 +7740,7 @@
         <v>957</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="150" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7756,7 +7756,7 @@
         <v>957</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -7772,7 +7772,7 @@
         <v>957</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="152" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7788,7 +7788,7 @@
         <v>957</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -7804,7 +7804,7 @@
         <v>957</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -7820,12 +7820,12 @@
         <v>7</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="25" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B155" t="s">
         <v>264</v>
@@ -7836,12 +7836,12 @@
         <v>25</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="156" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="25" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B156" t="s">
         <v>265</v>
@@ -7852,12 +7852,12 @@
         <v>25</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="157" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="25" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B157" t="s">
         <v>287</v>
@@ -7868,7 +7868,7 @@
         <v>21</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -7884,7 +7884,7 @@
         <v>55</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="159" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7900,7 +7900,7 @@
         <v>56</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -7916,12 +7916,12 @@
         <v>20</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="161" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B161" t="s">
         <v>305</v>
@@ -7932,12 +7932,12 @@
         <v>112</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B162" t="s">
         <v>306</v>
@@ -7948,12 +7948,12 @@
         <v>113</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="25" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B163" t="s">
         <v>307</v>
@@ -7964,12 +7964,12 @@
         <v>114</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="164" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="25" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B164" t="s">
         <v>308</v>
@@ -7980,12 +7980,12 @@
         <v>108</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="165" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B165" t="s">
         <v>309</v>
@@ -7996,7 +7996,7 @@
         <v>108</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="166" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8012,12 +8012,12 @@
         <v>109</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="167" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="25" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B167" t="s">
         <v>311</v>
@@ -8028,12 +8028,12 @@
         <v>108</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="168" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="25" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B168" t="s">
         <v>312</v>
@@ -8044,12 +8044,12 @@
         <v>108</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="169" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="25" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B169" t="s">
         <v>313</v>
@@ -8060,12 +8060,12 @@
         <v>103</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="170" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="25" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B170" t="s">
         <v>314</v>
@@ -8076,12 +8076,12 @@
         <v>102</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="171" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="25" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B171" t="s">
         <v>315</v>
@@ -8092,12 +8092,12 @@
         <v>101</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="172" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="25" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B172" t="s">
         <v>316</v>
@@ -8108,7 +8108,7 @@
         <v>99</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="173" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8124,12 +8124,12 @@
         <v>98</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="174" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="25" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B174" t="s">
         <v>318</v>
@@ -8140,12 +8140,12 @@
         <v>100</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="25" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B175" t="s">
         <v>319</v>
@@ -8156,12 +8156,12 @@
         <v>104</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="25" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B176" t="s">
         <v>320</v>
@@ -8172,12 +8172,12 @@
         <v>105</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="25" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B177" t="s">
         <v>321</v>
@@ -8188,12 +8188,12 @@
         <v>106</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B178" t="s">
         <v>322</v>
@@ -8204,12 +8204,12 @@
         <v>107</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="25" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B179" t="s">
         <v>323</v>
@@ -8220,12 +8220,12 @@
         <v>22</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="25" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B180" t="s">
         <v>324</v>
@@ -8236,7 +8236,7 @@
         <v>23</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -8252,12 +8252,12 @@
         <v>110</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="25" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B182" t="s">
         <v>326</v>
@@ -8268,12 +8268,12 @@
         <v>111</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="25" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B183" t="s">
         <v>327</v>
@@ -8284,12 +8284,12 @@
         <v>115</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="25" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B184" t="s">
         <v>328</v>
@@ -8300,12 +8300,12 @@
         <v>116</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="25" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B185" t="s">
         <v>329</v>
@@ -8316,12 +8316,12 @@
         <v>117</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B186" t="s">
         <v>330</v>
@@ -8332,12 +8332,12 @@
         <v>118</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="25" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B187" t="s">
         <v>331</v>
@@ -8348,12 +8348,12 @@
         <v>119</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="25" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B188" t="s">
         <v>332</v>
@@ -8364,12 +8364,12 @@
         <v>119</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="25" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B189" t="s">
         <v>333</v>
@@ -8380,12 +8380,12 @@
         <v>120</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="25" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B190" t="s">
         <v>334</v>
@@ -8396,12 +8396,12 @@
         <v>121</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="25" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B191" t="s">
         <v>335</v>
@@ -8412,12 +8412,12 @@
         <v>122</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="25" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B192" t="s">
         <v>336</v>
@@ -8428,12 +8428,12 @@
         <v>123</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="25" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B193" t="s">
         <v>337</v>
@@ -8444,12 +8444,12 @@
         <v>124</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="25" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B194" t="s">
         <v>338</v>
@@ -8460,12 +8460,12 @@
         <v>125</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="195" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="25" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B195" t="s">
         <v>340</v>
@@ -8476,12 +8476,12 @@
         <v>125</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="25" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B196" t="s">
         <v>342</v>
@@ -8492,12 +8492,12 @@
         <v>126</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="197" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="25" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B197" t="s">
         <v>346</v>
@@ -8508,12 +8508,12 @@
         <v>127</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="198" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="25" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B198" t="s">
         <v>347</v>
@@ -8524,12 +8524,12 @@
         <v>128</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="199" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="25" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B199" t="s">
         <v>349</v>
@@ -8540,12 +8540,12 @@
         <v>129</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="200" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="25" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B200" t="s">
         <v>351</v>
@@ -8556,12 +8556,12 @@
         <v>130</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="201" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="25" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B201" t="s">
         <v>354</v>
@@ -8572,12 +8572,12 @@
         <v>131</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="202" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="25" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B202" t="s">
         <v>355</v>
@@ -8588,12 +8588,12 @@
         <v>132</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="203" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="25" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B203" t="s">
         <v>356</v>
@@ -8604,12 +8604,12 @@
         <v>133</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="204" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="25" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B204" t="s">
         <v>357</v>
@@ -8620,12 +8620,12 @@
         <v>134</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="205" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="25" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B205" t="s">
         <v>358</v>
@@ -8636,12 +8636,12 @@
         <v>135</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="206" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="25" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B206" t="s">
         <v>359</v>
@@ -8652,12 +8652,12 @@
         <v>136</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="207" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="25" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B207" t="s">
         <v>360</v>
@@ -8668,7 +8668,7 @@
         <v>137</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G207" s="5"/>
     </row>
@@ -8685,12 +8685,12 @@
         <v>138</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="25" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B209" t="s">
         <v>362</v>
@@ -8701,7 +8701,7 @@
         <v>139</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -8717,12 +8717,12 @@
         <v>140</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="25" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B211" t="s">
         <v>364</v>
@@ -8733,12 +8733,12 @@
         <v>141</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="25" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B212" t="s">
         <v>385</v>
@@ -8749,12 +8749,12 @@
         <v>142</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="25" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B213" t="s">
         <v>387</v>
@@ -8765,12 +8765,12 @@
         <v>143</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="25" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B214" t="s">
         <v>388</v>
@@ -8781,12 +8781,12 @@
         <v>144</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="25" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B215" t="s">
         <v>389</v>
@@ -8797,12 +8797,12 @@
         <v>145</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="25" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B216" t="s">
         <v>390</v>
@@ -8813,12 +8813,12 @@
         <v>146</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="25" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B217" t="s">
         <v>391</v>
@@ -8829,12 +8829,12 @@
         <v>147</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="25" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B218" t="s">
         <v>392</v>
@@ -8845,12 +8845,12 @@
         <v>147</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="219" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="25" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B219" t="s">
         <v>393</v>
@@ -8861,12 +8861,12 @@
         <v>148</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="25" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B220" t="s">
         <v>394</v>
@@ -8877,12 +8877,12 @@
         <v>149</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="25" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B221" t="s">
         <v>395</v>
@@ -8893,12 +8893,12 @@
         <v>150</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="25" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B222" t="s">
         <v>396</v>
@@ -8909,12 +8909,12 @@
         <v>151</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="25" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B223" t="s">
         <v>397</v>
@@ -8925,12 +8925,12 @@
         <v>9</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="224" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="25" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B224" t="s">
         <v>409</v>
@@ -8941,13 +8941,13 @@
         <v>156</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G224" s="2"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="25" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B225" t="s">
         <v>414</v>
@@ -8958,12 +8958,12 @@
         <v>157</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="25" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B226" t="s">
         <v>419</v>
@@ -8974,12 +8974,12 @@
         <v>158</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="25" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B227" t="s">
         <v>420</v>
@@ -8990,12 +8990,12 @@
         <v>159</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="25" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B228" t="s">
         <v>426</v>
@@ -9006,12 +9006,12 @@
         <v>24</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="229" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="25" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B229" t="s">
         <v>431</v>
@@ -9022,13 +9022,13 @@
         <v>160</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G229" s="2"/>
     </row>
     <row r="230" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="25" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B230" t="s">
         <v>439</v>
@@ -9039,13 +9039,13 @@
         <v>161</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G230" s="2"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="25" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B231" t="s">
         <v>446</v>
@@ -9056,12 +9056,12 @@
         <v>161</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="25" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B232" t="s">
         <v>526</v>
@@ -9072,12 +9072,12 @@
         <v>162</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="25" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B233" t="s">
         <v>529</v>
@@ -9088,12 +9088,12 @@
         <v>163</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="25" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B234" t="s">
         <v>531</v>
@@ -9104,12 +9104,12 @@
         <v>164</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="25" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B235" t="s">
         <v>533</v>
@@ -9120,12 +9120,12 @@
         <v>165</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="236" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="25" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B236" t="s">
         <v>536</v>
@@ -9136,13 +9136,13 @@
         <v>166</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G236" s="2"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="25" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B237" t="s">
         <v>540</v>
@@ -9153,12 +9153,12 @@
         <v>175</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="25" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B238" t="s">
         <v>542</v>
@@ -9169,12 +9169,12 @@
         <v>175</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="25" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B239" t="s">
         <v>543</v>
@@ -9185,12 +9185,12 @@
         <v>176</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="25" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B240" t="s">
         <v>544</v>
@@ -9201,12 +9201,12 @@
         <v>177</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="241" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="25" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B241" t="s">
         <v>545</v>
@@ -9217,13 +9217,13 @@
         <v>178</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G241" s="2"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="25" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B242" t="s">
         <v>546</v>
@@ -9234,12 +9234,12 @@
         <v>179</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="25" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B243" t="s">
         <v>547</v>
@@ -9250,12 +9250,12 @@
         <v>230</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="25" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B244" t="s">
         <v>548</v>
@@ -9266,12 +9266,12 @@
         <v>180</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="25" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B245" t="s">
         <v>549</v>
@@ -9282,12 +9282,12 @@
         <v>181</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="25" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B246" t="s">
         <v>550</v>
@@ -9298,12 +9298,12 @@
         <v>182</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="25" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B247" t="s">
         <v>551</v>
@@ -9314,12 +9314,12 @@
         <v>183</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="25" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B248" t="s">
         <v>552</v>
@@ -9330,12 +9330,12 @@
         <v>184</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="249" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="25" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B249" t="s">
         <v>553</v>
@@ -9346,13 +9346,13 @@
         <v>230</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G249" s="2"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="25" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B250" t="s">
         <v>554</v>
@@ -9363,12 +9363,12 @@
         <v>183</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="25" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B251" t="s">
         <v>556</v>
@@ -9379,12 +9379,12 @@
         <v>185</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="25" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B252" t="s">
         <v>559</v>
@@ -9395,12 +9395,12 @@
         <v>174</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="25" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B253" t="s">
         <v>560</v>
@@ -9411,12 +9411,12 @@
         <v>173</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="25" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B254" t="s">
         <v>564</v>
@@ -9427,12 +9427,12 @@
         <v>172</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="25" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B255" t="s">
         <v>565</v>
@@ -9443,12 +9443,12 @@
         <v>171</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="256" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="25" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B256" t="s">
         <v>566</v>
@@ -9459,13 +9459,13 @@
         <v>170</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G256" s="2"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="25" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B257" t="s">
         <v>567</v>
@@ -9476,12 +9476,12 @@
         <v>169</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="25" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B258" t="s">
         <v>568</v>
@@ -9492,12 +9492,12 @@
         <v>169</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="25" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B259" t="s">
         <v>569</v>
@@ -9508,12 +9508,12 @@
         <v>168</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="25" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B260" t="s">
         <v>574</v>
@@ -9524,12 +9524,12 @@
         <v>195</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="25" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B261" t="s">
         <v>575</v>
@@ -9540,12 +9540,12 @@
         <v>195</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="25" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B262" t="s">
         <v>576</v>
@@ -9556,12 +9556,12 @@
         <v>195</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="25" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B263" t="s">
         <v>577</v>
@@ -9572,12 +9572,12 @@
         <v>195</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="25" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B264" t="s">
         <v>578</v>
@@ -9588,12 +9588,12 @@
         <v>195</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="25" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B265" t="s">
         <v>579</v>
@@ -9604,12 +9604,12 @@
         <v>195</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="25" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B266" t="s">
         <v>580</v>
@@ -9620,12 +9620,12 @@
         <v>195</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="25" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B267" t="s">
         <v>581</v>
@@ -9636,12 +9636,12 @@
         <v>195</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="25" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B268" t="s">
         <v>582</v>
@@ -9652,12 +9652,12 @@
         <v>195</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="25" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B269" t="s">
         <v>583</v>
@@ -9668,12 +9668,12 @@
         <v>958</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="25" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B270" t="s">
         <v>584</v>
@@ -9684,12 +9684,12 @@
         <v>958</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="25" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B271" t="s">
         <v>585</v>
@@ -9700,12 +9700,12 @@
         <v>195</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="25" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B272" t="s">
         <v>586</v>
@@ -9716,12 +9716,12 @@
         <v>195</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="25" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B273" t="s">
         <v>596</v>
@@ -9732,12 +9732,12 @@
         <v>193</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="25" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B274" t="s">
         <v>597</v>
@@ -9748,7 +9748,7 @@
         <v>193</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -9764,7 +9764,7 @@
         <v>195</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -9780,7 +9780,7 @@
         <v>195</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -9796,12 +9796,12 @@
         <v>195</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="25" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B278" t="s">
         <v>632</v>
@@ -9812,12 +9812,12 @@
         <v>194</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="25" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B279" t="s">
         <v>633</v>
@@ -9828,12 +9828,12 @@
         <v>194</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="25" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B280" t="s">
         <v>365</v>
@@ -9844,12 +9844,12 @@
         <v>959</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="25" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B281" t="s">
         <v>366</v>
@@ -9860,12 +9860,12 @@
         <v>960</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="25" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B282" t="s">
         <v>367</v>
@@ -9876,12 +9876,12 @@
         <v>960</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="25" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B283" t="s">
         <v>368</v>
@@ -9889,15 +9889,15 @@
       <c r="C283" s="14"/>
       <c r="D283" s="15"/>
       <c r="E283" s="17" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="25" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B284" t="s">
         <v>369</v>
@@ -9905,10 +9905,10 @@
       <c r="C284" s="14"/>
       <c r="D284" s="15"/>
       <c r="E284" s="17" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -9921,15 +9921,15 @@
       <c r="C285" s="14"/>
       <c r="D285" s="15"/>
       <c r="E285" s="17" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="25" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B286" t="s">
         <v>371</v>
@@ -9937,15 +9937,15 @@
       <c r="C286" s="14"/>
       <c r="D286" s="15"/>
       <c r="E286" s="17" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="25" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B287" t="s">
         <v>372</v>
@@ -9953,15 +9953,15 @@
       <c r="C287" s="14"/>
       <c r="D287" s="15"/>
       <c r="E287" s="17" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="25" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B288" t="s">
         <v>373</v>
@@ -9969,10 +9969,10 @@
       <c r="C288" s="14"/>
       <c r="D288" s="15"/>
       <c r="E288" s="17" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -9988,12 +9988,12 @@
         <v>27</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="25" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B290" t="s">
         <v>375</v>
@@ -10004,12 +10004,12 @@
         <v>962</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="25" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B291" t="s">
         <v>376</v>
@@ -10020,12 +10020,12 @@
         <v>962</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="25" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B292" t="s">
         <v>377</v>
@@ -10036,12 +10036,12 @@
         <v>28</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="25" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B293" t="s">
         <v>378</v>
@@ -10052,12 +10052,12 @@
         <v>29</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="25" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B294" t="s">
         <v>379</v>
@@ -10065,15 +10065,15 @@
       <c r="C294" s="14"/>
       <c r="D294" s="15"/>
       <c r="E294" s="17" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="25" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B295" t="s">
         <v>380</v>
@@ -10081,15 +10081,15 @@
       <c r="C295" s="14"/>
       <c r="D295" s="15"/>
       <c r="E295" s="17" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="25" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B296" t="s">
         <v>381</v>
@@ -10097,15 +10097,15 @@
       <c r="C296" s="14"/>
       <c r="D296" s="15"/>
       <c r="E296" s="17" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="25" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B297" t="s">
         <v>382</v>
@@ -10113,15 +10113,15 @@
       <c r="C297" s="14"/>
       <c r="D297" s="15"/>
       <c r="E297" s="17" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="25" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B298" t="s">
         <v>383</v>
@@ -10129,15 +10129,15 @@
       <c r="C298" s="14"/>
       <c r="D298" s="15"/>
       <c r="E298" s="17" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="25" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B299" t="s">
         <v>384</v>
@@ -10148,12 +10148,12 @@
         <v>29</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="25" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B300" t="s">
         <v>386</v>
@@ -10164,12 +10164,12 @@
         <v>30</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="25" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B301" t="s">
         <v>398</v>
@@ -10180,12 +10180,12 @@
         <v>231</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="25" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B302" t="s">
         <v>399</v>
@@ -10196,12 +10196,12 @@
         <v>33</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="25" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B303" t="s">
         <v>400</v>
@@ -10212,12 +10212,12 @@
         <v>34</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="25" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B304" t="s">
         <v>401</v>
@@ -10228,12 +10228,12 @@
         <v>34</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="25" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B305" t="s">
         <v>402</v>
@@ -10244,12 +10244,12 @@
         <v>35</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="25" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B306" t="s">
         <v>403</v>
@@ -10260,12 +10260,12 @@
         <v>35</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="25" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B307" t="s">
         <v>404</v>
@@ -10276,12 +10276,12 @@
         <v>31</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="25" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B308" t="s">
         <v>405</v>
@@ -10292,12 +10292,12 @@
         <v>32</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="25" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B309" t="s">
         <v>406</v>
@@ -10308,12 +10308,12 @@
         <v>32</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="25" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B310" t="s">
         <v>407</v>
@@ -10324,12 +10324,12 @@
         <v>32</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="25" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B311" t="s">
         <v>408</v>
@@ -10340,12 +10340,12 @@
         <v>31</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="25" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B312" t="s">
         <v>410</v>
@@ -10356,12 +10356,12 @@
         <v>31</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="25" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B313" t="s">
         <v>411</v>
@@ -10372,12 +10372,12 @@
         <v>36</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="25" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B314" t="s">
         <v>412</v>
@@ -10388,12 +10388,12 @@
         <v>37</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="25" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B315" t="s">
         <v>413</v>
@@ -10404,12 +10404,12 @@
         <v>36</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="25" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B316" t="s">
         <v>415</v>
@@ -10420,12 +10420,12 @@
         <v>38</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="25" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B317" t="s">
         <v>416</v>
@@ -10436,12 +10436,12 @@
         <v>36</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="25" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B318" t="s">
         <v>417</v>
@@ -10452,12 +10452,12 @@
         <v>39</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="25" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B319" t="s">
         <v>418</v>
@@ -10468,12 +10468,12 @@
         <v>37</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="25" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B320" t="s">
         <v>421</v>
@@ -10484,12 +10484,12 @@
         <v>36</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="25" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B321" t="s">
         <v>422</v>
@@ -10500,12 +10500,12 @@
         <v>37</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="25" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B322" t="s">
         <v>423</v>
@@ -10516,12 +10516,12 @@
         <v>37</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="25" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B323" t="s">
         <v>424</v>
@@ -10532,12 +10532,12 @@
         <v>37</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="25" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B324" t="s">
         <v>425</v>
@@ -10548,12 +10548,12 @@
         <v>36</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="25" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B325" t="s">
         <v>427</v>
@@ -10564,12 +10564,12 @@
         <v>39</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="25" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B326" t="s">
         <v>428</v>
@@ -10580,12 +10580,12 @@
         <v>39</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="25" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B327" t="s">
         <v>429</v>
@@ -10596,12 +10596,12 @@
         <v>36</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="25" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B328" t="s">
         <v>430</v>
@@ -10612,12 +10612,12 @@
         <v>37</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="25" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B329" t="s">
         <v>432</v>
@@ -10628,12 +10628,12 @@
         <v>37</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="25" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B330" t="s">
         <v>433</v>
@@ -10644,12 +10644,12 @@
         <v>37</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="25" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B331" t="s">
         <v>434</v>
@@ -10660,12 +10660,12 @@
         <v>37</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="25" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B332" t="s">
         <v>435</v>
@@ -10676,12 +10676,12 @@
         <v>37</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="26" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B333" s="21" t="s">
         <v>436</v>
@@ -10692,12 +10692,12 @@
         <v>235</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="26" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B334" s="21" t="s">
         <v>437</v>
@@ -10708,12 +10708,12 @@
         <v>235</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="26" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B335" s="21" t="s">
         <v>438</v>
@@ -10724,12 +10724,12 @@
         <v>235</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="336" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="26" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B336" s="21" t="s">
         <v>440</v>
@@ -10740,13 +10740,13 @@
         <v>235</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G336" s="2"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="26" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B337" s="21" t="s">
         <v>441</v>
@@ -10757,12 +10757,12 @@
         <v>235</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="26" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B338" s="21" t="s">
         <v>442</v>
@@ -10773,12 +10773,12 @@
         <v>235</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="339" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="26" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B339" s="21" t="s">
         <v>443</v>
@@ -10789,13 +10789,13 @@
         <v>235</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G339" s="2"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="26" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B340" s="21" t="s">
         <v>444</v>
@@ -10806,12 +10806,12 @@
         <v>235</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="341" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="25" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B341" t="s">
         <v>445</v>
@@ -10822,13 +10822,13 @@
         <v>214</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G341" s="2"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="25" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B342" t="s">
         <v>447</v>
@@ -10839,12 +10839,12 @@
         <v>214</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="343" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="25" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B343" t="s">
         <v>448</v>
@@ -10855,13 +10855,13 @@
         <v>214</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G343" s="2"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="25" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B344" t="s">
         <v>449</v>
@@ -10872,12 +10872,12 @@
         <v>214</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="25" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B345" t="s">
         <v>450</v>
@@ -10888,12 +10888,12 @@
         <v>214</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="346" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="25" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B346" t="s">
         <v>451</v>
@@ -10904,13 +10904,13 @@
         <v>214</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G346" s="2"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="25" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B347" t="s">
         <v>452</v>
@@ -10921,12 +10921,12 @@
         <v>214</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="25" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B348" t="s">
         <v>453</v>
@@ -10937,12 +10937,12 @@
         <v>214</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="25" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B349" t="s">
         <v>454</v>
@@ -10953,12 +10953,12 @@
         <v>214</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="350" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="25" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B350" t="s">
         <v>455</v>
@@ -10969,13 +10969,13 @@
         <v>214</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G350" s="2"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="25" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B351" t="s">
         <v>456</v>
@@ -10986,12 +10986,12 @@
         <v>214</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="352" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="25" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B352" t="s">
         <v>457</v>
@@ -11002,13 +11002,13 @@
         <v>214</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G352" s="2"/>
     </row>
     <row r="353" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="25" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B353" t="s">
         <v>458</v>
@@ -11019,13 +11019,13 @@
         <v>214</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G353" s="2"/>
     </row>
     <row r="354" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="25" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B354" t="s">
         <v>459</v>
@@ -11036,13 +11036,13 @@
         <v>214</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G354" s="2"/>
     </row>
     <row r="355" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="25" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B355" t="s">
         <v>460</v>
@@ -11053,13 +11053,13 @@
         <v>214</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G355" s="2"/>
     </row>
     <row r="356" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="25" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B356" t="s">
         <v>461</v>
@@ -11070,13 +11070,13 @@
         <v>214</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G356" s="2"/>
     </row>
     <row r="357" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="25" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B357" t="s">
         <v>462</v>
@@ -11087,13 +11087,13 @@
         <v>214</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G357" s="2"/>
     </row>
     <row r="358" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="25" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B358" t="s">
         <v>463</v>
@@ -11104,13 +11104,13 @@
         <v>214</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G358" s="2"/>
     </row>
     <row r="359" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="25" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B359" t="s">
         <v>464</v>
@@ -11121,13 +11121,13 @@
         <v>214</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G359" s="2"/>
     </row>
     <row r="360" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="25" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B360" t="s">
         <v>465</v>
@@ -11138,13 +11138,13 @@
         <v>214</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G360" s="2"/>
     </row>
     <row r="361" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="25" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B361" t="s">
         <v>466</v>
@@ -11155,13 +11155,13 @@
         <v>214</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G361" s="2"/>
     </row>
     <row r="362" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="25" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B362" t="s">
         <v>467</v>
@@ -11172,13 +11172,13 @@
         <v>214</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G362" s="2"/>
     </row>
     <row r="363" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="25" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B363" t="s">
         <v>468</v>
@@ -11189,13 +11189,13 @@
         <v>214</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G363" s="2"/>
     </row>
     <row r="364" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="25" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B364" t="s">
         <v>469</v>
@@ -11206,13 +11206,13 @@
         <v>214</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G364" s="2"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="25" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B365" t="s">
         <v>470</v>
@@ -11223,12 +11223,12 @@
         <v>214</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="366" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="25" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B366" t="s">
         <v>471</v>
@@ -11239,13 +11239,13 @@
         <v>214</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G366" s="2"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="25" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B367" t="s">
         <v>472</v>
@@ -11256,12 +11256,12 @@
         <v>214</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="25" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B368" t="s">
         <v>473</v>
@@ -11272,12 +11272,12 @@
         <v>214</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="369" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="25" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B369" t="s">
         <v>474</v>
@@ -11288,13 +11288,13 @@
         <v>214</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G369" s="5"/>
     </row>
     <row r="370" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="25" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B370" t="s">
         <v>475</v>
@@ -11305,13 +11305,13 @@
         <v>214</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G370" s="5"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="25" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B371" t="s">
         <v>476</v>
@@ -11322,12 +11322,12 @@
         <v>214</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="25" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B372" t="s">
         <v>477</v>
@@ -11338,12 +11338,12 @@
         <v>214</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="25" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B373" t="s">
         <v>478</v>
@@ -11354,12 +11354,12 @@
         <v>214</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="374" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="25" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B374" t="s">
         <v>479</v>
@@ -11370,13 +11370,13 @@
         <v>239</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G374" s="6"/>
     </row>
     <row r="375" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="25" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B375" t="s">
         <v>480</v>
@@ -11387,13 +11387,13 @@
         <v>239</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G375" s="6"/>
     </row>
     <row r="376" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="25" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B376" t="s">
         <v>481</v>
@@ -11404,13 +11404,13 @@
         <v>152</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G376" s="6"/>
     </row>
     <row r="377" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="25" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B377" t="s">
         <v>482</v>
@@ -11421,13 +11421,13 @@
         <v>152</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G377" s="6"/>
     </row>
     <row r="378" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="25" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B378" t="s">
         <v>483</v>
@@ -11438,13 +11438,13 @@
         <v>152</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G378" s="6"/>
     </row>
     <row r="379" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="25" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B379" t="s">
         <v>484</v>
@@ -11455,13 +11455,13 @@
         <v>152</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G379" s="6"/>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="25" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B380" t="s">
         <v>485</v>
@@ -11472,12 +11472,12 @@
         <v>152</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="25" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B381" t="s">
         <v>486</v>
@@ -11488,12 +11488,12 @@
         <v>152</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="25" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B382" t="s">
         <v>487</v>
@@ -11504,12 +11504,12 @@
         <v>238</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="25" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B383" t="s">
         <v>488</v>
@@ -11520,12 +11520,12 @@
         <v>153</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="384" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="25" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B384" t="s">
         <v>489</v>
@@ -11536,13 +11536,13 @@
         <v>154</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G384" s="6"/>
     </row>
     <row r="385" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="25" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B385" t="s">
         <v>490</v>
@@ -11553,13 +11553,13 @@
         <v>153</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G385" s="6"/>
     </row>
     <row r="386" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="25" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B386" t="s">
         <v>491</v>
@@ -11570,13 +11570,13 @@
         <v>153</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G386" s="6"/>
     </row>
     <row r="387" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="25" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B387" t="s">
         <v>492</v>
@@ -11587,13 +11587,13 @@
         <v>153</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G387" s="6"/>
     </row>
     <row r="388" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="25" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B388" t="s">
         <v>493</v>
@@ -11604,13 +11604,13 @@
         <v>153</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G388" s="6"/>
     </row>
     <row r="389" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="25" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B389" t="s">
         <v>494</v>
@@ -11621,13 +11621,13 @@
         <v>40</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G389" s="6"/>
     </row>
     <row r="390" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="25" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B390" t="s">
         <v>495</v>
@@ -11638,13 +11638,13 @@
         <v>40</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G390" s="6"/>
     </row>
     <row r="391" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="25" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B391" t="s">
         <v>496</v>
@@ -11655,13 +11655,13 @@
         <v>227</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G391" s="6"/>
     </row>
     <row r="392" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="25" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B392" t="s">
         <v>497</v>
@@ -11672,14 +11672,14 @@
         <v>227</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G392" s="7"/>
       <c r="H392" s="8"/>
     </row>
     <row r="393" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="25" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B393" t="s">
         <v>498</v>
@@ -11690,13 +11690,13 @@
         <v>227</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G393" s="6"/>
     </row>
     <row r="394" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="25" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B394" t="s">
         <v>499</v>
@@ -11707,13 +11707,13 @@
         <v>227</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G394" s="6"/>
     </row>
     <row r="395" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="25" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B395" t="s">
         <v>500</v>
@@ -11724,13 +11724,13 @@
         <v>227</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G395" s="6"/>
     </row>
     <row r="396" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="25" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B396" t="s">
         <v>501</v>
@@ -11741,13 +11741,13 @@
         <v>227</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G396" s="6"/>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="25" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B397" t="s">
         <v>502</v>
@@ -11758,12 +11758,12 @@
         <v>227</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="25" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B398" t="s">
         <v>503</v>
@@ -11774,12 +11774,12 @@
         <v>227</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="25" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B399" t="s">
         <v>504</v>
@@ -11790,12 +11790,12 @@
         <v>227</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="25" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B400" t="s">
         <v>505</v>
@@ -11806,12 +11806,12 @@
         <v>227</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="25" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B401" t="s">
         <v>506</v>
@@ -11822,12 +11822,12 @@
         <v>227</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="25" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B402" t="s">
         <v>507</v>
@@ -11838,12 +11838,12 @@
         <v>152</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="25" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B403" t="s">
         <v>508</v>
@@ -11854,12 +11854,12 @@
         <v>152</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="25" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B404" t="s">
         <v>509</v>
@@ -11870,12 +11870,12 @@
         <v>152</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="25" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B405" t="s">
         <v>510</v>
@@ -11886,12 +11886,12 @@
         <v>152</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="406" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="25" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B406" t="s">
         <v>511</v>
@@ -11902,13 +11902,13 @@
         <v>152</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G406" s="6"/>
     </row>
     <row r="407" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="25" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B407" t="s">
         <v>512</v>
@@ -11919,13 +11919,13 @@
         <v>196</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G407" s="6"/>
     </row>
     <row r="408" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="25" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B408" t="s">
         <v>513</v>
@@ -11936,13 +11936,13 @@
         <v>196</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G408" s="6"/>
     </row>
     <row r="409" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="25" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B409" t="s">
         <v>514</v>
@@ -11953,12 +11953,12 @@
         <v>196</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="410" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="25" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B410" t="s">
         <v>515</v>
@@ -11969,12 +11969,12 @@
         <v>196</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="25" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B411" t="s">
         <v>516</v>
@@ -11985,12 +11985,12 @@
         <v>155</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="25" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B412" t="s">
         <v>517</v>
@@ -12001,12 +12001,12 @@
         <v>152</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="25" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B413" t="s">
         <v>518</v>
@@ -12017,12 +12017,12 @@
         <v>152</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="25" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B414" t="s">
         <v>519</v>
@@ -12033,12 +12033,12 @@
         <v>152</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="25" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B415" t="s">
         <v>520</v>
@@ -12049,12 +12049,12 @@
         <v>152</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="25" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B416" t="s">
         <v>521</v>
@@ -12065,12 +12065,12 @@
         <v>152</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="25" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B417" t="s">
         <v>522</v>
@@ -12081,12 +12081,12 @@
         <v>152</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="25" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B418" t="s">
         <v>523</v>
@@ -12097,12 +12097,12 @@
         <v>152</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="25" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B419" t="s">
         <v>524</v>
@@ -12113,12 +12113,12 @@
         <v>152</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="25" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B420" t="s">
         <v>525</v>
@@ -12129,12 +12129,12 @@
         <v>152</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="25" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B421" t="s">
         <v>527</v>
@@ -12145,12 +12145,12 @@
         <v>152</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="25" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B422" t="s">
         <v>528</v>
@@ -12161,12 +12161,12 @@
         <v>152</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="25" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B423" t="s">
         <v>530</v>
@@ -12177,12 +12177,12 @@
         <v>152</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="25" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B424" t="s">
         <v>532</v>
@@ -12193,12 +12193,12 @@
         <v>152</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="25" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B425" t="s">
         <v>534</v>
@@ -12209,12 +12209,12 @@
         <v>152</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="25" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B426" t="s">
         <v>535</v>
@@ -12225,12 +12225,12 @@
         <v>152</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="25" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B427" t="s">
         <v>537</v>
@@ -12241,12 +12241,12 @@
         <v>62</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="26" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B428" s="21" t="s">
         <v>538</v>
@@ -12257,12 +12257,12 @@
         <v>62</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="26" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B429" s="21" t="s">
         <v>539</v>
@@ -12273,12 +12273,12 @@
         <v>62</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="25" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B430" t="s">
         <v>541</v>
@@ -12289,12 +12289,12 @@
         <v>152</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="25" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B431" t="s">
         <v>555</v>
@@ -12305,12 +12305,12 @@
         <v>197</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="25" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B432" t="s">
         <v>557</v>
@@ -12321,12 +12321,12 @@
         <v>963</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="25" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B433" t="s">
         <v>558</v>
@@ -12337,12 +12337,12 @@
         <v>152</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="25" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B434" t="s">
         <v>561</v>
@@ -12353,12 +12353,12 @@
         <v>197</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="25" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B435" t="s">
         <v>562</v>
@@ -12369,12 +12369,12 @@
         <v>964</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="25" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B436" t="s">
         <v>563</v>
@@ -12385,12 +12385,12 @@
         <v>964</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="25" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B437" t="s">
         <v>570</v>
@@ -12401,12 +12401,12 @@
         <v>964</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="25" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B438" t="s">
         <v>571</v>
@@ -12417,12 +12417,12 @@
         <v>964</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="25" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B439" t="s">
         <v>572</v>
@@ -12433,12 +12433,12 @@
         <v>964</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="25" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B440" t="s">
         <v>573</v>
@@ -12449,7 +12449,7 @@
         <v>964</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -12465,7 +12465,7 @@
         <v>964</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="442" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -12481,12 +12481,12 @@
         <v>964</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="443" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="25" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B443" t="s">
         <v>601</v>
@@ -12497,12 +12497,12 @@
         <v>232</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="25" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B444" t="s">
         <v>602</v>
@@ -12513,12 +12513,12 @@
         <v>232</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="25" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B445" t="s">
         <v>603</v>
@@ -12529,12 +12529,12 @@
         <v>233</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="25" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B446" t="s">
         <v>604</v>
@@ -12545,7 +12545,7 @@
         <v>233</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -12561,7 +12561,7 @@
         <v>42</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -12577,7 +12577,7 @@
         <v>45</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -12593,12 +12593,12 @@
         <v>45</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="25" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B450" t="s">
         <v>269</v>
@@ -12609,7 +12609,7 @@
         <v>45</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -12625,7 +12625,7 @@
         <v>45</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -12641,12 +12641,12 @@
         <v>45</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="25" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B453" t="s">
         <v>272</v>
@@ -12657,12 +12657,12 @@
         <v>82</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="25" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B454" t="s">
         <v>273</v>
@@ -12673,12 +12673,12 @@
         <v>82</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="25" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B455" t="s">
         <v>274</v>
@@ -12689,12 +12689,12 @@
         <v>82</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="25" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B456" t="s">
         <v>275</v>
@@ -12705,7 +12705,7 @@
         <v>82</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -12721,7 +12721,7 @@
         <v>43</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -12737,7 +12737,7 @@
         <v>43</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -12753,7 +12753,7 @@
         <v>43</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -12769,7 +12769,7 @@
         <v>44</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -12785,7 +12785,7 @@
         <v>44</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -12801,7 +12801,7 @@
         <v>44</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -12817,7 +12817,7 @@
         <v>44</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -12833,7 +12833,7 @@
         <v>44</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
@@ -12849,7 +12849,7 @@
         <v>92</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -12865,7 +12865,7 @@
         <v>93</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -12881,7 +12881,7 @@
         <v>93</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
@@ -12897,7 +12897,7 @@
         <v>969</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -12913,7 +12913,7 @@
         <v>969</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -12929,7 +12929,7 @@
         <v>969</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -12945,7 +12945,7 @@
         <v>969</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -12961,7 +12961,7 @@
         <v>969</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
@@ -12977,7 +12977,7 @@
         <v>969</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
@@ -12993,12 +12993,12 @@
         <v>46</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="25" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B475" t="s">
         <v>298</v>
@@ -13009,12 +13009,12 @@
         <v>46</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="25" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B476" t="s">
         <v>299</v>
@@ -13025,12 +13025,12 @@
         <v>48</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="25" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B477" t="s">
         <v>300</v>
@@ -13041,12 +13041,12 @@
         <v>46</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="25" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B478" t="s">
         <v>301</v>
@@ -13057,12 +13057,12 @@
         <v>49</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="25" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B479" t="s">
         <v>302</v>
@@ -13073,12 +13073,12 @@
         <v>46</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="25" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B480" t="s">
         <v>303</v>
@@ -13089,12 +13089,12 @@
         <v>50</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="25" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B481" t="s">
         <v>304</v>
@@ -13105,12 +13105,12 @@
         <v>51</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="25" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B482" t="s">
         <v>339</v>
@@ -13121,12 +13121,12 @@
         <v>47</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="25" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B483" t="s">
         <v>341</v>
@@ -13137,12 +13137,12 @@
         <v>47</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="25" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B484" t="s">
         <v>343</v>
@@ -13153,12 +13153,12 @@
         <v>47</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="25" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B485" t="s">
         <v>344</v>
@@ -13169,12 +13169,12 @@
         <v>52</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="25" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B486" t="s">
         <v>345</v>
@@ -13185,12 +13185,12 @@
         <v>53</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="25" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B487" t="s">
         <v>348</v>
@@ -13201,12 +13201,12 @@
         <v>54</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="25" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B488" t="s">
         <v>350</v>
@@ -13217,12 +13217,12 @@
         <v>52</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="25" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B489" t="s">
         <v>352</v>
@@ -13233,12 +13233,12 @@
         <v>54</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="25" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B490" t="s">
         <v>353</v>
@@ -13249,7 +13249,7 @@
         <v>47</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -13265,7 +13265,7 @@
         <v>152</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -13281,7 +13281,7 @@
         <v>152</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
@@ -13297,7 +13297,7 @@
         <v>152</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -13313,7 +13313,7 @@
         <v>152</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
@@ -13329,12 +13329,12 @@
         <v>152</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="25" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B496" t="s">
         <v>594</v>
@@ -13345,12 +13345,12 @@
         <v>8</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="25" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B497" t="s">
         <v>595</v>
@@ -13361,7 +13361,7 @@
         <v>8</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
@@ -13377,7 +13377,7 @@
         <v>41</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -13393,7 +13393,7 @@
         <v>41</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -13409,7 +13409,7 @@
         <v>152</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
@@ -13425,7 +13425,7 @@
         <v>152</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
@@ -13441,7 +13441,7 @@
         <v>236</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
@@ -13457,7 +13457,7 @@
         <v>237</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
@@ -13473,7 +13473,7 @@
         <v>152</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
@@ -13489,7 +13489,7 @@
         <v>152</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
@@ -13505,7 +13505,7 @@
         <v>152</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
@@ -13521,7 +13521,7 @@
         <v>152</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
@@ -13537,12 +13537,12 @@
         <v>207</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="25" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B509" t="s">
         <v>616</v>
@@ -13553,12 +13553,12 @@
         <v>206</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="25" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B510" t="s">
         <v>617</v>
@@ -13569,12 +13569,12 @@
         <v>188</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="25" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B511" t="s">
         <v>618</v>
@@ -13585,12 +13585,12 @@
         <v>202</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="25" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B512" t="s">
         <v>619</v>
@@ -13601,12 +13601,12 @@
         <v>205</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="25" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B513" t="s">
         <v>620</v>
@@ -13617,12 +13617,12 @@
         <v>205</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="25" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B514" t="s">
         <v>621</v>
@@ -13633,12 +13633,12 @@
         <v>188</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="25" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B515" t="s">
         <v>622</v>
@@ -13649,12 +13649,12 @@
         <v>188</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="25" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B516" t="s">
         <v>623</v>
@@ -13665,12 +13665,12 @@
         <v>188</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="25" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B517" t="s">
         <v>624</v>
@@ -13681,12 +13681,12 @@
         <v>152</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="25" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B518" t="s">
         <v>625</v>
@@ -13697,12 +13697,12 @@
         <v>152</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="25" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B519" t="s">
         <v>626</v>
@@ -13713,12 +13713,12 @@
         <v>152</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="25" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B520" t="s">
         <v>627</v>
@@ -13729,12 +13729,12 @@
         <v>152</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="25" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B521" t="s">
         <v>628</v>
@@ -13745,12 +13745,12 @@
         <v>212</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="25" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B522" t="s">
         <v>629</v>
@@ -13761,12 +13761,12 @@
         <v>201</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="25" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B523" t="s">
         <v>630</v>
@@ -13777,12 +13777,12 @@
         <v>188</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="25" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B524" t="s">
         <v>631</v>
@@ -13793,12 +13793,12 @@
         <v>188</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="25" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B525" t="s">
         <v>634</v>
@@ -13809,12 +13809,12 @@
         <v>200</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="25" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B526" t="s">
         <v>635</v>
@@ -13825,12 +13825,12 @@
         <v>200</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="527" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A527" s="25" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B527" t="s">
         <v>636</v>
@@ -13841,12 +13841,12 @@
         <v>199</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="528" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A528" s="25" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B528" t="s">
         <v>637</v>
@@ -13857,12 +13857,12 @@
         <v>199</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="529" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="25" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B529" t="s">
         <v>638</v>
@@ -13873,12 +13873,12 @@
         <v>152</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="530" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A530" s="25" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B530" t="s">
         <v>639</v>
@@ -13889,12 +13889,12 @@
         <v>152</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="25" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B531" t="s">
         <v>640</v>
@@ -13905,12 +13905,12 @@
         <v>152</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="532" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A532" s="25" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B532" t="s">
         <v>641</v>
@@ -13921,12 +13921,12 @@
         <v>204</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="25" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B533" t="s">
         <v>642</v>
@@ -13937,12 +13937,12 @@
         <v>203</v>
       </c>
       <c r="F533" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="25" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B534" t="s">
         <v>643</v>
@@ -13953,12 +13953,12 @@
         <v>203</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="25" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B535" t="s">
         <v>644</v>
@@ -13969,12 +13969,12 @@
         <v>189</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="25" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B536" t="s">
         <v>645</v>
@@ -13985,12 +13985,12 @@
         <v>189</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="25" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B537" t="s">
         <v>646</v>
@@ -14001,12 +14001,12 @@
         <v>190</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="25" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B538" t="s">
         <v>647</v>
@@ -14017,12 +14017,12 @@
         <v>190</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="25" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B539" t="s">
         <v>648</v>
@@ -14033,12 +14033,12 @@
         <v>189</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="540" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="25" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B540" t="s">
         <v>649</v>
@@ -14049,12 +14049,12 @@
         <v>210</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="25" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B541" t="s">
         <v>650</v>
@@ -14065,12 +14065,12 @@
         <v>210</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="542" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A542" s="25" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B542" t="s">
         <v>651</v>
@@ -14081,12 +14081,12 @@
         <v>209</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="25" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B543" t="s">
         <v>652</v>
@@ -14097,12 +14097,12 @@
         <v>211</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="544" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="25" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B544" t="s">
         <v>653</v>
@@ -14113,12 +14113,12 @@
         <v>189</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="25" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B545" t="s">
         <v>654</v>
@@ -14129,12 +14129,12 @@
         <v>152</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="546" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" s="25" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B546" t="s">
         <v>655</v>
@@ -14145,12 +14145,12 @@
         <v>191</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="25" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B547" t="s">
         <v>656</v>
@@ -14161,12 +14161,12 @@
         <v>191</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="548" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="25" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B548" t="s">
         <v>657</v>
@@ -14177,12 +14177,12 @@
         <v>191</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="25" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B549" t="s">
         <v>658</v>
@@ -14193,12 +14193,12 @@
         <v>191</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="550" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" s="25" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B550" t="s">
         <v>659</v>
@@ -14209,12 +14209,12 @@
         <v>191</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="25" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B551" t="s">
         <v>660</v>
@@ -14225,12 +14225,12 @@
         <v>191</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="552" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="25" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B552" t="s">
         <v>661</v>
@@ -14241,12 +14241,12 @@
         <v>191</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="25" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B553" t="s">
         <v>662</v>
@@ -14257,12 +14257,12 @@
         <v>152</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="554" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" s="25" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B554" t="s">
         <v>663</v>
@@ -14273,12 +14273,12 @@
         <v>152</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="25" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B555" t="s">
         <v>664</v>
@@ -14289,12 +14289,12 @@
         <v>59</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="556" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A556" s="25" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B556" t="s">
         <v>665</v>
@@ -14305,12 +14305,12 @@
         <v>59</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="25" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B557" t="s">
         <v>666</v>
@@ -14321,12 +14321,12 @@
         <v>59</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="558" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" s="25" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B558" t="s">
         <v>667</v>
@@ -14337,12 +14337,12 @@
         <v>152</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="25" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B559" t="s">
         <v>668</v>
@@ -14353,12 +14353,12 @@
         <v>152</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="560" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A560" s="25" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B560" t="s">
         <v>669</v>
@@ -14369,12 +14369,12 @@
         <v>187</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="25" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B561" t="s">
         <v>670</v>
@@ -14385,12 +14385,12 @@
         <v>187</v>
       </c>
       <c r="F561" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="25" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B562" t="s">
         <v>671</v>
@@ -14401,12 +14401,12 @@
         <v>187</v>
       </c>
       <c r="F562" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="563" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="25" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B563" t="s">
         <v>672</v>
@@ -14417,12 +14417,12 @@
         <v>192</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="25" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B564" t="s">
         <v>673</v>
@@ -14433,12 +14433,12 @@
         <v>192</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="565" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="25" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B565" t="s">
         <v>674</v>
@@ -14449,12 +14449,12 @@
         <v>192</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="25" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B566" t="s">
         <v>675</v>
@@ -14465,12 +14465,12 @@
         <v>187</v>
       </c>
       <c r="F566" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="567" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="25" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B567" t="s">
         <v>676</v>
@@ -14481,12 +14481,12 @@
         <v>57</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="25" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B568" t="s">
         <v>677</v>
@@ -14497,12 +14497,12 @@
         <v>57</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="569" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" s="25" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B569" t="s">
         <v>678</v>
@@ -14513,12 +14513,12 @@
         <v>57</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="25" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B570" t="s">
         <v>679</v>
@@ -14526,15 +14526,15 @@
       <c r="C570" s="14"/>
       <c r="D570" s="15"/>
       <c r="E570" s="17" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="25" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B571" t="s">
         <v>680</v>
@@ -14542,15 +14542,15 @@
       <c r="C571" s="14"/>
       <c r="D571" s="15"/>
       <c r="E571" s="17" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F571" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="572" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A572" s="25" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B572" t="s">
         <v>681</v>
@@ -14558,15 +14558,15 @@
       <c r="C572" s="14"/>
       <c r="D572" s="15"/>
       <c r="E572" s="17" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F572" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="573" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="25" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B573" t="s">
         <v>682</v>
@@ -14577,12 +14577,12 @@
         <v>57</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="574" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A574" s="25" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B574" t="s">
         <v>683</v>
@@ -14593,12 +14593,12 @@
         <v>57</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="575" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A575" s="25" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B575" t="s">
         <v>684</v>
@@ -14609,12 +14609,12 @@
         <v>57</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="576" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A576" s="25" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B576" t="s">
         <v>685</v>
@@ -14625,12 +14625,12 @@
         <v>57</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="577" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A577" s="25" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B577" t="s">
         <v>686</v>
@@ -14641,12 +14641,12 @@
         <v>57</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="578" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A578" s="25" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B578" t="s">
         <v>687</v>
@@ -14657,12 +14657,12 @@
         <v>186</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="579" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A579" s="25" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B579" t="s">
         <v>688</v>
@@ -14673,12 +14673,12 @@
         <v>186</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="580" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A580" s="25" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B580" t="s">
         <v>689</v>
@@ -14689,12 +14689,12 @@
         <v>186</v>
       </c>
       <c r="F580" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="581" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A581" s="25" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B581" t="s">
         <v>690</v>
@@ -14705,13 +14705,13 @@
         <v>186</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H581" s="4"/>
     </row>
     <row r="582" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A582" s="25" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B582" t="s">
         <v>691</v>
@@ -14722,12 +14722,12 @@
         <v>57</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="583" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A583" s="25" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B583" t="s">
         <v>692</v>
@@ -14738,12 +14738,12 @@
         <v>57</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="584" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A584" s="25" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B584" t="s">
         <v>693</v>
@@ -14754,12 +14754,12 @@
         <v>57</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="585" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A585" s="25" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B585" t="s">
         <v>694</v>
@@ -14767,15 +14767,15 @@
       <c r="C585" s="14"/>
       <c r="D585" s="15"/>
       <c r="E585" s="17" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="586" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A586" s="25" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B586" t="s">
         <v>695</v>
@@ -14783,15 +14783,15 @@
       <c r="C586" s="14"/>
       <c r="D586" s="15"/>
       <c r="E586" s="17" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="587" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A587" s="25" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B587" t="s">
         <v>696</v>
@@ -14799,15 +14799,15 @@
       <c r="C587" s="14"/>
       <c r="D587" s="15"/>
       <c r="E587" s="17" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="588" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A588" s="25" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B588" t="s">
         <v>697</v>
@@ -14818,12 +14818,12 @@
         <v>57</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="589" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A589" s="25" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B589" t="s">
         <v>698</v>
@@ -14834,12 +14834,12 @@
         <v>57</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="590" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A590" s="25" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B590" t="s">
         <v>699</v>
@@ -14850,12 +14850,12 @@
         <v>57</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="591" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A591" s="25" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B591" t="s">
         <v>700</v>
@@ -14863,15 +14863,15 @@
       <c r="C591" s="14"/>
       <c r="D591" s="15"/>
       <c r="E591" s="17" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F591" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="592" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A592" s="25" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B592" t="s">
         <v>701</v>
@@ -14879,15 +14879,15 @@
       <c r="C592" s="14"/>
       <c r="D592" s="15"/>
       <c r="E592" s="17" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F592" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="593" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A593" s="25" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B593" t="s">
         <v>702</v>
@@ -14895,15 +14895,15 @@
       <c r="C593" s="14"/>
       <c r="D593" s="15"/>
       <c r="E593" s="17" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F593" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="594" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A594" s="25" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B594" t="s">
         <v>703</v>
@@ -14911,15 +14911,15 @@
       <c r="C594" s="14"/>
       <c r="D594" s="15"/>
       <c r="E594" s="17" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="595" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A595" s="25" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B595" t="s">
         <v>704</v>
@@ -14927,15 +14927,15 @@
       <c r="C595" s="14"/>
       <c r="D595" s="15"/>
       <c r="E595" s="17" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="596" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A596" s="25" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B596" t="s">
         <v>705</v>
@@ -14946,12 +14946,12 @@
         <v>198</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="597" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A597" s="25" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B597" t="s">
         <v>706</v>
@@ -14962,12 +14962,12 @@
         <v>198</v>
       </c>
       <c r="F597" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="598" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A598" s="25" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B598" t="s">
         <v>707</v>
@@ -14978,12 +14978,12 @@
         <v>198</v>
       </c>
       <c r="F598" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="599" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A599" s="25" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B599" t="s">
         <v>708</v>
@@ -14994,12 +14994,12 @@
         <v>198</v>
       </c>
       <c r="F599" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="600" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A600" s="25" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B600" t="s">
         <v>709</v>
@@ -15010,12 +15010,12 @@
         <v>970</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="601" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A601" s="25" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B601" t="s">
         <v>710</v>
@@ -15026,12 +15026,12 @@
         <v>970</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="602" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A602" s="25" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B602" t="s">
         <v>711</v>
@@ -15042,12 +15042,12 @@
         <v>58</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="603" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A603" s="25" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B603" t="s">
         <v>712</v>
@@ -15058,12 +15058,12 @@
         <v>970</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="604" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A604" s="25" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B604" t="s">
         <v>713</v>
@@ -15074,12 +15074,12 @@
         <v>970</v>
       </c>
       <c r="F604" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="605" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A605" s="25" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B605" t="s">
         <v>714</v>
@@ -15090,12 +15090,12 @@
         <v>970</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="606" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A606" s="25" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B606" t="s">
         <v>715</v>
@@ -15106,7 +15106,7 @@
         <v>213</v>
       </c>
       <c r="F606" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="607" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -15122,12 +15122,12 @@
         <v>61</v>
       </c>
       <c r="F607" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="25" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B608" t="s">
         <v>765</v>
@@ -15138,12 +15138,12 @@
         <v>234</v>
       </c>
       <c r="F608" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="25" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B609" t="s">
         <v>766</v>
@@ -15154,12 +15154,12 @@
         <v>234</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="25" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B610" t="s">
         <v>767</v>
@@ -15170,12 +15170,12 @@
         <v>234</v>
       </c>
       <c r="F610" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="25" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B611" t="s">
         <v>768</v>
@@ -15186,12 +15186,12 @@
         <v>234</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="25" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B612" t="s">
         <v>769</v>
@@ -15202,12 +15202,12 @@
         <v>234</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="25" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B613" t="s">
         <v>770</v>
@@ -15218,7 +15218,7 @@
         <v>234</v>
       </c>
       <c r="F613" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
@@ -15232,7 +15232,7 @@
       <c r="D614" s="11"/>
       <c r="E614" s="11"/>
       <c r="F614" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
@@ -15250,7 +15250,7 @@
         <v>842</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
@@ -15268,7 +15268,7 @@
         <v>845</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
@@ -15286,7 +15286,7 @@
         <v>840</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
@@ -15302,7 +15302,7 @@
         <v>841</v>
       </c>
       <c r="F618" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
@@ -15320,7 +15320,7 @@
         <v>848</v>
       </c>
       <c r="F619" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
@@ -15338,25 +15338,25 @@
         <v>836</v>
       </c>
       <c r="F620" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="23" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B621" s="11" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C621" s="11"/>
       <c r="D621" s="11" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E621" s="11" t="s">
         <v>986</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
@@ -15374,7 +15374,7 @@
         <v>836</v>
       </c>
       <c r="F622" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
@@ -15392,7 +15392,7 @@
         <v>836</v>
       </c>
       <c r="F623" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
@@ -15407,10 +15407,10 @@
       </c>
       <c r="D624" s="11"/>
       <c r="E624" s="11" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
@@ -15428,7 +15428,7 @@
         <v>836</v>
       </c>
       <c r="F625" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
@@ -15446,7 +15446,7 @@
         <v>851</v>
       </c>
       <c r="F626" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
@@ -15464,7 +15464,7 @@
         <v>882</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
@@ -15482,7 +15482,7 @@
         <v>885</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
@@ -15500,7 +15500,7 @@
         <v>915</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
@@ -15518,7 +15518,7 @@
         <v>914</v>
       </c>
       <c r="F630" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
@@ -15536,12 +15536,12 @@
         <v>920</v>
       </c>
       <c r="F631" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" s="23" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B632" s="11" t="s">
         <v>897</v>
@@ -15554,7 +15554,7 @@
         <v>895</v>
       </c>
       <c r="F632" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
@@ -15572,7 +15572,7 @@
         <v>835</v>
       </c>
       <c r="F633" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
@@ -15590,7 +15590,7 @@
         <v>923</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
@@ -15608,7 +15608,7 @@
         <v>911</v>
       </c>
       <c r="F635" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
@@ -15626,7 +15626,7 @@
         <v>900</v>
       </c>
       <c r="F636" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
@@ -15644,7 +15644,7 @@
         <v>926</v>
       </c>
       <c r="F637" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
@@ -15662,7 +15662,7 @@
         <v>900</v>
       </c>
       <c r="F638" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
@@ -15680,7 +15680,7 @@
         <v>905</v>
       </c>
       <c r="F639" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
@@ -15698,7 +15698,7 @@
         <v>862</v>
       </c>
       <c r="F640" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
@@ -15716,7 +15716,7 @@
         <v>836</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
@@ -15734,7 +15734,7 @@
         <v>836</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
@@ -15752,12 +15752,12 @@
         <v>836</v>
       </c>
       <c r="F643" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="23" t="s">
-        <v>990</v>
+        <v>1596</v>
       </c>
       <c r="B644" s="11" t="s">
         <v>989</v>
@@ -15770,7 +15770,7 @@
         <v>987</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
@@ -15788,7 +15788,7 @@
         <v>888</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
@@ -15806,7 +15806,7 @@
         <v>974</v>
       </c>
       <c r="F646" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
@@ -15824,7 +15824,7 @@
         <v>978</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
@@ -15842,7 +15842,7 @@
         <v>894</v>
       </c>
       <c r="F648" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
@@ -15858,7 +15858,7 @@
       </c>
       <c r="E649" s="11"/>
       <c r="F649" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
@@ -15876,7 +15876,7 @@
         <v>835</v>
       </c>
       <c r="F650" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
@@ -15894,7 +15894,7 @@
         <v>907</v>
       </c>
       <c r="F651" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
@@ -15912,7 +15912,7 @@
         <v>835</v>
       </c>
       <c r="F652" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
@@ -15930,7 +15930,7 @@
         <v>835</v>
       </c>
       <c r="F653" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
@@ -15948,7 +15948,7 @@
         <v>835</v>
       </c>
       <c r="F654" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
@@ -15966,7 +15966,7 @@
         <v>984</v>
       </c>
       <c r="F655" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
@@ -15974,7 +15974,7 @@
         <v>944</v>
       </c>
       <c r="B656" s="11" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C656" s="11"/>
       <c r="D656" s="11" t="s">
@@ -15984,24 +15984,24 @@
         <v>986</v>
       </c>
       <c r="F656" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" s="23" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B657" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D657" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E657" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F657" s="1" t="s">
         <v>1379</v>
-      </c>
-      <c r="D657" s="3" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E657" s="3" t="s">
-        <v>1596</v>
-      </c>
-      <c r="F657" s="1" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
